--- a/Moonfish Batch Lifetime.xlsx
+++ b/Moonfish Batch Lifetime.xlsx
@@ -1,40 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry.Delalis\PycharmProjects\moonfish_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E44A3-AE99-4349-AA9B-8BC28ED70FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A224C949-C458-42F7-BD92-D669C29950AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch 2 - R423" sheetId="1" r:id="rId1"/>
     <sheet name="FA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
   <si>
+    <t>Moonfish Batch Lifetime</t>
+  </si>
+  <si>
+    <t>Anything in:</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>Not reached test</t>
+  </si>
+  <si>
+    <t>Batch 2</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
     <t>R423</t>
   </si>
   <si>
-    <t>Panel</t>
+    <t>WIP</t>
   </si>
   <si>
-    <t>Cell</t>
+    <t>blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">means </t>
+  </si>
+  <si>
+    <t>Not done yet</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>16th Jan</t>
+  </si>
+  <si>
+    <t>12th Jan -</t>
+  </si>
+  <si>
+    <t>cant remember</t>
+  </si>
+  <si>
+    <t>12-16th Jan</t>
+  </si>
+  <si>
+    <t>12-17th Jan</t>
+  </si>
+  <si>
+    <t>17th Jan</t>
+  </si>
+  <si>
+    <t>17th Jan-</t>
+  </si>
+  <si>
+    <t>16-23th Jan -</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>14 inch Top plate cut</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Singulation (Trotec)</t>
+  </si>
+  <si>
+    <t>Top plate cut 4 corners</t>
+  </si>
+  <si>
+    <t>Bonding (KW)</t>
+  </si>
+  <si>
+    <t>Driving (AC)</t>
+  </si>
+  <si>
+    <t>Status of batch</t>
+  </si>
+  <si>
+    <t>14 inch</t>
+  </si>
+  <si>
+    <t>14 inch (S-G, S-C, G-C exposed)</t>
+  </si>
+  <si>
+    <t>Singulated</t>
+  </si>
+  <si>
+    <t>Type of Test</t>
+  </si>
+  <si>
+    <t>Init. Assesment</t>
+  </si>
+  <si>
+    <t>Images</t>
   </si>
   <si>
     <t>Shorts check</t>
@@ -46,34 +149,13 @@
     <t>TP Continuity</t>
   </si>
   <si>
-    <t>T-V</t>
+    <t>See FA tab</t>
   </si>
   <si>
-    <t>Moonfish Batch Lifetime</t>
+    <t>Content Images</t>
   </si>
   <si>
-    <t>Status of batch</t>
-  </si>
-  <si>
-    <t>14 inch</t>
-  </si>
-  <si>
-    <t>14 inch Top plate cut</t>
-  </si>
-  <si>
-    <t>Batch 2</t>
-  </si>
-  <si>
-    <t>Singulation (Trotec)</t>
-  </si>
-  <si>
-    <t>Top plate cut 4 corners</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>Singulated</t>
+    <t>T-V</t>
   </si>
   <si>
     <t>H-V</t>
@@ -85,103 +167,25 @@
     <t>ELDIM</t>
   </si>
   <si>
-    <t>Content Images</t>
+    <t>Panel</t>
   </si>
   <si>
-    <t>Images</t>
+    <t>Cell</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t/>
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Panel 02 was scrapped due to overbaking</t>
   </si>
   <si>
     <t>All COPs kept in storage until we can drive them</t>
   </si>
   <si>
     <t xml:space="preserve">COP's cant be direct driven </t>
-  </si>
-  <si>
-    <t>Anything in:</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t xml:space="preserve">means </t>
-  </si>
-  <si>
-    <t>Not done yet</t>
-  </si>
-  <si>
-    <t>Timeline</t>
-  </si>
-  <si>
-    <t>Type of Test</t>
-  </si>
-  <si>
-    <t>Init. Assesment</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>16th Jan</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>Not reached test</t>
-  </si>
-  <si>
-    <t>14 inch (S-G, S-C, G-C exposed)</t>
-  </si>
-  <si>
-    <t>12th Jan -</t>
-  </si>
-  <si>
-    <t>12-17th Jan</t>
-  </si>
-  <si>
-    <t>cant remember</t>
-  </si>
-  <si>
-    <t>12-16th Jan</t>
-  </si>
-  <si>
-    <t>17th Jan</t>
-  </si>
-  <si>
-    <t>17th Jan-</t>
-  </si>
-  <si>
-    <t>Bonding (KW)</t>
-  </si>
-  <si>
-    <t>Driving (AC)</t>
-  </si>
-  <si>
-    <t>WIP</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Batch </t>
@@ -193,22 +197,19 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Not bonded, poor quality at DD</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
-    <t>Investigate M1 adhesion</t>
+    <t>Working initially</t>
   </si>
   <si>
     <t xml:space="preserve"> Use to develop test set up</t>
   </si>
   <si>
-    <t>Working initially</t>
+    <t>Contacts delaminated during bonding</t>
   </si>
   <si>
-    <t>Contacts delaminated during bonding</t>
+    <t>Investigate M1 adhesion</t>
   </si>
   <si>
     <t>Not switching</t>
@@ -223,23 +224,17 @@
     <t xml:space="preserve">Create new holder to keep IGD in the dark. </t>
   </si>
   <si>
-    <t>?</t>
+    <t>Not bonded, poor quality at DD</t>
   </si>
   <si>
-    <t>See FA tab</t>
-  </si>
-  <si>
-    <t>Panel 02 was scrapped due to overbaking</t>
-  </si>
-  <si>
-    <t>16-23th Jan -</t>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,14 +318,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,8 +398,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -665,7 +660,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -689,22 +684,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -716,51 +696,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -775,64 +714,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -842,54 +723,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -901,7 +741,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -919,16 +759,116 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -943,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1051,418 +991,184 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1748,118 +1454,118 @@
   <dimension ref="A1:BK53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W55" sqref="W55"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9.1796875" style="1"/>
+    <col min="1" max="4" width="9.1796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.1796875" style="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.36328125" style="1" customWidth="1"/>
-    <col min="10" max="14" width="9.1796875" style="1"/>
+    <col min="10" max="14" width="9.1796875" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.81640625" style="1" customWidth="1"/>
-    <col min="16" max="18" width="9.1796875" style="1"/>
-    <col min="19" max="19" width="9.1796875" style="1" customWidth="1"/>
-    <col min="20" max="21" width="9.1796875" style="1"/>
+    <col min="16" max="21" width="9.1796875" style="1" customWidth="1"/>
     <col min="22" max="22" width="3.7265625" style="1" customWidth="1"/>
     <col min="23" max="23" width="25.1796875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1796875" style="1"/>
+    <col min="24" max="24" width="9.1796875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="F1" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="120"/>
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="F1" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="56"/>
       <c r="H1" s="21"/>
       <c r="I1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="121" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="122"/>
+        <v>2</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="57"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
-      <c r="F2" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="57"/>
+      <c r="A2" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="70"/>
+      <c r="F2" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="87"/>
       <c r="H2" s="22"/>
       <c r="I2" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="59"/>
+        <v>2</v>
+      </c>
+      <c r="J2" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:63" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="F3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="57"/>
+      <c r="A3" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="F3" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="87"/>
       <c r="H3" s="32"/>
       <c r="I3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="59"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="57"/>
+      <c r="F4" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="87"/>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="66"/>
+        <v>9</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="70"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F5" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="41"/>
+      <c r="F5" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="59"/>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="43"/>
+        <v>9</v>
+      </c>
+      <c r="J5" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="60"/>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1871,158 +1577,158 @@
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="D7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
+      <c r="A7" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="D7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
       <c r="W7" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="X7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC7" s="39"/>
-      <c r="BD7" s="39"/>
-      <c r="BE7" s="39"/>
-      <c r="BF7" s="39"/>
-      <c r="BG7" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="39"/>
+        <v>15</v>
+      </c>
+      <c r="X7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="59"/>
+      <c r="AM7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="52"/>
+      <c r="BB7" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="BH7" s="52"/>
+      <c r="BI7" s="52"/>
+      <c r="BJ7" s="52"/>
+      <c r="BK7" s="52"/>
     </row>
     <row r="8" spans="1:63" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="61"/>
-      <c r="V8" s="67"/>
+      <c r="A8" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="83"/>
+      <c r="H8" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="83"/>
+      <c r="J8" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="62"/>
+      <c r="V8" s="83"/>
       <c r="W8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="X8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="139"/>
-      <c r="AE8" s="139"/>
-      <c r="AF8" s="139"/>
-      <c r="AG8" s="140"/>
-      <c r="AH8" s="138"/>
-      <c r="AI8" s="139"/>
-      <c r="AJ8" s="139"/>
-      <c r="AK8" s="139"/>
-      <c r="AL8" s="140"/>
+        <v>23</v>
+      </c>
+      <c r="X8" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="47"/>
       <c r="AM8" s="25"/>
       <c r="AN8" s="25"/>
       <c r="AO8" s="25"/>
@@ -2050,533 +1756,533 @@
       <c r="BK8" s="26"/>
     </row>
     <row r="9" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="U9" s="81"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="132" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD9" s="133"/>
-      <c r="AE9" s="133"/>
-      <c r="AF9" s="133"/>
-      <c r="AG9" s="134"/>
-      <c r="AH9" s="132" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI9" s="133"/>
-      <c r="AJ9" s="133"/>
-      <c r="AK9" s="133"/>
-      <c r="AL9" s="134"/>
-      <c r="AM9" s="147"/>
-      <c r="AN9" s="148"/>
-      <c r="AO9" s="148"/>
-      <c r="AP9" s="148"/>
-      <c r="AQ9" s="148"/>
-      <c r="AR9" s="148"/>
-      <c r="AS9" s="148"/>
-      <c r="AT9" s="148"/>
-      <c r="AU9" s="148"/>
-      <c r="AV9" s="148"/>
-      <c r="AW9" s="148"/>
-      <c r="AX9" s="148"/>
-      <c r="AY9" s="148"/>
-      <c r="AZ9" s="148"/>
-      <c r="BA9" s="148"/>
-      <c r="BB9" s="148"/>
-      <c r="BC9" s="148"/>
-      <c r="BD9" s="148"/>
-      <c r="BE9" s="148"/>
-      <c r="BF9" s="148"/>
-      <c r="BG9" s="148"/>
-      <c r="BH9" s="148"/>
-      <c r="BI9" s="148"/>
-      <c r="BJ9" s="148"/>
-      <c r="BK9" s="149"/>
+      <c r="A9" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="70"/>
+      <c r="J9" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="87"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="56"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="56"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="56"/>
+      <c r="BD9" s="56"/>
+      <c r="BE9" s="56"/>
+      <c r="BF9" s="56"/>
+      <c r="BG9" s="56"/>
+      <c r="BH9" s="56"/>
+      <c r="BI9" s="56"/>
+      <c r="BJ9" s="56"/>
+      <c r="BK9" s="57"/>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="145"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="146"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="145"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="146"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="85"/>
-      <c r="AM10" s="144"/>
-      <c r="AN10" s="145"/>
-      <c r="AO10" s="145"/>
-      <c r="AP10" s="145"/>
-      <c r="AQ10" s="145"/>
-      <c r="AR10" s="145"/>
-      <c r="AS10" s="145"/>
-      <c r="AT10" s="145"/>
-      <c r="AU10" s="145"/>
-      <c r="AV10" s="145"/>
-      <c r="AW10" s="145"/>
-      <c r="AX10" s="145"/>
-      <c r="AY10" s="145"/>
-      <c r="AZ10" s="145"/>
-      <c r="BA10" s="145"/>
-      <c r="BB10" s="145"/>
-      <c r="BC10" s="145"/>
-      <c r="BD10" s="145"/>
-      <c r="BE10" s="145"/>
-      <c r="BF10" s="145"/>
-      <c r="BG10" s="145"/>
-      <c r="BH10" s="145"/>
-      <c r="BI10" s="145"/>
-      <c r="BJ10" s="145"/>
-      <c r="BK10" s="146"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="58"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="59"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="59"/>
+      <c r="BG10" s="59"/>
+      <c r="BH10" s="59"/>
+      <c r="BI10" s="59"/>
+      <c r="BJ10" s="59"/>
+      <c r="BK10" s="60"/>
     </row>
     <row r="11" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
+      <c r="A11" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="70"/>
-      <c r="X11" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-      <c r="BC11" s="69"/>
-      <c r="BD11" s="69"/>
-      <c r="BE11" s="69"/>
-      <c r="BF11" s="69"/>
-      <c r="BG11" s="69"/>
-      <c r="BH11" s="69"/>
-      <c r="BI11" s="69"/>
-      <c r="BJ11" s="69"/>
-      <c r="BK11" s="70"/>
+      <c r="J11" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="X11" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="56"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="56"/>
+      <c r="BA11" s="56"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="56"/>
+      <c r="BE11" s="56"/>
+      <c r="BF11" s="56"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="56"/>
+      <c r="BI11" s="56"/>
+      <c r="BJ11" s="56"/>
+      <c r="BK11" s="57"/>
     </row>
     <row r="12" spans="1:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="86"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="73"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="72"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="72"/>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="72"/>
-      <c r="AY12" s="72"/>
-      <c r="AZ12" s="72"/>
-      <c r="BA12" s="72"/>
-      <c r="BB12" s="72"/>
-      <c r="BC12" s="72"/>
-      <c r="BD12" s="72"/>
-      <c r="BE12" s="72"/>
-      <c r="BF12" s="72"/>
-      <c r="BG12" s="72"/>
-      <c r="BH12" s="72"/>
-      <c r="BI12" s="72"/>
-      <c r="BJ12" s="72"/>
-      <c r="BK12" s="73"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="60"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="59"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="59"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59"/>
+      <c r="BJ12" s="59"/>
+      <c r="BK12" s="60"/>
     </row>
     <row r="13" spans="1:63" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="118"/>
+      <c r="A13" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="70"/>
+      <c r="F13" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="47"/>
       <c r="H13" s="10"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="93"/>
+      <c r="J13" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="70"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
-      <c r="X13" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="93"/>
+      <c r="X13" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="70"/>
       <c r="AC13" s="19"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
-      <c r="AH13" s="135" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI13" s="136"/>
-      <c r="AJ13" s="136"/>
-      <c r="AK13" s="136"/>
-      <c r="AL13" s="137"/>
-      <c r="AM13" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="103"/>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="104"/>
-      <c r="AR13" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="103"/>
-      <c r="AU13" s="103"/>
-      <c r="AV13" s="104"/>
-      <c r="AW13" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX13" s="103"/>
-      <c r="AY13" s="103"/>
-      <c r="AZ13" s="103"/>
-      <c r="BA13" s="104"/>
-      <c r="BB13" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC13" s="103"/>
-      <c r="BD13" s="103"/>
-      <c r="BE13" s="103"/>
-      <c r="BF13" s="104"/>
-      <c r="BG13" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH13" s="103"/>
-      <c r="BI13" s="103"/>
-      <c r="BJ13" s="103"/>
-      <c r="BK13" s="104"/>
-    </row>
-    <row r="14" spans="1:63" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="128"/>
+      <c r="AH13" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="60"/>
+      <c r="AR13" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="60"/>
+      <c r="BB13" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="60"/>
+      <c r="BG13" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="59"/>
+      <c r="BJ13" s="59"/>
+      <c r="BK13" s="60"/>
+    </row>
+    <row r="14" spans="1:63" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="H14" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="47"/>
       <c r="J14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" s="46"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
+      <c r="AQ14" s="47"/>
+      <c r="AR14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="47"/>
+      <c r="AW14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="47"/>
+      <c r="BB14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="46"/>
+      <c r="BF14" s="47"/>
+      <c r="BG14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI14" s="46"/>
+      <c r="BJ14" s="46"/>
+      <c r="BK14" s="47"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="D15" s="67">
+        <v>1</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="67">
+        <v>1</v>
+      </c>
+      <c r="G15" s="68"/>
+      <c r="H15" s="67">
+        <v>1</v>
+      </c>
+      <c r="I15" s="68"/>
+      <c r="J15" s="79">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="150" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" s="151"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="105"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="105"/>
-      <c r="AK14" s="105"/>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="105"/>
-      <c r="AQ14" s="106"/>
-      <c r="AR14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT14" s="105"/>
-      <c r="AU14" s="105"/>
-      <c r="AV14" s="106"/>
-      <c r="AW14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY14" s="105"/>
-      <c r="AZ14" s="105"/>
-      <c r="BA14" s="106"/>
-      <c r="BB14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC14" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD14" s="105"/>
-      <c r="BE14" s="105"/>
-      <c r="BF14" s="106"/>
-      <c r="BG14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH14" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI14" s="105"/>
-      <c r="BJ14" s="105"/>
-      <c r="BK14" s="106"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="D15" s="153">
-        <v>1</v>
-      </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="153">
-        <v>1</v>
-      </c>
-      <c r="G15" s="155"/>
-      <c r="H15" s="153">
-        <v>1</v>
-      </c>
-      <c r="I15" s="155"/>
-      <c r="J15" s="88">
-        <v>1</v>
-      </c>
-      <c r="K15" s="162">
-        <v>1</v>
-      </c>
-      <c r="L15" s="163">
-        <v>2</v>
-      </c>
-      <c r="M15" s="163">
-        <v>3</v>
-      </c>
-      <c r="N15" s="164">
-        <v>4</v>
-      </c>
-      <c r="O15" s="88">
-        <v>1</v>
-      </c>
-      <c r="P15" s="168">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="170" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="169">
-        <v>4</v>
-      </c>
-      <c r="T15" s="153">
-        <v>1</v>
-      </c>
-      <c r="U15" s="171"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="172">
-        <v>1</v>
-      </c>
-      <c r="X15" s="111">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="162">
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4</v>
+      </c>
+      <c r="O15" s="79">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="8">
+        <v>4</v>
+      </c>
+      <c r="T15" s="67">
+        <v>1</v>
+      </c>
+      <c r="U15" s="112"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="39">
+        <v>1</v>
+      </c>
+      <c r="X15" s="89">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
         <v>1</v>
       </c>
       <c r="Z15" s="1">
@@ -2585,25 +2291,25 @@
       <c r="AA15" s="1">
         <v>3</v>
       </c>
-      <c r="AB15" s="164">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="100">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="168">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="169">
+      <c r="AB15" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="48">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="8">
         <v>2</v>
       </c>
-      <c r="AF15" s="169">
-        <v>3</v>
-      </c>
-      <c r="AG15" s="170">
-        <v>4</v>
-      </c>
-      <c r="AH15" s="100">
+      <c r="AF15" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="48">
         <v>1</v>
       </c>
       <c r="AI15" s="7">
@@ -2618,7 +2324,7 @@
       <c r="AL15" s="9">
         <v>4</v>
       </c>
-      <c r="AM15" s="100">
+      <c r="AM15" s="48">
         <v>1</v>
       </c>
       <c r="AN15" s="2">
@@ -2633,7 +2339,7 @@
       <c r="AQ15" s="3">
         <v>4</v>
       </c>
-      <c r="AR15" s="100">
+      <c r="AR15" s="48">
         <v>1</v>
       </c>
       <c r="AS15" s="2">
@@ -2648,7 +2354,7 @@
       <c r="AV15" s="3">
         <v>4</v>
       </c>
-      <c r="AW15" s="100">
+      <c r="AW15" s="48">
         <v>1</v>
       </c>
       <c r="AX15" s="2">
@@ -2663,7 +2369,7 @@
       <c r="BA15" s="3">
         <v>4</v>
       </c>
-      <c r="BB15" s="100">
+      <c r="BB15" s="48">
         <v>1</v>
       </c>
       <c r="BC15" s="2">
@@ -2678,7 +2384,7 @@
       <c r="BF15" s="3">
         <v>4</v>
       </c>
-      <c r="BG15" s="100">
+      <c r="BG15" s="48">
         <v>1</v>
       </c>
       <c r="BH15" s="2">
@@ -2695,79 +2401,79 @@
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="D16" s="156">
+      <c r="D16" s="53">
         <v>2</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="156">
+      <c r="E16" s="54"/>
+      <c r="F16" s="53">
         <v>2</v>
       </c>
-      <c r="G16" s="158"/>
-      <c r="H16" s="156">
+      <c r="G16" s="54"/>
+      <c r="H16" s="53">
         <v>2</v>
       </c>
-      <c r="I16" s="158"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="162">
-        <v>5</v>
-      </c>
-      <c r="L16" s="163">
-        <v>6</v>
-      </c>
-      <c r="M16" s="163">
+      <c r="I16" s="54"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="2">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1">
         <v>7</v>
       </c>
-      <c r="N16" s="164">
+      <c r="N16" s="3">
         <v>8</v>
       </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="162">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="163">
+      <c r="O16" s="49"/>
+      <c r="P16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="1">
         <v>8</v>
       </c>
-      <c r="T16" s="156">
+      <c r="T16" s="53">
         <v>2</v>
       </c>
-      <c r="U16" s="173"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="174">
+      <c r="U16" s="95"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="40">
         <v>2</v>
       </c>
-      <c r="X16" s="112"/>
-      <c r="Y16" s="162">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="163">
-        <v>6</v>
-      </c>
-      <c r="AA16" s="163">
+      <c r="X16" s="70"/>
+      <c r="Y16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="1">
         <v>7</v>
       </c>
-      <c r="AB16" s="164">
+      <c r="AB16" s="3">
         <v>8</v>
       </c>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="162">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="163">
-        <v>6</v>
-      </c>
-      <c r="AF16" s="163">
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="1">
         <v>7</v>
       </c>
-      <c r="AG16" s="164">
+      <c r="AG16" s="3">
         <v>8</v>
       </c>
-      <c r="AH16" s="101"/>
+      <c r="AH16" s="49"/>
       <c r="AI16" s="2">
         <v>5</v>
       </c>
@@ -2780,7 +2486,7 @@
       <c r="AL16" s="3">
         <v>8</v>
       </c>
-      <c r="AM16" s="101"/>
+      <c r="AM16" s="49"/>
       <c r="AN16" s="2">
         <v>5</v>
       </c>
@@ -2793,7 +2499,7 @@
       <c r="AQ16" s="3">
         <v>8</v>
       </c>
-      <c r="AR16" s="101"/>
+      <c r="AR16" s="49"/>
       <c r="AS16" s="2">
         <v>5</v>
       </c>
@@ -2806,7 +2512,7 @@
       <c r="AV16" s="3">
         <v>8</v>
       </c>
-      <c r="AW16" s="101"/>
+      <c r="AW16" s="49"/>
       <c r="AX16" s="2">
         <v>5</v>
       </c>
@@ -2819,7 +2525,7 @@
       <c r="BA16" s="3">
         <v>8</v>
       </c>
-      <c r="BB16" s="101"/>
+      <c r="BB16" s="49"/>
       <c r="BC16" s="2">
         <v>5</v>
       </c>
@@ -2832,7 +2538,7 @@
       <c r="BF16" s="3">
         <v>8</v>
       </c>
-      <c r="BG16" s="101"/>
+      <c r="BG16" s="49"/>
       <c r="BH16" s="2">
         <v>5</v>
       </c>
@@ -2847,79 +2553,79 @@
       </c>
     </row>
     <row r="17" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="D17" s="156">
-        <v>3</v>
-      </c>
-      <c r="E17" s="157"/>
-      <c r="F17" s="156">
-        <v>3</v>
-      </c>
-      <c r="G17" s="158"/>
-      <c r="H17" s="156">
-        <v>3</v>
-      </c>
-      <c r="I17" s="158"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="162">
+      <c r="D17" s="53">
+        <v>3</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53">
+        <v>3</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="53">
+        <v>3</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="2">
         <v>9</v>
       </c>
-      <c r="L17" s="163">
+      <c r="L17" s="1">
         <v>10</v>
       </c>
-      <c r="M17" s="163">
-        <v>11</v>
-      </c>
-      <c r="N17" s="164">
+      <c r="M17" s="1">
+        <v>11</v>
+      </c>
+      <c r="N17" s="3">
         <v>12</v>
       </c>
-      <c r="O17" s="89"/>
-      <c r="P17" s="162">
+      <c r="O17" s="49"/>
+      <c r="P17" s="2">
         <v>9</v>
       </c>
-      <c r="Q17" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="163">
+      <c r="Q17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" s="1">
         <v>12</v>
       </c>
-      <c r="T17" s="156">
-        <v>3</v>
-      </c>
-      <c r="U17" s="173"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="174">
-        <v>3</v>
-      </c>
-      <c r="X17" s="112"/>
-      <c r="Y17" s="162">
+      <c r="T17" s="53">
+        <v>3</v>
+      </c>
+      <c r="U17" s="95"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="40">
+        <v>3</v>
+      </c>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="2">
         <v>9</v>
       </c>
-      <c r="Z17" s="163">
+      <c r="Z17" s="1">
         <v>10</v>
       </c>
-      <c r="AA17" s="163">
-        <v>11</v>
-      </c>
-      <c r="AB17" s="164">
+      <c r="AA17" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB17" s="3">
         <v>12</v>
       </c>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="162">
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="2">
         <v>9</v>
       </c>
-      <c r="AE17" s="163">
+      <c r="AE17" s="1">
         <v>10</v>
       </c>
-      <c r="AF17" s="163">
-        <v>11</v>
-      </c>
-      <c r="AG17" s="164">
+      <c r="AF17" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG17" s="3">
         <v>12</v>
       </c>
-      <c r="AH17" s="101"/>
+      <c r="AH17" s="49"/>
       <c r="AI17" s="2">
         <v>9</v>
       </c>
@@ -2932,7 +2638,7 @@
       <c r="AL17" s="3">
         <v>12</v>
       </c>
-      <c r="AM17" s="101"/>
+      <c r="AM17" s="49"/>
       <c r="AN17" s="2">
         <v>9</v>
       </c>
@@ -2945,7 +2651,7 @@
       <c r="AQ17" s="3">
         <v>12</v>
       </c>
-      <c r="AR17" s="101"/>
+      <c r="AR17" s="49"/>
       <c r="AS17" s="2">
         <v>9</v>
       </c>
@@ -2958,7 +2664,7 @@
       <c r="AV17" s="3">
         <v>12</v>
       </c>
-      <c r="AW17" s="101"/>
+      <c r="AW17" s="49"/>
       <c r="AX17" s="2">
         <v>9</v>
       </c>
@@ -2971,7 +2677,7 @@
       <c r="BA17" s="3">
         <v>12</v>
       </c>
-      <c r="BB17" s="101"/>
+      <c r="BB17" s="49"/>
       <c r="BC17" s="2">
         <v>9</v>
       </c>
@@ -2984,7 +2690,7 @@
       <c r="BF17" s="3">
         <v>12</v>
       </c>
-      <c r="BG17" s="101"/>
+      <c r="BG17" s="49"/>
       <c r="BH17" s="2">
         <v>9</v>
       </c>
@@ -2999,79 +2705,79 @@
       </c>
     </row>
     <row r="18" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="D18" s="156">
-        <v>4</v>
-      </c>
-      <c r="E18" s="157"/>
-      <c r="F18" s="156">
-        <v>4</v>
-      </c>
-      <c r="G18" s="158"/>
-      <c r="H18" s="156">
-        <v>4</v>
-      </c>
-      <c r="I18" s="158"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="162">
+      <c r="D18" s="53">
+        <v>4</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53">
+        <v>4</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="53">
+        <v>4</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="2">
         <v>13</v>
       </c>
-      <c r="L18" s="163">
+      <c r="L18" s="1">
         <v>14</v>
       </c>
-      <c r="M18" s="163">
+      <c r="M18" s="1">
         <v>15</v>
       </c>
-      <c r="N18" s="164">
+      <c r="N18" s="3">
         <v>16</v>
       </c>
-      <c r="O18" s="89"/>
-      <c r="P18" s="162">
+      <c r="O18" s="49"/>
+      <c r="P18" s="2">
         <v>13</v>
       </c>
-      <c r="Q18" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="163">
+      <c r="Q18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="1">
         <v>16</v>
       </c>
-      <c r="T18" s="156">
-        <v>4</v>
-      </c>
-      <c r="U18" s="173"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="174">
-        <v>4</v>
-      </c>
-      <c r="X18" s="112"/>
-      <c r="Y18" s="162">
+      <c r="T18" s="53">
+        <v>4</v>
+      </c>
+      <c r="U18" s="95"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="40">
+        <v>4</v>
+      </c>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="2">
         <v>13</v>
       </c>
-      <c r="Z18" s="163">
+      <c r="Z18" s="1">
         <v>14</v>
       </c>
-      <c r="AA18" s="163">
+      <c r="AA18" s="1">
         <v>15</v>
       </c>
-      <c r="AB18" s="164">
+      <c r="AB18" s="3">
         <v>16</v>
       </c>
-      <c r="AC18" s="101"/>
-      <c r="AD18" s="162">
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="2">
         <v>13</v>
       </c>
-      <c r="AE18" s="163">
+      <c r="AE18" s="1">
         <v>14</v>
       </c>
-      <c r="AF18" s="163">
+      <c r="AF18" s="1">
         <v>15</v>
       </c>
-      <c r="AG18" s="164">
+      <c r="AG18" s="3">
         <v>16</v>
       </c>
-      <c r="AH18" s="101"/>
+      <c r="AH18" s="49"/>
       <c r="AI18" s="2">
         <v>13</v>
       </c>
@@ -3084,7 +2790,7 @@
       <c r="AL18" s="3">
         <v>16</v>
       </c>
-      <c r="AM18" s="101"/>
+      <c r="AM18" s="49"/>
       <c r="AN18" s="2">
         <v>13</v>
       </c>
@@ -3097,7 +2803,7 @@
       <c r="AQ18" s="3">
         <v>16</v>
       </c>
-      <c r="AR18" s="101"/>
+      <c r="AR18" s="49"/>
       <c r="AS18" s="2">
         <v>13</v>
       </c>
@@ -3110,7 +2816,7 @@
       <c r="AV18" s="3">
         <v>16</v>
       </c>
-      <c r="AW18" s="101"/>
+      <c r="AW18" s="49"/>
       <c r="AX18" s="2">
         <v>13</v>
       </c>
@@ -3123,7 +2829,7 @@
       <c r="BA18" s="3">
         <v>16</v>
       </c>
-      <c r="BB18" s="101"/>
+      <c r="BB18" s="49"/>
       <c r="BC18" s="2">
         <v>13</v>
       </c>
@@ -3136,7 +2842,7 @@
       <c r="BF18" s="3">
         <v>16</v>
       </c>
-      <c r="BG18" s="101"/>
+      <c r="BG18" s="49"/>
       <c r="BH18" s="2">
         <v>13</v>
       </c>
@@ -3150,80 +2856,80 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:63" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="156">
-        <v>5</v>
-      </c>
-      <c r="E19" s="157"/>
-      <c r="F19" s="156">
-        <v>5</v>
-      </c>
-      <c r="G19" s="158"/>
-      <c r="H19" s="156">
-        <v>5</v>
-      </c>
-      <c r="I19" s="158"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="165">
+    <row r="19" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="53">
+        <v>5</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53">
+        <v>5</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="53">
+        <v>5</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="4">
         <v>17</v>
       </c>
-      <c r="L19" s="166">
+      <c r="L19" s="5">
         <v>18</v>
       </c>
-      <c r="M19" s="166">
+      <c r="M19" s="5">
         <v>19</v>
       </c>
-      <c r="N19" s="167">
+      <c r="N19" s="6">
         <v>20</v>
       </c>
-      <c r="O19" s="90"/>
-      <c r="P19" s="165">
+      <c r="O19" s="50"/>
+      <c r="P19" s="4">
         <v>17</v>
       </c>
-      <c r="Q19" s="165" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="166">
+      <c r="Q19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="5">
         <v>20</v>
       </c>
-      <c r="T19" s="156">
-        <v>5</v>
-      </c>
-      <c r="U19" s="173"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="174">
-        <v>5</v>
-      </c>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="165">
+      <c r="T19" s="53">
+        <v>5</v>
+      </c>
+      <c r="U19" s="95"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="40">
+        <v>5</v>
+      </c>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="4">
         <v>17</v>
       </c>
-      <c r="Z19" s="166">
+      <c r="Z19" s="5">
         <v>18</v>
       </c>
-      <c r="AA19" s="166">
+      <c r="AA19" s="5">
         <v>19</v>
       </c>
-      <c r="AB19" s="167">
+      <c r="AB19" s="6">
         <v>20</v>
       </c>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="165">
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="4">
         <v>17</v>
       </c>
-      <c r="AE19" s="166">
+      <c r="AE19" s="5">
         <v>18</v>
       </c>
-      <c r="AF19" s="166">
+      <c r="AF19" s="5">
         <v>19</v>
       </c>
-      <c r="AG19" s="167">
+      <c r="AG19" s="6">
         <v>20</v>
       </c>
-      <c r="AH19" s="107"/>
+      <c r="AH19" s="50"/>
       <c r="AI19" s="4">
         <v>17</v>
       </c>
@@ -3236,7 +2942,7 @@
       <c r="AL19" s="6">
         <v>20</v>
       </c>
-      <c r="AM19" s="107"/>
+      <c r="AM19" s="50"/>
       <c r="AN19" s="4">
         <v>17</v>
       </c>
@@ -3249,7 +2955,7 @@
       <c r="AQ19" s="6">
         <v>20</v>
       </c>
-      <c r="AR19" s="107"/>
+      <c r="AR19" s="50"/>
       <c r="AS19" s="4">
         <v>17</v>
       </c>
@@ -3262,7 +2968,7 @@
       <c r="AV19" s="6">
         <v>20</v>
       </c>
-      <c r="AW19" s="107"/>
+      <c r="AW19" s="50"/>
       <c r="AX19" s="4">
         <v>17</v>
       </c>
@@ -3275,7 +2981,7 @@
       <c r="BA19" s="6">
         <v>20</v>
       </c>
-      <c r="BB19" s="107"/>
+      <c r="BB19" s="50"/>
       <c r="BC19" s="4">
         <v>17</v>
       </c>
@@ -3288,7 +2994,7 @@
       <c r="BF19" s="6">
         <v>20</v>
       </c>
-      <c r="BG19" s="107"/>
+      <c r="BG19" s="50"/>
       <c r="BH19" s="4">
         <v>17</v>
       </c>
@@ -3302,768 +3008,768 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="4:63" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="159">
-        <v>6</v>
-      </c>
-      <c r="E20" s="160"/>
-      <c r="F20" s="159">
-        <v>6</v>
-      </c>
-      <c r="G20" s="161"/>
-      <c r="H20" s="159">
-        <v>6</v>
-      </c>
-      <c r="I20" s="161"/>
-      <c r="J20" s="88">
+    <row r="20" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="43">
+        <v>6</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="43">
+        <v>6</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="43">
+        <v>6</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="79">
         <v>2</v>
       </c>
-      <c r="K20" s="168">
-        <v>1</v>
-      </c>
-      <c r="L20" s="169">
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8">
         <v>2</v>
       </c>
-      <c r="M20" s="169">
-        <v>3</v>
-      </c>
-      <c r="N20" s="170">
-        <v>4</v>
-      </c>
-      <c r="O20" s="88">
+      <c r="M20" s="8">
+        <v>3</v>
+      </c>
+      <c r="N20" s="9">
+        <v>4</v>
+      </c>
+      <c r="O20" s="79">
         <v>2</v>
       </c>
-      <c r="P20" s="168">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="R20" s="170" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="169">
-        <v>4</v>
-      </c>
-      <c r="T20" s="159">
-        <v>6</v>
-      </c>
-      <c r="U20" s="175"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="176">
-        <v>6</v>
-      </c>
-      <c r="X20" s="111">
+      <c r="P20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="8">
+        <v>4</v>
+      </c>
+      <c r="T20" s="43">
+        <v>6</v>
+      </c>
+      <c r="U20" s="81"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="41">
+        <v>6</v>
+      </c>
+      <c r="X20" s="89">
         <v>2</v>
       </c>
-      <c r="Y20" s="168">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="169">
+      <c r="Y20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="8">
         <v>2</v>
       </c>
-      <c r="AA20" s="169">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="170">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="100">
+      <c r="AA20" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="48">
         <v>2</v>
       </c>
-      <c r="AD20" s="168">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="169">
+      <c r="AD20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="8">
         <v>2</v>
       </c>
-      <c r="AF20" s="169">
-        <v>3</v>
-      </c>
-      <c r="AG20" s="170">
-        <v>4</v>
-      </c>
-      <c r="AH20" s="100">
+      <c r="AF20" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH20" s="48">
         <v>2</v>
       </c>
-      <c r="AI20" s="168">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="169">
+      <c r="AI20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="8">
         <v>2</v>
       </c>
-      <c r="AK20" s="169">
-        <v>3</v>
-      </c>
-      <c r="AL20" s="170">
-        <v>4</v>
-      </c>
-      <c r="AM20" s="100">
+      <c r="AK20" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL20" s="9">
+        <v>4</v>
+      </c>
+      <c r="AM20" s="48">
         <v>2</v>
       </c>
-      <c r="AN20" s="168">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="169">
+      <c r="AN20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="8">
         <v>2</v>
       </c>
-      <c r="AP20" s="169">
-        <v>3</v>
-      </c>
-      <c r="AQ20" s="170">
-        <v>4</v>
-      </c>
-      <c r="AR20" s="100">
+      <c r="AP20" s="8">
+        <v>3</v>
+      </c>
+      <c r="AQ20" s="9">
+        <v>4</v>
+      </c>
+      <c r="AR20" s="48">
         <v>2</v>
       </c>
-      <c r="AS20" s="168">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="169">
+      <c r="AS20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="8">
         <v>2</v>
       </c>
-      <c r="AU20" s="169">
-        <v>3</v>
-      </c>
-      <c r="AV20" s="170">
-        <v>4</v>
-      </c>
-      <c r="AW20" s="100">
+      <c r="AU20" s="8">
+        <v>3</v>
+      </c>
+      <c r="AV20" s="9">
+        <v>4</v>
+      </c>
+      <c r="AW20" s="48">
         <v>2</v>
       </c>
-      <c r="AX20" s="168">
-        <v>1</v>
-      </c>
-      <c r="AY20" s="169">
+      <c r="AX20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="8">
         <v>2</v>
       </c>
-      <c r="AZ20" s="169">
-        <v>3</v>
-      </c>
-      <c r="BA20" s="170">
-        <v>4</v>
-      </c>
-      <c r="BB20" s="100">
+      <c r="AZ20" s="8">
+        <v>3</v>
+      </c>
+      <c r="BA20" s="9">
+        <v>4</v>
+      </c>
+      <c r="BB20" s="48">
         <v>2</v>
       </c>
-      <c r="BC20" s="168">
-        <v>1</v>
-      </c>
-      <c r="BD20" s="169">
+      <c r="BC20" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="8">
         <v>2</v>
       </c>
-      <c r="BE20" s="169">
-        <v>3</v>
-      </c>
-      <c r="BF20" s="170">
-        <v>4</v>
-      </c>
-      <c r="BG20" s="100">
+      <c r="BE20" s="8">
+        <v>3</v>
+      </c>
+      <c r="BF20" s="9">
+        <v>4</v>
+      </c>
+      <c r="BG20" s="48">
         <v>2</v>
       </c>
-      <c r="BH20" s="168">
-        <v>1</v>
-      </c>
-      <c r="BI20" s="169">
+      <c r="BH20" s="7">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="8">
         <v>2</v>
       </c>
-      <c r="BJ20" s="169">
-        <v>3</v>
-      </c>
-      <c r="BK20" s="170">
+      <c r="BJ20" s="8">
+        <v>3</v>
+      </c>
+      <c r="BK20" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J21" s="89"/>
-      <c r="K21" s="162">
-        <v>5</v>
-      </c>
-      <c r="L21" s="163">
-        <v>6</v>
-      </c>
-      <c r="M21" s="163">
+      <c r="J21" s="49"/>
+      <c r="K21" s="2">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1">
+        <v>6</v>
+      </c>
+      <c r="M21" s="1">
         <v>7</v>
       </c>
-      <c r="N21" s="164">
+      <c r="N21" s="3">
         <v>8</v>
       </c>
-      <c r="O21" s="89"/>
-      <c r="P21" s="162">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" s="164">
+      <c r="O21" s="49"/>
+      <c r="P21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="3">
         <v>8</v>
       </c>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="162">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="163">
-        <v>6</v>
-      </c>
-      <c r="AA21" s="163">
+      <c r="X21" s="70"/>
+      <c r="Y21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="1">
         <v>7</v>
       </c>
-      <c r="AB21" s="164">
+      <c r="AB21" s="3">
         <v>8</v>
       </c>
-      <c r="AC21" s="101"/>
-      <c r="AD21" s="162">
-        <v>5</v>
-      </c>
-      <c r="AE21" s="163">
-        <v>6</v>
-      </c>
-      <c r="AF21" s="163">
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF21" s="1">
         <v>7</v>
       </c>
-      <c r="AG21" s="164">
+      <c r="AG21" s="3">
         <v>8</v>
       </c>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="162">
-        <v>5</v>
-      </c>
-      <c r="AJ21" s="163">
-        <v>6</v>
-      </c>
-      <c r="AK21" s="163">
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK21" s="1">
         <v>7</v>
       </c>
-      <c r="AL21" s="164">
+      <c r="AL21" s="3">
         <v>8</v>
       </c>
-      <c r="AM21" s="101"/>
-      <c r="AN21" s="162">
-        <v>5</v>
-      </c>
-      <c r="AO21" s="163">
-        <v>6</v>
-      </c>
-      <c r="AP21" s="163">
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP21" s="1">
         <v>7</v>
       </c>
-      <c r="AQ21" s="164">
+      <c r="AQ21" s="3">
         <v>8</v>
       </c>
-      <c r="AR21" s="101"/>
-      <c r="AS21" s="162">
-        <v>5</v>
-      </c>
-      <c r="AT21" s="163">
-        <v>6</v>
-      </c>
-      <c r="AU21" s="163">
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU21" s="1">
         <v>7</v>
       </c>
-      <c r="AV21" s="164">
+      <c r="AV21" s="3">
         <v>8</v>
       </c>
-      <c r="AW21" s="101"/>
-      <c r="AX21" s="162">
-        <v>5</v>
-      </c>
-      <c r="AY21" s="163">
-        <v>6</v>
-      </c>
-      <c r="AZ21" s="163">
+      <c r="AW21" s="49"/>
+      <c r="AX21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ21" s="1">
         <v>7</v>
       </c>
-      <c r="BA21" s="164">
+      <c r="BA21" s="3">
         <v>8</v>
       </c>
-      <c r="BB21" s="101"/>
-      <c r="BC21" s="162">
-        <v>5</v>
-      </c>
-      <c r="BD21" s="163">
-        <v>6</v>
-      </c>
-      <c r="BE21" s="163">
+      <c r="BB21" s="49"/>
+      <c r="BC21" s="2">
+        <v>5</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE21" s="1">
         <v>7</v>
       </c>
-      <c r="BF21" s="164">
+      <c r="BF21" s="3">
         <v>8</v>
       </c>
-      <c r="BG21" s="101"/>
-      <c r="BH21" s="162">
-        <v>5</v>
-      </c>
-      <c r="BI21" s="163">
-        <v>6</v>
-      </c>
-      <c r="BJ21" s="163">
+      <c r="BG21" s="49"/>
+      <c r="BH21" s="2">
+        <v>5</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ21" s="1">
         <v>7</v>
       </c>
-      <c r="BK21" s="164">
+      <c r="BK21" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J22" s="89"/>
-      <c r="K22" s="162">
+      <c r="J22" s="49"/>
+      <c r="K22" s="2">
         <v>9</v>
       </c>
-      <c r="L22" s="163">
+      <c r="L22" s="1">
         <v>10</v>
       </c>
-      <c r="M22" s="163">
-        <v>11</v>
-      </c>
-      <c r="N22" s="164">
+      <c r="M22" s="1">
+        <v>11</v>
+      </c>
+      <c r="N22" s="3">
         <v>12</v>
       </c>
-      <c r="O22" s="89"/>
-      <c r="P22" s="162">
+      <c r="O22" s="49"/>
+      <c r="P22" s="2">
         <v>9</v>
       </c>
-      <c r="Q22" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" s="164">
+      <c r="Q22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="3">
         <v>12</v>
       </c>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="162">
+      <c r="X22" s="70"/>
+      <c r="Y22" s="2">
         <v>9</v>
       </c>
-      <c r="Z22" s="163">
+      <c r="Z22" s="1">
         <v>10</v>
       </c>
-      <c r="AA22" s="163">
-        <v>11</v>
-      </c>
-      <c r="AB22" s="164">
+      <c r="AA22" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB22" s="3">
         <v>12</v>
       </c>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="162">
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="2">
         <v>9</v>
       </c>
-      <c r="AE22" s="163">
+      <c r="AE22" s="1">
         <v>10</v>
       </c>
-      <c r="AF22" s="163">
-        <v>11</v>
-      </c>
-      <c r="AG22" s="164">
+      <c r="AF22" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG22" s="3">
         <v>12</v>
       </c>
-      <c r="AH22" s="101"/>
-      <c r="AI22" s="162">
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="2">
         <v>9</v>
       </c>
-      <c r="AJ22" s="163">
+      <c r="AJ22" s="1">
         <v>10</v>
       </c>
-      <c r="AK22" s="163">
-        <v>11</v>
-      </c>
-      <c r="AL22" s="164">
+      <c r="AK22" s="1">
+        <v>11</v>
+      </c>
+      <c r="AL22" s="3">
         <v>12</v>
       </c>
-      <c r="AM22" s="101"/>
-      <c r="AN22" s="162">
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="2">
         <v>9</v>
       </c>
-      <c r="AO22" s="163">
+      <c r="AO22" s="1">
         <v>10</v>
       </c>
-      <c r="AP22" s="163">
-        <v>11</v>
-      </c>
-      <c r="AQ22" s="164">
+      <c r="AP22" s="1">
+        <v>11</v>
+      </c>
+      <c r="AQ22" s="3">
         <v>12</v>
       </c>
-      <c r="AR22" s="101"/>
-      <c r="AS22" s="162">
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="2">
         <v>9</v>
       </c>
-      <c r="AT22" s="163">
+      <c r="AT22" s="1">
         <v>10</v>
       </c>
-      <c r="AU22" s="163">
-        <v>11</v>
-      </c>
-      <c r="AV22" s="164">
+      <c r="AU22" s="1">
+        <v>11</v>
+      </c>
+      <c r="AV22" s="3">
         <v>12</v>
       </c>
-      <c r="AW22" s="101"/>
-      <c r="AX22" s="162">
+      <c r="AW22" s="49"/>
+      <c r="AX22" s="2">
         <v>9</v>
       </c>
-      <c r="AY22" s="163">
+      <c r="AY22" s="1">
         <v>10</v>
       </c>
-      <c r="AZ22" s="163">
-        <v>11</v>
-      </c>
-      <c r="BA22" s="164">
+      <c r="AZ22" s="1">
+        <v>11</v>
+      </c>
+      <c r="BA22" s="3">
         <v>12</v>
       </c>
-      <c r="BB22" s="101"/>
-      <c r="BC22" s="162">
+      <c r="BB22" s="49"/>
+      <c r="BC22" s="2">
         <v>9</v>
       </c>
-      <c r="BD22" s="163">
+      <c r="BD22" s="1">
         <v>10</v>
       </c>
-      <c r="BE22" s="163">
-        <v>11</v>
-      </c>
-      <c r="BF22" s="164">
+      <c r="BE22" s="1">
+        <v>11</v>
+      </c>
+      <c r="BF22" s="3">
         <v>12</v>
       </c>
-      <c r="BG22" s="101"/>
-      <c r="BH22" s="162">
+      <c r="BG22" s="49"/>
+      <c r="BH22" s="2">
         <v>9</v>
       </c>
-      <c r="BI22" s="163">
+      <c r="BI22" s="1">
         <v>10</v>
       </c>
-      <c r="BJ22" s="163">
-        <v>11</v>
-      </c>
-      <c r="BK22" s="164">
+      <c r="BJ22" s="1">
+        <v>11</v>
+      </c>
+      <c r="BK22" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J23" s="89"/>
-      <c r="K23" s="162">
+      <c r="J23" s="49"/>
+      <c r="K23" s="2">
         <v>13</v>
       </c>
-      <c r="L23" s="163">
+      <c r="L23" s="1">
         <v>14</v>
       </c>
-      <c r="M23" s="163">
+      <c r="M23" s="1">
         <v>15</v>
       </c>
-      <c r="N23" s="164">
+      <c r="N23" s="3">
         <v>16</v>
       </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="162">
+      <c r="O23" s="49"/>
+      <c r="P23" s="2">
         <v>13</v>
       </c>
-      <c r="Q23" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="164">
+      <c r="Q23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" s="3">
         <v>16</v>
       </c>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="162">
+      <c r="X23" s="70"/>
+      <c r="Y23" s="2">
         <v>13</v>
       </c>
-      <c r="Z23" s="163">
+      <c r="Z23" s="1">
         <v>14</v>
       </c>
-      <c r="AA23" s="163">
+      <c r="AA23" s="1">
         <v>15</v>
       </c>
-      <c r="AB23" s="164">
+      <c r="AB23" s="3">
         <v>16</v>
       </c>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="162">
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="2">
         <v>13</v>
       </c>
-      <c r="AE23" s="163">
+      <c r="AE23" s="1">
         <v>14</v>
       </c>
-      <c r="AF23" s="163">
+      <c r="AF23" s="1">
         <v>15</v>
       </c>
-      <c r="AG23" s="164">
+      <c r="AG23" s="3">
         <v>16</v>
       </c>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="162">
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="2">
         <v>13</v>
       </c>
-      <c r="AJ23" s="163">
+      <c r="AJ23" s="1">
         <v>14</v>
       </c>
-      <c r="AK23" s="163">
+      <c r="AK23" s="1">
         <v>15</v>
       </c>
-      <c r="AL23" s="164">
+      <c r="AL23" s="3">
         <v>16</v>
       </c>
-      <c r="AM23" s="101"/>
-      <c r="AN23" s="162">
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="2">
         <v>13</v>
       </c>
-      <c r="AO23" s="163">
+      <c r="AO23" s="1">
         <v>14</v>
       </c>
-      <c r="AP23" s="163">
+      <c r="AP23" s="1">
         <v>15</v>
       </c>
-      <c r="AQ23" s="164">
+      <c r="AQ23" s="3">
         <v>16</v>
       </c>
-      <c r="AR23" s="101"/>
-      <c r="AS23" s="162">
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="2">
         <v>13</v>
       </c>
-      <c r="AT23" s="163">
+      <c r="AT23" s="1">
         <v>14</v>
       </c>
-      <c r="AU23" s="163">
+      <c r="AU23" s="1">
         <v>15</v>
       </c>
-      <c r="AV23" s="164">
+      <c r="AV23" s="3">
         <v>16</v>
       </c>
-      <c r="AW23" s="101"/>
-      <c r="AX23" s="162">
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="2">
         <v>13</v>
       </c>
-      <c r="AY23" s="163">
+      <c r="AY23" s="1">
         <v>14</v>
       </c>
-      <c r="AZ23" s="163">
+      <c r="AZ23" s="1">
         <v>15</v>
       </c>
-      <c r="BA23" s="164">
+      <c r="BA23" s="3">
         <v>16</v>
       </c>
-      <c r="BB23" s="101"/>
-      <c r="BC23" s="162">
+      <c r="BB23" s="49"/>
+      <c r="BC23" s="2">
         <v>13</v>
       </c>
-      <c r="BD23" s="163">
+      <c r="BD23" s="1">
         <v>14</v>
       </c>
-      <c r="BE23" s="163">
+      <c r="BE23" s="1">
         <v>15</v>
       </c>
-      <c r="BF23" s="164">
+      <c r="BF23" s="3">
         <v>16</v>
       </c>
-      <c r="BG23" s="101"/>
-      <c r="BH23" s="162">
+      <c r="BG23" s="49"/>
+      <c r="BH23" s="2">
         <v>13</v>
       </c>
-      <c r="BI23" s="163">
+      <c r="BI23" s="1">
         <v>14</v>
       </c>
-      <c r="BJ23" s="163">
+      <c r="BJ23" s="1">
         <v>15</v>
       </c>
-      <c r="BK23" s="164">
+      <c r="BK23" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:63" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J24" s="90"/>
-      <c r="K24" s="165">
+    <row r="24" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J24" s="50"/>
+      <c r="K24" s="4">
         <v>17</v>
       </c>
-      <c r="L24" s="166">
+      <c r="L24" s="5">
         <v>18</v>
       </c>
-      <c r="M24" s="166">
+      <c r="M24" s="5">
         <v>19</v>
       </c>
-      <c r="N24" s="167">
+      <c r="N24" s="6">
         <v>20</v>
       </c>
-      <c r="O24" s="90"/>
-      <c r="P24" s="165">
+      <c r="O24" s="50"/>
+      <c r="P24" s="4">
         <v>17</v>
       </c>
-      <c r="Q24" s="165" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="S24" s="167">
+      <c r="Q24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24" s="6">
         <v>20</v>
       </c>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="165">
+      <c r="X24" s="60"/>
+      <c r="Y24" s="4">
         <v>17</v>
       </c>
-      <c r="Z24" s="166">
+      <c r="Z24" s="5">
         <v>18</v>
       </c>
-      <c r="AA24" s="166">
+      <c r="AA24" s="5">
         <v>19</v>
       </c>
-      <c r="AB24" s="167">
+      <c r="AB24" s="6">
         <v>20</v>
       </c>
-      <c r="AC24" s="107"/>
-      <c r="AD24" s="165">
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="4">
         <v>17</v>
       </c>
-      <c r="AE24" s="166">
+      <c r="AE24" s="5">
         <v>18</v>
       </c>
-      <c r="AF24" s="166">
+      <c r="AF24" s="5">
         <v>19</v>
       </c>
-      <c r="AG24" s="167">
+      <c r="AG24" s="6">
         <v>20</v>
       </c>
-      <c r="AH24" s="107"/>
-      <c r="AI24" s="165">
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="4">
         <v>17</v>
       </c>
-      <c r="AJ24" s="166">
+      <c r="AJ24" s="5">
         <v>18</v>
       </c>
-      <c r="AK24" s="166">
+      <c r="AK24" s="5">
         <v>19</v>
       </c>
-      <c r="AL24" s="167">
+      <c r="AL24" s="6">
         <v>20</v>
       </c>
-      <c r="AM24" s="107"/>
-      <c r="AN24" s="165">
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="4">
         <v>17</v>
       </c>
-      <c r="AO24" s="166">
+      <c r="AO24" s="5">
         <v>18</v>
       </c>
-      <c r="AP24" s="166">
+      <c r="AP24" s="5">
         <v>19</v>
       </c>
-      <c r="AQ24" s="167">
+      <c r="AQ24" s="6">
         <v>20</v>
       </c>
-      <c r="AR24" s="107"/>
-      <c r="AS24" s="165">
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="4">
         <v>17</v>
       </c>
-      <c r="AT24" s="166">
+      <c r="AT24" s="5">
         <v>18</v>
       </c>
-      <c r="AU24" s="166">
+      <c r="AU24" s="5">
         <v>19</v>
       </c>
-      <c r="AV24" s="167">
+      <c r="AV24" s="6">
         <v>20</v>
       </c>
-      <c r="AW24" s="107"/>
-      <c r="AX24" s="165">
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="4">
         <v>17</v>
       </c>
-      <c r="AY24" s="166">
+      <c r="AY24" s="5">
         <v>18</v>
       </c>
-      <c r="AZ24" s="166">
+      <c r="AZ24" s="5">
         <v>19</v>
       </c>
-      <c r="BA24" s="167">
+      <c r="BA24" s="6">
         <v>20</v>
       </c>
-      <c r="BB24" s="107"/>
-      <c r="BC24" s="165">
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="4">
         <v>17</v>
       </c>
-      <c r="BD24" s="166">
+      <c r="BD24" s="5">
         <v>18</v>
       </c>
-      <c r="BE24" s="166">
+      <c r="BE24" s="5">
         <v>19</v>
       </c>
-      <c r="BF24" s="167">
+      <c r="BF24" s="6">
         <v>20</v>
       </c>
-      <c r="BG24" s="107"/>
-      <c r="BH24" s="165">
+      <c r="BG24" s="50"/>
+      <c r="BH24" s="4">
         <v>17</v>
       </c>
-      <c r="BI24" s="166">
+      <c r="BI24" s="5">
         <v>18</v>
       </c>
-      <c r="BJ24" s="166">
+      <c r="BJ24" s="5">
         <v>19</v>
       </c>
-      <c r="BK24" s="167">
+      <c r="BK24" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J25" s="88">
-        <v>3</v>
-      </c>
-      <c r="K25" s="168">
-        <v>1</v>
-      </c>
-      <c r="L25" s="169">
+      <c r="J25" s="79">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
         <v>2</v>
       </c>
-      <c r="M25" s="169">
-        <v>3</v>
-      </c>
-      <c r="N25" s="170">
-        <v>4</v>
-      </c>
-      <c r="O25" s="88">
-        <v>3</v>
-      </c>
-      <c r="P25" s="168">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="170" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="170">
-        <v>4</v>
-      </c>
-      <c r="X25" s="100">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="168">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="169">
+      <c r="M25" s="8">
+        <v>3</v>
+      </c>
+      <c r="N25" s="9">
+        <v>4</v>
+      </c>
+      <c r="O25" s="79">
+        <v>3</v>
+      </c>
+      <c r="P25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="9">
+        <v>4</v>
+      </c>
+      <c r="X25" s="48">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="8">
         <v>2</v>
       </c>
-      <c r="AA25" s="169">
-        <v>3</v>
-      </c>
-      <c r="AB25" s="170">
-        <v>4</v>
-      </c>
-      <c r="AC25" s="100">
-        <v>3</v>
-      </c>
-      <c r="AD25" s="168">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="169">
+      <c r="AA25" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="48">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="8">
         <v>2</v>
       </c>
-      <c r="AF25" s="169">
-        <v>3</v>
-      </c>
-      <c r="AG25" s="170">
-        <v>4</v>
-      </c>
-      <c r="AH25" s="100">
+      <c r="AF25" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG25" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH25" s="48">
         <v>3</v>
       </c>
       <c r="AI25" s="7">
@@ -4078,7 +3784,7 @@
       <c r="AL25" s="9">
         <v>4</v>
       </c>
-      <c r="AM25" s="100">
+      <c r="AM25" s="48">
         <v>3</v>
       </c>
       <c r="AN25" s="7">
@@ -4093,7 +3799,7 @@
       <c r="AQ25" s="9">
         <v>4</v>
       </c>
-      <c r="AR25" s="100">
+      <c r="AR25" s="48">
         <v>3</v>
       </c>
       <c r="AS25" s="7">
@@ -4108,7 +3814,7 @@
       <c r="AV25" s="9">
         <v>4</v>
       </c>
-      <c r="AW25" s="100">
+      <c r="AW25" s="48">
         <v>3</v>
       </c>
       <c r="AX25" s="7">
@@ -4123,7 +3829,7 @@
       <c r="BA25" s="9">
         <v>4</v>
       </c>
-      <c r="BB25" s="100">
+      <c r="BB25" s="48">
         <v>3</v>
       </c>
       <c r="BC25" s="7">
@@ -4138,7 +3844,7 @@
       <c r="BF25" s="9">
         <v>4</v>
       </c>
-      <c r="BG25" s="100">
+      <c r="BG25" s="48">
         <v>3</v>
       </c>
       <c r="BH25" s="7">
@@ -4155,59 +3861,59 @@
       </c>
     </row>
     <row r="26" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J26" s="89"/>
-      <c r="K26" s="162">
-        <v>5</v>
-      </c>
-      <c r="L26" s="163">
-        <v>6</v>
-      </c>
-      <c r="M26" s="163">
+      <c r="J26" s="49"/>
+      <c r="K26" s="2">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>6</v>
+      </c>
+      <c r="M26" s="1">
         <v>7</v>
       </c>
-      <c r="N26" s="164">
+      <c r="N26" s="3">
         <v>8</v>
       </c>
-      <c r="O26" s="89"/>
-      <c r="P26" s="162">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R26" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="164">
+      <c r="O26" s="49"/>
+      <c r="P26" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" s="3">
         <v>8</v>
       </c>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="162">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="163">
-        <v>6</v>
-      </c>
-      <c r="AA26" s="163">
+      <c r="X26" s="49"/>
+      <c r="Y26" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA26" s="1">
         <v>7</v>
       </c>
-      <c r="AB26" s="164">
+      <c r="AB26" s="3">
         <v>8</v>
       </c>
-      <c r="AC26" s="101"/>
-      <c r="AD26" s="162">
-        <v>5</v>
-      </c>
-      <c r="AE26" s="163">
-        <v>6</v>
-      </c>
-      <c r="AF26" s="163">
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="1">
         <v>7</v>
       </c>
-      <c r="AG26" s="164">
+      <c r="AG26" s="3">
         <v>8</v>
       </c>
-      <c r="AH26" s="101"/>
+      <c r="AH26" s="49"/>
       <c r="AI26" s="2">
         <v>5</v>
       </c>
@@ -4220,7 +3926,7 @@
       <c r="AL26" s="3">
         <v>8</v>
       </c>
-      <c r="AM26" s="101"/>
+      <c r="AM26" s="49"/>
       <c r="AN26" s="2">
         <v>5</v>
       </c>
@@ -4233,7 +3939,7 @@
       <c r="AQ26" s="3">
         <v>8</v>
       </c>
-      <c r="AR26" s="101"/>
+      <c r="AR26" s="49"/>
       <c r="AS26" s="2">
         <v>5</v>
       </c>
@@ -4246,7 +3952,7 @@
       <c r="AV26" s="3">
         <v>8</v>
       </c>
-      <c r="AW26" s="101"/>
+      <c r="AW26" s="49"/>
       <c r="AX26" s="2">
         <v>5</v>
       </c>
@@ -4259,7 +3965,7 @@
       <c r="BA26" s="3">
         <v>8</v>
       </c>
-      <c r="BB26" s="101"/>
+      <c r="BB26" s="49"/>
       <c r="BC26" s="2">
         <v>5</v>
       </c>
@@ -4272,7 +3978,7 @@
       <c r="BF26" s="3">
         <v>8</v>
       </c>
-      <c r="BG26" s="101"/>
+      <c r="BG26" s="49"/>
       <c r="BH26" s="2">
         <v>5</v>
       </c>
@@ -4287,59 +3993,59 @@
       </c>
     </row>
     <row r="27" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J27" s="89"/>
-      <c r="K27" s="162">
+      <c r="J27" s="49"/>
+      <c r="K27" s="2">
         <v>9</v>
       </c>
-      <c r="L27" s="163">
+      <c r="L27" s="1">
         <v>10</v>
       </c>
-      <c r="M27" s="163">
-        <v>11</v>
-      </c>
-      <c r="N27" s="164">
+      <c r="M27" s="1">
+        <v>11</v>
+      </c>
+      <c r="N27" s="3">
         <v>12</v>
       </c>
-      <c r="O27" s="89"/>
-      <c r="P27" s="162">
+      <c r="O27" s="49"/>
+      <c r="P27" s="2">
         <v>9</v>
       </c>
-      <c r="Q27" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="164">
+      <c r="Q27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27" s="3">
         <v>12</v>
       </c>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="162">
+      <c r="X27" s="49"/>
+      <c r="Y27" s="2">
         <v>9</v>
       </c>
-      <c r="Z27" s="163">
+      <c r="Z27" s="1">
         <v>10</v>
       </c>
-      <c r="AA27" s="163">
-        <v>11</v>
-      </c>
-      <c r="AB27" s="164">
+      <c r="AA27" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB27" s="3">
         <v>12</v>
       </c>
-      <c r="AC27" s="101"/>
-      <c r="AD27" s="162">
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="2">
         <v>9</v>
       </c>
-      <c r="AE27" s="163">
+      <c r="AE27" s="1">
         <v>10</v>
       </c>
-      <c r="AF27" s="163">
-        <v>11</v>
-      </c>
-      <c r="AG27" s="164">
+      <c r="AF27" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG27" s="3">
         <v>12</v>
       </c>
-      <c r="AH27" s="101"/>
+      <c r="AH27" s="49"/>
       <c r="AI27" s="2">
         <v>9</v>
       </c>
@@ -4352,7 +4058,7 @@
       <c r="AL27" s="3">
         <v>12</v>
       </c>
-      <c r="AM27" s="101"/>
+      <c r="AM27" s="49"/>
       <c r="AN27" s="2">
         <v>9</v>
       </c>
@@ -4365,7 +4071,7 @@
       <c r="AQ27" s="3">
         <v>12</v>
       </c>
-      <c r="AR27" s="101"/>
+      <c r="AR27" s="49"/>
       <c r="AS27" s="2">
         <v>9</v>
       </c>
@@ -4378,7 +4084,7 @@
       <c r="AV27" s="3">
         <v>12</v>
       </c>
-      <c r="AW27" s="101"/>
+      <c r="AW27" s="49"/>
       <c r="AX27" s="2">
         <v>9</v>
       </c>
@@ -4391,7 +4097,7 @@
       <c r="BA27" s="3">
         <v>12</v>
       </c>
-      <c r="BB27" s="101"/>
+      <c r="BB27" s="49"/>
       <c r="BC27" s="2">
         <v>9</v>
       </c>
@@ -4404,7 +4110,7 @@
       <c r="BF27" s="3">
         <v>12</v>
       </c>
-      <c r="BG27" s="101"/>
+      <c r="BG27" s="49"/>
       <c r="BH27" s="2">
         <v>9</v>
       </c>
@@ -4419,59 +4125,59 @@
       </c>
     </row>
     <row r="28" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J28" s="89"/>
-      <c r="K28" s="162">
+      <c r="J28" s="49"/>
+      <c r="K28" s="2">
         <v>13</v>
       </c>
-      <c r="L28" s="163">
+      <c r="L28" s="1">
         <v>14</v>
       </c>
-      <c r="M28" s="163">
+      <c r="M28" s="1">
         <v>15</v>
       </c>
-      <c r="N28" s="164">
+      <c r="N28" s="3">
         <v>16</v>
       </c>
-      <c r="O28" s="89"/>
-      <c r="P28" s="162">
+      <c r="O28" s="49"/>
+      <c r="P28" s="2">
         <v>13</v>
       </c>
-      <c r="Q28" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="164">
+      <c r="Q28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S28" s="3">
         <v>16</v>
       </c>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="162">
+      <c r="X28" s="49"/>
+      <c r="Y28" s="2">
         <v>13</v>
       </c>
-      <c r="Z28" s="163">
+      <c r="Z28" s="1">
         <v>14</v>
       </c>
-      <c r="AA28" s="163">
+      <c r="AA28" s="1">
         <v>15</v>
       </c>
-      <c r="AB28" s="164">
+      <c r="AB28" s="3">
         <v>16</v>
       </c>
-      <c r="AC28" s="101"/>
-      <c r="AD28" s="162">
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="2">
         <v>13</v>
       </c>
-      <c r="AE28" s="163">
+      <c r="AE28" s="1">
         <v>14</v>
       </c>
-      <c r="AF28" s="163">
+      <c r="AF28" s="1">
         <v>15</v>
       </c>
-      <c r="AG28" s="164">
+      <c r="AG28" s="3">
         <v>16</v>
       </c>
-      <c r="AH28" s="101"/>
+      <c r="AH28" s="49"/>
       <c r="AI28" s="2">
         <v>13</v>
       </c>
@@ -4484,7 +4190,7 @@
       <c r="AL28" s="3">
         <v>16</v>
       </c>
-      <c r="AM28" s="101"/>
+      <c r="AM28" s="49"/>
       <c r="AN28" s="2">
         <v>13</v>
       </c>
@@ -4497,7 +4203,7 @@
       <c r="AQ28" s="3">
         <v>16</v>
       </c>
-      <c r="AR28" s="101"/>
+      <c r="AR28" s="49"/>
       <c r="AS28" s="2">
         <v>13</v>
       </c>
@@ -4510,7 +4216,7 @@
       <c r="AV28" s="3">
         <v>16</v>
       </c>
-      <c r="AW28" s="101"/>
+      <c r="AW28" s="49"/>
       <c r="AX28" s="2">
         <v>13</v>
       </c>
@@ -4523,7 +4229,7 @@
       <c r="BA28" s="3">
         <v>16</v>
       </c>
-      <c r="BB28" s="101"/>
+      <c r="BB28" s="49"/>
       <c r="BC28" s="2">
         <v>13</v>
       </c>
@@ -4536,7 +4242,7 @@
       <c r="BF28" s="3">
         <v>16</v>
       </c>
-      <c r="BG28" s="101"/>
+      <c r="BG28" s="49"/>
       <c r="BH28" s="2">
         <v>13</v>
       </c>
@@ -4550,60 +4256,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="4:63" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J29" s="90"/>
-      <c r="K29" s="165">
+    <row r="29" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J29" s="50"/>
+      <c r="K29" s="4">
         <v>17</v>
       </c>
-      <c r="L29" s="166">
+      <c r="L29" s="5">
         <v>18</v>
       </c>
-      <c r="M29" s="166">
+      <c r="M29" s="5">
         <v>19</v>
       </c>
-      <c r="N29" s="167">
+      <c r="N29" s="6">
         <v>20</v>
       </c>
-      <c r="O29" s="90"/>
-      <c r="P29" s="165">
+      <c r="O29" s="50"/>
+      <c r="P29" s="4">
         <v>17</v>
       </c>
-      <c r="Q29" s="165" t="s">
-        <v>21</v>
-      </c>
-      <c r="R29" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" s="167">
+      <c r="Q29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="6">
         <v>20</v>
       </c>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="165">
+      <c r="X29" s="50"/>
+      <c r="Y29" s="4">
         <v>17</v>
       </c>
-      <c r="Z29" s="166">
+      <c r="Z29" s="5">
         <v>18</v>
       </c>
-      <c r="AA29" s="166">
+      <c r="AA29" s="5">
         <v>19</v>
       </c>
-      <c r="AB29" s="167">
+      <c r="AB29" s="6">
         <v>20</v>
       </c>
-      <c r="AC29" s="107"/>
-      <c r="AD29" s="165">
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="4">
         <v>17</v>
       </c>
-      <c r="AE29" s="166">
+      <c r="AE29" s="5">
         <v>18</v>
       </c>
-      <c r="AF29" s="166">
+      <c r="AF29" s="5">
         <v>19</v>
       </c>
-      <c r="AG29" s="167">
+      <c r="AG29" s="6">
         <v>20</v>
       </c>
-      <c r="AH29" s="107"/>
+      <c r="AH29" s="50"/>
       <c r="AI29" s="4">
         <v>17</v>
       </c>
@@ -4616,7 +4322,7 @@
       <c r="AL29" s="6">
         <v>20</v>
       </c>
-      <c r="AM29" s="107"/>
+      <c r="AM29" s="50"/>
       <c r="AN29" s="4">
         <v>17</v>
       </c>
@@ -4629,7 +4335,7 @@
       <c r="AQ29" s="6">
         <v>20</v>
       </c>
-      <c r="AR29" s="107"/>
+      <c r="AR29" s="50"/>
       <c r="AS29" s="4">
         <v>17</v>
       </c>
@@ -4642,7 +4348,7 @@
       <c r="AV29" s="6">
         <v>20</v>
       </c>
-      <c r="AW29" s="107"/>
+      <c r="AW29" s="50"/>
       <c r="AX29" s="4">
         <v>17</v>
       </c>
@@ -4655,7 +4361,7 @@
       <c r="BA29" s="6">
         <v>20</v>
       </c>
-      <c r="BB29" s="107"/>
+      <c r="BB29" s="50"/>
       <c r="BC29" s="4">
         <v>17</v>
       </c>
@@ -4668,7 +4374,7 @@
       <c r="BF29" s="6">
         <v>20</v>
       </c>
-      <c r="BG29" s="107"/>
+      <c r="BG29" s="50"/>
       <c r="BH29" s="4">
         <v>17</v>
       </c>
@@ -4683,67 +4389,67 @@
       </c>
     </row>
     <row r="30" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J30" s="88">
-        <v>4</v>
-      </c>
-      <c r="K30" s="168">
-        <v>1</v>
-      </c>
-      <c r="L30" s="169">
+      <c r="J30" s="79">
+        <v>4</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
         <v>2</v>
       </c>
-      <c r="M30" s="169">
-        <v>3</v>
-      </c>
-      <c r="N30" s="170">
-        <v>4</v>
-      </c>
-      <c r="O30" s="88">
-        <v>4</v>
-      </c>
-      <c r="P30" s="168">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="170" t="s">
-        <v>21</v>
-      </c>
-      <c r="S30" s="170">
-        <v>4</v>
-      </c>
-      <c r="X30" s="100">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="168">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="169">
+      <c r="M30" s="8">
+        <v>3</v>
+      </c>
+      <c r="N30" s="9">
+        <v>4</v>
+      </c>
+      <c r="O30" s="79">
+        <v>4</v>
+      </c>
+      <c r="P30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S30" s="9">
+        <v>4</v>
+      </c>
+      <c r="X30" s="48">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="8">
         <v>2</v>
       </c>
-      <c r="AA30" s="169">
-        <v>3</v>
-      </c>
-      <c r="AB30" s="170">
-        <v>4</v>
-      </c>
-      <c r="AC30" s="100">
-        <v>4</v>
-      </c>
-      <c r="AD30" s="168">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="169">
+      <c r="AA30" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="48">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="8">
         <v>2</v>
       </c>
-      <c r="AF30" s="169">
-        <v>3</v>
-      </c>
-      <c r="AG30" s="170">
-        <v>4</v>
-      </c>
-      <c r="AH30" s="100">
+      <c r="AF30" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH30" s="48">
         <v>4</v>
       </c>
       <c r="AI30" s="7">
@@ -4758,7 +4464,7 @@
       <c r="AL30" s="9">
         <v>4</v>
       </c>
-      <c r="AM30" s="100">
+      <c r="AM30" s="48">
         <v>4</v>
       </c>
       <c r="AN30" s="7">
@@ -4773,7 +4479,7 @@
       <c r="AQ30" s="9">
         <v>4</v>
       </c>
-      <c r="AR30" s="100">
+      <c r="AR30" s="48">
         <v>4</v>
       </c>
       <c r="AS30" s="7">
@@ -4788,7 +4494,7 @@
       <c r="AV30" s="9">
         <v>4</v>
       </c>
-      <c r="AW30" s="100">
+      <c r="AW30" s="48">
         <v>4</v>
       </c>
       <c r="AX30" s="7">
@@ -4803,7 +4509,7 @@
       <c r="BA30" s="9">
         <v>4</v>
       </c>
-      <c r="BB30" s="100">
+      <c r="BB30" s="48">
         <v>4</v>
       </c>
       <c r="BC30" s="7">
@@ -4818,7 +4524,7 @@
       <c r="BF30" s="9">
         <v>4</v>
       </c>
-      <c r="BG30" s="100">
+      <c r="BG30" s="48">
         <v>4</v>
       </c>
       <c r="BH30" s="7">
@@ -4835,62 +4541,62 @@
       </c>
     </row>
     <row r="31" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J31" s="89"/>
-      <c r="K31" s="162">
-        <v>5</v>
-      </c>
-      <c r="L31" s="163">
-        <v>6</v>
-      </c>
-      <c r="M31" s="163">
+      <c r="J31" s="49"/>
+      <c r="K31" s="2">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1">
+        <v>6</v>
+      </c>
+      <c r="M31" s="1">
         <v>7</v>
       </c>
-      <c r="N31" s="164">
+      <c r="N31" s="3">
         <v>8</v>
       </c>
-      <c r="O31" s="89"/>
-      <c r="P31" s="162">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R31" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" s="164">
+      <c r="O31" s="49"/>
+      <c r="P31" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" s="3">
         <v>8</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="162">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="163">
-        <v>6</v>
-      </c>
-      <c r="AA31" s="163">
+        <v>50</v>
+      </c>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="1">
         <v>7</v>
       </c>
-      <c r="AB31" s="164">
+      <c r="AB31" s="3">
         <v>8</v>
       </c>
-      <c r="AC31" s="101"/>
-      <c r="AD31" s="162">
-        <v>5</v>
-      </c>
-      <c r="AE31" s="163">
-        <v>6</v>
-      </c>
-      <c r="AF31" s="163">
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF31" s="1">
         <v>7</v>
       </c>
-      <c r="AG31" s="164">
+      <c r="AG31" s="3">
         <v>8</v>
       </c>
-      <c r="AH31" s="101"/>
+      <c r="AH31" s="49"/>
       <c r="AI31" s="2">
         <v>5</v>
       </c>
@@ -4903,7 +4609,7 @@
       <c r="AL31" s="3">
         <v>8</v>
       </c>
-      <c r="AM31" s="101"/>
+      <c r="AM31" s="49"/>
       <c r="AN31" s="2">
         <v>5</v>
       </c>
@@ -4916,7 +4622,7 @@
       <c r="AQ31" s="3">
         <v>8</v>
       </c>
-      <c r="AR31" s="101"/>
+      <c r="AR31" s="49"/>
       <c r="AS31" s="2">
         <v>5</v>
       </c>
@@ -4929,7 +4635,7 @@
       <c r="AV31" s="3">
         <v>8</v>
       </c>
-      <c r="AW31" s="101"/>
+      <c r="AW31" s="49"/>
       <c r="AX31" s="2">
         <v>5</v>
       </c>
@@ -4942,7 +4648,7 @@
       <c r="BA31" s="3">
         <v>8</v>
       </c>
-      <c r="BB31" s="101"/>
+      <c r="BB31" s="49"/>
       <c r="BC31" s="2">
         <v>5</v>
       </c>
@@ -4955,7 +4661,7 @@
       <c r="BF31" s="3">
         <v>8</v>
       </c>
-      <c r="BG31" s="101"/>
+      <c r="BG31" s="49"/>
       <c r="BH31" s="2">
         <v>5</v>
       </c>
@@ -4970,59 +4676,59 @@
       </c>
     </row>
     <row r="32" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J32" s="89"/>
-      <c r="K32" s="162">
+      <c r="J32" s="49"/>
+      <c r="K32" s="2">
         <v>9</v>
       </c>
-      <c r="L32" s="163">
+      <c r="L32" s="1">
         <v>10</v>
       </c>
-      <c r="M32" s="163">
-        <v>11</v>
-      </c>
-      <c r="N32" s="164">
+      <c r="M32" s="1">
+        <v>11</v>
+      </c>
+      <c r="N32" s="3">
         <v>12</v>
       </c>
-      <c r="O32" s="89"/>
-      <c r="P32" s="162">
+      <c r="O32" s="49"/>
+      <c r="P32" s="2">
         <v>9</v>
       </c>
-      <c r="Q32" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R32" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S32" s="164">
+      <c r="Q32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S32" s="3">
         <v>12</v>
       </c>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="162">
+      <c r="X32" s="49"/>
+      <c r="Y32" s="2">
         <v>9</v>
       </c>
-      <c r="Z32" s="163">
+      <c r="Z32" s="1">
         <v>10</v>
       </c>
-      <c r="AA32" s="163">
-        <v>11</v>
-      </c>
-      <c r="AB32" s="164">
+      <c r="AA32" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB32" s="3">
         <v>12</v>
       </c>
-      <c r="AC32" s="101"/>
-      <c r="AD32" s="162">
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="2">
         <v>9</v>
       </c>
-      <c r="AE32" s="163">
+      <c r="AE32" s="1">
         <v>10</v>
       </c>
-      <c r="AF32" s="163">
-        <v>11</v>
-      </c>
-      <c r="AG32" s="164">
+      <c r="AF32" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG32" s="3">
         <v>12</v>
       </c>
-      <c r="AH32" s="101"/>
+      <c r="AH32" s="49"/>
       <c r="AI32" s="2">
         <v>9</v>
       </c>
@@ -5035,7 +4741,7 @@
       <c r="AL32" s="3">
         <v>12</v>
       </c>
-      <c r="AM32" s="101"/>
+      <c r="AM32" s="49"/>
       <c r="AN32" s="2">
         <v>9</v>
       </c>
@@ -5048,7 +4754,7 @@
       <c r="AQ32" s="3">
         <v>12</v>
       </c>
-      <c r="AR32" s="101"/>
+      <c r="AR32" s="49"/>
       <c r="AS32" s="2">
         <v>9</v>
       </c>
@@ -5061,7 +4767,7 @@
       <c r="AV32" s="3">
         <v>12</v>
       </c>
-      <c r="AW32" s="101"/>
+      <c r="AW32" s="49"/>
       <c r="AX32" s="2">
         <v>9</v>
       </c>
@@ -5074,7 +4780,7 @@
       <c r="BA32" s="3">
         <v>12</v>
       </c>
-      <c r="BB32" s="101"/>
+      <c r="BB32" s="49"/>
       <c r="BC32" s="2">
         <v>9</v>
       </c>
@@ -5087,7 +4793,7 @@
       <c r="BF32" s="3">
         <v>12</v>
       </c>
-      <c r="BG32" s="101"/>
+      <c r="BG32" s="49"/>
       <c r="BH32" s="2">
         <v>9</v>
       </c>
@@ -5102,59 +4808,59 @@
       </c>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J33" s="89"/>
-      <c r="K33" s="162">
+      <c r="J33" s="49"/>
+      <c r="K33" s="2">
         <v>13</v>
       </c>
-      <c r="L33" s="163">
+      <c r="L33" s="1">
         <v>14</v>
       </c>
-      <c r="M33" s="163">
+      <c r="M33" s="1">
         <v>15</v>
       </c>
-      <c r="N33" s="164">
+      <c r="N33" s="3">
         <v>16</v>
       </c>
-      <c r="O33" s="89"/>
-      <c r="P33" s="162">
+      <c r="O33" s="49"/>
+      <c r="P33" s="2">
         <v>13</v>
       </c>
-      <c r="Q33" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S33" s="164">
+      <c r="Q33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33" s="3">
         <v>16</v>
       </c>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="162">
+      <c r="X33" s="49"/>
+      <c r="Y33" s="2">
         <v>13</v>
       </c>
-      <c r="Z33" s="163">
+      <c r="Z33" s="1">
         <v>14</v>
       </c>
-      <c r="AA33" s="163">
+      <c r="AA33" s="1">
         <v>15</v>
       </c>
-      <c r="AB33" s="164">
+      <c r="AB33" s="3">
         <v>16</v>
       </c>
-      <c r="AC33" s="101"/>
-      <c r="AD33" s="162">
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="2">
         <v>13</v>
       </c>
-      <c r="AE33" s="163">
+      <c r="AE33" s="1">
         <v>14</v>
       </c>
-      <c r="AF33" s="163">
+      <c r="AF33" s="1">
         <v>15</v>
       </c>
-      <c r="AG33" s="164">
+      <c r="AG33" s="3">
         <v>16</v>
       </c>
-      <c r="AH33" s="101"/>
+      <c r="AH33" s="49"/>
       <c r="AI33" s="2">
         <v>13</v>
       </c>
@@ -5167,7 +4873,7 @@
       <c r="AL33" s="3">
         <v>16</v>
       </c>
-      <c r="AM33" s="101"/>
+      <c r="AM33" s="49"/>
       <c r="AN33" s="2">
         <v>13</v>
       </c>
@@ -5180,7 +4886,7 @@
       <c r="AQ33" s="3">
         <v>16</v>
       </c>
-      <c r="AR33" s="101"/>
+      <c r="AR33" s="49"/>
       <c r="AS33" s="2">
         <v>13</v>
       </c>
@@ -5193,7 +4899,7 @@
       <c r="AV33" s="3">
         <v>16</v>
       </c>
-      <c r="AW33" s="101"/>
+      <c r="AW33" s="49"/>
       <c r="AX33" s="2">
         <v>13</v>
       </c>
@@ -5206,7 +4912,7 @@
       <c r="BA33" s="3">
         <v>16</v>
       </c>
-      <c r="BB33" s="101"/>
+      <c r="BB33" s="49"/>
       <c r="BC33" s="2">
         <v>13</v>
       </c>
@@ -5219,7 +4925,7 @@
       <c r="BF33" s="3">
         <v>16</v>
       </c>
-      <c r="BG33" s="101"/>
+      <c r="BG33" s="49"/>
       <c r="BH33" s="2">
         <v>13</v>
       </c>
@@ -5233,60 +4939,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:63" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J34" s="90"/>
-      <c r="K34" s="165">
+    <row r="34" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J34" s="50"/>
+      <c r="K34" s="4">
         <v>17</v>
       </c>
-      <c r="L34" s="166">
+      <c r="L34" s="5">
         <v>18</v>
       </c>
-      <c r="M34" s="166">
+      <c r="M34" s="5">
         <v>19</v>
       </c>
-      <c r="N34" s="167">
+      <c r="N34" s="6">
         <v>20</v>
       </c>
-      <c r="O34" s="90"/>
-      <c r="P34" s="165">
+      <c r="O34" s="50"/>
+      <c r="P34" s="4">
         <v>17</v>
       </c>
-      <c r="Q34" s="165" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="S34" s="167">
+      <c r="Q34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S34" s="6">
         <v>20</v>
       </c>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="165">
+      <c r="X34" s="50"/>
+      <c r="Y34" s="4">
         <v>17</v>
       </c>
-      <c r="Z34" s="166">
+      <c r="Z34" s="5">
         <v>18</v>
       </c>
-      <c r="AA34" s="166">
+      <c r="AA34" s="5">
         <v>19</v>
       </c>
-      <c r="AB34" s="167">
+      <c r="AB34" s="6">
         <v>20</v>
       </c>
-      <c r="AC34" s="107"/>
-      <c r="AD34" s="165">
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="4">
         <v>17</v>
       </c>
-      <c r="AE34" s="166">
+      <c r="AE34" s="5">
         <v>18</v>
       </c>
-      <c r="AF34" s="166">
+      <c r="AF34" s="5">
         <v>19</v>
       </c>
-      <c r="AG34" s="167">
+      <c r="AG34" s="6">
         <v>20</v>
       </c>
-      <c r="AH34" s="107"/>
+      <c r="AH34" s="50"/>
       <c r="AI34" s="4">
         <v>17</v>
       </c>
@@ -5299,7 +5005,7 @@
       <c r="AL34" s="6">
         <v>20</v>
       </c>
-      <c r="AM34" s="107"/>
+      <c r="AM34" s="50"/>
       <c r="AN34" s="4">
         <v>17</v>
       </c>
@@ -5312,7 +5018,7 @@
       <c r="AQ34" s="6">
         <v>20</v>
       </c>
-      <c r="AR34" s="107"/>
+      <c r="AR34" s="50"/>
       <c r="AS34" s="4">
         <v>17</v>
       </c>
@@ -5325,7 +5031,7 @@
       <c r="AV34" s="6">
         <v>20</v>
       </c>
-      <c r="AW34" s="107"/>
+      <c r="AW34" s="50"/>
       <c r="AX34" s="4">
         <v>17</v>
       </c>
@@ -5338,7 +5044,7 @@
       <c r="BA34" s="6">
         <v>20</v>
       </c>
-      <c r="BB34" s="107"/>
+      <c r="BB34" s="50"/>
       <c r="BC34" s="4">
         <v>17</v>
       </c>
@@ -5351,7 +5057,7 @@
       <c r="BF34" s="6">
         <v>20</v>
       </c>
-      <c r="BG34" s="107"/>
+      <c r="BG34" s="50"/>
       <c r="BH34" s="4">
         <v>17</v>
       </c>
@@ -5366,67 +5072,67 @@
       </c>
     </row>
     <row r="35" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J35" s="88">
-        <v>5</v>
-      </c>
-      <c r="K35" s="168">
-        <v>1</v>
-      </c>
-      <c r="L35" s="169">
+      <c r="J35" s="79">
+        <v>5</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8">
         <v>2</v>
       </c>
-      <c r="M35" s="169">
-        <v>3</v>
-      </c>
-      <c r="N35" s="170">
-        <v>4</v>
-      </c>
-      <c r="O35" s="88">
-        <v>5</v>
-      </c>
-      <c r="P35" s="168">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="170" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" s="170">
-        <v>4</v>
-      </c>
-      <c r="X35" s="100">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="168">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="169">
+      <c r="M35" s="8">
+        <v>3</v>
+      </c>
+      <c r="N35" s="9">
+        <v>4</v>
+      </c>
+      <c r="O35" s="79">
+        <v>5</v>
+      </c>
+      <c r="P35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="9">
+        <v>4</v>
+      </c>
+      <c r="X35" s="48">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="8">
         <v>2</v>
       </c>
-      <c r="AA35" s="169">
-        <v>3</v>
-      </c>
-      <c r="AB35" s="170">
-        <v>4</v>
-      </c>
-      <c r="AC35" s="100">
-        <v>5</v>
-      </c>
-      <c r="AD35" s="168">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="169">
+      <c r="AA35" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC35" s="48">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="8">
         <v>2</v>
       </c>
-      <c r="AF35" s="169">
-        <v>3</v>
-      </c>
-      <c r="AG35" s="170">
-        <v>4</v>
-      </c>
-      <c r="AH35" s="100">
+      <c r="AF35" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG35" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH35" s="48">
         <v>5</v>
       </c>
       <c r="AI35" s="7">
@@ -5441,7 +5147,7 @@
       <c r="AL35" s="9">
         <v>4</v>
       </c>
-      <c r="AM35" s="100">
+      <c r="AM35" s="48">
         <v>5</v>
       </c>
       <c r="AN35" s="7">
@@ -5456,7 +5162,7 @@
       <c r="AQ35" s="9">
         <v>4</v>
       </c>
-      <c r="AR35" s="100">
+      <c r="AR35" s="48">
         <v>5</v>
       </c>
       <c r="AS35" s="7">
@@ -5471,7 +5177,7 @@
       <c r="AV35" s="9">
         <v>4</v>
       </c>
-      <c r="AW35" s="100">
+      <c r="AW35" s="48">
         <v>5</v>
       </c>
       <c r="AX35" s="7">
@@ -5486,7 +5192,7 @@
       <c r="BA35" s="9">
         <v>4</v>
       </c>
-      <c r="BB35" s="100">
+      <c r="BB35" s="48">
         <v>5</v>
       </c>
       <c r="BC35" s="7">
@@ -5501,7 +5207,7 @@
       <c r="BF35" s="9">
         <v>4</v>
       </c>
-      <c r="BG35" s="100">
+      <c r="BG35" s="48">
         <v>5</v>
       </c>
       <c r="BH35" s="7">
@@ -5518,59 +5224,59 @@
       </c>
     </row>
     <row r="36" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J36" s="89"/>
-      <c r="K36" s="162">
-        <v>5</v>
-      </c>
-      <c r="L36" s="163">
-        <v>6</v>
-      </c>
-      <c r="M36" s="163">
+      <c r="J36" s="49"/>
+      <c r="K36" s="2">
+        <v>5</v>
+      </c>
+      <c r="L36" s="1">
+        <v>6</v>
+      </c>
+      <c r="M36" s="1">
         <v>7</v>
       </c>
-      <c r="N36" s="164">
+      <c r="N36" s="3">
         <v>8</v>
       </c>
-      <c r="O36" s="89"/>
-      <c r="P36" s="162">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R36" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S36" s="164">
+      <c r="O36" s="49"/>
+      <c r="P36" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S36" s="3">
         <v>8</v>
       </c>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="162">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="163">
-        <v>6</v>
-      </c>
-      <c r="AA36" s="163">
+      <c r="X36" s="49"/>
+      <c r="Y36" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA36" s="1">
         <v>7</v>
       </c>
-      <c r="AB36" s="164">
+      <c r="AB36" s="3">
         <v>8</v>
       </c>
-      <c r="AC36" s="101"/>
-      <c r="AD36" s="162">
-        <v>5</v>
-      </c>
-      <c r="AE36" s="163">
-        <v>6</v>
-      </c>
-      <c r="AF36" s="163">
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF36" s="1">
         <v>7</v>
       </c>
-      <c r="AG36" s="164">
+      <c r="AG36" s="3">
         <v>8</v>
       </c>
-      <c r="AH36" s="101"/>
+      <c r="AH36" s="49"/>
       <c r="AI36" s="2">
         <v>5</v>
       </c>
@@ -5583,7 +5289,7 @@
       <c r="AL36" s="3">
         <v>8</v>
       </c>
-      <c r="AM36" s="101"/>
+      <c r="AM36" s="49"/>
       <c r="AN36" s="2">
         <v>5</v>
       </c>
@@ -5596,7 +5302,7 @@
       <c r="AQ36" s="3">
         <v>8</v>
       </c>
-      <c r="AR36" s="101"/>
+      <c r="AR36" s="49"/>
       <c r="AS36" s="2">
         <v>5</v>
       </c>
@@ -5609,7 +5315,7 @@
       <c r="AV36" s="3">
         <v>8</v>
       </c>
-      <c r="AW36" s="101"/>
+      <c r="AW36" s="49"/>
       <c r="AX36" s="2">
         <v>5</v>
       </c>
@@ -5622,7 +5328,7 @@
       <c r="BA36" s="3">
         <v>8</v>
       </c>
-      <c r="BB36" s="101"/>
+      <c r="BB36" s="49"/>
       <c r="BC36" s="2">
         <v>5</v>
       </c>
@@ -5635,7 +5341,7 @@
       <c r="BF36" s="3">
         <v>8</v>
       </c>
-      <c r="BG36" s="101"/>
+      <c r="BG36" s="49"/>
       <c r="BH36" s="2">
         <v>5</v>
       </c>
@@ -5650,59 +5356,59 @@
       </c>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J37" s="89"/>
-      <c r="K37" s="162">
+      <c r="J37" s="49"/>
+      <c r="K37" s="2">
         <v>9</v>
       </c>
-      <c r="L37" s="163">
+      <c r="L37" s="1">
         <v>10</v>
       </c>
-      <c r="M37" s="163">
-        <v>11</v>
-      </c>
-      <c r="N37" s="164">
+      <c r="M37" s="1">
+        <v>11</v>
+      </c>
+      <c r="N37" s="3">
         <v>12</v>
       </c>
-      <c r="O37" s="89"/>
-      <c r="P37" s="162">
+      <c r="O37" s="49"/>
+      <c r="P37" s="2">
         <v>9</v>
       </c>
-      <c r="Q37" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R37" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" s="164">
+      <c r="Q37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S37" s="3">
         <v>12</v>
       </c>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="162">
+      <c r="X37" s="49"/>
+      <c r="Y37" s="2">
         <v>9</v>
       </c>
-      <c r="Z37" s="163">
+      <c r="Z37" s="1">
         <v>10</v>
       </c>
-      <c r="AA37" s="163">
-        <v>11</v>
-      </c>
-      <c r="AB37" s="164">
+      <c r="AA37" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB37" s="3">
         <v>12</v>
       </c>
-      <c r="AC37" s="101"/>
-      <c r="AD37" s="162">
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="2">
         <v>9</v>
       </c>
-      <c r="AE37" s="163">
+      <c r="AE37" s="1">
         <v>10</v>
       </c>
-      <c r="AF37" s="163">
-        <v>11</v>
-      </c>
-      <c r="AG37" s="164">
+      <c r="AF37" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG37" s="3">
         <v>12</v>
       </c>
-      <c r="AH37" s="101"/>
+      <c r="AH37" s="49"/>
       <c r="AI37" s="2">
         <v>9</v>
       </c>
@@ -5715,7 +5421,7 @@
       <c r="AL37" s="3">
         <v>12</v>
       </c>
-      <c r="AM37" s="101"/>
+      <c r="AM37" s="49"/>
       <c r="AN37" s="2">
         <v>9</v>
       </c>
@@ -5728,7 +5434,7 @@
       <c r="AQ37" s="3">
         <v>12</v>
       </c>
-      <c r="AR37" s="101"/>
+      <c r="AR37" s="49"/>
       <c r="AS37" s="2">
         <v>9</v>
       </c>
@@ -5741,7 +5447,7 @@
       <c r="AV37" s="3">
         <v>12</v>
       </c>
-      <c r="AW37" s="101"/>
+      <c r="AW37" s="49"/>
       <c r="AX37" s="2">
         <v>9</v>
       </c>
@@ -5754,7 +5460,7 @@
       <c r="BA37" s="3">
         <v>12</v>
       </c>
-      <c r="BB37" s="101"/>
+      <c r="BB37" s="49"/>
       <c r="BC37" s="2">
         <v>9</v>
       </c>
@@ -5767,7 +5473,7 @@
       <c r="BF37" s="3">
         <v>12</v>
       </c>
-      <c r="BG37" s="101"/>
+      <c r="BG37" s="49"/>
       <c r="BH37" s="2">
         <v>9</v>
       </c>
@@ -5782,59 +5488,59 @@
       </c>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J38" s="89"/>
-      <c r="K38" s="162">
+      <c r="J38" s="49"/>
+      <c r="K38" s="2">
         <v>13</v>
       </c>
-      <c r="L38" s="163">
+      <c r="L38" s="1">
         <v>14</v>
       </c>
-      <c r="M38" s="163">
+      <c r="M38" s="1">
         <v>15</v>
       </c>
-      <c r="N38" s="164">
+      <c r="N38" s="3">
         <v>16</v>
       </c>
-      <c r="O38" s="89"/>
-      <c r="P38" s="162">
+      <c r="O38" s="49"/>
+      <c r="P38" s="2">
         <v>13</v>
       </c>
-      <c r="Q38" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R38" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S38" s="164">
+      <c r="Q38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S38" s="3">
         <v>16</v>
       </c>
-      <c r="X38" s="101"/>
-      <c r="Y38" s="162">
+      <c r="X38" s="49"/>
+      <c r="Y38" s="2">
         <v>13</v>
       </c>
-      <c r="Z38" s="163">
+      <c r="Z38" s="1">
         <v>14</v>
       </c>
-      <c r="AA38" s="163">
+      <c r="AA38" s="1">
         <v>15</v>
       </c>
-      <c r="AB38" s="164">
+      <c r="AB38" s="3">
         <v>16</v>
       </c>
-      <c r="AC38" s="101"/>
-      <c r="AD38" s="162">
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="2">
         <v>13</v>
       </c>
-      <c r="AE38" s="163">
+      <c r="AE38" s="1">
         <v>14</v>
       </c>
-      <c r="AF38" s="163">
+      <c r="AF38" s="1">
         <v>15</v>
       </c>
-      <c r="AG38" s="164">
+      <c r="AG38" s="3">
         <v>16</v>
       </c>
-      <c r="AH38" s="101"/>
+      <c r="AH38" s="49"/>
       <c r="AI38" s="2">
         <v>13</v>
       </c>
@@ -5847,7 +5553,7 @@
       <c r="AL38" s="3">
         <v>16</v>
       </c>
-      <c r="AM38" s="101"/>
+      <c r="AM38" s="49"/>
       <c r="AN38" s="2">
         <v>13</v>
       </c>
@@ -5860,7 +5566,7 @@
       <c r="AQ38" s="3">
         <v>16</v>
       </c>
-      <c r="AR38" s="101"/>
+      <c r="AR38" s="49"/>
       <c r="AS38" s="2">
         <v>13</v>
       </c>
@@ -5873,7 +5579,7 @@
       <c r="AV38" s="3">
         <v>16</v>
       </c>
-      <c r="AW38" s="101"/>
+      <c r="AW38" s="49"/>
       <c r="AX38" s="2">
         <v>13</v>
       </c>
@@ -5886,7 +5592,7 @@
       <c r="BA38" s="3">
         <v>16</v>
       </c>
-      <c r="BB38" s="101"/>
+      <c r="BB38" s="49"/>
       <c r="BC38" s="2">
         <v>13</v>
       </c>
@@ -5899,7 +5605,7 @@
       <c r="BF38" s="3">
         <v>16</v>
       </c>
-      <c r="BG38" s="101"/>
+      <c r="BG38" s="49"/>
       <c r="BH38" s="2">
         <v>13</v>
       </c>
@@ -5913,60 +5619,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:63" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J39" s="90"/>
-      <c r="K39" s="165">
+    <row r="39" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J39" s="50"/>
+      <c r="K39" s="4">
         <v>17</v>
       </c>
-      <c r="L39" s="166">
+      <c r="L39" s="5">
         <v>18</v>
       </c>
-      <c r="M39" s="166">
+      <c r="M39" s="5">
         <v>19</v>
       </c>
-      <c r="N39" s="167">
+      <c r="N39" s="6">
         <v>20</v>
       </c>
-      <c r="O39" s="90"/>
-      <c r="P39" s="165">
+      <c r="O39" s="50"/>
+      <c r="P39" s="4">
         <v>17</v>
       </c>
-      <c r="Q39" s="165" t="s">
-        <v>21</v>
-      </c>
-      <c r="R39" s="167" t="s">
-        <v>21</v>
-      </c>
-      <c r="S39" s="167">
+      <c r="Q39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S39" s="6">
         <v>20</v>
       </c>
-      <c r="X39" s="107"/>
-      <c r="Y39" s="165">
+      <c r="X39" s="50"/>
+      <c r="Y39" s="4">
         <v>17</v>
       </c>
-      <c r="Z39" s="166">
+      <c r="Z39" s="5">
         <v>18</v>
       </c>
-      <c r="AA39" s="166">
+      <c r="AA39" s="5">
         <v>19</v>
       </c>
-      <c r="AB39" s="167">
+      <c r="AB39" s="6">
         <v>20</v>
       </c>
-      <c r="AC39" s="107"/>
-      <c r="AD39" s="165">
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="4">
         <v>17</v>
       </c>
-      <c r="AE39" s="166">
+      <c r="AE39" s="5">
         <v>18</v>
       </c>
-      <c r="AF39" s="166">
+      <c r="AF39" s="5">
         <v>19</v>
       </c>
-      <c r="AG39" s="167">
+      <c r="AG39" s="6">
         <v>20</v>
       </c>
-      <c r="AH39" s="107"/>
+      <c r="AH39" s="50"/>
       <c r="AI39" s="4">
         <v>17</v>
       </c>
@@ -5979,7 +5685,7 @@
       <c r="AL39" s="6">
         <v>20</v>
       </c>
-      <c r="AM39" s="107"/>
+      <c r="AM39" s="50"/>
       <c r="AN39" s="4">
         <v>17</v>
       </c>
@@ -5992,7 +5698,7 @@
       <c r="AQ39" s="6">
         <v>20</v>
       </c>
-      <c r="AR39" s="107"/>
+      <c r="AR39" s="50"/>
       <c r="AS39" s="4">
         <v>17</v>
       </c>
@@ -6005,7 +5711,7 @@
       <c r="AV39" s="6">
         <v>20</v>
       </c>
-      <c r="AW39" s="107"/>
+      <c r="AW39" s="50"/>
       <c r="AX39" s="4">
         <v>17</v>
       </c>
@@ -6018,7 +5724,7 @@
       <c r="BA39" s="6">
         <v>20</v>
       </c>
-      <c r="BB39" s="107"/>
+      <c r="BB39" s="50"/>
       <c r="BC39" s="4">
         <v>17</v>
       </c>
@@ -6031,7 +5737,7 @@
       <c r="BF39" s="6">
         <v>20</v>
       </c>
-      <c r="BG39" s="107"/>
+      <c r="BG39" s="50"/>
       <c r="BH39" s="4">
         <v>17</v>
       </c>
@@ -6046,67 +5752,67 @@
       </c>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J40" s="88">
-        <v>6</v>
-      </c>
-      <c r="K40" s="162">
-        <v>1</v>
-      </c>
-      <c r="L40" s="163">
+      <c r="J40" s="102">
+        <v>6</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
         <v>2</v>
       </c>
-      <c r="M40" s="163">
-        <v>3</v>
-      </c>
-      <c r="N40" s="164">
-        <v>4</v>
-      </c>
-      <c r="O40" s="88">
-        <v>6</v>
-      </c>
-      <c r="P40" s="162">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="170" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="164">
-        <v>4</v>
-      </c>
-      <c r="X40" s="100">
-        <v>6</v>
-      </c>
-      <c r="Y40" s="162">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="163">
+      <c r="M40" s="1">
+        <v>3</v>
+      </c>
+      <c r="N40" s="3">
+        <v>4</v>
+      </c>
+      <c r="O40" s="102">
+        <v>6</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S40" s="3">
+        <v>4</v>
+      </c>
+      <c r="X40" s="71">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="1">
         <v>2</v>
       </c>
-      <c r="AA40" s="163">
-        <v>3</v>
-      </c>
-      <c r="AB40" s="164">
-        <v>4</v>
-      </c>
-      <c r="AC40" s="100">
-        <v>6</v>
-      </c>
-      <c r="AD40" s="168">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="169">
+      <c r="AA40" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC40" s="48">
+        <v>6</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="8">
         <v>2</v>
       </c>
-      <c r="AF40" s="169">
-        <v>3</v>
-      </c>
-      <c r="AG40" s="170">
-        <v>4</v>
-      </c>
-      <c r="AH40" s="100">
+      <c r="AF40" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG40" s="9">
+        <v>4</v>
+      </c>
+      <c r="AH40" s="48">
         <v>6</v>
       </c>
       <c r="AI40" s="7">
@@ -6121,7 +5827,7 @@
       <c r="AL40" s="9">
         <v>4</v>
       </c>
-      <c r="AM40" s="100">
+      <c r="AM40" s="71">
         <v>6</v>
       </c>
       <c r="AN40" s="2">
@@ -6136,7 +5842,7 @@
       <c r="AQ40" s="3">
         <v>4</v>
       </c>
-      <c r="AR40" s="100">
+      <c r="AR40" s="71">
         <v>6</v>
       </c>
       <c r="AS40" s="2">
@@ -6151,7 +5857,7 @@
       <c r="AV40" s="3">
         <v>4</v>
       </c>
-      <c r="AW40" s="100">
+      <c r="AW40" s="71">
         <v>6</v>
       </c>
       <c r="AX40" s="2">
@@ -6166,7 +5872,7 @@
       <c r="BA40" s="3">
         <v>4</v>
       </c>
-      <c r="BB40" s="100">
+      <c r="BB40" s="71">
         <v>6</v>
       </c>
       <c r="BC40" s="2">
@@ -6181,7 +5887,7 @@
       <c r="BF40" s="3">
         <v>4</v>
       </c>
-      <c r="BG40" s="100">
+      <c r="BG40" s="71">
         <v>6</v>
       </c>
       <c r="BH40" s="2">
@@ -6198,59 +5904,59 @@
       </c>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J41" s="89"/>
-      <c r="K41" s="162">
-        <v>5</v>
-      </c>
-      <c r="L41" s="163">
-        <v>6</v>
-      </c>
-      <c r="M41" s="163">
+      <c r="J41" s="49"/>
+      <c r="K41" s="2">
+        <v>5</v>
+      </c>
+      <c r="L41" s="1">
+        <v>6</v>
+      </c>
+      <c r="M41" s="1">
         <v>7</v>
       </c>
-      <c r="N41" s="164">
+      <c r="N41" s="3">
         <v>8</v>
       </c>
-      <c r="O41" s="89"/>
-      <c r="P41" s="162">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S41" s="164">
+      <c r="O41" s="49"/>
+      <c r="P41" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S41" s="3">
         <v>8</v>
       </c>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="162">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="163">
-        <v>6</v>
-      </c>
-      <c r="AA41" s="163">
+      <c r="X41" s="49"/>
+      <c r="Y41" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA41" s="1">
         <v>7</v>
       </c>
-      <c r="AB41" s="164">
+      <c r="AB41" s="3">
         <v>8</v>
       </c>
-      <c r="AC41" s="101"/>
-      <c r="AD41" s="162">
-        <v>5</v>
-      </c>
-      <c r="AE41" s="163">
-        <v>6</v>
-      </c>
-      <c r="AF41" s="163">
+      <c r="AC41" s="49"/>
+      <c r="AD41" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF41" s="1">
         <v>7</v>
       </c>
-      <c r="AG41" s="164">
+      <c r="AG41" s="3">
         <v>8</v>
       </c>
-      <c r="AH41" s="101"/>
+      <c r="AH41" s="49"/>
       <c r="AI41" s="2">
         <v>5</v>
       </c>
@@ -6263,7 +5969,7 @@
       <c r="AL41" s="3">
         <v>8</v>
       </c>
-      <c r="AM41" s="101"/>
+      <c r="AM41" s="49"/>
       <c r="AN41" s="2">
         <v>5</v>
       </c>
@@ -6276,7 +5982,7 @@
       <c r="AQ41" s="3">
         <v>8</v>
       </c>
-      <c r="AR41" s="101"/>
+      <c r="AR41" s="49"/>
       <c r="AS41" s="2">
         <v>5</v>
       </c>
@@ -6289,7 +5995,7 @@
       <c r="AV41" s="3">
         <v>8</v>
       </c>
-      <c r="AW41" s="101"/>
+      <c r="AW41" s="49"/>
       <c r="AX41" s="2">
         <v>5</v>
       </c>
@@ -6302,7 +6008,7 @@
       <c r="BA41" s="3">
         <v>8</v>
       </c>
-      <c r="BB41" s="101"/>
+      <c r="BB41" s="49"/>
       <c r="BC41" s="2">
         <v>5</v>
       </c>
@@ -6315,7 +6021,7 @@
       <c r="BF41" s="3">
         <v>8</v>
       </c>
-      <c r="BG41" s="101"/>
+      <c r="BG41" s="49"/>
       <c r="BH41" s="2">
         <v>5</v>
       </c>
@@ -6330,59 +6036,59 @@
       </c>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J42" s="89"/>
-      <c r="K42" s="162">
+      <c r="J42" s="49"/>
+      <c r="K42" s="2">
         <v>9</v>
       </c>
-      <c r="L42" s="163">
+      <c r="L42" s="1">
         <v>10</v>
       </c>
-      <c r="M42" s="163">
-        <v>11</v>
-      </c>
-      <c r="N42" s="164">
+      <c r="M42" s="1">
+        <v>11</v>
+      </c>
+      <c r="N42" s="3">
         <v>12</v>
       </c>
-      <c r="O42" s="89"/>
-      <c r="P42" s="162">
+      <c r="O42" s="49"/>
+      <c r="P42" s="2">
         <v>9</v>
       </c>
-      <c r="Q42" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R42" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S42" s="164">
+      <c r="Q42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S42" s="3">
         <v>12</v>
       </c>
-      <c r="X42" s="101"/>
-      <c r="Y42" s="162">
+      <c r="X42" s="49"/>
+      <c r="Y42" s="2">
         <v>9</v>
       </c>
-      <c r="Z42" s="163">
+      <c r="Z42" s="1">
         <v>10</v>
       </c>
-      <c r="AA42" s="163">
-        <v>11</v>
-      </c>
-      <c r="AB42" s="164">
+      <c r="AA42" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB42" s="3">
         <v>12</v>
       </c>
-      <c r="AC42" s="101"/>
-      <c r="AD42" s="162">
+      <c r="AC42" s="49"/>
+      <c r="AD42" s="2">
         <v>9</v>
       </c>
-      <c r="AE42" s="163">
+      <c r="AE42" s="1">
         <v>10</v>
       </c>
-      <c r="AF42" s="163">
-        <v>11</v>
-      </c>
-      <c r="AG42" s="164">
+      <c r="AF42" s="1">
+        <v>11</v>
+      </c>
+      <c r="AG42" s="3">
         <v>12</v>
       </c>
-      <c r="AH42" s="101"/>
+      <c r="AH42" s="49"/>
       <c r="AI42" s="2">
         <v>9</v>
       </c>
@@ -6395,7 +6101,7 @@
       <c r="AL42" s="3">
         <v>12</v>
       </c>
-      <c r="AM42" s="101"/>
+      <c r="AM42" s="49"/>
       <c r="AN42" s="2">
         <v>9</v>
       </c>
@@ -6408,7 +6114,7 @@
       <c r="AQ42" s="3">
         <v>12</v>
       </c>
-      <c r="AR42" s="101"/>
+      <c r="AR42" s="49"/>
       <c r="AS42" s="2">
         <v>9</v>
       </c>
@@ -6421,7 +6127,7 @@
       <c r="AV42" s="3">
         <v>12</v>
       </c>
-      <c r="AW42" s="101"/>
+      <c r="AW42" s="49"/>
       <c r="AX42" s="2">
         <v>9</v>
       </c>
@@ -6434,7 +6140,7 @@
       <c r="BA42" s="3">
         <v>12</v>
       </c>
-      <c r="BB42" s="101"/>
+      <c r="BB42" s="49"/>
       <c r="BC42" s="2">
         <v>9</v>
       </c>
@@ -6447,7 +6153,7 @@
       <c r="BF42" s="3">
         <v>12</v>
       </c>
-      <c r="BG42" s="101"/>
+      <c r="BG42" s="49"/>
       <c r="BH42" s="2">
         <v>9</v>
       </c>
@@ -6462,59 +6168,59 @@
       </c>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J43" s="89"/>
-      <c r="K43" s="162">
+      <c r="J43" s="49"/>
+      <c r="K43" s="2">
         <v>13</v>
       </c>
-      <c r="L43" s="163">
+      <c r="L43" s="1">
         <v>14</v>
       </c>
-      <c r="M43" s="163">
+      <c r="M43" s="1">
         <v>15</v>
       </c>
-      <c r="N43" s="164">
+      <c r="N43" s="3">
         <v>16</v>
       </c>
-      <c r="O43" s="89"/>
-      <c r="P43" s="162">
+      <c r="O43" s="49"/>
+      <c r="P43" s="2">
         <v>13</v>
       </c>
-      <c r="Q43" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R43" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S43" s="164">
+      <c r="Q43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S43" s="3">
         <v>16</v>
       </c>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="162">
+      <c r="X43" s="49"/>
+      <c r="Y43" s="2">
         <v>13</v>
       </c>
-      <c r="Z43" s="163">
+      <c r="Z43" s="1">
         <v>14</v>
       </c>
-      <c r="AA43" s="163">
+      <c r="AA43" s="1">
         <v>15</v>
       </c>
-      <c r="AB43" s="164">
+      <c r="AB43" s="3">
         <v>16</v>
       </c>
-      <c r="AC43" s="101"/>
-      <c r="AD43" s="162">
+      <c r="AC43" s="49"/>
+      <c r="AD43" s="2">
         <v>13</v>
       </c>
-      <c r="AE43" s="163">
+      <c r="AE43" s="1">
         <v>14</v>
       </c>
-      <c r="AF43" s="163">
+      <c r="AF43" s="1">
         <v>15</v>
       </c>
-      <c r="AG43" s="164">
+      <c r="AG43" s="3">
         <v>16</v>
       </c>
-      <c r="AH43" s="101"/>
+      <c r="AH43" s="49"/>
       <c r="AI43" s="2">
         <v>13</v>
       </c>
@@ -6527,7 +6233,7 @@
       <c r="AL43" s="3">
         <v>16</v>
       </c>
-      <c r="AM43" s="101"/>
+      <c r="AM43" s="49"/>
       <c r="AN43" s="2">
         <v>13</v>
       </c>
@@ -6540,7 +6246,7 @@
       <c r="AQ43" s="3">
         <v>16</v>
       </c>
-      <c r="AR43" s="101"/>
+      <c r="AR43" s="49"/>
       <c r="AS43" s="2">
         <v>13</v>
       </c>
@@ -6553,7 +6259,7 @@
       <c r="AV43" s="3">
         <v>16</v>
       </c>
-      <c r="AW43" s="101"/>
+      <c r="AW43" s="49"/>
       <c r="AX43" s="2">
         <v>13</v>
       </c>
@@ -6566,7 +6272,7 @@
       <c r="BA43" s="3">
         <v>16</v>
       </c>
-      <c r="BB43" s="101"/>
+      <c r="BB43" s="49"/>
       <c r="BC43" s="2">
         <v>13</v>
       </c>
@@ -6579,7 +6285,7 @@
       <c r="BF43" s="3">
         <v>16</v>
       </c>
-      <c r="BG43" s="101"/>
+      <c r="BG43" s="49"/>
       <c r="BH43" s="2">
         <v>13</v>
       </c>
@@ -6593,60 +6299,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:63" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J44" s="89"/>
-      <c r="K44" s="162">
+    <row r="44" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J44" s="49"/>
+      <c r="K44" s="2">
         <v>17</v>
       </c>
-      <c r="L44" s="163">
+      <c r="L44" s="1">
         <v>18</v>
       </c>
-      <c r="M44" s="163">
+      <c r="M44" s="1">
         <v>19</v>
       </c>
-      <c r="N44" s="164">
+      <c r="N44" s="3">
         <v>20</v>
       </c>
-      <c r="O44" s="89"/>
-      <c r="P44" s="162">
+      <c r="O44" s="49"/>
+      <c r="P44" s="2">
         <v>17</v>
       </c>
-      <c r="Q44" s="162" t="s">
-        <v>21</v>
-      </c>
-      <c r="R44" s="164" t="s">
-        <v>21</v>
-      </c>
-      <c r="S44" s="164">
+      <c r="Q44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44" s="3">
         <v>20</v>
       </c>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="162">
+      <c r="X44" s="49"/>
+      <c r="Y44" s="2">
         <v>17</v>
       </c>
-      <c r="Z44" s="163">
+      <c r="Z44" s="1">
         <v>18</v>
       </c>
-      <c r="AA44" s="163">
+      <c r="AA44" s="1">
         <v>19</v>
       </c>
-      <c r="AB44" s="164">
+      <c r="AB44" s="3">
         <v>20</v>
       </c>
-      <c r="AC44" s="107"/>
-      <c r="AD44" s="165">
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="4">
         <v>17</v>
       </c>
-      <c r="AE44" s="166">
+      <c r="AE44" s="5">
         <v>18</v>
       </c>
-      <c r="AF44" s="166">
+      <c r="AF44" s="5">
         <v>19</v>
       </c>
-      <c r="AG44" s="167">
+      <c r="AG44" s="6">
         <v>20</v>
       </c>
-      <c r="AH44" s="107"/>
+      <c r="AH44" s="50"/>
       <c r="AI44" s="4">
         <v>17</v>
       </c>
@@ -6659,7 +6365,7 @@
       <c r="AL44" s="6">
         <v>20</v>
       </c>
-      <c r="AM44" s="101"/>
+      <c r="AM44" s="49"/>
       <c r="AN44" s="2">
         <v>17</v>
       </c>
@@ -6672,7 +6378,7 @@
       <c r="AQ44" s="3">
         <v>20</v>
       </c>
-      <c r="AR44" s="101"/>
+      <c r="AR44" s="49"/>
       <c r="AS44" s="2">
         <v>17</v>
       </c>
@@ -6685,7 +6391,7 @@
       <c r="AV44" s="3">
         <v>20</v>
       </c>
-      <c r="AW44" s="101"/>
+      <c r="AW44" s="49"/>
       <c r="AX44" s="2">
         <v>17</v>
       </c>
@@ -6698,7 +6404,7 @@
       <c r="BA44" s="3">
         <v>20</v>
       </c>
-      <c r="BB44" s="101"/>
+      <c r="BB44" s="49"/>
       <c r="BC44" s="2">
         <v>17</v>
       </c>
@@ -6711,7 +6417,7 @@
       <c r="BF44" s="3">
         <v>20</v>
       </c>
-      <c r="BG44" s="101"/>
+      <c r="BG44" s="49"/>
       <c r="BH44" s="2">
         <v>17</v>
       </c>
@@ -6726,32 +6432,32 @@
       </c>
     </row>
     <row r="45" spans="1:63" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="47"/>
+      <c r="A45" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="83"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="95"/>
+      <c r="D45" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="57"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
-      <c r="L45" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45" s="49"/>
+      <c r="L45" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" s="57"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
-      <c r="Q45" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="R45" s="55"/>
+      <c r="Q45" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="R45" s="62"/>
       <c r="S45" s="28"/>
       <c r="T45" s="29"/>
       <c r="U45" s="29"/>
@@ -6799,16 +6505,16 @@
       <c r="BK45" s="30"/>
     </row>
     <row r="46" spans="1:63" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="96"/>
-      <c r="E46" s="97"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="51"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="70"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="70"/>
     </row>
     <row r="47" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D47" s="98"/>
-      <c r="E47" s="99"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="53"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="60"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="60"/>
     </row>
     <row r="48" spans="1:63" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J48" s="15"/>
@@ -6840,180 +6546,180 @@
     </row>
   </sheetData>
   <mergeCells count="166">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="X9:AB10"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AR13:AV13"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="AH13:AL13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="O30:O34"/>
+    <mergeCell ref="AW15:AW19"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="O20:O24"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="AC30:AC34"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J8:N8"/>
     <mergeCell ref="J35:J39"/>
-    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="AR25:AR29"/>
+    <mergeCell ref="AM13:AQ13"/>
+    <mergeCell ref="AC40:AC44"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="AX14:BA14"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="AM25:AM29"/>
+    <mergeCell ref="BG25:BG29"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="X40:X44"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="BG13:BK13"/>
+    <mergeCell ref="BC14:BF14"/>
+    <mergeCell ref="BG40:BG44"/>
+    <mergeCell ref="BG15:BG19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="BH14:BK14"/>
+    <mergeCell ref="BG35:BG39"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="BG20:BG24"/>
+    <mergeCell ref="AW25:AW29"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="BB40:BB44"/>
+    <mergeCell ref="AW35:AW39"/>
+    <mergeCell ref="AH15:AH19"/>
+    <mergeCell ref="J9:S10"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="AC25:AC29"/>
+    <mergeCell ref="AW20:AW24"/>
+    <mergeCell ref="AC9:AG10"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="X7:AB7"/>
     <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="AR35:AR39"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="T9:V10"/>
+    <mergeCell ref="BB7:BF7"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="AH35:AH39"/>
+    <mergeCell ref="AC15:AC19"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="BG7:BK7"/>
+    <mergeCell ref="BB30:BB34"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AH20:AH24"/>
+    <mergeCell ref="BB20:BB24"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="O35:O39"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AC35:AC39"/>
+    <mergeCell ref="O25:O29"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="BB13:BF13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="AM35:AM39"/>
+    <mergeCell ref="X15:X19"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="AW40:AW44"/>
+    <mergeCell ref="AM15:AM19"/>
+    <mergeCell ref="X25:X29"/>
+    <mergeCell ref="AR20:AR24"/>
+    <mergeCell ref="D45:E47"/>
+    <mergeCell ref="AH25:AH29"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="L45:M47"/>
+    <mergeCell ref="O15:O19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="AM40:AM44"/>
+    <mergeCell ref="AR40:AR44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="O40:O44"/>
+    <mergeCell ref="BG30:BG34"/>
+    <mergeCell ref="AM20:AM24"/>
+    <mergeCell ref="X11:BK12"/>
+    <mergeCell ref="BB25:BB29"/>
+    <mergeCell ref="D11:G12"/>
+    <mergeCell ref="X8:AB8"/>
     <mergeCell ref="J11:S12"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="X11:BK12"/>
-    <mergeCell ref="BB13:BF13"/>
-    <mergeCell ref="BC14:BF14"/>
-    <mergeCell ref="AC9:AG10"/>
-    <mergeCell ref="AR13:AV13"/>
+    <mergeCell ref="AH8:AL8"/>
+    <mergeCell ref="AM9:BK10"/>
+    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="AW13:BA13"/>
     <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AH13:AL13"/>
-    <mergeCell ref="AH8:AL8"/>
-    <mergeCell ref="J9:S10"/>
-    <mergeCell ref="X9:AB10"/>
-    <mergeCell ref="AM9:BK10"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="T9:V10"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="BB15:BB19"/>
     <mergeCell ref="AH9:AL10"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AC40:AC44"/>
-    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="AR15:AR19"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="X30:X34"/>
     <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="AH35:AH39"/>
+    <mergeCell ref="AR30:AR34"/>
+    <mergeCell ref="X20:X24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="AH40:AH44"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="AR7:AV7"/>
+    <mergeCell ref="AM30:AM34"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="AW30:AW34"/>
+    <mergeCell ref="AC20:AC24"/>
+    <mergeCell ref="BB35:BB39"/>
     <mergeCell ref="X35:X39"/>
-    <mergeCell ref="O15:O19"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="X40:X44"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="O25:O29"/>
-    <mergeCell ref="AM35:AM39"/>
-    <mergeCell ref="BB35:BB39"/>
-    <mergeCell ref="AR35:AR39"/>
-    <mergeCell ref="AC25:AC29"/>
-    <mergeCell ref="AC30:AC34"/>
-    <mergeCell ref="AC35:AC39"/>
-    <mergeCell ref="AH15:AH19"/>
-    <mergeCell ref="AH20:AH24"/>
-    <mergeCell ref="AH25:AH29"/>
-    <mergeCell ref="AM15:AM19"/>
-    <mergeCell ref="AR15:AR19"/>
-    <mergeCell ref="AM40:AM44"/>
-    <mergeCell ref="X15:X19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="AM25:AM29"/>
-    <mergeCell ref="AM30:AM34"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="X7:AB7"/>
     <mergeCell ref="AC7:AG7"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="X25:X29"/>
-    <mergeCell ref="X30:X34"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="X20:X24"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="AC15:AC19"/>
-    <mergeCell ref="AC20:AC24"/>
-    <mergeCell ref="AM20:AM24"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="BB40:BB44"/>
-    <mergeCell ref="BG13:BK13"/>
-    <mergeCell ref="BH14:BK14"/>
-    <mergeCell ref="BG15:BG19"/>
-    <mergeCell ref="BG20:BG24"/>
-    <mergeCell ref="BG25:BG29"/>
-    <mergeCell ref="BG30:BG34"/>
-    <mergeCell ref="BG35:BG39"/>
-    <mergeCell ref="BG40:BG44"/>
-    <mergeCell ref="BB25:BB29"/>
-    <mergeCell ref="BB30:BB34"/>
-    <mergeCell ref="BB15:BB19"/>
-    <mergeCell ref="BB20:BB24"/>
-    <mergeCell ref="AR40:AR44"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="AX14:BA14"/>
-    <mergeCell ref="AW15:AW19"/>
-    <mergeCell ref="AW20:AW24"/>
-    <mergeCell ref="AW25:AW29"/>
-    <mergeCell ref="AW30:AW34"/>
-    <mergeCell ref="AW35:AW39"/>
-    <mergeCell ref="AW40:AW44"/>
-    <mergeCell ref="AR30:AR34"/>
-    <mergeCell ref="AR20:AR24"/>
-    <mergeCell ref="AR25:AR29"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="L45:M47"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D11:G12"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="O40:O44"/>
-    <mergeCell ref="O35:O39"/>
-    <mergeCell ref="O30:O34"/>
-    <mergeCell ref="O20:O24"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="D45:E47"/>
-    <mergeCell ref="AR7:AV7"/>
     <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="BB7:BF7"/>
-    <mergeCell ref="BG7:BK7"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="AH7:AL7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231E6166-D82B-4599-91D1-984EC08AA9C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7028,24 +6734,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
@@ -7056,7 +6762,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="36">
         <v>1</v>
@@ -7068,12 +6774,12 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" s="36">
         <v>1</v>
@@ -7082,15 +6788,15 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" s="36">
         <v>1</v>
@@ -7099,15 +6805,15 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="36">
         <v>1</v>
@@ -7116,15 +6822,15 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="36">
         <v>1</v>
@@ -7135,7 +6841,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="36">
         <v>1</v>
@@ -7146,7 +6852,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" s="36">
         <v>1</v>
@@ -7157,7 +6863,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10" s="36">
         <v>1</v>
@@ -7166,12 +6872,12 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11" s="36">
         <v>1</v>
@@ -7182,7 +6888,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="37">
         <v>3</v>
@@ -7193,7 +6899,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B13" s="37">
         <v>3</v>
@@ -7204,7 +6910,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B14" s="37">
         <v>3</v>
@@ -7215,7 +6921,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B15" s="37">
         <v>3</v>
@@ -7226,7 +6932,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B16" s="37">
         <v>3</v>
@@ -7237,7 +6943,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B17" s="37">
         <v>3</v>
@@ -7246,15 +6952,15 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B18" s="37">
         <v>3</v>
@@ -7265,7 +6971,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B19" s="37">
         <v>3</v>
@@ -7274,15 +6980,15 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B20" s="37">
         <v>3</v>
@@ -7291,12 +6997,12 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B21" s="37">
         <v>3</v>
@@ -7305,15 +7011,15 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B22" s="36">
         <v>4</v>
@@ -7324,7 +7030,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B23" s="36">
         <v>4</v>
@@ -7335,7 +7041,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B24" s="36">
         <v>4</v>
@@ -7346,7 +7052,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B25" s="36">
         <v>4</v>
@@ -7357,7 +7063,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B26" s="36">
         <v>4</v>
@@ -7368,7 +7074,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B27" s="36">
         <v>4</v>
@@ -7379,7 +7085,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B28" s="36">
         <v>4</v>
@@ -7390,7 +7096,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B29" s="36">
         <v>4</v>
@@ -7401,7 +7107,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B30" s="36">
         <v>4</v>
@@ -7412,7 +7118,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B31" s="36">
         <v>4</v>
@@ -7423,7 +7129,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B32" s="37">
         <v>5</v>
@@ -7434,7 +7140,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B33" s="37">
         <v>5</v>
@@ -7445,7 +7151,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B34" s="37">
         <v>5</v>
@@ -7456,7 +7162,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B35" s="37">
         <v>5</v>
@@ -7467,7 +7173,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B36" s="37">
         <v>5</v>
@@ -7478,7 +7184,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B37" s="37">
         <v>5</v>
@@ -7489,7 +7195,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B38" s="37">
         <v>5</v>
@@ -7500,7 +7206,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B39" s="37">
         <v>5</v>
@@ -7511,7 +7217,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B40" s="37">
         <v>5</v>
@@ -7522,7 +7228,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B41" s="37">
         <v>5</v>
@@ -7533,7 +7239,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B42" s="36">
         <v>6</v>
@@ -7544,7 +7250,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B43" s="36">
         <v>6</v>
@@ -7555,7 +7261,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B44" s="36">
         <v>6</v>
@@ -7566,7 +7272,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B45" s="36">
         <v>6</v>
@@ -7577,7 +7283,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B46" s="36">
         <v>6</v>
@@ -7588,7 +7294,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B47" s="36">
         <v>6</v>
@@ -7599,7 +7305,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B48" s="36">
         <v>6</v>
@@ -7610,7 +7316,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B49" s="36">
         <v>6</v>
@@ -7621,7 +7327,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B50" s="36">
         <v>6</v>
@@ -7632,7 +7338,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B51" s="36">
         <v>6</v>
@@ -7642,7 +7348,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Moonfish Batch Lifetime.xlsx
+++ b/Moonfish Batch Lifetime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry.Delalis\PycharmProjects\moonfish_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A224C949-C458-42F7-BD92-D669C29950AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A66D49-54CE-4379-B16E-B3D3C242F06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="68">
   <si>
     <t>Moonfish Batch Lifetime</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Cell</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Comments</t>
@@ -400,8 +397,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -751,21 +748,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="1"/>
       </left>
       <right style="medium">
@@ -879,11 +861,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,9 +917,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -997,15 +989,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1022,7 +1043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,22 +1056,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,7 +1086,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -1073,50 +1094,53 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1128,13 +1152,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1149,10 +1170,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1161,10 +1182,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1453,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,783 +1492,781 @@
     <col min="16" max="21" width="9.1796875" style="1" customWidth="1"/>
     <col min="22" max="22" width="3.7265625" style="1" customWidth="1"/>
     <col min="23" max="23" width="25.1796875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1796875" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="1"/>
+    <col min="24" max="49" width="9.1796875" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="F1" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="23" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="F1" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="64"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="57"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
+      <c r="J1" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="65"/>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="70"/>
-      <c r="F2" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="33" t="s">
+      <c r="A2" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="78"/>
+      <c r="F2" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="94"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="70"/>
+      <c r="J2" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:63" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="F3" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33" t="s">
+      <c r="A3" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="F3" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="94"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="J3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="70"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="87"/>
+      <c r="F4" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="94"/>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="78"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F5" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="59"/>
+      <c r="F5" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="67"/>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="60"/>
+      <c r="D7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="51" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="97" t="s">
+      <c r="I7" s="60"/>
+      <c r="J7" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="51" t="s">
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="51" t="s">
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="34" t="s">
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="X7" s="51" t="s">
+      <c r="X7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="103" t="s">
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="103" t="s">
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="67"/>
+      <c r="AH7" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="51" t="s">
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="67"/>
+      <c r="AK7" s="67"/>
+      <c r="AL7" s="67"/>
+      <c r="AM7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AN7" s="52"/>
-      <c r="AO7" s="52"/>
-      <c r="AP7" s="52"/>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="51" t="s">
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="52"/>
-      <c r="AU7" s="52"/>
-      <c r="AV7" s="52"/>
-      <c r="AW7" s="51" t="s">
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AX7" s="52"/>
-      <c r="AY7" s="52"/>
-      <c r="AZ7" s="52"/>
-      <c r="BA7" s="52"/>
-      <c r="BB7" s="51" t="s">
+      <c r="AX7" s="60"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="BC7" s="52"/>
-      <c r="BD7" s="52"/>
-      <c r="BE7" s="52"/>
-      <c r="BF7" s="52"/>
-      <c r="BG7" s="51" t="s">
+      <c r="BC7" s="60"/>
+      <c r="BD7" s="60"/>
+      <c r="BE7" s="60"/>
+      <c r="BF7" s="60"/>
+      <c r="BG7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="BH7" s="52"/>
-      <c r="BI7" s="52"/>
-      <c r="BJ7" s="52"/>
-      <c r="BK7" s="52"/>
+      <c r="BH7" s="60"/>
+      <c r="BI7" s="60"/>
+      <c r="BJ7" s="60"/>
+      <c r="BK7" s="60"/>
     </row>
     <row r="8" spans="1:63" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="82" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="82" t="s">
+      <c r="E8" s="103"/>
+      <c r="F8" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="82" t="s">
+      <c r="G8" s="103"/>
+      <c r="H8" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="82" t="s">
+      <c r="I8" s="103"/>
+      <c r="J8" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="82" t="s">
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="82" t="s">
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="62"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="20" t="s">
+      <c r="U8" s="70"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="X8" s="61" t="s">
+      <c r="X8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="25"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="25"/>
-      <c r="BA8" s="25"/>
-      <c r="BB8" s="25"/>
-      <c r="BC8" s="25"/>
-      <c r="BD8" s="25"/>
-      <c r="BE8" s="25"/>
-      <c r="BF8" s="25"/>
-      <c r="BG8" s="25"/>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="25"/>
-      <c r="BJ8" s="25"/>
-      <c r="BK8" s="26"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="24"/>
+      <c r="AT8" s="24"/>
+      <c r="AU8" s="24"/>
+      <c r="AV8" s="24"/>
+      <c r="AW8" s="24"/>
+      <c r="AX8" s="24"/>
+      <c r="AY8" s="24"/>
+      <c r="AZ8" s="24"/>
+      <c r="BA8" s="24"/>
+      <c r="BB8" s="24"/>
+      <c r="BC8" s="24"/>
+      <c r="BD8" s="24"/>
+      <c r="BE8" s="24"/>
+      <c r="BF8" s="24"/>
+      <c r="BG8" s="24"/>
+      <c r="BH8" s="24"/>
+      <c r="BI8" s="24"/>
+      <c r="BJ8" s="24"/>
+      <c r="BK8" s="25"/>
     </row>
     <row r="9" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="98" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="91" t="s">
+      <c r="I9" s="78"/>
+      <c r="J9" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="98" t="s">
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="87"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="98" t="s">
+      <c r="U9" s="94"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="93" t="s">
+      <c r="X9" s="98"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="93" t="s">
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="56"/>
-      <c r="AQ9" s="56"/>
-      <c r="AR9" s="56"/>
-      <c r="AS9" s="56"/>
-      <c r="AT9" s="56"/>
-      <c r="AU9" s="56"/>
-      <c r="AV9" s="56"/>
-      <c r="AW9" s="56"/>
-      <c r="AX9" s="56"/>
-      <c r="AY9" s="56"/>
-      <c r="AZ9" s="56"/>
-      <c r="BA9" s="56"/>
-      <c r="BB9" s="56"/>
-      <c r="BC9" s="56"/>
-      <c r="BD9" s="56"/>
-      <c r="BE9" s="56"/>
-      <c r="BF9" s="56"/>
-      <c r="BG9" s="56"/>
-      <c r="BH9" s="56"/>
-      <c r="BI9" s="56"/>
-      <c r="BJ9" s="56"/>
-      <c r="BK9" s="57"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="64"/>
+      <c r="AZ9" s="64"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="64"/>
+      <c r="BE9" s="64"/>
+      <c r="BF9" s="64"/>
+      <c r="BG9" s="64"/>
+      <c r="BH9" s="64"/>
+      <c r="BI9" s="64"/>
+      <c r="BJ9" s="64"/>
+      <c r="BK9" s="65"/>
     </row>
     <row r="10" spans="1:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="59"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="59"/>
-      <c r="AU10" s="59"/>
-      <c r="AV10" s="59"/>
-      <c r="AW10" s="59"/>
-      <c r="AX10" s="59"/>
-      <c r="AY10" s="59"/>
-      <c r="AZ10" s="59"/>
-      <c r="BA10" s="59"/>
-      <c r="BB10" s="59"/>
-      <c r="BC10" s="59"/>
-      <c r="BD10" s="59"/>
-      <c r="BE10" s="59"/>
-      <c r="BF10" s="59"/>
-      <c r="BG10" s="59"/>
-      <c r="BH10" s="59"/>
-      <c r="BI10" s="59"/>
-      <c r="BJ10" s="59"/>
-      <c r="BK10" s="60"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="67"/>
+      <c r="AK10" s="67"/>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="67"/>
+      <c r="AO10" s="67"/>
+      <c r="AP10" s="67"/>
+      <c r="AQ10" s="67"/>
+      <c r="AR10" s="67"/>
+      <c r="AS10" s="67"/>
+      <c r="AT10" s="67"/>
+      <c r="AU10" s="67"/>
+      <c r="AV10" s="67"/>
+      <c r="AW10" s="67"/>
+      <c r="AX10" s="67"/>
+      <c r="AY10" s="67"/>
+      <c r="AZ10" s="67"/>
+      <c r="BA10" s="67"/>
+      <c r="BB10" s="67"/>
+      <c r="BC10" s="67"/>
+      <c r="BD10" s="67"/>
+      <c r="BE10" s="67"/>
+      <c r="BF10" s="67"/>
+      <c r="BG10" s="67"/>
+      <c r="BH10" s="67"/>
+      <c r="BI10" s="67"/>
+      <c r="BJ10" s="67"/>
+      <c r="BK10" s="68"/>
     </row>
     <row r="11" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="55" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
-      <c r="X11" s="55" t="s">
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="65"/>
+      <c r="X11" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="56"/>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="56"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="56"/>
-      <c r="AP11" s="56"/>
-      <c r="AQ11" s="56"/>
-      <c r="AR11" s="56"/>
-      <c r="AS11" s="56"/>
-      <c r="AT11" s="56"/>
-      <c r="AU11" s="56"/>
-      <c r="AV11" s="56"/>
-      <c r="AW11" s="56"/>
-      <c r="AX11" s="56"/>
-      <c r="AY11" s="56"/>
-      <c r="AZ11" s="56"/>
-      <c r="BA11" s="56"/>
-      <c r="BB11" s="56"/>
-      <c r="BC11" s="56"/>
-      <c r="BD11" s="56"/>
-      <c r="BE11" s="56"/>
-      <c r="BF11" s="56"/>
-      <c r="BG11" s="56"/>
-      <c r="BH11" s="56"/>
-      <c r="BI11" s="56"/>
-      <c r="BJ11" s="56"/>
-      <c r="BK11" s="57"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="64"/>
+      <c r="BG11" s="64"/>
+      <c r="BH11" s="64"/>
+      <c r="BI11" s="64"/>
+      <c r="BJ11" s="64"/>
+      <c r="BK11" s="65"/>
     </row>
     <row r="12" spans="1:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="73"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="60"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="59"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="59"/>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="59"/>
-      <c r="BK12" s="60"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="68"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="67"/>
+      <c r="AK12" s="67"/>
+      <c r="AL12" s="67"/>
+      <c r="AM12" s="67"/>
+      <c r="AN12" s="67"/>
+      <c r="AO12" s="67"/>
+      <c r="AP12" s="67"/>
+      <c r="AQ12" s="67"/>
+      <c r="AR12" s="67"/>
+      <c r="AS12" s="67"/>
+      <c r="AT12" s="67"/>
+      <c r="AU12" s="67"/>
+      <c r="AV12" s="67"/>
+      <c r="AW12" s="67"/>
+      <c r="AX12" s="67"/>
+      <c r="AY12" s="67"/>
+      <c r="AZ12" s="67"/>
+      <c r="BA12" s="67"/>
+      <c r="BB12" s="67"/>
+      <c r="BC12" s="67"/>
+      <c r="BD12" s="67"/>
+      <c r="BE12" s="67"/>
+      <c r="BF12" s="67"/>
+      <c r="BG12" s="67"/>
+      <c r="BH12" s="67"/>
+      <c r="BI12" s="67"/>
+      <c r="BJ12" s="67"/>
+      <c r="BK12" s="68"/>
     </row>
     <row r="13" spans="1:63" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="69" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="80" t="s">
+      <c r="E13" s="78"/>
+      <c r="F13" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="47"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="92" t="s">
+      <c r="I13" s="18"/>
+      <c r="J13" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="92" t="s">
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="70"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="78"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
-      <c r="X13" s="92" t="s">
+      <c r="X13" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="114" t="s">
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="66" t="s">
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="60"/>
-      <c r="AR13" s="66" t="s">
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="67"/>
+      <c r="AP13" s="67"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="60"/>
-      <c r="AW13" s="66" t="s">
+      <c r="AS13" s="67"/>
+      <c r="AT13" s="67"/>
+      <c r="AU13" s="67"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="60"/>
-      <c r="BB13" s="66" t="s">
+      <c r="AX13" s="67"/>
+      <c r="AY13" s="67"/>
+      <c r="AZ13" s="67"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="60"/>
-      <c r="BG13" s="66" t="s">
+      <c r="BC13" s="67"/>
+      <c r="BD13" s="67"/>
+      <c r="BE13" s="67"/>
+      <c r="BF13" s="68"/>
+      <c r="BG13" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="60"/>
+      <c r="BH13" s="67"/>
+      <c r="BI13" s="67"/>
+      <c r="BJ13" s="67"/>
+      <c r="BK13" s="68"/>
     </row>
     <row r="14" spans="1:63" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="108" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="100" t="s">
+      <c r="G14" s="65"/>
+      <c r="H14" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="14" t="s">
+      <c r="I14" s="55"/>
+      <c r="J14" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="14" t="s">
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="111" t="s">
+      <c r="P14" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="84" t="s">
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="46"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="27" t="s">
+      <c r="U14" s="54"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="26" t="s">
         <v>48</v>
       </c>
       <c r="X14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Y14" s="65" t="s">
+      <c r="Y14" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="47"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="55"/>
       <c r="AC14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AD14" s="65" t="s">
+      <c r="AD14" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="47"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="55"/>
       <c r="AH14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AI14" s="65" t="s">
+      <c r="AI14" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="47"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="55"/>
       <c r="AM14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AN14" s="65" t="s">
+      <c r="AN14" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="47"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="55"/>
       <c r="AR14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AS14" s="65" t="s">
+      <c r="AS14" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="AT14" s="46"/>
-      <c r="AU14" s="46"/>
-      <c r="AV14" s="47"/>
+      <c r="AT14" s="54"/>
+      <c r="AU14" s="54"/>
+      <c r="AV14" s="55"/>
       <c r="AW14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AX14" s="65" t="s">
+      <c r="AX14" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="AY14" s="46"/>
-      <c r="AZ14" s="46"/>
-      <c r="BA14" s="47"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="54"/>
+      <c r="BA14" s="55"/>
       <c r="BB14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BC14" s="65" t="s">
+      <c r="BC14" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="BD14" s="46"/>
-      <c r="BE14" s="46"/>
-      <c r="BF14" s="47"/>
+      <c r="BD14" s="54"/>
+      <c r="BE14" s="54"/>
+      <c r="BF14" s="55"/>
       <c r="BG14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BH14" s="65" t="s">
+      <c r="BH14" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="BI14" s="46"/>
-      <c r="BJ14" s="46"/>
-      <c r="BK14" s="47"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="D15" s="67">
-        <v>1</v>
-      </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="67">
-        <v>1</v>
-      </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="67">
-        <v>1</v>
-      </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="79">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="BI14" s="54"/>
+      <c r="BJ14" s="54"/>
+      <c r="BK14" s="55"/>
+    </row>
+    <row r="15" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="74">
+        <v>1</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="74">
+        <v>1</v>
+      </c>
+      <c r="G15" s="75"/>
+      <c r="H15" s="92">
+        <v>1</v>
+      </c>
+      <c r="I15" s="75"/>
+      <c r="J15" s="87">
+        <v>1</v>
+      </c>
+      <c r="K15" s="42">
         <v>1</v>
       </c>
       <c r="L15" s="1">
@@ -2253,13 +2275,13 @@
       <c r="M15" s="1">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>4</v>
-      </c>
-      <c r="O15" s="79">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="N15" s="43">
+        <v>4</v>
+      </c>
+      <c r="O15" s="87">
+        <v>1</v>
+      </c>
+      <c r="P15" s="44">
         <v>1</v>
       </c>
       <c r="Q15" s="7" t="s">
@@ -2268,18 +2290,18 @@
       <c r="R15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="8">
-        <v>4</v>
-      </c>
-      <c r="T15" s="67">
-        <v>1</v>
-      </c>
-      <c r="U15" s="112"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="39">
-        <v>1</v>
-      </c>
-      <c r="X15" s="89">
+      <c r="S15" s="45">
+        <v>4</v>
+      </c>
+      <c r="T15" s="92">
+        <v>1</v>
+      </c>
+      <c r="U15" s="120"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="38">
+        <v>1</v>
+      </c>
+      <c r="X15" s="96">
         <v>1</v>
       </c>
       <c r="Y15" s="2">
@@ -2294,7 +2316,7 @@
       <c r="AB15" s="3">
         <v>4</v>
       </c>
-      <c r="AC15" s="48">
+      <c r="AC15" s="56">
         <v>1</v>
       </c>
       <c r="AD15" s="7">
@@ -2309,7 +2331,7 @@
       <c r="AG15" s="9">
         <v>4</v>
       </c>
-      <c r="AH15" s="48">
+      <c r="AH15" s="56">
         <v>1</v>
       </c>
       <c r="AI15" s="7">
@@ -2324,7 +2346,7 @@
       <c r="AL15" s="9">
         <v>4</v>
       </c>
-      <c r="AM15" s="48">
+      <c r="AM15" s="56">
         <v>1</v>
       </c>
       <c r="AN15" s="2">
@@ -2339,7 +2361,7 @@
       <c r="AQ15" s="3">
         <v>4</v>
       </c>
-      <c r="AR15" s="48">
+      <c r="AR15" s="56">
         <v>1</v>
       </c>
       <c r="AS15" s="2">
@@ -2354,7 +2376,7 @@
       <c r="AV15" s="3">
         <v>4</v>
       </c>
-      <c r="AW15" s="48">
+      <c r="AW15" s="56">
         <v>1</v>
       </c>
       <c r="AX15" s="2">
@@ -2369,7 +2391,7 @@
       <c r="BA15" s="3">
         <v>4</v>
       </c>
-      <c r="BB15" s="48">
+      <c r="BB15" s="56">
         <v>1</v>
       </c>
       <c r="BC15" s="2">
@@ -2384,7 +2406,7 @@
       <c r="BF15" s="3">
         <v>4</v>
       </c>
-      <c r="BG15" s="48">
+      <c r="BG15" s="56">
         <v>1</v>
       </c>
       <c r="BH15" s="2">
@@ -2401,20 +2423,20 @@
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="D16" s="53">
+      <c r="D16" s="61">
         <v>2</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="53">
+      <c r="E16" s="62"/>
+      <c r="F16" s="61">
         <v>2</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="53">
+      <c r="G16" s="62"/>
+      <c r="H16" s="61">
         <v>2</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="2">
+      <c r="I16" s="62"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="42">
         <v>5</v>
       </c>
       <c r="L16" s="1">
@@ -2423,11 +2445,11 @@
       <c r="M16" s="1">
         <v>7</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="43">
         <v>8</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="2">
+      <c r="O16" s="57"/>
+      <c r="P16" s="42">
         <v>5</v>
       </c>
       <c r="Q16" s="2" t="s">
@@ -2436,18 +2458,18 @@
       <c r="R16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="46">
         <v>8</v>
       </c>
-      <c r="T16" s="53">
+      <c r="T16" s="61">
         <v>2</v>
       </c>
-      <c r="U16" s="95"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="40">
+      <c r="U16" s="104"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="39">
         <v>2</v>
       </c>
-      <c r="X16" s="70"/>
+      <c r="X16" s="78"/>
       <c r="Y16" s="2">
         <v>5</v>
       </c>
@@ -2460,7 +2482,7 @@
       <c r="AB16" s="3">
         <v>8</v>
       </c>
-      <c r="AC16" s="49"/>
+      <c r="AC16" s="57"/>
       <c r="AD16" s="2">
         <v>5</v>
       </c>
@@ -2473,7 +2495,7 @@
       <c r="AG16" s="3">
         <v>8</v>
       </c>
-      <c r="AH16" s="49"/>
+      <c r="AH16" s="57"/>
       <c r="AI16" s="2">
         <v>5</v>
       </c>
@@ -2486,7 +2508,7 @@
       <c r="AL16" s="3">
         <v>8</v>
       </c>
-      <c r="AM16" s="49"/>
+      <c r="AM16" s="57"/>
       <c r="AN16" s="2">
         <v>5</v>
       </c>
@@ -2499,7 +2521,7 @@
       <c r="AQ16" s="3">
         <v>8</v>
       </c>
-      <c r="AR16" s="49"/>
+      <c r="AR16" s="57"/>
       <c r="AS16" s="2">
         <v>5</v>
       </c>
@@ -2512,7 +2534,7 @@
       <c r="AV16" s="3">
         <v>8</v>
       </c>
-      <c r="AW16" s="49"/>
+      <c r="AW16" s="57"/>
       <c r="AX16" s="2">
         <v>5</v>
       </c>
@@ -2525,7 +2547,7 @@
       <c r="BA16" s="3">
         <v>8</v>
       </c>
-      <c r="BB16" s="49"/>
+      <c r="BB16" s="57"/>
       <c r="BC16" s="2">
         <v>5</v>
       </c>
@@ -2538,7 +2560,7 @@
       <c r="BF16" s="3">
         <v>8</v>
       </c>
-      <c r="BG16" s="49"/>
+      <c r="BG16" s="57"/>
       <c r="BH16" s="2">
         <v>5</v>
       </c>
@@ -2553,20 +2575,20 @@
       </c>
     </row>
     <row r="17" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="D17" s="53">
-        <v>3</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="53">
-        <v>3</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="53">
-        <v>3</v>
-      </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="2">
+      <c r="D17" s="95">
+        <v>3</v>
+      </c>
+      <c r="E17" s="62"/>
+      <c r="F17" s="95">
+        <v>3</v>
+      </c>
+      <c r="G17" s="62"/>
+      <c r="H17" s="61">
+        <v>3</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="42">
         <v>9</v>
       </c>
       <c r="L17" s="1">
@@ -2575,11 +2597,11 @@
       <c r="M17" s="1">
         <v>11</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="43">
         <v>12</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="2">
+      <c r="O17" s="57"/>
+      <c r="P17" s="42">
         <v>9</v>
       </c>
       <c r="Q17" s="2" t="s">
@@ -2588,18 +2610,18 @@
       <c r="R17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="46">
         <v>12</v>
       </c>
-      <c r="T17" s="53">
-        <v>3</v>
-      </c>
-      <c r="U17" s="95"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="40">
-        <v>3</v>
-      </c>
-      <c r="X17" s="70"/>
+      <c r="T17" s="61">
+        <v>3</v>
+      </c>
+      <c r="U17" s="104"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="39">
+        <v>3</v>
+      </c>
+      <c r="X17" s="78"/>
       <c r="Y17" s="2">
         <v>9</v>
       </c>
@@ -2612,7 +2634,7 @@
       <c r="AB17" s="3">
         <v>12</v>
       </c>
-      <c r="AC17" s="49"/>
+      <c r="AC17" s="57"/>
       <c r="AD17" s="2">
         <v>9</v>
       </c>
@@ -2625,7 +2647,7 @@
       <c r="AG17" s="3">
         <v>12</v>
       </c>
-      <c r="AH17" s="49"/>
+      <c r="AH17" s="57"/>
       <c r="AI17" s="2">
         <v>9</v>
       </c>
@@ -2638,7 +2660,7 @@
       <c r="AL17" s="3">
         <v>12</v>
       </c>
-      <c r="AM17" s="49"/>
+      <c r="AM17" s="57"/>
       <c r="AN17" s="2">
         <v>9</v>
       </c>
@@ -2651,7 +2673,7 @@
       <c r="AQ17" s="3">
         <v>12</v>
       </c>
-      <c r="AR17" s="49"/>
+      <c r="AR17" s="57"/>
       <c r="AS17" s="2">
         <v>9</v>
       </c>
@@ -2664,7 +2686,7 @@
       <c r="AV17" s="3">
         <v>12</v>
       </c>
-      <c r="AW17" s="49"/>
+      <c r="AW17" s="57"/>
       <c r="AX17" s="2">
         <v>9</v>
       </c>
@@ -2677,7 +2699,7 @@
       <c r="BA17" s="3">
         <v>12</v>
       </c>
-      <c r="BB17" s="49"/>
+      <c r="BB17" s="57"/>
       <c r="BC17" s="2">
         <v>9</v>
       </c>
@@ -2690,7 +2712,7 @@
       <c r="BF17" s="3">
         <v>12</v>
       </c>
-      <c r="BG17" s="49"/>
+      <c r="BG17" s="57"/>
       <c r="BH17" s="2">
         <v>9</v>
       </c>
@@ -2705,20 +2727,20 @@
       </c>
     </row>
     <row r="18" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="D18" s="53">
-        <v>4</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53">
-        <v>4</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53">
-        <v>4</v>
-      </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="2">
+      <c r="D18" s="95">
+        <v>4</v>
+      </c>
+      <c r="E18" s="62"/>
+      <c r="F18" s="95">
+        <v>4</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="61">
+        <v>4</v>
+      </c>
+      <c r="I18" s="62"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="42">
         <v>13</v>
       </c>
       <c r="L18" s="1">
@@ -2727,11 +2749,11 @@
       <c r="M18" s="1">
         <v>15</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="43">
         <v>16</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="2">
+      <c r="O18" s="57"/>
+      <c r="P18" s="42">
         <v>13</v>
       </c>
       <c r="Q18" s="2" t="s">
@@ -2740,18 +2762,18 @@
       <c r="R18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="46">
         <v>16</v>
       </c>
-      <c r="T18" s="53">
-        <v>4</v>
-      </c>
-      <c r="U18" s="95"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="40">
-        <v>4</v>
-      </c>
-      <c r="X18" s="70"/>
+      <c r="T18" s="61">
+        <v>4</v>
+      </c>
+      <c r="U18" s="104"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="39">
+        <v>4</v>
+      </c>
+      <c r="X18" s="78"/>
       <c r="Y18" s="2">
         <v>13</v>
       </c>
@@ -2764,7 +2786,7 @@
       <c r="AB18" s="3">
         <v>16</v>
       </c>
-      <c r="AC18" s="49"/>
+      <c r="AC18" s="57"/>
       <c r="AD18" s="2">
         <v>13</v>
       </c>
@@ -2777,7 +2799,7 @@
       <c r="AG18" s="3">
         <v>16</v>
       </c>
-      <c r="AH18" s="49"/>
+      <c r="AH18" s="57"/>
       <c r="AI18" s="2">
         <v>13</v>
       </c>
@@ -2790,7 +2812,7 @@
       <c r="AL18" s="3">
         <v>16</v>
       </c>
-      <c r="AM18" s="49"/>
+      <c r="AM18" s="57"/>
       <c r="AN18" s="2">
         <v>13</v>
       </c>
@@ -2803,7 +2825,7 @@
       <c r="AQ18" s="3">
         <v>16</v>
       </c>
-      <c r="AR18" s="49"/>
+      <c r="AR18" s="57"/>
       <c r="AS18" s="2">
         <v>13</v>
       </c>
@@ -2816,7 +2838,7 @@
       <c r="AV18" s="3">
         <v>16</v>
       </c>
-      <c r="AW18" s="49"/>
+      <c r="AW18" s="57"/>
       <c r="AX18" s="2">
         <v>13</v>
       </c>
@@ -2829,7 +2851,7 @@
       <c r="BA18" s="3">
         <v>16</v>
       </c>
-      <c r="BB18" s="49"/>
+      <c r="BB18" s="57"/>
       <c r="BC18" s="2">
         <v>13</v>
       </c>
@@ -2842,7 +2864,7 @@
       <c r="BF18" s="3">
         <v>16</v>
       </c>
-      <c r="BG18" s="49"/>
+      <c r="BG18" s="57"/>
       <c r="BH18" s="2">
         <v>13</v>
       </c>
@@ -2857,20 +2879,20 @@
       </c>
     </row>
     <row r="19" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="53">
-        <v>5</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53">
-        <v>5</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53">
-        <v>5</v>
-      </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="4">
+      <c r="D19" s="95">
+        <v>5</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="61">
+        <v>5</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="61">
+        <v>5</v>
+      </c>
+      <c r="I19" s="62"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="47">
         <v>17</v>
       </c>
       <c r="L19" s="5">
@@ -2879,11 +2901,11 @@
       <c r="M19" s="5">
         <v>19</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="48">
         <v>20</v>
       </c>
-      <c r="O19" s="50"/>
-      <c r="P19" s="4">
+      <c r="O19" s="58"/>
+      <c r="P19" s="47">
         <v>17</v>
       </c>
       <c r="Q19" s="4" t="s">
@@ -2892,18 +2914,18 @@
       <c r="R19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="49">
         <v>20</v>
       </c>
-      <c r="T19" s="53">
-        <v>5</v>
-      </c>
-      <c r="U19" s="95"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="40">
-        <v>5</v>
-      </c>
-      <c r="X19" s="60"/>
+      <c r="T19" s="61">
+        <v>5</v>
+      </c>
+      <c r="U19" s="104"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="39">
+        <v>5</v>
+      </c>
+      <c r="X19" s="68"/>
       <c r="Y19" s="4">
         <v>17</v>
       </c>
@@ -2916,7 +2938,7 @@
       <c r="AB19" s="6">
         <v>20</v>
       </c>
-      <c r="AC19" s="50"/>
+      <c r="AC19" s="58"/>
       <c r="AD19" s="4">
         <v>17</v>
       </c>
@@ -2929,7 +2951,7 @@
       <c r="AG19" s="6">
         <v>20</v>
       </c>
-      <c r="AH19" s="50"/>
+      <c r="AH19" s="58"/>
       <c r="AI19" s="4">
         <v>17</v>
       </c>
@@ -2942,7 +2964,7 @@
       <c r="AL19" s="6">
         <v>20</v>
       </c>
-      <c r="AM19" s="50"/>
+      <c r="AM19" s="58"/>
       <c r="AN19" s="4">
         <v>17</v>
       </c>
@@ -2955,7 +2977,7 @@
       <c r="AQ19" s="6">
         <v>20</v>
       </c>
-      <c r="AR19" s="50"/>
+      <c r="AR19" s="58"/>
       <c r="AS19" s="4">
         <v>17</v>
       </c>
@@ -2968,7 +2990,7 @@
       <c r="AV19" s="6">
         <v>20</v>
       </c>
-      <c r="AW19" s="50"/>
+      <c r="AW19" s="58"/>
       <c r="AX19" s="4">
         <v>17</v>
       </c>
@@ -2981,7 +3003,7 @@
       <c r="BA19" s="6">
         <v>20</v>
       </c>
-      <c r="BB19" s="50"/>
+      <c r="BB19" s="58"/>
       <c r="BC19" s="4">
         <v>17</v>
       </c>
@@ -2994,7 +3016,7 @@
       <c r="BF19" s="6">
         <v>20</v>
       </c>
-      <c r="BG19" s="50"/>
+      <c r="BG19" s="58"/>
       <c r="BH19" s="4">
         <v>17</v>
       </c>
@@ -3009,19 +3031,19 @@
       </c>
     </row>
     <row r="20" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="43">
-        <v>6</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43">
-        <v>6</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="43">
-        <v>6</v>
-      </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="79">
+      <c r="D20" s="51">
+        <v>6</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="51">
+        <v>6</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="51">
+        <v>6</v>
+      </c>
+      <c r="I20" s="52"/>
+      <c r="J20" s="87">
         <v>2</v>
       </c>
       <c r="K20" s="7">
@@ -3036,7 +3058,7 @@
       <c r="N20" s="9">
         <v>4</v>
       </c>
-      <c r="O20" s="79">
+      <c r="O20" s="87">
         <v>2</v>
       </c>
       <c r="P20" s="7">
@@ -3051,15 +3073,15 @@
       <c r="S20" s="8">
         <v>4</v>
       </c>
-      <c r="T20" s="43">
-        <v>6</v>
-      </c>
-      <c r="U20" s="81"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="41">
-        <v>6</v>
-      </c>
-      <c r="X20" s="89">
+      <c r="T20" s="51">
+        <v>6</v>
+      </c>
+      <c r="U20" s="89"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="40">
+        <v>6</v>
+      </c>
+      <c r="X20" s="56">
         <v>2</v>
       </c>
       <c r="Y20" s="7">
@@ -3074,7 +3096,7 @@
       <c r="AB20" s="9">
         <v>4</v>
       </c>
-      <c r="AC20" s="48">
+      <c r="AC20" s="56">
         <v>2</v>
       </c>
       <c r="AD20" s="7">
@@ -3089,7 +3111,7 @@
       <c r="AG20" s="9">
         <v>4</v>
       </c>
-      <c r="AH20" s="48">
+      <c r="AH20" s="56">
         <v>2</v>
       </c>
       <c r="AI20" s="7">
@@ -3104,7 +3126,7 @@
       <c r="AL20" s="9">
         <v>4</v>
       </c>
-      <c r="AM20" s="48">
+      <c r="AM20" s="56">
         <v>2</v>
       </c>
       <c r="AN20" s="7">
@@ -3119,7 +3141,7 @@
       <c r="AQ20" s="9">
         <v>4</v>
       </c>
-      <c r="AR20" s="48">
+      <c r="AR20" s="56">
         <v>2</v>
       </c>
       <c r="AS20" s="7">
@@ -3134,7 +3156,7 @@
       <c r="AV20" s="9">
         <v>4</v>
       </c>
-      <c r="AW20" s="48">
+      <c r="AW20" s="56">
         <v>2</v>
       </c>
       <c r="AX20" s="7">
@@ -3149,7 +3171,7 @@
       <c r="BA20" s="9">
         <v>4</v>
       </c>
-      <c r="BB20" s="48">
+      <c r="BB20" s="56">
         <v>2</v>
       </c>
       <c r="BC20" s="7">
@@ -3164,7 +3186,7 @@
       <c r="BF20" s="9">
         <v>4</v>
       </c>
-      <c r="BG20" s="48">
+      <c r="BG20" s="56">
         <v>2</v>
       </c>
       <c r="BH20" s="7">
@@ -3181,7 +3203,7 @@
       </c>
     </row>
     <row r="21" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J21" s="49"/>
+      <c r="J21" s="57"/>
       <c r="K21" s="2">
         <v>5</v>
       </c>
@@ -3194,7 +3216,7 @@
       <c r="N21" s="3">
         <v>8</v>
       </c>
-      <c r="O21" s="49"/>
+      <c r="O21" s="57"/>
       <c r="P21" s="2">
         <v>5</v>
       </c>
@@ -3207,7 +3229,7 @@
       <c r="S21" s="3">
         <v>8</v>
       </c>
-      <c r="X21" s="70"/>
+      <c r="X21" s="57"/>
       <c r="Y21" s="2">
         <v>5</v>
       </c>
@@ -3220,7 +3242,7 @@
       <c r="AB21" s="3">
         <v>8</v>
       </c>
-      <c r="AC21" s="49"/>
+      <c r="AC21" s="57"/>
       <c r="AD21" s="2">
         <v>5</v>
       </c>
@@ -3233,7 +3255,7 @@
       <c r="AG21" s="3">
         <v>8</v>
       </c>
-      <c r="AH21" s="49"/>
+      <c r="AH21" s="57"/>
       <c r="AI21" s="2">
         <v>5</v>
       </c>
@@ -3246,7 +3268,7 @@
       <c r="AL21" s="3">
         <v>8</v>
       </c>
-      <c r="AM21" s="49"/>
+      <c r="AM21" s="57"/>
       <c r="AN21" s="2">
         <v>5</v>
       </c>
@@ -3259,7 +3281,7 @@
       <c r="AQ21" s="3">
         <v>8</v>
       </c>
-      <c r="AR21" s="49"/>
+      <c r="AR21" s="57"/>
       <c r="AS21" s="2">
         <v>5</v>
       </c>
@@ -3272,7 +3294,7 @@
       <c r="AV21" s="3">
         <v>8</v>
       </c>
-      <c r="AW21" s="49"/>
+      <c r="AW21" s="57"/>
       <c r="AX21" s="2">
         <v>5</v>
       </c>
@@ -3285,7 +3307,7 @@
       <c r="BA21" s="3">
         <v>8</v>
       </c>
-      <c r="BB21" s="49"/>
+      <c r="BB21" s="57"/>
       <c r="BC21" s="2">
         <v>5</v>
       </c>
@@ -3298,7 +3320,7 @@
       <c r="BF21" s="3">
         <v>8</v>
       </c>
-      <c r="BG21" s="49"/>
+      <c r="BG21" s="57"/>
       <c r="BH21" s="2">
         <v>5</v>
       </c>
@@ -3313,7 +3335,7 @@
       </c>
     </row>
     <row r="22" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J22" s="49"/>
+      <c r="J22" s="57"/>
       <c r="K22" s="2">
         <v>9</v>
       </c>
@@ -3326,7 +3348,7 @@
       <c r="N22" s="3">
         <v>12</v>
       </c>
-      <c r="O22" s="49"/>
+      <c r="O22" s="57"/>
       <c r="P22" s="2">
         <v>9</v>
       </c>
@@ -3339,7 +3361,7 @@
       <c r="S22" s="3">
         <v>12</v>
       </c>
-      <c r="X22" s="70"/>
+      <c r="X22" s="57"/>
       <c r="Y22" s="2">
         <v>9</v>
       </c>
@@ -3352,7 +3374,7 @@
       <c r="AB22" s="3">
         <v>12</v>
       </c>
-      <c r="AC22" s="49"/>
+      <c r="AC22" s="57"/>
       <c r="AD22" s="2">
         <v>9</v>
       </c>
@@ -3365,7 +3387,7 @@
       <c r="AG22" s="3">
         <v>12</v>
       </c>
-      <c r="AH22" s="49"/>
+      <c r="AH22" s="57"/>
       <c r="AI22" s="2">
         <v>9</v>
       </c>
@@ -3378,7 +3400,7 @@
       <c r="AL22" s="3">
         <v>12</v>
       </c>
-      <c r="AM22" s="49"/>
+      <c r="AM22" s="57"/>
       <c r="AN22" s="2">
         <v>9</v>
       </c>
@@ -3391,7 +3413,7 @@
       <c r="AQ22" s="3">
         <v>12</v>
       </c>
-      <c r="AR22" s="49"/>
+      <c r="AR22" s="57"/>
       <c r="AS22" s="2">
         <v>9</v>
       </c>
@@ -3404,7 +3426,7 @@
       <c r="AV22" s="3">
         <v>12</v>
       </c>
-      <c r="AW22" s="49"/>
+      <c r="AW22" s="57"/>
       <c r="AX22" s="2">
         <v>9</v>
       </c>
@@ -3417,7 +3439,7 @@
       <c r="BA22" s="3">
         <v>12</v>
       </c>
-      <c r="BB22" s="49"/>
+      <c r="BB22" s="57"/>
       <c r="BC22" s="2">
         <v>9</v>
       </c>
@@ -3430,7 +3452,7 @@
       <c r="BF22" s="3">
         <v>12</v>
       </c>
-      <c r="BG22" s="49"/>
+      <c r="BG22" s="57"/>
       <c r="BH22" s="2">
         <v>9</v>
       </c>
@@ -3445,7 +3467,7 @@
       </c>
     </row>
     <row r="23" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J23" s="49"/>
+      <c r="J23" s="57"/>
       <c r="K23" s="2">
         <v>13</v>
       </c>
@@ -3458,7 +3480,7 @@
       <c r="N23" s="3">
         <v>16</v>
       </c>
-      <c r="O23" s="49"/>
+      <c r="O23" s="57"/>
       <c r="P23" s="2">
         <v>13</v>
       </c>
@@ -3471,7 +3493,7 @@
       <c r="S23" s="3">
         <v>16</v>
       </c>
-      <c r="X23" s="70"/>
+      <c r="X23" s="57"/>
       <c r="Y23" s="2">
         <v>13</v>
       </c>
@@ -3484,7 +3506,7 @@
       <c r="AB23" s="3">
         <v>16</v>
       </c>
-      <c r="AC23" s="49"/>
+      <c r="AC23" s="57"/>
       <c r="AD23" s="2">
         <v>13</v>
       </c>
@@ -3497,7 +3519,7 @@
       <c r="AG23" s="3">
         <v>16</v>
       </c>
-      <c r="AH23" s="49"/>
+      <c r="AH23" s="57"/>
       <c r="AI23" s="2">
         <v>13</v>
       </c>
@@ -3510,7 +3532,7 @@
       <c r="AL23" s="3">
         <v>16</v>
       </c>
-      <c r="AM23" s="49"/>
+      <c r="AM23" s="57"/>
       <c r="AN23" s="2">
         <v>13</v>
       </c>
@@ -3523,7 +3545,7 @@
       <c r="AQ23" s="3">
         <v>16</v>
       </c>
-      <c r="AR23" s="49"/>
+      <c r="AR23" s="57"/>
       <c r="AS23" s="2">
         <v>13</v>
       </c>
@@ -3536,7 +3558,7 @@
       <c r="AV23" s="3">
         <v>16</v>
       </c>
-      <c r="AW23" s="49"/>
+      <c r="AW23" s="57"/>
       <c r="AX23" s="2">
         <v>13</v>
       </c>
@@ -3549,7 +3571,7 @@
       <c r="BA23" s="3">
         <v>16</v>
       </c>
-      <c r="BB23" s="49"/>
+      <c r="BB23" s="57"/>
       <c r="BC23" s="2">
         <v>13</v>
       </c>
@@ -3562,7 +3584,7 @@
       <c r="BF23" s="3">
         <v>16</v>
       </c>
-      <c r="BG23" s="49"/>
+      <c r="BG23" s="57"/>
       <c r="BH23" s="2">
         <v>13</v>
       </c>
@@ -3577,7 +3599,7 @@
       </c>
     </row>
     <row r="24" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J24" s="50"/>
+      <c r="J24" s="58"/>
       <c r="K24" s="4">
         <v>17</v>
       </c>
@@ -3590,7 +3612,7 @@
       <c r="N24" s="6">
         <v>20</v>
       </c>
-      <c r="O24" s="50"/>
+      <c r="O24" s="58"/>
       <c r="P24" s="4">
         <v>17</v>
       </c>
@@ -3603,7 +3625,7 @@
       <c r="S24" s="6">
         <v>20</v>
       </c>
-      <c r="X24" s="60"/>
+      <c r="X24" s="58"/>
       <c r="Y24" s="4">
         <v>17</v>
       </c>
@@ -3616,7 +3638,7 @@
       <c r="AB24" s="6">
         <v>20</v>
       </c>
-      <c r="AC24" s="50"/>
+      <c r="AC24" s="58"/>
       <c r="AD24" s="4">
         <v>17</v>
       </c>
@@ -3629,7 +3651,7 @@
       <c r="AG24" s="6">
         <v>20</v>
       </c>
-      <c r="AH24" s="50"/>
+      <c r="AH24" s="58"/>
       <c r="AI24" s="4">
         <v>17</v>
       </c>
@@ -3642,7 +3664,7 @@
       <c r="AL24" s="6">
         <v>20</v>
       </c>
-      <c r="AM24" s="50"/>
+      <c r="AM24" s="58"/>
       <c r="AN24" s="4">
         <v>17</v>
       </c>
@@ -3655,7 +3677,7 @@
       <c r="AQ24" s="6">
         <v>20</v>
       </c>
-      <c r="AR24" s="50"/>
+      <c r="AR24" s="58"/>
       <c r="AS24" s="4">
         <v>17</v>
       </c>
@@ -3668,7 +3690,7 @@
       <c r="AV24" s="6">
         <v>20</v>
       </c>
-      <c r="AW24" s="50"/>
+      <c r="AW24" s="58"/>
       <c r="AX24" s="4">
         <v>17</v>
       </c>
@@ -3681,7 +3703,7 @@
       <c r="BA24" s="6">
         <v>20</v>
       </c>
-      <c r="BB24" s="50"/>
+      <c r="BB24" s="58"/>
       <c r="BC24" s="4">
         <v>17</v>
       </c>
@@ -3694,7 +3716,7 @@
       <c r="BF24" s="6">
         <v>20</v>
       </c>
-      <c r="BG24" s="50"/>
+      <c r="BG24" s="58"/>
       <c r="BH24" s="4">
         <v>17</v>
       </c>
@@ -3708,11 +3730,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J25" s="79">
-        <v>3</v>
-      </c>
-      <c r="K25" s="7">
+    <row r="25" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J25" s="87">
+        <v>3</v>
+      </c>
+      <c r="K25" s="44">
         <v>1</v>
       </c>
       <c r="L25" s="8">
@@ -3721,13 +3743,13 @@
       <c r="M25" s="8">
         <v>3</v>
       </c>
-      <c r="N25" s="9">
-        <v>4</v>
-      </c>
-      <c r="O25" s="79">
-        <v>3</v>
-      </c>
-      <c r="P25" s="7">
+      <c r="N25" s="50">
+        <v>4</v>
+      </c>
+      <c r="O25" s="87">
+        <v>3</v>
+      </c>
+      <c r="P25" s="44">
         <v>1</v>
       </c>
       <c r="Q25" s="7" t="s">
@@ -3736,10 +3758,10 @@
       <c r="R25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S25" s="9">
-        <v>4</v>
-      </c>
-      <c r="X25" s="48">
+      <c r="S25" s="50">
+        <v>4</v>
+      </c>
+      <c r="X25" s="56">
         <v>3</v>
       </c>
       <c r="Y25" s="7">
@@ -3754,7 +3776,7 @@
       <c r="AB25" s="9">
         <v>4</v>
       </c>
-      <c r="AC25" s="48">
+      <c r="AC25" s="56">
         <v>3</v>
       </c>
       <c r="AD25" s="7">
@@ -3769,7 +3791,7 @@
       <c r="AG25" s="9">
         <v>4</v>
       </c>
-      <c r="AH25" s="48">
+      <c r="AH25" s="56">
         <v>3</v>
       </c>
       <c r="AI25" s="7">
@@ -3784,7 +3806,7 @@
       <c r="AL25" s="9">
         <v>4</v>
       </c>
-      <c r="AM25" s="48">
+      <c r="AM25" s="56">
         <v>3</v>
       </c>
       <c r="AN25" s="7">
@@ -3799,7 +3821,7 @@
       <c r="AQ25" s="9">
         <v>4</v>
       </c>
-      <c r="AR25" s="48">
+      <c r="AR25" s="56">
         <v>3</v>
       </c>
       <c r="AS25" s="7">
@@ -3814,7 +3836,7 @@
       <c r="AV25" s="9">
         <v>4</v>
       </c>
-      <c r="AW25" s="48">
+      <c r="AW25" s="56">
         <v>3</v>
       </c>
       <c r="AX25" s="7">
@@ -3829,7 +3851,7 @@
       <c r="BA25" s="9">
         <v>4</v>
       </c>
-      <c r="BB25" s="48">
+      <c r="BB25" s="56">
         <v>3</v>
       </c>
       <c r="BC25" s="7">
@@ -3844,7 +3866,7 @@
       <c r="BF25" s="9">
         <v>4</v>
       </c>
-      <c r="BG25" s="48">
+      <c r="BG25" s="56">
         <v>3</v>
       </c>
       <c r="BH25" s="7">
@@ -3861,8 +3883,8 @@
       </c>
     </row>
     <row r="26" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J26" s="49"/>
-      <c r="K26" s="2">
+      <c r="J26" s="57"/>
+      <c r="K26" s="42">
         <v>5</v>
       </c>
       <c r="L26" s="1">
@@ -3871,11 +3893,11 @@
       <c r="M26" s="1">
         <v>7</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="43">
         <v>8</v>
       </c>
-      <c r="O26" s="49"/>
-      <c r="P26" s="2">
+      <c r="O26" s="57"/>
+      <c r="P26" s="42">
         <v>5</v>
       </c>
       <c r="Q26" s="2" t="s">
@@ -3884,10 +3906,10 @@
       <c r="R26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="43">
         <v>8</v>
       </c>
-      <c r="X26" s="49"/>
+      <c r="X26" s="57"/>
       <c r="Y26" s="2">
         <v>5</v>
       </c>
@@ -3900,7 +3922,7 @@
       <c r="AB26" s="3">
         <v>8</v>
       </c>
-      <c r="AC26" s="49"/>
+      <c r="AC26" s="57"/>
       <c r="AD26" s="2">
         <v>5</v>
       </c>
@@ -3913,7 +3935,7 @@
       <c r="AG26" s="3">
         <v>8</v>
       </c>
-      <c r="AH26" s="49"/>
+      <c r="AH26" s="57"/>
       <c r="AI26" s="2">
         <v>5</v>
       </c>
@@ -3926,7 +3948,7 @@
       <c r="AL26" s="3">
         <v>8</v>
       </c>
-      <c r="AM26" s="49"/>
+      <c r="AM26" s="57"/>
       <c r="AN26" s="2">
         <v>5</v>
       </c>
@@ -3939,7 +3961,7 @@
       <c r="AQ26" s="3">
         <v>8</v>
       </c>
-      <c r="AR26" s="49"/>
+      <c r="AR26" s="57"/>
       <c r="AS26" s="2">
         <v>5</v>
       </c>
@@ -3952,7 +3974,7 @@
       <c r="AV26" s="3">
         <v>8</v>
       </c>
-      <c r="AW26" s="49"/>
+      <c r="AW26" s="57"/>
       <c r="AX26" s="2">
         <v>5</v>
       </c>
@@ -3965,7 +3987,7 @@
       <c r="BA26" s="3">
         <v>8</v>
       </c>
-      <c r="BB26" s="49"/>
+      <c r="BB26" s="57"/>
       <c r="BC26" s="2">
         <v>5</v>
       </c>
@@ -3978,7 +4000,7 @@
       <c r="BF26" s="3">
         <v>8</v>
       </c>
-      <c r="BG26" s="49"/>
+      <c r="BG26" s="57"/>
       <c r="BH26" s="2">
         <v>5</v>
       </c>
@@ -3993,8 +4015,8 @@
       </c>
     </row>
     <row r="27" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J27" s="49"/>
-      <c r="K27" s="2">
+      <c r="J27" s="57"/>
+      <c r="K27" s="42">
         <v>9</v>
       </c>
       <c r="L27" s="1">
@@ -4003,11 +4025,11 @@
       <c r="M27" s="1">
         <v>11</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="43">
         <v>12</v>
       </c>
-      <c r="O27" s="49"/>
-      <c r="P27" s="2">
+      <c r="O27" s="57"/>
+      <c r="P27" s="42">
         <v>9</v>
       </c>
       <c r="Q27" s="2" t="s">
@@ -4016,10 +4038,10 @@
       <c r="R27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="43">
         <v>12</v>
       </c>
-      <c r="X27" s="49"/>
+      <c r="X27" s="57"/>
       <c r="Y27" s="2">
         <v>9</v>
       </c>
@@ -4032,7 +4054,7 @@
       <c r="AB27" s="3">
         <v>12</v>
       </c>
-      <c r="AC27" s="49"/>
+      <c r="AC27" s="57"/>
       <c r="AD27" s="2">
         <v>9</v>
       </c>
@@ -4045,7 +4067,7 @@
       <c r="AG27" s="3">
         <v>12</v>
       </c>
-      <c r="AH27" s="49"/>
+      <c r="AH27" s="57"/>
       <c r="AI27" s="2">
         <v>9</v>
       </c>
@@ -4058,7 +4080,7 @@
       <c r="AL27" s="3">
         <v>12</v>
       </c>
-      <c r="AM27" s="49"/>
+      <c r="AM27" s="57"/>
       <c r="AN27" s="2">
         <v>9</v>
       </c>
@@ -4071,7 +4093,7 @@
       <c r="AQ27" s="3">
         <v>12</v>
       </c>
-      <c r="AR27" s="49"/>
+      <c r="AR27" s="57"/>
       <c r="AS27" s="2">
         <v>9</v>
       </c>
@@ -4084,7 +4106,7 @@
       <c r="AV27" s="3">
         <v>12</v>
       </c>
-      <c r="AW27" s="49"/>
+      <c r="AW27" s="57"/>
       <c r="AX27" s="2">
         <v>9</v>
       </c>
@@ -4097,7 +4119,7 @@
       <c r="BA27" s="3">
         <v>12</v>
       </c>
-      <c r="BB27" s="49"/>
+      <c r="BB27" s="57"/>
       <c r="BC27" s="2">
         <v>9</v>
       </c>
@@ -4110,7 +4132,7 @@
       <c r="BF27" s="3">
         <v>12</v>
       </c>
-      <c r="BG27" s="49"/>
+      <c r="BG27" s="57"/>
       <c r="BH27" s="2">
         <v>9</v>
       </c>
@@ -4125,8 +4147,8 @@
       </c>
     </row>
     <row r="28" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J28" s="49"/>
-      <c r="K28" s="2">
+      <c r="J28" s="57"/>
+      <c r="K28" s="42">
         <v>13</v>
       </c>
       <c r="L28" s="1">
@@ -4135,11 +4157,11 @@
       <c r="M28" s="1">
         <v>15</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="43">
         <v>16</v>
       </c>
-      <c r="O28" s="49"/>
-      <c r="P28" s="2">
+      <c r="O28" s="57"/>
+      <c r="P28" s="42">
         <v>13</v>
       </c>
       <c r="Q28" s="2" t="s">
@@ -4148,10 +4170,10 @@
       <c r="R28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="43">
         <v>16</v>
       </c>
-      <c r="X28" s="49"/>
+      <c r="X28" s="57"/>
       <c r="Y28" s="2">
         <v>13</v>
       </c>
@@ -4164,7 +4186,7 @@
       <c r="AB28" s="3">
         <v>16</v>
       </c>
-      <c r="AC28" s="49"/>
+      <c r="AC28" s="57"/>
       <c r="AD28" s="2">
         <v>13</v>
       </c>
@@ -4177,7 +4199,7 @@
       <c r="AG28" s="3">
         <v>16</v>
       </c>
-      <c r="AH28" s="49"/>
+      <c r="AH28" s="57"/>
       <c r="AI28" s="2">
         <v>13</v>
       </c>
@@ -4190,7 +4212,7 @@
       <c r="AL28" s="3">
         <v>16</v>
       </c>
-      <c r="AM28" s="49"/>
+      <c r="AM28" s="57"/>
       <c r="AN28" s="2">
         <v>13</v>
       </c>
@@ -4203,7 +4225,7 @@
       <c r="AQ28" s="3">
         <v>16</v>
       </c>
-      <c r="AR28" s="49"/>
+      <c r="AR28" s="57"/>
       <c r="AS28" s="2">
         <v>13</v>
       </c>
@@ -4216,7 +4238,7 @@
       <c r="AV28" s="3">
         <v>16</v>
       </c>
-      <c r="AW28" s="49"/>
+      <c r="AW28" s="57"/>
       <c r="AX28" s="2">
         <v>13</v>
       </c>
@@ -4229,7 +4251,7 @@
       <c r="BA28" s="3">
         <v>16</v>
       </c>
-      <c r="BB28" s="49"/>
+      <c r="BB28" s="57"/>
       <c r="BC28" s="2">
         <v>13</v>
       </c>
@@ -4242,7 +4264,7 @@
       <c r="BF28" s="3">
         <v>16</v>
       </c>
-      <c r="BG28" s="49"/>
+      <c r="BG28" s="57"/>
       <c r="BH28" s="2">
         <v>13</v>
       </c>
@@ -4257,8 +4279,8 @@
       </c>
     </row>
     <row r="29" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J29" s="50"/>
-      <c r="K29" s="4">
+      <c r="J29" s="58"/>
+      <c r="K29" s="47">
         <v>17</v>
       </c>
       <c r="L29" s="5">
@@ -4267,11 +4289,11 @@
       <c r="M29" s="5">
         <v>19</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="48">
         <v>20</v>
       </c>
-      <c r="O29" s="50"/>
-      <c r="P29" s="4">
+      <c r="O29" s="58"/>
+      <c r="P29" s="47">
         <v>17</v>
       </c>
       <c r="Q29" s="4" t="s">
@@ -4280,10 +4302,10 @@
       <c r="R29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="48">
         <v>20</v>
       </c>
-      <c r="X29" s="50"/>
+      <c r="X29" s="58"/>
       <c r="Y29" s="4">
         <v>17</v>
       </c>
@@ -4296,7 +4318,7 @@
       <c r="AB29" s="6">
         <v>20</v>
       </c>
-      <c r="AC29" s="50"/>
+      <c r="AC29" s="58"/>
       <c r="AD29" s="4">
         <v>17</v>
       </c>
@@ -4309,7 +4331,7 @@
       <c r="AG29" s="6">
         <v>20</v>
       </c>
-      <c r="AH29" s="50"/>
+      <c r="AH29" s="58"/>
       <c r="AI29" s="4">
         <v>17</v>
       </c>
@@ -4322,7 +4344,7 @@
       <c r="AL29" s="6">
         <v>20</v>
       </c>
-      <c r="AM29" s="50"/>
+      <c r="AM29" s="58"/>
       <c r="AN29" s="4">
         <v>17</v>
       </c>
@@ -4335,7 +4357,7 @@
       <c r="AQ29" s="6">
         <v>20</v>
       </c>
-      <c r="AR29" s="50"/>
+      <c r="AR29" s="58"/>
       <c r="AS29" s="4">
         <v>17</v>
       </c>
@@ -4348,7 +4370,7 @@
       <c r="AV29" s="6">
         <v>20</v>
       </c>
-      <c r="AW29" s="50"/>
+      <c r="AW29" s="58"/>
       <c r="AX29" s="4">
         <v>17</v>
       </c>
@@ -4361,7 +4383,7 @@
       <c r="BA29" s="6">
         <v>20</v>
       </c>
-      <c r="BB29" s="50"/>
+      <c r="BB29" s="58"/>
       <c r="BC29" s="4">
         <v>17</v>
       </c>
@@ -4374,7 +4396,7 @@
       <c r="BF29" s="6">
         <v>20</v>
       </c>
-      <c r="BG29" s="50"/>
+      <c r="BG29" s="58"/>
       <c r="BH29" s="4">
         <v>17</v>
       </c>
@@ -4388,11 +4410,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J30" s="79">
-        <v>4</v>
-      </c>
-      <c r="K30" s="7">
+    <row r="30" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J30" s="87">
+        <v>4</v>
+      </c>
+      <c r="K30" s="44">
         <v>1</v>
       </c>
       <c r="L30" s="8">
@@ -4401,13 +4423,13 @@
       <c r="M30" s="8">
         <v>3</v>
       </c>
-      <c r="N30" s="9">
-        <v>4</v>
-      </c>
-      <c r="O30" s="79">
-        <v>4</v>
-      </c>
-      <c r="P30" s="7">
+      <c r="N30" s="50">
+        <v>4</v>
+      </c>
+      <c r="O30" s="87">
+        <v>4</v>
+      </c>
+      <c r="P30" s="44">
         <v>1</v>
       </c>
       <c r="Q30" s="7" t="s">
@@ -4416,10 +4438,10 @@
       <c r="R30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S30" s="9">
-        <v>4</v>
-      </c>
-      <c r="X30" s="48">
+      <c r="S30" s="50">
+        <v>4</v>
+      </c>
+      <c r="X30" s="56">
         <v>4</v>
       </c>
       <c r="Y30" s="7">
@@ -4434,7 +4456,7 @@
       <c r="AB30" s="9">
         <v>4</v>
       </c>
-      <c r="AC30" s="48">
+      <c r="AC30" s="56">
         <v>4</v>
       </c>
       <c r="AD30" s="7">
@@ -4449,7 +4471,7 @@
       <c r="AG30" s="9">
         <v>4</v>
       </c>
-      <c r="AH30" s="48">
+      <c r="AH30" s="56">
         <v>4</v>
       </c>
       <c r="AI30" s="7">
@@ -4464,7 +4486,7 @@
       <c r="AL30" s="9">
         <v>4</v>
       </c>
-      <c r="AM30" s="48">
+      <c r="AM30" s="56">
         <v>4</v>
       </c>
       <c r="AN30" s="7">
@@ -4479,7 +4501,7 @@
       <c r="AQ30" s="9">
         <v>4</v>
       </c>
-      <c r="AR30" s="48">
+      <c r="AR30" s="56">
         <v>4</v>
       </c>
       <c r="AS30" s="7">
@@ -4494,7 +4516,7 @@
       <c r="AV30" s="9">
         <v>4</v>
       </c>
-      <c r="AW30" s="48">
+      <c r="AW30" s="56">
         <v>4</v>
       </c>
       <c r="AX30" s="7">
@@ -4509,7 +4531,7 @@
       <c r="BA30" s="9">
         <v>4</v>
       </c>
-      <c r="BB30" s="48">
+      <c r="BB30" s="56">
         <v>4</v>
       </c>
       <c r="BC30" s="7">
@@ -4524,7 +4546,7 @@
       <c r="BF30" s="9">
         <v>4</v>
       </c>
-      <c r="BG30" s="48">
+      <c r="BG30" s="56">
         <v>4</v>
       </c>
       <c r="BH30" s="7">
@@ -4541,8 +4563,8 @@
       </c>
     </row>
     <row r="31" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J31" s="49"/>
-      <c r="K31" s="2">
+      <c r="J31" s="57"/>
+      <c r="K31" s="42">
         <v>5</v>
       </c>
       <c r="L31" s="1">
@@ -4551,11 +4573,11 @@
       <c r="M31" s="1">
         <v>7</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="43">
         <v>8</v>
       </c>
-      <c r="O31" s="49"/>
-      <c r="P31" s="2">
+      <c r="O31" s="57"/>
+      <c r="P31" s="42">
         <v>5</v>
       </c>
       <c r="Q31" s="2" t="s">
@@ -4564,13 +4586,10 @@
       <c r="R31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="43">
         <v>8</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X31" s="49"/>
+      <c r="X31" s="57"/>
       <c r="Y31" s="2">
         <v>5</v>
       </c>
@@ -4583,7 +4602,7 @@
       <c r="AB31" s="3">
         <v>8</v>
       </c>
-      <c r="AC31" s="49"/>
+      <c r="AC31" s="57"/>
       <c r="AD31" s="2">
         <v>5</v>
       </c>
@@ -4596,7 +4615,7 @@
       <c r="AG31" s="3">
         <v>8</v>
       </c>
-      <c r="AH31" s="49"/>
+      <c r="AH31" s="57"/>
       <c r="AI31" s="2">
         <v>5</v>
       </c>
@@ -4609,7 +4628,7 @@
       <c r="AL31" s="3">
         <v>8</v>
       </c>
-      <c r="AM31" s="49"/>
+      <c r="AM31" s="57"/>
       <c r="AN31" s="2">
         <v>5</v>
       </c>
@@ -4622,7 +4641,7 @@
       <c r="AQ31" s="3">
         <v>8</v>
       </c>
-      <c r="AR31" s="49"/>
+      <c r="AR31" s="57"/>
       <c r="AS31" s="2">
         <v>5</v>
       </c>
@@ -4635,7 +4654,7 @@
       <c r="AV31" s="3">
         <v>8</v>
       </c>
-      <c r="AW31" s="49"/>
+      <c r="AW31" s="57"/>
       <c r="AX31" s="2">
         <v>5</v>
       </c>
@@ -4648,7 +4667,7 @@
       <c r="BA31" s="3">
         <v>8</v>
       </c>
-      <c r="BB31" s="49"/>
+      <c r="BB31" s="57"/>
       <c r="BC31" s="2">
         <v>5</v>
       </c>
@@ -4661,7 +4680,7 @@
       <c r="BF31" s="3">
         <v>8</v>
       </c>
-      <c r="BG31" s="49"/>
+      <c r="BG31" s="57"/>
       <c r="BH31" s="2">
         <v>5</v>
       </c>
@@ -4676,8 +4695,8 @@
       </c>
     </row>
     <row r="32" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J32" s="49"/>
-      <c r="K32" s="2">
+      <c r="J32" s="57"/>
+      <c r="K32" s="42">
         <v>9</v>
       </c>
       <c r="L32" s="1">
@@ -4686,11 +4705,11 @@
       <c r="M32" s="1">
         <v>11</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="43">
         <v>12</v>
       </c>
-      <c r="O32" s="49"/>
-      <c r="P32" s="2">
+      <c r="O32" s="57"/>
+      <c r="P32" s="42">
         <v>9</v>
       </c>
       <c r="Q32" s="2" t="s">
@@ -4699,10 +4718,10 @@
       <c r="R32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="43">
         <v>12</v>
       </c>
-      <c r="X32" s="49"/>
+      <c r="X32" s="57"/>
       <c r="Y32" s="2">
         <v>9</v>
       </c>
@@ -4715,7 +4734,7 @@
       <c r="AB32" s="3">
         <v>12</v>
       </c>
-      <c r="AC32" s="49"/>
+      <c r="AC32" s="57"/>
       <c r="AD32" s="2">
         <v>9</v>
       </c>
@@ -4728,7 +4747,7 @@
       <c r="AG32" s="3">
         <v>12</v>
       </c>
-      <c r="AH32" s="49"/>
+      <c r="AH32" s="57"/>
       <c r="AI32" s="2">
         <v>9</v>
       </c>
@@ -4741,7 +4760,7 @@
       <c r="AL32" s="3">
         <v>12</v>
       </c>
-      <c r="AM32" s="49"/>
+      <c r="AM32" s="57"/>
       <c r="AN32" s="2">
         <v>9</v>
       </c>
@@ -4754,7 +4773,7 @@
       <c r="AQ32" s="3">
         <v>12</v>
       </c>
-      <c r="AR32" s="49"/>
+      <c r="AR32" s="57"/>
       <c r="AS32" s="2">
         <v>9</v>
       </c>
@@ -4767,7 +4786,7 @@
       <c r="AV32" s="3">
         <v>12</v>
       </c>
-      <c r="AW32" s="49"/>
+      <c r="AW32" s="57"/>
       <c r="AX32" s="2">
         <v>9</v>
       </c>
@@ -4780,7 +4799,7 @@
       <c r="BA32" s="3">
         <v>12</v>
       </c>
-      <c r="BB32" s="49"/>
+      <c r="BB32" s="57"/>
       <c r="BC32" s="2">
         <v>9</v>
       </c>
@@ -4793,7 +4812,7 @@
       <c r="BF32" s="3">
         <v>12</v>
       </c>
-      <c r="BG32" s="49"/>
+      <c r="BG32" s="57"/>
       <c r="BH32" s="2">
         <v>9</v>
       </c>
@@ -4808,8 +4827,8 @@
       </c>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J33" s="49"/>
-      <c r="K33" s="2">
+      <c r="J33" s="57"/>
+      <c r="K33" s="42">
         <v>13</v>
       </c>
       <c r="L33" s="1">
@@ -4818,11 +4837,11 @@
       <c r="M33" s="1">
         <v>15</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="43">
         <v>16</v>
       </c>
-      <c r="O33" s="49"/>
-      <c r="P33" s="2">
+      <c r="O33" s="57"/>
+      <c r="P33" s="42">
         <v>13</v>
       </c>
       <c r="Q33" s="2" t="s">
@@ -4831,10 +4850,10 @@
       <c r="R33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="43">
         <v>16</v>
       </c>
-      <c r="X33" s="49"/>
+      <c r="X33" s="57"/>
       <c r="Y33" s="2">
         <v>13</v>
       </c>
@@ -4847,7 +4866,7 @@
       <c r="AB33" s="3">
         <v>16</v>
       </c>
-      <c r="AC33" s="49"/>
+      <c r="AC33" s="57"/>
       <c r="AD33" s="2">
         <v>13</v>
       </c>
@@ -4860,7 +4879,7 @@
       <c r="AG33" s="3">
         <v>16</v>
       </c>
-      <c r="AH33" s="49"/>
+      <c r="AH33" s="57"/>
       <c r="AI33" s="2">
         <v>13</v>
       </c>
@@ -4873,7 +4892,7 @@
       <c r="AL33" s="3">
         <v>16</v>
       </c>
-      <c r="AM33" s="49"/>
+      <c r="AM33" s="57"/>
       <c r="AN33" s="2">
         <v>13</v>
       </c>
@@ -4886,7 +4905,7 @@
       <c r="AQ33" s="3">
         <v>16</v>
       </c>
-      <c r="AR33" s="49"/>
+      <c r="AR33" s="57"/>
       <c r="AS33" s="2">
         <v>13</v>
       </c>
@@ -4899,7 +4918,7 @@
       <c r="AV33" s="3">
         <v>16</v>
       </c>
-      <c r="AW33" s="49"/>
+      <c r="AW33" s="57"/>
       <c r="AX33" s="2">
         <v>13</v>
       </c>
@@ -4912,7 +4931,7 @@
       <c r="BA33" s="3">
         <v>16</v>
       </c>
-      <c r="BB33" s="49"/>
+      <c r="BB33" s="57"/>
       <c r="BC33" s="2">
         <v>13</v>
       </c>
@@ -4925,7 +4944,7 @@
       <c r="BF33" s="3">
         <v>16</v>
       </c>
-      <c r="BG33" s="49"/>
+      <c r="BG33" s="57"/>
       <c r="BH33" s="2">
         <v>13</v>
       </c>
@@ -4940,8 +4959,8 @@
       </c>
     </row>
     <row r="34" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J34" s="50"/>
-      <c r="K34" s="4">
+      <c r="J34" s="58"/>
+      <c r="K34" s="47">
         <v>17</v>
       </c>
       <c r="L34" s="5">
@@ -4950,11 +4969,11 @@
       <c r="M34" s="5">
         <v>19</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="48">
         <v>20</v>
       </c>
-      <c r="O34" s="50"/>
-      <c r="P34" s="4">
+      <c r="O34" s="58"/>
+      <c r="P34" s="47">
         <v>17</v>
       </c>
       <c r="Q34" s="4" t="s">
@@ -4963,10 +4982,10 @@
       <c r="R34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="48">
         <v>20</v>
       </c>
-      <c r="X34" s="50"/>
+      <c r="X34" s="58"/>
       <c r="Y34" s="4">
         <v>17</v>
       </c>
@@ -4979,7 +4998,7 @@
       <c r="AB34" s="6">
         <v>20</v>
       </c>
-      <c r="AC34" s="50"/>
+      <c r="AC34" s="58"/>
       <c r="AD34" s="4">
         <v>17</v>
       </c>
@@ -4992,7 +5011,7 @@
       <c r="AG34" s="6">
         <v>20</v>
       </c>
-      <c r="AH34" s="50"/>
+      <c r="AH34" s="58"/>
       <c r="AI34" s="4">
         <v>17</v>
       </c>
@@ -5005,7 +5024,7 @@
       <c r="AL34" s="6">
         <v>20</v>
       </c>
-      <c r="AM34" s="50"/>
+      <c r="AM34" s="58"/>
       <c r="AN34" s="4">
         <v>17</v>
       </c>
@@ -5018,7 +5037,7 @@
       <c r="AQ34" s="6">
         <v>20</v>
       </c>
-      <c r="AR34" s="50"/>
+      <c r="AR34" s="58"/>
       <c r="AS34" s="4">
         <v>17</v>
       </c>
@@ -5031,7 +5050,7 @@
       <c r="AV34" s="6">
         <v>20</v>
       </c>
-      <c r="AW34" s="50"/>
+      <c r="AW34" s="58"/>
       <c r="AX34" s="4">
         <v>17</v>
       </c>
@@ -5044,7 +5063,7 @@
       <c r="BA34" s="6">
         <v>20</v>
       </c>
-      <c r="BB34" s="50"/>
+      <c r="BB34" s="58"/>
       <c r="BC34" s="4">
         <v>17</v>
       </c>
@@ -5057,7 +5076,7 @@
       <c r="BF34" s="6">
         <v>20</v>
       </c>
-      <c r="BG34" s="50"/>
+      <c r="BG34" s="58"/>
       <c r="BH34" s="4">
         <v>17</v>
       </c>
@@ -5071,11 +5090,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J35" s="79">
-        <v>5</v>
-      </c>
-      <c r="K35" s="7">
+    <row r="35" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J35" s="87">
+        <v>5</v>
+      </c>
+      <c r="K35" s="44">
         <v>1</v>
       </c>
       <c r="L35" s="8">
@@ -5084,13 +5103,13 @@
       <c r="M35" s="8">
         <v>3</v>
       </c>
-      <c r="N35" s="9">
-        <v>4</v>
-      </c>
-      <c r="O35" s="79">
-        <v>5</v>
-      </c>
-      <c r="P35" s="7">
+      <c r="N35" s="50">
+        <v>4</v>
+      </c>
+      <c r="O35" s="87">
+        <v>5</v>
+      </c>
+      <c r="P35" s="44">
         <v>1</v>
       </c>
       <c r="Q35" s="7" t="s">
@@ -5099,10 +5118,10 @@
       <c r="R35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S35" s="9">
-        <v>4</v>
-      </c>
-      <c r="X35" s="48">
+      <c r="S35" s="50">
+        <v>4</v>
+      </c>
+      <c r="X35" s="56">
         <v>5</v>
       </c>
       <c r="Y35" s="7">
@@ -5117,7 +5136,7 @@
       <c r="AB35" s="9">
         <v>4</v>
       </c>
-      <c r="AC35" s="48">
+      <c r="AC35" s="56">
         <v>5</v>
       </c>
       <c r="AD35" s="7">
@@ -5132,7 +5151,7 @@
       <c r="AG35" s="9">
         <v>4</v>
       </c>
-      <c r="AH35" s="48">
+      <c r="AH35" s="56">
         <v>5</v>
       </c>
       <c r="AI35" s="7">
@@ -5147,7 +5166,7 @@
       <c r="AL35" s="9">
         <v>4</v>
       </c>
-      <c r="AM35" s="48">
+      <c r="AM35" s="56">
         <v>5</v>
       </c>
       <c r="AN35" s="7">
@@ -5162,7 +5181,7 @@
       <c r="AQ35" s="9">
         <v>4</v>
       </c>
-      <c r="AR35" s="48">
+      <c r="AR35" s="56">
         <v>5</v>
       </c>
       <c r="AS35" s="7">
@@ -5177,7 +5196,7 @@
       <c r="AV35" s="9">
         <v>4</v>
       </c>
-      <c r="AW35" s="48">
+      <c r="AW35" s="56">
         <v>5</v>
       </c>
       <c r="AX35" s="7">
@@ -5192,7 +5211,7 @@
       <c r="BA35" s="9">
         <v>4</v>
       </c>
-      <c r="BB35" s="48">
+      <c r="BB35" s="56">
         <v>5</v>
       </c>
       <c r="BC35" s="7">
@@ -5207,7 +5226,7 @@
       <c r="BF35" s="9">
         <v>4</v>
       </c>
-      <c r="BG35" s="48">
+      <c r="BG35" s="56">
         <v>5</v>
       </c>
       <c r="BH35" s="7">
@@ -5224,8 +5243,8 @@
       </c>
     </row>
     <row r="36" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J36" s="49"/>
-      <c r="K36" s="2">
+      <c r="J36" s="57"/>
+      <c r="K36" s="42">
         <v>5</v>
       </c>
       <c r="L36" s="1">
@@ -5234,11 +5253,11 @@
       <c r="M36" s="1">
         <v>7</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="43">
         <v>8</v>
       </c>
-      <c r="O36" s="49"/>
-      <c r="P36" s="2">
+      <c r="O36" s="57"/>
+      <c r="P36" s="42">
         <v>5</v>
       </c>
       <c r="Q36" s="2" t="s">
@@ -5247,10 +5266,10 @@
       <c r="R36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="3">
+      <c r="S36" s="43">
         <v>8</v>
       </c>
-      <c r="X36" s="49"/>
+      <c r="X36" s="57"/>
       <c r="Y36" s="2">
         <v>5</v>
       </c>
@@ -5263,7 +5282,7 @@
       <c r="AB36" s="3">
         <v>8</v>
       </c>
-      <c r="AC36" s="49"/>
+      <c r="AC36" s="57"/>
       <c r="AD36" s="2">
         <v>5</v>
       </c>
@@ -5276,7 +5295,7 @@
       <c r="AG36" s="3">
         <v>8</v>
       </c>
-      <c r="AH36" s="49"/>
+      <c r="AH36" s="57"/>
       <c r="AI36" s="2">
         <v>5</v>
       </c>
@@ -5289,7 +5308,7 @@
       <c r="AL36" s="3">
         <v>8</v>
       </c>
-      <c r="AM36" s="49"/>
+      <c r="AM36" s="57"/>
       <c r="AN36" s="2">
         <v>5</v>
       </c>
@@ -5302,7 +5321,7 @@
       <c r="AQ36" s="3">
         <v>8</v>
       </c>
-      <c r="AR36" s="49"/>
+      <c r="AR36" s="57"/>
       <c r="AS36" s="2">
         <v>5</v>
       </c>
@@ -5315,7 +5334,7 @@
       <c r="AV36" s="3">
         <v>8</v>
       </c>
-      <c r="AW36" s="49"/>
+      <c r="AW36" s="57"/>
       <c r="AX36" s="2">
         <v>5</v>
       </c>
@@ -5328,7 +5347,7 @@
       <c r="BA36" s="3">
         <v>8</v>
       </c>
-      <c r="BB36" s="49"/>
+      <c r="BB36" s="57"/>
       <c r="BC36" s="2">
         <v>5</v>
       </c>
@@ -5341,7 +5360,7 @@
       <c r="BF36" s="3">
         <v>8</v>
       </c>
-      <c r="BG36" s="49"/>
+      <c r="BG36" s="57"/>
       <c r="BH36" s="2">
         <v>5</v>
       </c>
@@ -5356,8 +5375,8 @@
       </c>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J37" s="49"/>
-      <c r="K37" s="2">
+      <c r="J37" s="57"/>
+      <c r="K37" s="42">
         <v>9</v>
       </c>
       <c r="L37" s="1">
@@ -5366,11 +5385,11 @@
       <c r="M37" s="1">
         <v>11</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="43">
         <v>12</v>
       </c>
-      <c r="O37" s="49"/>
-      <c r="P37" s="2">
+      <c r="O37" s="57"/>
+      <c r="P37" s="42">
         <v>9</v>
       </c>
       <c r="Q37" s="2" t="s">
@@ -5379,10 +5398,10 @@
       <c r="R37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S37" s="3">
+      <c r="S37" s="43">
         <v>12</v>
       </c>
-      <c r="X37" s="49"/>
+      <c r="X37" s="57"/>
       <c r="Y37" s="2">
         <v>9</v>
       </c>
@@ -5395,7 +5414,7 @@
       <c r="AB37" s="3">
         <v>12</v>
       </c>
-      <c r="AC37" s="49"/>
+      <c r="AC37" s="57"/>
       <c r="AD37" s="2">
         <v>9</v>
       </c>
@@ -5408,7 +5427,7 @@
       <c r="AG37" s="3">
         <v>12</v>
       </c>
-      <c r="AH37" s="49"/>
+      <c r="AH37" s="57"/>
       <c r="AI37" s="2">
         <v>9</v>
       </c>
@@ -5421,7 +5440,7 @@
       <c r="AL37" s="3">
         <v>12</v>
       </c>
-      <c r="AM37" s="49"/>
+      <c r="AM37" s="57"/>
       <c r="AN37" s="2">
         <v>9</v>
       </c>
@@ -5434,7 +5453,7 @@
       <c r="AQ37" s="3">
         <v>12</v>
       </c>
-      <c r="AR37" s="49"/>
+      <c r="AR37" s="57"/>
       <c r="AS37" s="2">
         <v>9</v>
       </c>
@@ -5447,7 +5466,7 @@
       <c r="AV37" s="3">
         <v>12</v>
       </c>
-      <c r="AW37" s="49"/>
+      <c r="AW37" s="57"/>
       <c r="AX37" s="2">
         <v>9</v>
       </c>
@@ -5460,7 +5479,7 @@
       <c r="BA37" s="3">
         <v>12</v>
       </c>
-      <c r="BB37" s="49"/>
+      <c r="BB37" s="57"/>
       <c r="BC37" s="2">
         <v>9</v>
       </c>
@@ -5473,7 +5492,7 @@
       <c r="BF37" s="3">
         <v>12</v>
       </c>
-      <c r="BG37" s="49"/>
+      <c r="BG37" s="57"/>
       <c r="BH37" s="2">
         <v>9</v>
       </c>
@@ -5488,8 +5507,8 @@
       </c>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J38" s="49"/>
-      <c r="K38" s="2">
+      <c r="J38" s="57"/>
+      <c r="K38" s="42">
         <v>13</v>
       </c>
       <c r="L38" s="1">
@@ -5498,11 +5517,11 @@
       <c r="M38" s="1">
         <v>15</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="43">
         <v>16</v>
       </c>
-      <c r="O38" s="49"/>
-      <c r="P38" s="2">
+      <c r="O38" s="57"/>
+      <c r="P38" s="42">
         <v>13</v>
       </c>
       <c r="Q38" s="2" t="s">
@@ -5511,10 +5530,10 @@
       <c r="R38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S38" s="43">
         <v>16</v>
       </c>
-      <c r="X38" s="49"/>
+      <c r="X38" s="57"/>
       <c r="Y38" s="2">
         <v>13</v>
       </c>
@@ -5527,7 +5546,7 @@
       <c r="AB38" s="3">
         <v>16</v>
       </c>
-      <c r="AC38" s="49"/>
+      <c r="AC38" s="57"/>
       <c r="AD38" s="2">
         <v>13</v>
       </c>
@@ -5540,7 +5559,7 @@
       <c r="AG38" s="3">
         <v>16</v>
       </c>
-      <c r="AH38" s="49"/>
+      <c r="AH38" s="57"/>
       <c r="AI38" s="2">
         <v>13</v>
       </c>
@@ -5553,7 +5572,7 @@
       <c r="AL38" s="3">
         <v>16</v>
       </c>
-      <c r="AM38" s="49"/>
+      <c r="AM38" s="57"/>
       <c r="AN38" s="2">
         <v>13</v>
       </c>
@@ -5566,7 +5585,7 @@
       <c r="AQ38" s="3">
         <v>16</v>
       </c>
-      <c r="AR38" s="49"/>
+      <c r="AR38" s="57"/>
       <c r="AS38" s="2">
         <v>13</v>
       </c>
@@ -5579,7 +5598,7 @@
       <c r="AV38" s="3">
         <v>16</v>
       </c>
-      <c r="AW38" s="49"/>
+      <c r="AW38" s="57"/>
       <c r="AX38" s="2">
         <v>13</v>
       </c>
@@ -5592,7 +5611,7 @@
       <c r="BA38" s="3">
         <v>16</v>
       </c>
-      <c r="BB38" s="49"/>
+      <c r="BB38" s="57"/>
       <c r="BC38" s="2">
         <v>13</v>
       </c>
@@ -5605,7 +5624,7 @@
       <c r="BF38" s="3">
         <v>16</v>
       </c>
-      <c r="BG38" s="49"/>
+      <c r="BG38" s="57"/>
       <c r="BH38" s="2">
         <v>13</v>
       </c>
@@ -5620,8 +5639,8 @@
       </c>
     </row>
     <row r="39" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J39" s="50"/>
-      <c r="K39" s="4">
+      <c r="J39" s="58"/>
+      <c r="K39" s="47">
         <v>17</v>
       </c>
       <c r="L39" s="5">
@@ -5630,11 +5649,11 @@
       <c r="M39" s="5">
         <v>19</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="48">
         <v>20</v>
       </c>
-      <c r="O39" s="50"/>
-      <c r="P39" s="4">
+      <c r="O39" s="58"/>
+      <c r="P39" s="47">
         <v>17</v>
       </c>
       <c r="Q39" s="4" t="s">
@@ -5643,10 +5662,10 @@
       <c r="R39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39" s="48">
         <v>20</v>
       </c>
-      <c r="X39" s="50"/>
+      <c r="X39" s="58"/>
       <c r="Y39" s="4">
         <v>17</v>
       </c>
@@ -5659,7 +5678,7 @@
       <c r="AB39" s="6">
         <v>20</v>
       </c>
-      <c r="AC39" s="50"/>
+      <c r="AC39" s="58"/>
       <c r="AD39" s="4">
         <v>17</v>
       </c>
@@ -5672,7 +5691,7 @@
       <c r="AG39" s="6">
         <v>20</v>
       </c>
-      <c r="AH39" s="50"/>
+      <c r="AH39" s="58"/>
       <c r="AI39" s="4">
         <v>17</v>
       </c>
@@ -5685,7 +5704,7 @@
       <c r="AL39" s="6">
         <v>20</v>
       </c>
-      <c r="AM39" s="50"/>
+      <c r="AM39" s="58"/>
       <c r="AN39" s="4">
         <v>17</v>
       </c>
@@ -5698,7 +5717,7 @@
       <c r="AQ39" s="6">
         <v>20</v>
       </c>
-      <c r="AR39" s="50"/>
+      <c r="AR39" s="58"/>
       <c r="AS39" s="4">
         <v>17</v>
       </c>
@@ -5711,7 +5730,7 @@
       <c r="AV39" s="6">
         <v>20</v>
       </c>
-      <c r="AW39" s="50"/>
+      <c r="AW39" s="58"/>
       <c r="AX39" s="4">
         <v>17</v>
       </c>
@@ -5724,7 +5743,7 @@
       <c r="BA39" s="6">
         <v>20</v>
       </c>
-      <c r="BB39" s="50"/>
+      <c r="BB39" s="58"/>
       <c r="BC39" s="4">
         <v>17</v>
       </c>
@@ -5737,7 +5756,7 @@
       <c r="BF39" s="6">
         <v>20</v>
       </c>
-      <c r="BG39" s="50"/>
+      <c r="BG39" s="58"/>
       <c r="BH39" s="4">
         <v>17</v>
       </c>
@@ -5751,11 +5770,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J40" s="102">
-        <v>6</v>
-      </c>
-      <c r="K40" s="2">
+    <row r="40" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J40" s="110">
+        <v>6</v>
+      </c>
+      <c r="K40" s="42">
         <v>1</v>
       </c>
       <c r="L40" s="1">
@@ -5764,13 +5783,13 @@
       <c r="M40" s="1">
         <v>3</v>
       </c>
-      <c r="N40" s="3">
-        <v>4</v>
-      </c>
-      <c r="O40" s="102">
-        <v>6</v>
-      </c>
-      <c r="P40" s="2">
+      <c r="N40" s="43">
+        <v>4</v>
+      </c>
+      <c r="O40" s="110">
+        <v>6</v>
+      </c>
+      <c r="P40" s="42">
         <v>1</v>
       </c>
       <c r="Q40" s="7" t="s">
@@ -5779,10 +5798,10 @@
       <c r="R40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S40" s="3">
-        <v>4</v>
-      </c>
-      <c r="X40" s="71">
+      <c r="S40" s="43">
+        <v>4</v>
+      </c>
+      <c r="X40" s="79">
         <v>6</v>
       </c>
       <c r="Y40" s="2">
@@ -5797,7 +5816,7 @@
       <c r="AB40" s="3">
         <v>4</v>
       </c>
-      <c r="AC40" s="48">
+      <c r="AC40" s="56">
         <v>6</v>
       </c>
       <c r="AD40" s="7">
@@ -5812,7 +5831,7 @@
       <c r="AG40" s="9">
         <v>4</v>
       </c>
-      <c r="AH40" s="48">
+      <c r="AH40" s="56">
         <v>6</v>
       </c>
       <c r="AI40" s="7">
@@ -5827,7 +5846,7 @@
       <c r="AL40" s="9">
         <v>4</v>
       </c>
-      <c r="AM40" s="71">
+      <c r="AM40" s="79">
         <v>6</v>
       </c>
       <c r="AN40" s="2">
@@ -5842,7 +5861,7 @@
       <c r="AQ40" s="3">
         <v>4</v>
       </c>
-      <c r="AR40" s="71">
+      <c r="AR40" s="79">
         <v>6</v>
       </c>
       <c r="AS40" s="2">
@@ -5857,7 +5876,7 @@
       <c r="AV40" s="3">
         <v>4</v>
       </c>
-      <c r="AW40" s="71">
+      <c r="AW40" s="79">
         <v>6</v>
       </c>
       <c r="AX40" s="2">
@@ -5872,7 +5891,7 @@
       <c r="BA40" s="3">
         <v>4</v>
       </c>
-      <c r="BB40" s="71">
+      <c r="BB40" s="79">
         <v>6</v>
       </c>
       <c r="BC40" s="2">
@@ -5887,7 +5906,7 @@
       <c r="BF40" s="3">
         <v>4</v>
       </c>
-      <c r="BG40" s="71">
+      <c r="BG40" s="79">
         <v>6</v>
       </c>
       <c r="BH40" s="2">
@@ -5904,8 +5923,8 @@
       </c>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J41" s="49"/>
-      <c r="K41" s="2">
+      <c r="J41" s="57"/>
+      <c r="K41" s="42">
         <v>5</v>
       </c>
       <c r="L41" s="1">
@@ -5914,11 +5933,11 @@
       <c r="M41" s="1">
         <v>7</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="43">
         <v>8</v>
       </c>
-      <c r="O41" s="49"/>
-      <c r="P41" s="2">
+      <c r="O41" s="57"/>
+      <c r="P41" s="42">
         <v>5</v>
       </c>
       <c r="Q41" s="2" t="s">
@@ -5927,10 +5946,10 @@
       <c r="R41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="43">
         <v>8</v>
       </c>
-      <c r="X41" s="49"/>
+      <c r="X41" s="57"/>
       <c r="Y41" s="2">
         <v>5</v>
       </c>
@@ -5943,7 +5962,7 @@
       <c r="AB41" s="3">
         <v>8</v>
       </c>
-      <c r="AC41" s="49"/>
+      <c r="AC41" s="57"/>
       <c r="AD41" s="2">
         <v>5</v>
       </c>
@@ -5956,7 +5975,7 @@
       <c r="AG41" s="3">
         <v>8</v>
       </c>
-      <c r="AH41" s="49"/>
+      <c r="AH41" s="57"/>
       <c r="AI41" s="2">
         <v>5</v>
       </c>
@@ -5969,7 +5988,7 @@
       <c r="AL41" s="3">
         <v>8</v>
       </c>
-      <c r="AM41" s="49"/>
+      <c r="AM41" s="57"/>
       <c r="AN41" s="2">
         <v>5</v>
       </c>
@@ -5982,7 +6001,7 @@
       <c r="AQ41" s="3">
         <v>8</v>
       </c>
-      <c r="AR41" s="49"/>
+      <c r="AR41" s="57"/>
       <c r="AS41" s="2">
         <v>5</v>
       </c>
@@ -5995,7 +6014,7 @@
       <c r="AV41" s="3">
         <v>8</v>
       </c>
-      <c r="AW41" s="49"/>
+      <c r="AW41" s="57"/>
       <c r="AX41" s="2">
         <v>5</v>
       </c>
@@ -6008,7 +6027,7 @@
       <c r="BA41" s="3">
         <v>8</v>
       </c>
-      <c r="BB41" s="49"/>
+      <c r="BB41" s="57"/>
       <c r="BC41" s="2">
         <v>5</v>
       </c>
@@ -6021,7 +6040,7 @@
       <c r="BF41" s="3">
         <v>8</v>
       </c>
-      <c r="BG41" s="49"/>
+      <c r="BG41" s="57"/>
       <c r="BH41" s="2">
         <v>5</v>
       </c>
@@ -6036,8 +6055,8 @@
       </c>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J42" s="49"/>
-      <c r="K42" s="2">
+      <c r="J42" s="57"/>
+      <c r="K42" s="42">
         <v>9</v>
       </c>
       <c r="L42" s="1">
@@ -6046,11 +6065,11 @@
       <c r="M42" s="1">
         <v>11</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="43">
         <v>12</v>
       </c>
-      <c r="O42" s="49"/>
-      <c r="P42" s="2">
+      <c r="O42" s="57"/>
+      <c r="P42" s="42">
         <v>9</v>
       </c>
       <c r="Q42" s="2" t="s">
@@ -6059,10 +6078,10 @@
       <c r="R42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="43">
         <v>12</v>
       </c>
-      <c r="X42" s="49"/>
+      <c r="X42" s="57"/>
       <c r="Y42" s="2">
         <v>9</v>
       </c>
@@ -6075,7 +6094,7 @@
       <c r="AB42" s="3">
         <v>12</v>
       </c>
-      <c r="AC42" s="49"/>
+      <c r="AC42" s="57"/>
       <c r="AD42" s="2">
         <v>9</v>
       </c>
@@ -6088,7 +6107,7 @@
       <c r="AG42" s="3">
         <v>12</v>
       </c>
-      <c r="AH42" s="49"/>
+      <c r="AH42" s="57"/>
       <c r="AI42" s="2">
         <v>9</v>
       </c>
@@ -6101,7 +6120,7 @@
       <c r="AL42" s="3">
         <v>12</v>
       </c>
-      <c r="AM42" s="49"/>
+      <c r="AM42" s="57"/>
       <c r="AN42" s="2">
         <v>9</v>
       </c>
@@ -6114,7 +6133,7 @@
       <c r="AQ42" s="3">
         <v>12</v>
       </c>
-      <c r="AR42" s="49"/>
+      <c r="AR42" s="57"/>
       <c r="AS42" s="2">
         <v>9</v>
       </c>
@@ -6127,7 +6146,7 @@
       <c r="AV42" s="3">
         <v>12</v>
       </c>
-      <c r="AW42" s="49"/>
+      <c r="AW42" s="57"/>
       <c r="AX42" s="2">
         <v>9</v>
       </c>
@@ -6140,7 +6159,7 @@
       <c r="BA42" s="3">
         <v>12</v>
       </c>
-      <c r="BB42" s="49"/>
+      <c r="BB42" s="57"/>
       <c r="BC42" s="2">
         <v>9</v>
       </c>
@@ -6153,7 +6172,7 @@
       <c r="BF42" s="3">
         <v>12</v>
       </c>
-      <c r="BG42" s="49"/>
+      <c r="BG42" s="57"/>
       <c r="BH42" s="2">
         <v>9</v>
       </c>
@@ -6168,8 +6187,8 @@
       </c>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J43" s="49"/>
-      <c r="K43" s="2">
+      <c r="J43" s="57"/>
+      <c r="K43" s="42">
         <v>13</v>
       </c>
       <c r="L43" s="1">
@@ -6178,11 +6197,11 @@
       <c r="M43" s="1">
         <v>15</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="43">
         <v>16</v>
       </c>
-      <c r="O43" s="49"/>
-      <c r="P43" s="2">
+      <c r="O43" s="57"/>
+      <c r="P43" s="42">
         <v>13</v>
       </c>
       <c r="Q43" s="2" t="s">
@@ -6191,10 +6210,10 @@
       <c r="R43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="43">
         <v>16</v>
       </c>
-      <c r="X43" s="49"/>
+      <c r="X43" s="57"/>
       <c r="Y43" s="2">
         <v>13</v>
       </c>
@@ -6207,7 +6226,7 @@
       <c r="AB43" s="3">
         <v>16</v>
       </c>
-      <c r="AC43" s="49"/>
+      <c r="AC43" s="57"/>
       <c r="AD43" s="2">
         <v>13</v>
       </c>
@@ -6220,7 +6239,7 @@
       <c r="AG43" s="3">
         <v>16</v>
       </c>
-      <c r="AH43" s="49"/>
+      <c r="AH43" s="57"/>
       <c r="AI43" s="2">
         <v>13</v>
       </c>
@@ -6233,7 +6252,7 @@
       <c r="AL43" s="3">
         <v>16</v>
       </c>
-      <c r="AM43" s="49"/>
+      <c r="AM43" s="57"/>
       <c r="AN43" s="2">
         <v>13</v>
       </c>
@@ -6246,7 +6265,7 @@
       <c r="AQ43" s="3">
         <v>16</v>
       </c>
-      <c r="AR43" s="49"/>
+      <c r="AR43" s="57"/>
       <c r="AS43" s="2">
         <v>13</v>
       </c>
@@ -6259,7 +6278,7 @@
       <c r="AV43" s="3">
         <v>16</v>
       </c>
-      <c r="AW43" s="49"/>
+      <c r="AW43" s="57"/>
       <c r="AX43" s="2">
         <v>13</v>
       </c>
@@ -6272,7 +6291,7 @@
       <c r="BA43" s="3">
         <v>16</v>
       </c>
-      <c r="BB43" s="49"/>
+      <c r="BB43" s="57"/>
       <c r="BC43" s="2">
         <v>13</v>
       </c>
@@ -6285,7 +6304,7 @@
       <c r="BF43" s="3">
         <v>16</v>
       </c>
-      <c r="BG43" s="49"/>
+      <c r="BG43" s="57"/>
       <c r="BH43" s="2">
         <v>13</v>
       </c>
@@ -6300,8 +6319,8 @@
       </c>
     </row>
     <row r="44" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J44" s="49"/>
-      <c r="K44" s="2">
+      <c r="J44" s="57"/>
+      <c r="K44" s="42">
         <v>17</v>
       </c>
       <c r="L44" s="1">
@@ -6310,11 +6329,11 @@
       <c r="M44" s="1">
         <v>19</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="43">
         <v>20</v>
       </c>
-      <c r="O44" s="49"/>
-      <c r="P44" s="2">
+      <c r="O44" s="57"/>
+      <c r="P44" s="42">
         <v>17</v>
       </c>
       <c r="Q44" s="2" t="s">
@@ -6323,10 +6342,10 @@
       <c r="R44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="43">
         <v>20</v>
       </c>
-      <c r="X44" s="49"/>
+      <c r="X44" s="57"/>
       <c r="Y44" s="2">
         <v>17</v>
       </c>
@@ -6339,7 +6358,7 @@
       <c r="AB44" s="3">
         <v>20</v>
       </c>
-      <c r="AC44" s="50"/>
+      <c r="AC44" s="58"/>
       <c r="AD44" s="4">
         <v>17</v>
       </c>
@@ -6352,7 +6371,7 @@
       <c r="AG44" s="6">
         <v>20</v>
       </c>
-      <c r="AH44" s="50"/>
+      <c r="AH44" s="58"/>
       <c r="AI44" s="4">
         <v>17</v>
       </c>
@@ -6365,7 +6384,7 @@
       <c r="AL44" s="6">
         <v>20</v>
       </c>
-      <c r="AM44" s="49"/>
+      <c r="AM44" s="57"/>
       <c r="AN44" s="2">
         <v>17</v>
       </c>
@@ -6378,7 +6397,7 @@
       <c r="AQ44" s="3">
         <v>20</v>
       </c>
-      <c r="AR44" s="49"/>
+      <c r="AR44" s="57"/>
       <c r="AS44" s="2">
         <v>17</v>
       </c>
@@ -6391,7 +6410,7 @@
       <c r="AV44" s="3">
         <v>20</v>
       </c>
-      <c r="AW44" s="49"/>
+      <c r="AW44" s="57"/>
       <c r="AX44" s="2">
         <v>17</v>
       </c>
@@ -6404,7 +6423,7 @@
       <c r="BA44" s="3">
         <v>20</v>
       </c>
-      <c r="BB44" s="49"/>
+      <c r="BB44" s="57"/>
       <c r="BC44" s="2">
         <v>17</v>
       </c>
@@ -6417,7 +6436,7 @@
       <c r="BF44" s="3">
         <v>20</v>
       </c>
-      <c r="BG44" s="49"/>
+      <c r="BG44" s="57"/>
       <c r="BH44" s="2">
         <v>17</v>
       </c>
@@ -6432,136 +6451,143 @@
       </c>
     </row>
     <row r="45" spans="1:63" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="103"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="72" t="s">
+      <c r="E45" s="65"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="78" t="s">
+      <c r="M45" s="65"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="M45" s="57"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="R45" s="62"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="29"/>
-      <c r="AJ45" s="29"/>
-      <c r="AK45" s="29"/>
-      <c r="AL45" s="29"/>
-      <c r="AM45" s="29"/>
-      <c r="AN45" s="29"/>
-      <c r="AO45" s="29"/>
-      <c r="AP45" s="29"/>
-      <c r="AQ45" s="29"/>
-      <c r="AR45" s="29"/>
-      <c r="AS45" s="29"/>
-      <c r="AT45" s="29"/>
-      <c r="AU45" s="29"/>
-      <c r="AV45" s="29"/>
-      <c r="AW45" s="29"/>
-      <c r="AX45" s="29"/>
-      <c r="AY45" s="29"/>
-      <c r="AZ45" s="29"/>
-      <c r="BA45" s="29"/>
-      <c r="BB45" s="29"/>
-      <c r="BC45" s="29"/>
-      <c r="BD45" s="29"/>
-      <c r="BE45" s="29"/>
-      <c r="BF45" s="29"/>
-      <c r="BG45" s="29"/>
-      <c r="BH45" s="29"/>
-      <c r="BI45" s="29"/>
-      <c r="BJ45" s="29"/>
-      <c r="BK45" s="30"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="28"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28"/>
+      <c r="AN45" s="28"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="28"/>
+      <c r="AQ45" s="28"/>
+      <c r="AR45" s="28"/>
+      <c r="AS45" s="28"/>
+      <c r="AT45" s="28"/>
+      <c r="AU45" s="28"/>
+      <c r="AV45" s="28"/>
+      <c r="AW45" s="28"/>
+      <c r="AX45" s="28"/>
+      <c r="AY45" s="28"/>
+      <c r="AZ45" s="28"/>
+      <c r="BA45" s="28"/>
+      <c r="BB45" s="28"/>
+      <c r="BC45" s="28"/>
+      <c r="BD45" s="28"/>
+      <c r="BE45" s="28"/>
+      <c r="BF45" s="28"/>
+      <c r="BG45" s="28"/>
+      <c r="BH45" s="28"/>
+      <c r="BI45" s="28"/>
+      <c r="BJ45" s="28"/>
+      <c r="BK45" s="29"/>
     </row>
     <row r="46" spans="1:63" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="73"/>
-      <c r="E46" s="70"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="70"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="78"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="78"/>
     </row>
     <row r="47" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D47" s="58"/>
-      <c r="E47" s="60"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="60"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="68"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="68"/>
     </row>
     <row r="48" spans="1:63" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
     </row>
     <row r="49" spans="10:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
     </row>
     <row r="50" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
     </row>
     <row r="51" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
     </row>
     <row r="52" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
     </row>
     <row r="53" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="166">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="BG20:BG24"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="AH13:AL13"/>
+    <mergeCell ref="BG40:BG44"/>
+    <mergeCell ref="BG15:BG19"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="AR25:AR29"/>
+    <mergeCell ref="AM13:AQ13"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="AC40:AC44"/>
     <mergeCell ref="P14:S14"/>
     <mergeCell ref="X9:AB10"/>
-    <mergeCell ref="A8:C8"/>
     <mergeCell ref="AC8:AG8"/>
     <mergeCell ref="AR13:AV13"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="T15:V15"/>
     <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="O8:S8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="AH13:AL13"/>
+    <mergeCell ref="BG35:BG39"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H16:I16"/>
@@ -6582,31 +6608,10 @@
     <mergeCell ref="J35:J39"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="AR25:AR29"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="AC40:AC44"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="AX14:BA14"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="AM25:AM29"/>
-    <mergeCell ref="BG25:BG29"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="X40:X44"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="BG13:BK13"/>
-    <mergeCell ref="BC14:BF14"/>
-    <mergeCell ref="BG40:BG44"/>
-    <mergeCell ref="BG15:BG19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="BH14:BK14"/>
-    <mergeCell ref="BG35:BG39"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="BG20:BG24"/>
-    <mergeCell ref="AW25:AW29"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="BB40:BB44"/>
     <mergeCell ref="AW35:AW39"/>
@@ -6615,6 +6620,7 @@
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="AC25:AC29"/>
     <mergeCell ref="AW20:AW24"/>
+    <mergeCell ref="AW25:AW29"/>
     <mergeCell ref="AC9:AG10"/>
     <mergeCell ref="X13:AB13"/>
     <mergeCell ref="X7:AB7"/>
@@ -6624,7 +6630,6 @@
     <mergeCell ref="T19:V19"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="T9:V10"/>
-    <mergeCell ref="BB7:BF7"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="AH35:AH39"/>
     <mergeCell ref="AC15:AC19"/>
@@ -6635,8 +6640,8 @@
     <mergeCell ref="BB30:BB34"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="AH20:AH24"/>
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="BB20:BB24"/>
-    <mergeCell ref="A2:D2"/>
     <mergeCell ref="O35:O39"/>
     <mergeCell ref="AN14:AQ14"/>
     <mergeCell ref="AC35:AC39"/>
@@ -6644,6 +6649,7 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="BB13:BF13"/>
     <mergeCell ref="F19:G19"/>
+    <mergeCell ref="BB7:BF7"/>
     <mergeCell ref="AM35:AM39"/>
     <mergeCell ref="X15:X19"/>
     <mergeCell ref="F5:G5"/>
@@ -6654,15 +6660,6 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="AW40:AW44"/>
-    <mergeCell ref="AM15:AM19"/>
-    <mergeCell ref="X25:X29"/>
-    <mergeCell ref="AR20:AR24"/>
-    <mergeCell ref="D45:E47"/>
-    <mergeCell ref="AH25:AH29"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="AD14:AG14"/>
     <mergeCell ref="D7:E7"/>
@@ -6670,36 +6667,61 @@
     <mergeCell ref="L45:M47"/>
     <mergeCell ref="O15:O19"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="BB15:BB19"/>
     <mergeCell ref="T20:V20"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="T14:V14"/>
     <mergeCell ref="AM7:AQ7"/>
     <mergeCell ref="AM40:AM44"/>
     <mergeCell ref="AR40:AR44"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="O40:O44"/>
+    <mergeCell ref="AH9:AL10"/>
+    <mergeCell ref="AR15:AR19"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="X30:X34"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="AR30:AR34"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="AW40:AW44"/>
+    <mergeCell ref="AM15:AM19"/>
+    <mergeCell ref="X25:X29"/>
+    <mergeCell ref="D45:E47"/>
+    <mergeCell ref="AR20:AR24"/>
+    <mergeCell ref="AH25:AH29"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="X20:X24"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="AX14:BA14"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="AM25:AM29"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="X40:X44"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="BG30:BG34"/>
     <mergeCell ref="AM20:AM24"/>
     <mergeCell ref="X11:BK12"/>
     <mergeCell ref="BB25:BB29"/>
     <mergeCell ref="D11:G12"/>
     <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="AI14:AL14"/>
     <mergeCell ref="J11:S12"/>
+    <mergeCell ref="X35:X39"/>
     <mergeCell ref="AH8:AL8"/>
     <mergeCell ref="AM9:BK10"/>
-    <mergeCell ref="AI14:AL14"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="BB15:BB19"/>
-    <mergeCell ref="AH9:AL10"/>
-    <mergeCell ref="AR15:AR19"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="X30:X34"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="AR30:AR34"/>
-    <mergeCell ref="X20:X24"/>
+    <mergeCell ref="BG25:BG29"/>
+    <mergeCell ref="BG13:BK13"/>
+    <mergeCell ref="BC14:BF14"/>
+    <mergeCell ref="BH14:BK14"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="AH40:AH44"/>
@@ -6709,9 +6731,6 @@
     <mergeCell ref="AW30:AW34"/>
     <mergeCell ref="AC20:AC24"/>
     <mergeCell ref="BB35:BB39"/>
-    <mergeCell ref="X35:X39"/>
-    <mergeCell ref="AC7:AG7"/>
-    <mergeCell ref="AW7:BA7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6733,27 +6752,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <v>1</v>
       </c>
       <c r="C2">
@@ -6764,75 +6783,75 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="36">
-        <v>1</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34">
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36">
-        <v>1</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="B4" s="35">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34">
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36">
-        <v>1</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
         <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="36">
-        <v>1</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="35">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
         <v>65</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>1</v>
       </c>
       <c r="C7">
@@ -6843,7 +6862,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>1</v>
       </c>
       <c r="C8">
@@ -6854,7 +6873,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>1</v>
       </c>
       <c r="C9">
@@ -6865,21 +6884,21 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>1</v>
       </c>
       <c r="C10">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>1</v>
       </c>
       <c r="C11">
@@ -6890,7 +6909,7 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>3</v>
       </c>
       <c r="C12">
@@ -6901,7 +6920,7 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>3</v>
       </c>
       <c r="C13">
@@ -6912,7 +6931,7 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>3</v>
       </c>
       <c r="C14">
@@ -6923,7 +6942,7 @@
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>3</v>
       </c>
       <c r="C15">
@@ -6934,7 +6953,7 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>3</v>
       </c>
       <c r="C16">
@@ -6945,24 +6964,24 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="37">
-        <v>3</v>
-      </c>
-      <c r="C17" s="35">
+      <c r="B17" s="36">
+        <v>3</v>
+      </c>
+      <c r="C17" s="34">
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
         <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>3</v>
       </c>
       <c r="C18">
@@ -6973,55 +6992,55 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="37">
-        <v>3</v>
-      </c>
-      <c r="C19" s="35">
+      <c r="B19" s="36">
+        <v>3</v>
+      </c>
+      <c r="C19" s="34">
         <v>16</v>
       </c>
       <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
         <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="37">
-        <v>3</v>
-      </c>
-      <c r="C20" s="35">
+      <c r="B20" s="36">
+        <v>3</v>
+      </c>
+      <c r="C20" s="34">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="37">
-        <v>3</v>
-      </c>
-      <c r="C21" s="35">
+      <c r="B21" s="36">
+        <v>3</v>
+      </c>
+      <c r="C21" s="34">
         <v>20</v>
       </c>
       <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
         <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>4</v>
       </c>
       <c r="C22">
@@ -7032,7 +7051,7 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>4</v>
       </c>
       <c r="C23">
@@ -7043,7 +7062,7 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>4</v>
       </c>
       <c r="C24">
@@ -7054,7 +7073,7 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>4</v>
       </c>
       <c r="C25">
@@ -7065,7 +7084,7 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>4</v>
       </c>
       <c r="C26">
@@ -7076,7 +7095,7 @@
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="35">
         <v>4</v>
       </c>
       <c r="C27">
@@ -7087,7 +7106,7 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>4</v>
       </c>
       <c r="C28">
@@ -7098,7 +7117,7 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>4</v>
       </c>
       <c r="C29">
@@ -7109,7 +7128,7 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>4</v>
       </c>
       <c r="C30">
@@ -7120,7 +7139,7 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="35">
         <v>4</v>
       </c>
       <c r="C31">
@@ -7131,7 +7150,7 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>5</v>
       </c>
       <c r="C32">
@@ -7142,7 +7161,7 @@
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="36">
         <v>5</v>
       </c>
       <c r="C33">
@@ -7153,7 +7172,7 @@
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>5</v>
       </c>
       <c r="C34">
@@ -7164,7 +7183,7 @@
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="36">
         <v>5</v>
       </c>
       <c r="C35">
@@ -7175,7 +7194,7 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="36">
         <v>5</v>
       </c>
       <c r="C36">
@@ -7186,7 +7205,7 @@
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="36">
         <v>5</v>
       </c>
       <c r="C37">
@@ -7197,7 +7216,7 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="36">
         <v>5</v>
       </c>
       <c r="C38">
@@ -7208,7 +7227,7 @@
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="36">
         <v>5</v>
       </c>
       <c r="C39">
@@ -7219,7 +7238,7 @@
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="36">
         <v>5</v>
       </c>
       <c r="C40">
@@ -7230,7 +7249,7 @@
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="36">
         <v>5</v>
       </c>
       <c r="C41">
@@ -7241,7 +7260,7 @@
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="35">
         <v>6</v>
       </c>
       <c r="C42">
@@ -7252,7 +7271,7 @@
       <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="35">
         <v>6</v>
       </c>
       <c r="C43">
@@ -7263,7 +7282,7 @@
       <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="35">
         <v>6</v>
       </c>
       <c r="C44">
@@ -7274,7 +7293,7 @@
       <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="35">
         <v>6</v>
       </c>
       <c r="C45">
@@ -7285,7 +7304,7 @@
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="35">
         <v>6</v>
       </c>
       <c r="C46">
@@ -7296,7 +7315,7 @@
       <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="35">
         <v>6</v>
       </c>
       <c r="C47">
@@ -7307,7 +7326,7 @@
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="35">
         <v>6</v>
       </c>
       <c r="C48">
@@ -7318,7 +7337,7 @@
       <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="35">
         <v>6</v>
       </c>
       <c r="C49">
@@ -7329,7 +7348,7 @@
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="35">
         <v>6</v>
       </c>
       <c r="C50">
@@ -7340,7 +7359,7 @@
       <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="35">
         <v>6</v>
       </c>
       <c r="C51">

--- a/Moonfish Batch Lifetime.xlsx
+++ b/Moonfish Batch Lifetime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry.Delalis\PycharmProjects\moonfish_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A66D49-54CE-4379-B16E-B3D3C242F06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BAB68C-F26B-4ADD-8B36-AA37C90DB66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,6 +983,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,9 +995,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,16 +1026,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,20 +1056,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,7 +1120,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1162,6 +1165,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,7 +1484,7 @@
   <dimension ref="A1:BK53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1492,18 +1498,18 @@
     <col min="16" max="21" width="9.1796875" style="1" customWidth="1"/>
     <col min="22" max="22" width="3.7265625" style="1" customWidth="1"/>
     <col min="23" max="23" width="25.1796875" style="1" customWidth="1"/>
-    <col min="24" max="49" width="9.1796875" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.1796875" style="1"/>
+    <col min="24" max="56" width="9.1796875" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
       <c r="D1" s="65"/>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="119" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="64"/>
@@ -1511,70 +1517,70 @@
       <c r="I1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="98" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="65"/>
     </row>
     <row r="2" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="78"/>
-      <c r="F2" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="94"/>
+      <c r="A2" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="79"/>
+      <c r="F2" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="95"/>
       <c r="H2" s="21"/>
       <c r="I2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="108" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="78"/>
+      <c r="J2" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:63" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="124" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
       <c r="D3" s="68"/>
-      <c r="F3" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="94"/>
+      <c r="F3" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="95"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="78"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="94"/>
+      <c r="F4" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="95"/>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="78"/>
+      <c r="K4" s="79"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="102" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="67"/>
@@ -1584,7 +1590,7 @@
       <c r="I5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="120" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="68"/>
@@ -1615,7 +1621,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="60"/>
-      <c r="J7" s="106" t="s">
+      <c r="J7" s="107" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="60"/>
@@ -1644,14 +1650,14 @@
       <c r="Z7" s="60"/>
       <c r="AA7" s="60"/>
       <c r="AB7" s="60"/>
-      <c r="AC7" s="111" t="s">
+      <c r="AC7" s="112" t="s">
         <v>15</v>
       </c>
       <c r="AD7" s="67"/>
       <c r="AE7" s="67"/>
       <c r="AF7" s="67"/>
       <c r="AG7" s="67"/>
-      <c r="AH7" s="111" t="s">
+      <c r="AH7" s="112" t="s">
         <v>15</v>
       </c>
       <c r="AI7" s="67"/>
@@ -1700,37 +1706,37 @@
       </c>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="102" t="s">
+      <c r="E8" s="104"/>
+      <c r="F8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="102" t="s">
+      <c r="G8" s="104"/>
+      <c r="H8" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="102" t="s">
+      <c r="I8" s="104"/>
+      <c r="J8" s="103" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="70"/>
       <c r="L8" s="70"/>
       <c r="M8" s="70"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="102" t="s">
+      <c r="N8" s="104"/>
+      <c r="O8" s="103" t="s">
         <v>21</v>
       </c>
       <c r="P8" s="70"/>
       <c r="Q8" s="70"/>
       <c r="R8" s="70"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="102" t="s">
+      <c r="S8" s="104"/>
+      <c r="T8" s="103" t="s">
         <v>22</v>
       </c>
       <c r="U8" s="70"/>
-      <c r="V8" s="103"/>
+      <c r="V8" s="104"/>
       <c r="W8" s="19" t="s">
         <v>23</v>
       </c>
@@ -1741,16 +1747,16 @@
       <c r="Z8" s="70"/>
       <c r="AA8" s="70"/>
       <c r="AB8" s="70"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="55"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="58"/>
       <c r="AM8" s="24"/>
       <c r="AN8" s="24"/>
       <c r="AO8" s="24"/>
@@ -1778,59 +1784,59 @@
       <c r="BK8" s="25"/>
     </row>
     <row r="9" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="107" t="s">
+      <c r="B9" s="95"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="98" t="s">
+      <c r="I9" s="79"/>
+      <c r="J9" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="107" t="s">
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="94"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="107" t="s">
+      <c r="U9" s="95"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="100" t="s">
+      <c r="X9" s="99"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="101" t="s">
         <v>30</v>
       </c>
       <c r="AD9" s="64"/>
       <c r="AE9" s="64"/>
       <c r="AF9" s="64"/>
       <c r="AG9" s="65"/>
-      <c r="AH9" s="100" t="s">
+      <c r="AH9" s="101" t="s">
         <v>31</v>
       </c>
       <c r="AI9" s="64"/>
       <c r="AJ9" s="64"/>
       <c r="AK9" s="64"/>
       <c r="AL9" s="65"/>
-      <c r="AM9" s="73"/>
+      <c r="AM9" s="77"/>
       <c r="AN9" s="64"/>
       <c r="AO9" s="64"/>
       <c r="AP9" s="64"/>
@@ -1879,7 +1885,7 @@
       <c r="T10" s="66"/>
       <c r="U10" s="67"/>
       <c r="V10" s="68"/>
-      <c r="W10" s="58"/>
+      <c r="W10" s="55"/>
       <c r="X10" s="66"/>
       <c r="Y10" s="67"/>
       <c r="Z10" s="67"/>
@@ -1922,7 +1928,7 @@
       <c r="BK10" s="68"/>
     </row>
     <row r="11" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="113" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="64"/>
@@ -1990,9 +1996,9 @@
       <c r="BK11" s="65"/>
     </row>
     <row r="12" spans="1:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="81"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="66"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
@@ -2050,87 +2056,87 @@
       <c r="BK12" s="68"/>
     </row>
     <row r="13" spans="1:63" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="106" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="70"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="77" t="s">
+      <c r="C13" s="104"/>
+      <c r="D13" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="88" t="s">
+      <c r="E13" s="79"/>
+      <c r="F13" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="55"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="10"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="99" t="s">
+      <c r="J13" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="99" t="s">
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="78"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="79"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
-      <c r="X13" s="99" t="s">
+      <c r="X13" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="78"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="79"/>
       <c r="AC13" s="18"/>
       <c r="AD13" s="18"/>
       <c r="AE13" s="18"/>
       <c r="AF13" s="18"/>
       <c r="AG13" s="18"/>
-      <c r="AH13" s="123" t="s">
+      <c r="AH13" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="76" t="s">
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="74" t="s">
         <v>43</v>
       </c>
       <c r="AN13" s="67"/>
       <c r="AO13" s="67"/>
       <c r="AP13" s="67"/>
       <c r="AQ13" s="68"/>
-      <c r="AR13" s="76" t="s">
+      <c r="AR13" s="74" t="s">
         <v>44</v>
       </c>
       <c r="AS13" s="67"/>
       <c r="AT13" s="67"/>
       <c r="AU13" s="67"/>
       <c r="AV13" s="68"/>
-      <c r="AW13" s="76" t="s">
+      <c r="AW13" s="74" t="s">
         <v>45</v>
       </c>
       <c r="AX13" s="67"/>
       <c r="AY13" s="67"/>
       <c r="AZ13" s="67"/>
       <c r="BA13" s="68"/>
-      <c r="BB13" s="76" t="s">
+      <c r="BB13" s="74" t="s">
         <v>46</v>
       </c>
       <c r="BC13" s="67"/>
       <c r="BD13" s="67"/>
       <c r="BE13" s="67"/>
       <c r="BF13" s="68"/>
-      <c r="BG13" s="76" t="s">
+      <c r="BG13" s="74" t="s">
         <v>47</v>
       </c>
       <c r="BH13" s="67"/>
@@ -2139,131 +2145,131 @@
       <c r="BK13" s="68"/>
     </row>
     <row r="14" spans="1:63" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="65"/>
-      <c r="F14" s="116" t="s">
+      <c r="F14" s="118" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="65"/>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="41" t="s">
+      <c r="I14" s="58"/>
+      <c r="J14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="41" t="s">
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="119" t="s">
+      <c r="P14" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="90" t="s">
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="54"/>
-      <c r="V14" s="91"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="26" t="s">
         <v>48</v>
       </c>
       <c r="X14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Y14" s="71" t="s">
+      <c r="Y14" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="55"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="58"/>
       <c r="AC14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AD14" s="71" t="s">
+      <c r="AD14" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="55"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="58"/>
       <c r="AH14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AI14" s="71" t="s">
+      <c r="AI14" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="55"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="58"/>
       <c r="AM14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AN14" s="71" t="s">
+      <c r="AN14" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="55"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="58"/>
       <c r="AR14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AS14" s="71" t="s">
+      <c r="AS14" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="AT14" s="54"/>
-      <c r="AU14" s="54"/>
-      <c r="AV14" s="55"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="58"/>
       <c r="AW14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AX14" s="71" t="s">
+      <c r="AX14" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="54"/>
-      <c r="BA14" s="55"/>
+      <c r="AY14" s="57"/>
+      <c r="AZ14" s="57"/>
+      <c r="BA14" s="58"/>
       <c r="BB14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BC14" s="71" t="s">
+      <c r="BC14" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="BD14" s="54"/>
-      <c r="BE14" s="54"/>
-      <c r="BF14" s="55"/>
+      <c r="BD14" s="57"/>
+      <c r="BE14" s="57"/>
+      <c r="BF14" s="58"/>
       <c r="BG14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BH14" s="71" t="s">
+      <c r="BH14" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="BI14" s="54"/>
-      <c r="BJ14" s="54"/>
-      <c r="BK14" s="55"/>
+      <c r="BI14" s="57"/>
+      <c r="BJ14" s="57"/>
+      <c r="BK14" s="58"/>
     </row>
     <row r="15" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="74">
-        <v>1</v>
-      </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="74">
-        <v>1</v>
-      </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="92">
-        <v>1</v>
-      </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="87">
+      <c r="D15" s="75">
+        <v>1</v>
+      </c>
+      <c r="E15" s="76"/>
+      <c r="F15" s="75">
+        <v>1</v>
+      </c>
+      <c r="G15" s="76"/>
+      <c r="H15" s="93">
+        <v>1</v>
+      </c>
+      <c r="I15" s="76"/>
+      <c r="J15" s="88">
         <v>1</v>
       </c>
       <c r="K15" s="42">
@@ -2278,7 +2284,7 @@
       <c r="N15" s="43">
         <v>4</v>
       </c>
-      <c r="O15" s="87">
+      <c r="O15" s="88">
         <v>1</v>
       </c>
       <c r="P15" s="44">
@@ -2293,18 +2299,18 @@
       <c r="S15" s="45">
         <v>4</v>
       </c>
-      <c r="T15" s="92">
-        <v>1</v>
-      </c>
-      <c r="U15" s="120"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="38">
-        <v>1</v>
-      </c>
-      <c r="X15" s="96">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="2">
+      <c r="T15" s="93">
+        <v>1</v>
+      </c>
+      <c r="U15" s="122"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="39">
+        <v>1</v>
+      </c>
+      <c r="X15" s="97">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="42">
         <v>1</v>
       </c>
       <c r="Z15" s="1">
@@ -2313,10 +2319,10 @@
       <c r="AA15" s="1">
         <v>3</v>
       </c>
-      <c r="AB15" s="3">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="56">
+      <c r="AB15" s="43">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="53">
         <v>1</v>
       </c>
       <c r="AD15" s="7">
@@ -2331,7 +2337,7 @@
       <c r="AG15" s="9">
         <v>4</v>
       </c>
-      <c r="AH15" s="56">
+      <c r="AH15" s="53">
         <v>1</v>
       </c>
       <c r="AI15" s="7">
@@ -2346,7 +2352,7 @@
       <c r="AL15" s="9">
         <v>4</v>
       </c>
-      <c r="AM15" s="56">
+      <c r="AM15" s="53">
         <v>1</v>
       </c>
       <c r="AN15" s="2">
@@ -2361,7 +2367,7 @@
       <c r="AQ15" s="3">
         <v>4</v>
       </c>
-      <c r="AR15" s="56">
+      <c r="AR15" s="53">
         <v>1</v>
       </c>
       <c r="AS15" s="2">
@@ -2376,7 +2382,7 @@
       <c r="AV15" s="3">
         <v>4</v>
       </c>
-      <c r="AW15" s="56">
+      <c r="AW15" s="53">
         <v>1</v>
       </c>
       <c r="AX15" s="2">
@@ -2391,7 +2397,7 @@
       <c r="BA15" s="3">
         <v>4</v>
       </c>
-      <c r="BB15" s="56">
+      <c r="BB15" s="53">
         <v>1</v>
       </c>
       <c r="BC15" s="2">
@@ -2406,7 +2412,7 @@
       <c r="BF15" s="3">
         <v>4</v>
       </c>
-      <c r="BG15" s="56">
+      <c r="BG15" s="53">
         <v>1</v>
       </c>
       <c r="BH15" s="2">
@@ -2435,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="62"/>
-      <c r="J16" s="57"/>
+      <c r="J16" s="54"/>
       <c r="K16" s="42">
         <v>5</v>
       </c>
@@ -2448,7 +2454,7 @@
       <c r="N16" s="43">
         <v>8</v>
       </c>
-      <c r="O16" s="57"/>
+      <c r="O16" s="54"/>
       <c r="P16" s="42">
         <v>5</v>
       </c>
@@ -2464,13 +2470,13 @@
       <c r="T16" s="61">
         <v>2</v>
       </c>
-      <c r="U16" s="104"/>
+      <c r="U16" s="105"/>
       <c r="V16" s="62"/>
-      <c r="W16" s="39">
+      <c r="W16" s="40">
         <v>2</v>
       </c>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="2">
+      <c r="X16" s="79"/>
+      <c r="Y16" s="42">
         <v>5</v>
       </c>
       <c r="Z16" s="1">
@@ -2479,10 +2485,10 @@
       <c r="AA16" s="1">
         <v>7</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16" s="43">
         <v>8</v>
       </c>
-      <c r="AC16" s="57"/>
+      <c r="AC16" s="54"/>
       <c r="AD16" s="2">
         <v>5</v>
       </c>
@@ -2495,7 +2501,7 @@
       <c r="AG16" s="3">
         <v>8</v>
       </c>
-      <c r="AH16" s="57"/>
+      <c r="AH16" s="54"/>
       <c r="AI16" s="2">
         <v>5</v>
       </c>
@@ -2508,7 +2514,7 @@
       <c r="AL16" s="3">
         <v>8</v>
       </c>
-      <c r="AM16" s="57"/>
+      <c r="AM16" s="54"/>
       <c r="AN16" s="2">
         <v>5</v>
       </c>
@@ -2521,7 +2527,7 @@
       <c r="AQ16" s="3">
         <v>8</v>
       </c>
-      <c r="AR16" s="57"/>
+      <c r="AR16" s="54"/>
       <c r="AS16" s="2">
         <v>5</v>
       </c>
@@ -2534,7 +2540,7 @@
       <c r="AV16" s="3">
         <v>8</v>
       </c>
-      <c r="AW16" s="57"/>
+      <c r="AW16" s="54"/>
       <c r="AX16" s="2">
         <v>5</v>
       </c>
@@ -2547,7 +2553,7 @@
       <c r="BA16" s="3">
         <v>8</v>
       </c>
-      <c r="BB16" s="57"/>
+      <c r="BB16" s="54"/>
       <c r="BC16" s="2">
         <v>5</v>
       </c>
@@ -2560,7 +2566,7 @@
       <c r="BF16" s="3">
         <v>8</v>
       </c>
-      <c r="BG16" s="57"/>
+      <c r="BG16" s="54"/>
       <c r="BH16" s="2">
         <v>5</v>
       </c>
@@ -2575,11 +2581,11 @@
       </c>
     </row>
     <row r="17" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="D17" s="95">
+      <c r="D17" s="96">
         <v>3</v>
       </c>
       <c r="E17" s="62"/>
-      <c r="F17" s="95">
+      <c r="F17" s="96">
         <v>3</v>
       </c>
       <c r="G17" s="62"/>
@@ -2587,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="62"/>
-      <c r="J17" s="57"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="42">
         <v>9</v>
       </c>
@@ -2600,7 +2606,7 @@
       <c r="N17" s="43">
         <v>12</v>
       </c>
-      <c r="O17" s="57"/>
+      <c r="O17" s="54"/>
       <c r="P17" s="42">
         <v>9</v>
       </c>
@@ -2616,13 +2622,13 @@
       <c r="T17" s="61">
         <v>3</v>
       </c>
-      <c r="U17" s="104"/>
+      <c r="U17" s="105"/>
       <c r="V17" s="62"/>
-      <c r="W17" s="39">
-        <v>3</v>
-      </c>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="2">
+      <c r="W17" s="40">
+        <v>3</v>
+      </c>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="42">
         <v>9</v>
       </c>
       <c r="Z17" s="1">
@@ -2631,10 +2637,10 @@
       <c r="AA17" s="1">
         <v>11</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="43">
         <v>12</v>
       </c>
-      <c r="AC17" s="57"/>
+      <c r="AC17" s="54"/>
       <c r="AD17" s="2">
         <v>9</v>
       </c>
@@ -2647,7 +2653,7 @@
       <c r="AG17" s="3">
         <v>12</v>
       </c>
-      <c r="AH17" s="57"/>
+      <c r="AH17" s="54"/>
       <c r="AI17" s="2">
         <v>9</v>
       </c>
@@ -2660,7 +2666,7 @@
       <c r="AL17" s="3">
         <v>12</v>
       </c>
-      <c r="AM17" s="57"/>
+      <c r="AM17" s="54"/>
       <c r="AN17" s="2">
         <v>9</v>
       </c>
@@ -2673,7 +2679,7 @@
       <c r="AQ17" s="3">
         <v>12</v>
       </c>
-      <c r="AR17" s="57"/>
+      <c r="AR17" s="54"/>
       <c r="AS17" s="2">
         <v>9</v>
       </c>
@@ -2686,7 +2692,7 @@
       <c r="AV17" s="3">
         <v>12</v>
       </c>
-      <c r="AW17" s="57"/>
+      <c r="AW17" s="54"/>
       <c r="AX17" s="2">
         <v>9</v>
       </c>
@@ -2699,7 +2705,7 @@
       <c r="BA17" s="3">
         <v>12</v>
       </c>
-      <c r="BB17" s="57"/>
+      <c r="BB17" s="54"/>
       <c r="BC17" s="2">
         <v>9</v>
       </c>
@@ -2712,7 +2718,7 @@
       <c r="BF17" s="3">
         <v>12</v>
       </c>
-      <c r="BG17" s="57"/>
+      <c r="BG17" s="54"/>
       <c r="BH17" s="2">
         <v>9</v>
       </c>
@@ -2727,11 +2733,11 @@
       </c>
     </row>
     <row r="18" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="D18" s="95">
+      <c r="D18" s="96">
         <v>4</v>
       </c>
       <c r="E18" s="62"/>
-      <c r="F18" s="95">
+      <c r="F18" s="96">
         <v>4</v>
       </c>
       <c r="G18" s="62"/>
@@ -2739,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="62"/>
-      <c r="J18" s="57"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="42">
         <v>13</v>
       </c>
@@ -2752,7 +2758,7 @@
       <c r="N18" s="43">
         <v>16</v>
       </c>
-      <c r="O18" s="57"/>
+      <c r="O18" s="54"/>
       <c r="P18" s="42">
         <v>13</v>
       </c>
@@ -2768,13 +2774,13 @@
       <c r="T18" s="61">
         <v>4</v>
       </c>
-      <c r="U18" s="104"/>
+      <c r="U18" s="105"/>
       <c r="V18" s="62"/>
-      <c r="W18" s="39">
-        <v>4</v>
-      </c>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="2">
+      <c r="W18" s="40">
+        <v>4</v>
+      </c>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="42">
         <v>13</v>
       </c>
       <c r="Z18" s="1">
@@ -2783,10 +2789,10 @@
       <c r="AA18" s="1">
         <v>15</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="43">
         <v>16</v>
       </c>
-      <c r="AC18" s="57"/>
+      <c r="AC18" s="54"/>
       <c r="AD18" s="2">
         <v>13</v>
       </c>
@@ -2799,7 +2805,7 @@
       <c r="AG18" s="3">
         <v>16</v>
       </c>
-      <c r="AH18" s="57"/>
+      <c r="AH18" s="54"/>
       <c r="AI18" s="2">
         <v>13</v>
       </c>
@@ -2812,7 +2818,7 @@
       <c r="AL18" s="3">
         <v>16</v>
       </c>
-      <c r="AM18" s="57"/>
+      <c r="AM18" s="54"/>
       <c r="AN18" s="2">
         <v>13</v>
       </c>
@@ -2825,7 +2831,7 @@
       <c r="AQ18" s="3">
         <v>16</v>
       </c>
-      <c r="AR18" s="57"/>
+      <c r="AR18" s="54"/>
       <c r="AS18" s="2">
         <v>13</v>
       </c>
@@ -2838,7 +2844,7 @@
       <c r="AV18" s="3">
         <v>16</v>
       </c>
-      <c r="AW18" s="57"/>
+      <c r="AW18" s="54"/>
       <c r="AX18" s="2">
         <v>13</v>
       </c>
@@ -2851,7 +2857,7 @@
       <c r="BA18" s="3">
         <v>16</v>
       </c>
-      <c r="BB18" s="57"/>
+      <c r="BB18" s="54"/>
       <c r="BC18" s="2">
         <v>13</v>
       </c>
@@ -2864,7 +2870,7 @@
       <c r="BF18" s="3">
         <v>16</v>
       </c>
-      <c r="BG18" s="57"/>
+      <c r="BG18" s="54"/>
       <c r="BH18" s="2">
         <v>13</v>
       </c>
@@ -2879,7 +2885,7 @@
       </c>
     </row>
     <row r="19" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="95">
+      <c r="D19" s="96">
         <v>5</v>
       </c>
       <c r="E19" s="62"/>
@@ -2891,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="62"/>
-      <c r="J19" s="58"/>
+      <c r="J19" s="55"/>
       <c r="K19" s="47">
         <v>17</v>
       </c>
@@ -2904,7 +2910,7 @@
       <c r="N19" s="48">
         <v>20</v>
       </c>
-      <c r="O19" s="58"/>
+      <c r="O19" s="55"/>
       <c r="P19" s="47">
         <v>17</v>
       </c>
@@ -2920,13 +2926,13 @@
       <c r="T19" s="61">
         <v>5</v>
       </c>
-      <c r="U19" s="104"/>
+      <c r="U19" s="105"/>
       <c r="V19" s="62"/>
-      <c r="W19" s="39">
+      <c r="W19" s="40">
         <v>5</v>
       </c>
       <c r="X19" s="68"/>
-      <c r="Y19" s="4">
+      <c r="Y19" s="47">
         <v>17</v>
       </c>
       <c r="Z19" s="5">
@@ -2935,10 +2941,10 @@
       <c r="AA19" s="5">
         <v>19</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="48">
         <v>20</v>
       </c>
-      <c r="AC19" s="58"/>
+      <c r="AC19" s="55"/>
       <c r="AD19" s="4">
         <v>17</v>
       </c>
@@ -2951,7 +2957,7 @@
       <c r="AG19" s="6">
         <v>20</v>
       </c>
-      <c r="AH19" s="58"/>
+      <c r="AH19" s="55"/>
       <c r="AI19" s="4">
         <v>17</v>
       </c>
@@ -2964,7 +2970,7 @@
       <c r="AL19" s="6">
         <v>20</v>
       </c>
-      <c r="AM19" s="58"/>
+      <c r="AM19" s="55"/>
       <c r="AN19" s="4">
         <v>17</v>
       </c>
@@ -2977,7 +2983,7 @@
       <c r="AQ19" s="6">
         <v>20</v>
       </c>
-      <c r="AR19" s="58"/>
+      <c r="AR19" s="55"/>
       <c r="AS19" s="4">
         <v>17</v>
       </c>
@@ -2990,7 +2996,7 @@
       <c r="AV19" s="6">
         <v>20</v>
       </c>
-      <c r="AW19" s="58"/>
+      <c r="AW19" s="55"/>
       <c r="AX19" s="4">
         <v>17</v>
       </c>
@@ -3003,7 +3009,7 @@
       <c r="BA19" s="6">
         <v>20</v>
       </c>
-      <c r="BB19" s="58"/>
+      <c r="BB19" s="55"/>
       <c r="BC19" s="4">
         <v>17</v>
       </c>
@@ -3016,7 +3022,7 @@
       <c r="BF19" s="6">
         <v>20</v>
       </c>
-      <c r="BG19" s="58"/>
+      <c r="BG19" s="55"/>
       <c r="BH19" s="4">
         <v>17</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="52"/>
-      <c r="J20" s="87">
+      <c r="J20" s="88">
         <v>2</v>
       </c>
       <c r="K20" s="7">
@@ -3058,7 +3064,7 @@
       <c r="N20" s="9">
         <v>4</v>
       </c>
-      <c r="O20" s="87">
+      <c r="O20" s="88">
         <v>2</v>
       </c>
       <c r="P20" s="7">
@@ -3076,12 +3082,12 @@
       <c r="T20" s="51">
         <v>6</v>
       </c>
-      <c r="U20" s="89"/>
+      <c r="U20" s="90"/>
       <c r="V20" s="52"/>
-      <c r="W20" s="40">
-        <v>6</v>
-      </c>
-      <c r="X20" s="56">
+      <c r="W20" s="41">
+        <v>6</v>
+      </c>
+      <c r="X20" s="73">
         <v>2</v>
       </c>
       <c r="Y20" s="7">
@@ -3096,7 +3102,7 @@
       <c r="AB20" s="9">
         <v>4</v>
       </c>
-      <c r="AC20" s="56">
+      <c r="AC20" s="53">
         <v>2</v>
       </c>
       <c r="AD20" s="7">
@@ -3111,7 +3117,7 @@
       <c r="AG20" s="9">
         <v>4</v>
       </c>
-      <c r="AH20" s="56">
+      <c r="AH20" s="53">
         <v>2</v>
       </c>
       <c r="AI20" s="7">
@@ -3126,7 +3132,7 @@
       <c r="AL20" s="9">
         <v>4</v>
       </c>
-      <c r="AM20" s="56">
+      <c r="AM20" s="53">
         <v>2</v>
       </c>
       <c r="AN20" s="7">
@@ -3141,7 +3147,7 @@
       <c r="AQ20" s="9">
         <v>4</v>
       </c>
-      <c r="AR20" s="56">
+      <c r="AR20" s="53">
         <v>2</v>
       </c>
       <c r="AS20" s="7">
@@ -3156,7 +3162,7 @@
       <c r="AV20" s="9">
         <v>4</v>
       </c>
-      <c r="AW20" s="56">
+      <c r="AW20" s="53">
         <v>2</v>
       </c>
       <c r="AX20" s="7">
@@ -3171,7 +3177,7 @@
       <c r="BA20" s="9">
         <v>4</v>
       </c>
-      <c r="BB20" s="56">
+      <c r="BB20" s="53">
         <v>2</v>
       </c>
       <c r="BC20" s="7">
@@ -3186,7 +3192,7 @@
       <c r="BF20" s="9">
         <v>4</v>
       </c>
-      <c r="BG20" s="56">
+      <c r="BG20" s="53">
         <v>2</v>
       </c>
       <c r="BH20" s="7">
@@ -3203,7 +3209,7 @@
       </c>
     </row>
     <row r="21" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J21" s="57"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="2">
         <v>5</v>
       </c>
@@ -3216,7 +3222,7 @@
       <c r="N21" s="3">
         <v>8</v>
       </c>
-      <c r="O21" s="57"/>
+      <c r="O21" s="54"/>
       <c r="P21" s="2">
         <v>5</v>
       </c>
@@ -3229,7 +3235,7 @@
       <c r="S21" s="3">
         <v>8</v>
       </c>
-      <c r="X21" s="57"/>
+      <c r="X21" s="54"/>
       <c r="Y21" s="2">
         <v>5</v>
       </c>
@@ -3242,7 +3248,7 @@
       <c r="AB21" s="3">
         <v>8</v>
       </c>
-      <c r="AC21" s="57"/>
+      <c r="AC21" s="54"/>
       <c r="AD21" s="2">
         <v>5</v>
       </c>
@@ -3255,7 +3261,7 @@
       <c r="AG21" s="3">
         <v>8</v>
       </c>
-      <c r="AH21" s="57"/>
+      <c r="AH21" s="54"/>
       <c r="AI21" s="2">
         <v>5</v>
       </c>
@@ -3268,7 +3274,7 @@
       <c r="AL21" s="3">
         <v>8</v>
       </c>
-      <c r="AM21" s="57"/>
+      <c r="AM21" s="54"/>
       <c r="AN21" s="2">
         <v>5</v>
       </c>
@@ -3281,7 +3287,7 @@
       <c r="AQ21" s="3">
         <v>8</v>
       </c>
-      <c r="AR21" s="57"/>
+      <c r="AR21" s="54"/>
       <c r="AS21" s="2">
         <v>5</v>
       </c>
@@ -3294,7 +3300,7 @@
       <c r="AV21" s="3">
         <v>8</v>
       </c>
-      <c r="AW21" s="57"/>
+      <c r="AW21" s="54"/>
       <c r="AX21" s="2">
         <v>5</v>
       </c>
@@ -3307,7 +3313,7 @@
       <c r="BA21" s="3">
         <v>8</v>
       </c>
-      <c r="BB21" s="57"/>
+      <c r="BB21" s="54"/>
       <c r="BC21" s="2">
         <v>5</v>
       </c>
@@ -3320,7 +3326,7 @@
       <c r="BF21" s="3">
         <v>8</v>
       </c>
-      <c r="BG21" s="57"/>
+      <c r="BG21" s="54"/>
       <c r="BH21" s="2">
         <v>5</v>
       </c>
@@ -3335,7 +3341,7 @@
       </c>
     </row>
     <row r="22" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J22" s="57"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="2">
         <v>9</v>
       </c>
@@ -3348,7 +3354,7 @@
       <c r="N22" s="3">
         <v>12</v>
       </c>
-      <c r="O22" s="57"/>
+      <c r="O22" s="54"/>
       <c r="P22" s="2">
         <v>9</v>
       </c>
@@ -3361,7 +3367,7 @@
       <c r="S22" s="3">
         <v>12</v>
       </c>
-      <c r="X22" s="57"/>
+      <c r="X22" s="54"/>
       <c r="Y22" s="2">
         <v>9</v>
       </c>
@@ -3374,7 +3380,7 @@
       <c r="AB22" s="3">
         <v>12</v>
       </c>
-      <c r="AC22" s="57"/>
+      <c r="AC22" s="54"/>
       <c r="AD22" s="2">
         <v>9</v>
       </c>
@@ -3387,7 +3393,7 @@
       <c r="AG22" s="3">
         <v>12</v>
       </c>
-      <c r="AH22" s="57"/>
+      <c r="AH22" s="54"/>
       <c r="AI22" s="2">
         <v>9</v>
       </c>
@@ -3400,7 +3406,7 @@
       <c r="AL22" s="3">
         <v>12</v>
       </c>
-      <c r="AM22" s="57"/>
+      <c r="AM22" s="54"/>
       <c r="AN22" s="2">
         <v>9</v>
       </c>
@@ -3413,7 +3419,7 @@
       <c r="AQ22" s="3">
         <v>12</v>
       </c>
-      <c r="AR22" s="57"/>
+      <c r="AR22" s="54"/>
       <c r="AS22" s="2">
         <v>9</v>
       </c>
@@ -3426,7 +3432,7 @@
       <c r="AV22" s="3">
         <v>12</v>
       </c>
-      <c r="AW22" s="57"/>
+      <c r="AW22" s="54"/>
       <c r="AX22" s="2">
         <v>9</v>
       </c>
@@ -3439,7 +3445,7 @@
       <c r="BA22" s="3">
         <v>12</v>
       </c>
-      <c r="BB22" s="57"/>
+      <c r="BB22" s="54"/>
       <c r="BC22" s="2">
         <v>9</v>
       </c>
@@ -3452,7 +3458,7 @@
       <c r="BF22" s="3">
         <v>12</v>
       </c>
-      <c r="BG22" s="57"/>
+      <c r="BG22" s="54"/>
       <c r="BH22" s="2">
         <v>9</v>
       </c>
@@ -3467,7 +3473,7 @@
       </c>
     </row>
     <row r="23" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J23" s="57"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="2">
         <v>13</v>
       </c>
@@ -3480,7 +3486,7 @@
       <c r="N23" s="3">
         <v>16</v>
       </c>
-      <c r="O23" s="57"/>
+      <c r="O23" s="54"/>
       <c r="P23" s="2">
         <v>13</v>
       </c>
@@ -3493,7 +3499,7 @@
       <c r="S23" s="3">
         <v>16</v>
       </c>
-      <c r="X23" s="57"/>
+      <c r="X23" s="54"/>
       <c r="Y23" s="2">
         <v>13</v>
       </c>
@@ -3506,7 +3512,7 @@
       <c r="AB23" s="3">
         <v>16</v>
       </c>
-      <c r="AC23" s="57"/>
+      <c r="AC23" s="54"/>
       <c r="AD23" s="2">
         <v>13</v>
       </c>
@@ -3519,7 +3525,7 @@
       <c r="AG23" s="3">
         <v>16</v>
       </c>
-      <c r="AH23" s="57"/>
+      <c r="AH23" s="54"/>
       <c r="AI23" s="2">
         <v>13</v>
       </c>
@@ -3532,7 +3538,7 @@
       <c r="AL23" s="3">
         <v>16</v>
       </c>
-      <c r="AM23" s="57"/>
+      <c r="AM23" s="54"/>
       <c r="AN23" s="2">
         <v>13</v>
       </c>
@@ -3545,7 +3551,7 @@
       <c r="AQ23" s="3">
         <v>16</v>
       </c>
-      <c r="AR23" s="57"/>
+      <c r="AR23" s="54"/>
       <c r="AS23" s="2">
         <v>13</v>
       </c>
@@ -3558,7 +3564,7 @@
       <c r="AV23" s="3">
         <v>16</v>
       </c>
-      <c r="AW23" s="57"/>
+      <c r="AW23" s="54"/>
       <c r="AX23" s="2">
         <v>13</v>
       </c>
@@ -3571,7 +3577,7 @@
       <c r="BA23" s="3">
         <v>16</v>
       </c>
-      <c r="BB23" s="57"/>
+      <c r="BB23" s="54"/>
       <c r="BC23" s="2">
         <v>13</v>
       </c>
@@ -3584,7 +3590,7 @@
       <c r="BF23" s="3">
         <v>16</v>
       </c>
-      <c r="BG23" s="57"/>
+      <c r="BG23" s="54"/>
       <c r="BH23" s="2">
         <v>13</v>
       </c>
@@ -3599,7 +3605,7 @@
       </c>
     </row>
     <row r="24" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J24" s="58"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="4">
         <v>17</v>
       </c>
@@ -3612,7 +3618,7 @@
       <c r="N24" s="6">
         <v>20</v>
       </c>
-      <c r="O24" s="58"/>
+      <c r="O24" s="55"/>
       <c r="P24" s="4">
         <v>17</v>
       </c>
@@ -3625,7 +3631,7 @@
       <c r="S24" s="6">
         <v>20</v>
       </c>
-      <c r="X24" s="58"/>
+      <c r="X24" s="55"/>
       <c r="Y24" s="4">
         <v>17</v>
       </c>
@@ -3638,7 +3644,7 @@
       <c r="AB24" s="6">
         <v>20</v>
       </c>
-      <c r="AC24" s="58"/>
+      <c r="AC24" s="55"/>
       <c r="AD24" s="4">
         <v>17</v>
       </c>
@@ -3651,7 +3657,7 @@
       <c r="AG24" s="6">
         <v>20</v>
       </c>
-      <c r="AH24" s="58"/>
+      <c r="AH24" s="55"/>
       <c r="AI24" s="4">
         <v>17</v>
       </c>
@@ -3664,7 +3670,7 @@
       <c r="AL24" s="6">
         <v>20</v>
       </c>
-      <c r="AM24" s="58"/>
+      <c r="AM24" s="55"/>
       <c r="AN24" s="4">
         <v>17</v>
       </c>
@@ -3677,7 +3683,7 @@
       <c r="AQ24" s="6">
         <v>20</v>
       </c>
-      <c r="AR24" s="58"/>
+      <c r="AR24" s="55"/>
       <c r="AS24" s="4">
         <v>17</v>
       </c>
@@ -3690,7 +3696,7 @@
       <c r="AV24" s="6">
         <v>20</v>
       </c>
-      <c r="AW24" s="58"/>
+      <c r="AW24" s="55"/>
       <c r="AX24" s="4">
         <v>17</v>
       </c>
@@ -3703,7 +3709,7 @@
       <c r="BA24" s="6">
         <v>20</v>
       </c>
-      <c r="BB24" s="58"/>
+      <c r="BB24" s="55"/>
       <c r="BC24" s="4">
         <v>17</v>
       </c>
@@ -3716,7 +3722,7 @@
       <c r="BF24" s="6">
         <v>20</v>
       </c>
-      <c r="BG24" s="58"/>
+      <c r="BG24" s="55"/>
       <c r="BH24" s="4">
         <v>17</v>
       </c>
@@ -3731,7 +3737,7 @@
       </c>
     </row>
     <row r="25" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J25" s="87">
+      <c r="J25" s="88">
         <v>3</v>
       </c>
       <c r="K25" s="44">
@@ -3746,7 +3752,7 @@
       <c r="N25" s="50">
         <v>4</v>
       </c>
-      <c r="O25" s="87">
+      <c r="O25" s="88">
         <v>3</v>
       </c>
       <c r="P25" s="44">
@@ -3761,10 +3767,10 @@
       <c r="S25" s="50">
         <v>4</v>
       </c>
-      <c r="X25" s="56">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="7">
+      <c r="X25" s="73">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="44">
         <v>1</v>
       </c>
       <c r="Z25" s="8">
@@ -3773,10 +3779,10 @@
       <c r="AA25" s="8">
         <v>3</v>
       </c>
-      <c r="AB25" s="9">
-        <v>4</v>
-      </c>
-      <c r="AC25" s="56">
+      <c r="AB25" s="50">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="53">
         <v>3</v>
       </c>
       <c r="AD25" s="7">
@@ -3791,7 +3797,7 @@
       <c r="AG25" s="9">
         <v>4</v>
       </c>
-      <c r="AH25" s="56">
+      <c r="AH25" s="53">
         <v>3</v>
       </c>
       <c r="AI25" s="7">
@@ -3806,7 +3812,7 @@
       <c r="AL25" s="9">
         <v>4</v>
       </c>
-      <c r="AM25" s="56">
+      <c r="AM25" s="53">
         <v>3</v>
       </c>
       <c r="AN25" s="7">
@@ -3821,7 +3827,7 @@
       <c r="AQ25" s="9">
         <v>4</v>
       </c>
-      <c r="AR25" s="56">
+      <c r="AR25" s="53">
         <v>3</v>
       </c>
       <c r="AS25" s="7">
@@ -3836,7 +3842,7 @@
       <c r="AV25" s="9">
         <v>4</v>
       </c>
-      <c r="AW25" s="56">
+      <c r="AW25" s="53">
         <v>3</v>
       </c>
       <c r="AX25" s="7">
@@ -3851,7 +3857,7 @@
       <c r="BA25" s="9">
         <v>4</v>
       </c>
-      <c r="BB25" s="56">
+      <c r="BB25" s="53">
         <v>3</v>
       </c>
       <c r="BC25" s="7">
@@ -3866,7 +3872,7 @@
       <c r="BF25" s="9">
         <v>4</v>
       </c>
-      <c r="BG25" s="56">
+      <c r="BG25" s="53">
         <v>3</v>
       </c>
       <c r="BH25" s="7">
@@ -3883,7 +3889,7 @@
       </c>
     </row>
     <row r="26" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J26" s="57"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="42">
         <v>5</v>
       </c>
@@ -3896,7 +3902,7 @@
       <c r="N26" s="43">
         <v>8</v>
       </c>
-      <c r="O26" s="57"/>
+      <c r="O26" s="54"/>
       <c r="P26" s="42">
         <v>5</v>
       </c>
@@ -3909,8 +3915,8 @@
       <c r="S26" s="43">
         <v>8</v>
       </c>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="2">
+      <c r="X26" s="54"/>
+      <c r="Y26" s="42">
         <v>5</v>
       </c>
       <c r="Z26" s="1">
@@ -3919,10 +3925,10 @@
       <c r="AA26" s="1">
         <v>7</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="43">
         <v>8</v>
       </c>
-      <c r="AC26" s="57"/>
+      <c r="AC26" s="54"/>
       <c r="AD26" s="2">
         <v>5</v>
       </c>
@@ -3935,7 +3941,7 @@
       <c r="AG26" s="3">
         <v>8</v>
       </c>
-      <c r="AH26" s="57"/>
+      <c r="AH26" s="54"/>
       <c r="AI26" s="2">
         <v>5</v>
       </c>
@@ -3948,7 +3954,7 @@
       <c r="AL26" s="3">
         <v>8</v>
       </c>
-      <c r="AM26" s="57"/>
+      <c r="AM26" s="54"/>
       <c r="AN26" s="2">
         <v>5</v>
       </c>
@@ -3961,7 +3967,7 @@
       <c r="AQ26" s="3">
         <v>8</v>
       </c>
-      <c r="AR26" s="57"/>
+      <c r="AR26" s="54"/>
       <c r="AS26" s="2">
         <v>5</v>
       </c>
@@ -3974,7 +3980,7 @@
       <c r="AV26" s="3">
         <v>8</v>
       </c>
-      <c r="AW26" s="57"/>
+      <c r="AW26" s="54"/>
       <c r="AX26" s="2">
         <v>5</v>
       </c>
@@ -3987,7 +3993,7 @@
       <c r="BA26" s="3">
         <v>8</v>
       </c>
-      <c r="BB26" s="57"/>
+      <c r="BB26" s="54"/>
       <c r="BC26" s="2">
         <v>5</v>
       </c>
@@ -4000,7 +4006,7 @@
       <c r="BF26" s="3">
         <v>8</v>
       </c>
-      <c r="BG26" s="57"/>
+      <c r="BG26" s="54"/>
       <c r="BH26" s="2">
         <v>5</v>
       </c>
@@ -4015,7 +4021,7 @@
       </c>
     </row>
     <row r="27" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J27" s="57"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="42">
         <v>9</v>
       </c>
@@ -4028,7 +4034,7 @@
       <c r="N27" s="43">
         <v>12</v>
       </c>
-      <c r="O27" s="57"/>
+      <c r="O27" s="54"/>
       <c r="P27" s="42">
         <v>9</v>
       </c>
@@ -4041,8 +4047,8 @@
       <c r="S27" s="43">
         <v>12</v>
       </c>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="2">
+      <c r="X27" s="54"/>
+      <c r="Y27" s="42">
         <v>9</v>
       </c>
       <c r="Z27" s="1">
@@ -4051,10 +4057,10 @@
       <c r="AA27" s="1">
         <v>11</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="43">
         <v>12</v>
       </c>
-      <c r="AC27" s="57"/>
+      <c r="AC27" s="54"/>
       <c r="AD27" s="2">
         <v>9</v>
       </c>
@@ -4067,7 +4073,7 @@
       <c r="AG27" s="3">
         <v>12</v>
       </c>
-      <c r="AH27" s="57"/>
+      <c r="AH27" s="54"/>
       <c r="AI27" s="2">
         <v>9</v>
       </c>
@@ -4080,7 +4086,7 @@
       <c r="AL27" s="3">
         <v>12</v>
       </c>
-      <c r="AM27" s="57"/>
+      <c r="AM27" s="54"/>
       <c r="AN27" s="2">
         <v>9</v>
       </c>
@@ -4093,7 +4099,7 @@
       <c r="AQ27" s="3">
         <v>12</v>
       </c>
-      <c r="AR27" s="57"/>
+      <c r="AR27" s="54"/>
       <c r="AS27" s="2">
         <v>9</v>
       </c>
@@ -4106,7 +4112,7 @@
       <c r="AV27" s="3">
         <v>12</v>
       </c>
-      <c r="AW27" s="57"/>
+      <c r="AW27" s="54"/>
       <c r="AX27" s="2">
         <v>9</v>
       </c>
@@ -4119,7 +4125,7 @@
       <c r="BA27" s="3">
         <v>12</v>
       </c>
-      <c r="BB27" s="57"/>
+      <c r="BB27" s="54"/>
       <c r="BC27" s="2">
         <v>9</v>
       </c>
@@ -4132,7 +4138,7 @@
       <c r="BF27" s="3">
         <v>12</v>
       </c>
-      <c r="BG27" s="57"/>
+      <c r="BG27" s="54"/>
       <c r="BH27" s="2">
         <v>9</v>
       </c>
@@ -4147,7 +4153,7 @@
       </c>
     </row>
     <row r="28" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J28" s="57"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="42">
         <v>13</v>
       </c>
@@ -4160,7 +4166,7 @@
       <c r="N28" s="43">
         <v>16</v>
       </c>
-      <c r="O28" s="57"/>
+      <c r="O28" s="54"/>
       <c r="P28" s="42">
         <v>13</v>
       </c>
@@ -4173,8 +4179,8 @@
       <c r="S28" s="43">
         <v>16</v>
       </c>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="2">
+      <c r="X28" s="54"/>
+      <c r="Y28" s="42">
         <v>13</v>
       </c>
       <c r="Z28" s="1">
@@ -4183,10 +4189,10 @@
       <c r="AA28" s="1">
         <v>15</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AB28" s="43">
         <v>16</v>
       </c>
-      <c r="AC28" s="57"/>
+      <c r="AC28" s="54"/>
       <c r="AD28" s="2">
         <v>13</v>
       </c>
@@ -4199,7 +4205,7 @@
       <c r="AG28" s="3">
         <v>16</v>
       </c>
-      <c r="AH28" s="57"/>
+      <c r="AH28" s="54"/>
       <c r="AI28" s="2">
         <v>13</v>
       </c>
@@ -4212,7 +4218,7 @@
       <c r="AL28" s="3">
         <v>16</v>
       </c>
-      <c r="AM28" s="57"/>
+      <c r="AM28" s="54"/>
       <c r="AN28" s="2">
         <v>13</v>
       </c>
@@ -4225,7 +4231,7 @@
       <c r="AQ28" s="3">
         <v>16</v>
       </c>
-      <c r="AR28" s="57"/>
+      <c r="AR28" s="54"/>
       <c r="AS28" s="2">
         <v>13</v>
       </c>
@@ -4238,7 +4244,7 @@
       <c r="AV28" s="3">
         <v>16</v>
       </c>
-      <c r="AW28" s="57"/>
+      <c r="AW28" s="54"/>
       <c r="AX28" s="2">
         <v>13</v>
       </c>
@@ -4251,7 +4257,7 @@
       <c r="BA28" s="3">
         <v>16</v>
       </c>
-      <c r="BB28" s="57"/>
+      <c r="BB28" s="54"/>
       <c r="BC28" s="2">
         <v>13</v>
       </c>
@@ -4264,7 +4270,7 @@
       <c r="BF28" s="3">
         <v>16</v>
       </c>
-      <c r="BG28" s="57"/>
+      <c r="BG28" s="54"/>
       <c r="BH28" s="2">
         <v>13</v>
       </c>
@@ -4279,7 +4285,7 @@
       </c>
     </row>
     <row r="29" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J29" s="58"/>
+      <c r="J29" s="55"/>
       <c r="K29" s="47">
         <v>17</v>
       </c>
@@ -4292,7 +4298,7 @@
       <c r="N29" s="48">
         <v>20</v>
       </c>
-      <c r="O29" s="58"/>
+      <c r="O29" s="55"/>
       <c r="P29" s="47">
         <v>17</v>
       </c>
@@ -4305,8 +4311,8 @@
       <c r="S29" s="48">
         <v>20</v>
       </c>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="4">
+      <c r="X29" s="55"/>
+      <c r="Y29" s="47">
         <v>17</v>
       </c>
       <c r="Z29" s="5">
@@ -4315,10 +4321,10 @@
       <c r="AA29" s="5">
         <v>19</v>
       </c>
-      <c r="AB29" s="6">
+      <c r="AB29" s="48">
         <v>20</v>
       </c>
-      <c r="AC29" s="58"/>
+      <c r="AC29" s="55"/>
       <c r="AD29" s="4">
         <v>17</v>
       </c>
@@ -4331,7 +4337,7 @@
       <c r="AG29" s="6">
         <v>20</v>
       </c>
-      <c r="AH29" s="58"/>
+      <c r="AH29" s="55"/>
       <c r="AI29" s="4">
         <v>17</v>
       </c>
@@ -4344,7 +4350,7 @@
       <c r="AL29" s="6">
         <v>20</v>
       </c>
-      <c r="AM29" s="58"/>
+      <c r="AM29" s="55"/>
       <c r="AN29" s="4">
         <v>17</v>
       </c>
@@ -4357,7 +4363,7 @@
       <c r="AQ29" s="6">
         <v>20</v>
       </c>
-      <c r="AR29" s="58"/>
+      <c r="AR29" s="55"/>
       <c r="AS29" s="4">
         <v>17</v>
       </c>
@@ -4370,7 +4376,7 @@
       <c r="AV29" s="6">
         <v>20</v>
       </c>
-      <c r="AW29" s="58"/>
+      <c r="AW29" s="55"/>
       <c r="AX29" s="4">
         <v>17</v>
       </c>
@@ -4383,7 +4389,7 @@
       <c r="BA29" s="6">
         <v>20</v>
       </c>
-      <c r="BB29" s="58"/>
+      <c r="BB29" s="55"/>
       <c r="BC29" s="4">
         <v>17</v>
       </c>
@@ -4396,7 +4402,7 @@
       <c r="BF29" s="6">
         <v>20</v>
       </c>
-      <c r="BG29" s="58"/>
+      <c r="BG29" s="55"/>
       <c r="BH29" s="4">
         <v>17</v>
       </c>
@@ -4411,7 +4417,7 @@
       </c>
     </row>
     <row r="30" spans="4:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J30" s="87">
+      <c r="J30" s="88">
         <v>4</v>
       </c>
       <c r="K30" s="44">
@@ -4426,7 +4432,7 @@
       <c r="N30" s="50">
         <v>4</v>
       </c>
-      <c r="O30" s="87">
+      <c r="O30" s="88">
         <v>4</v>
       </c>
       <c r="P30" s="44">
@@ -4441,10 +4447,10 @@
       <c r="S30" s="50">
         <v>4</v>
       </c>
-      <c r="X30" s="56">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="7">
+      <c r="X30" s="73">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="44">
         <v>1</v>
       </c>
       <c r="Z30" s="8">
@@ -4453,10 +4459,10 @@
       <c r="AA30" s="8">
         <v>3</v>
       </c>
-      <c r="AB30" s="9">
-        <v>4</v>
-      </c>
-      <c r="AC30" s="56">
+      <c r="AB30" s="50">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="53">
         <v>4</v>
       </c>
       <c r="AD30" s="7">
@@ -4471,7 +4477,7 @@
       <c r="AG30" s="9">
         <v>4</v>
       </c>
-      <c r="AH30" s="56">
+      <c r="AH30" s="53">
         <v>4</v>
       </c>
       <c r="AI30" s="7">
@@ -4486,7 +4492,7 @@
       <c r="AL30" s="9">
         <v>4</v>
       </c>
-      <c r="AM30" s="56">
+      <c r="AM30" s="53">
         <v>4</v>
       </c>
       <c r="AN30" s="7">
@@ -4501,7 +4507,7 @@
       <c r="AQ30" s="9">
         <v>4</v>
       </c>
-      <c r="AR30" s="56">
+      <c r="AR30" s="53">
         <v>4</v>
       </c>
       <c r="AS30" s="7">
@@ -4516,7 +4522,7 @@
       <c r="AV30" s="9">
         <v>4</v>
       </c>
-      <c r="AW30" s="56">
+      <c r="AW30" s="53">
         <v>4</v>
       </c>
       <c r="AX30" s="7">
@@ -4531,7 +4537,7 @@
       <c r="BA30" s="9">
         <v>4</v>
       </c>
-      <c r="BB30" s="56">
+      <c r="BB30" s="53">
         <v>4</v>
       </c>
       <c r="BC30" s="7">
@@ -4546,7 +4552,7 @@
       <c r="BF30" s="9">
         <v>4</v>
       </c>
-      <c r="BG30" s="56">
+      <c r="BG30" s="53">
         <v>4</v>
       </c>
       <c r="BH30" s="7">
@@ -4563,7 +4569,7 @@
       </c>
     </row>
     <row r="31" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J31" s="57"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="42">
         <v>5</v>
       </c>
@@ -4576,7 +4582,7 @@
       <c r="N31" s="43">
         <v>8</v>
       </c>
-      <c r="O31" s="57"/>
+      <c r="O31" s="54"/>
       <c r="P31" s="42">
         <v>5</v>
       </c>
@@ -4589,8 +4595,8 @@
       <c r="S31" s="43">
         <v>8</v>
       </c>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="2">
+      <c r="X31" s="54"/>
+      <c r="Y31" s="42">
         <v>5</v>
       </c>
       <c r="Z31" s="1">
@@ -4599,10 +4605,10 @@
       <c r="AA31" s="1">
         <v>7</v>
       </c>
-      <c r="AB31" s="3">
+      <c r="AB31" s="43">
         <v>8</v>
       </c>
-      <c r="AC31" s="57"/>
+      <c r="AC31" s="54"/>
       <c r="AD31" s="2">
         <v>5</v>
       </c>
@@ -4615,7 +4621,7 @@
       <c r="AG31" s="3">
         <v>8</v>
       </c>
-      <c r="AH31" s="57"/>
+      <c r="AH31" s="54"/>
       <c r="AI31" s="2">
         <v>5</v>
       </c>
@@ -4628,7 +4634,7 @@
       <c r="AL31" s="3">
         <v>8</v>
       </c>
-      <c r="AM31" s="57"/>
+      <c r="AM31" s="54"/>
       <c r="AN31" s="2">
         <v>5</v>
       </c>
@@ -4641,7 +4647,7 @@
       <c r="AQ31" s="3">
         <v>8</v>
       </c>
-      <c r="AR31" s="57"/>
+      <c r="AR31" s="54"/>
       <c r="AS31" s="2">
         <v>5</v>
       </c>
@@ -4654,7 +4660,7 @@
       <c r="AV31" s="3">
         <v>8</v>
       </c>
-      <c r="AW31" s="57"/>
+      <c r="AW31" s="54"/>
       <c r="AX31" s="2">
         <v>5</v>
       </c>
@@ -4667,7 +4673,7 @@
       <c r="BA31" s="3">
         <v>8</v>
       </c>
-      <c r="BB31" s="57"/>
+      <c r="BB31" s="54"/>
       <c r="BC31" s="2">
         <v>5</v>
       </c>
@@ -4680,7 +4686,7 @@
       <c r="BF31" s="3">
         <v>8</v>
       </c>
-      <c r="BG31" s="57"/>
+      <c r="BG31" s="54"/>
       <c r="BH31" s="2">
         <v>5</v>
       </c>
@@ -4695,7 +4701,7 @@
       </c>
     </row>
     <row r="32" spans="4:63" x14ac:dyDescent="0.35">
-      <c r="J32" s="57"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="42">
         <v>9</v>
       </c>
@@ -4708,7 +4714,7 @@
       <c r="N32" s="43">
         <v>12</v>
       </c>
-      <c r="O32" s="57"/>
+      <c r="O32" s="54"/>
       <c r="P32" s="42">
         <v>9</v>
       </c>
@@ -4721,8 +4727,8 @@
       <c r="S32" s="43">
         <v>12</v>
       </c>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="2">
+      <c r="X32" s="54"/>
+      <c r="Y32" s="42">
         <v>9</v>
       </c>
       <c r="Z32" s="1">
@@ -4731,10 +4737,10 @@
       <c r="AA32" s="1">
         <v>11</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="43">
         <v>12</v>
       </c>
-      <c r="AC32" s="57"/>
+      <c r="AC32" s="54"/>
       <c r="AD32" s="2">
         <v>9</v>
       </c>
@@ -4747,7 +4753,7 @@
       <c r="AG32" s="3">
         <v>12</v>
       </c>
-      <c r="AH32" s="57"/>
+      <c r="AH32" s="54"/>
       <c r="AI32" s="2">
         <v>9</v>
       </c>
@@ -4760,7 +4766,7 @@
       <c r="AL32" s="3">
         <v>12</v>
       </c>
-      <c r="AM32" s="57"/>
+      <c r="AM32" s="54"/>
       <c r="AN32" s="2">
         <v>9</v>
       </c>
@@ -4773,7 +4779,7 @@
       <c r="AQ32" s="3">
         <v>12</v>
       </c>
-      <c r="AR32" s="57"/>
+      <c r="AR32" s="54"/>
       <c r="AS32" s="2">
         <v>9</v>
       </c>
@@ -4786,7 +4792,7 @@
       <c r="AV32" s="3">
         <v>12</v>
       </c>
-      <c r="AW32" s="57"/>
+      <c r="AW32" s="54"/>
       <c r="AX32" s="2">
         <v>9</v>
       </c>
@@ -4799,7 +4805,7 @@
       <c r="BA32" s="3">
         <v>12</v>
       </c>
-      <c r="BB32" s="57"/>
+      <c r="BB32" s="54"/>
       <c r="BC32" s="2">
         <v>9</v>
       </c>
@@ -4812,7 +4818,7 @@
       <c r="BF32" s="3">
         <v>12</v>
       </c>
-      <c r="BG32" s="57"/>
+      <c r="BG32" s="54"/>
       <c r="BH32" s="2">
         <v>9</v>
       </c>
@@ -4827,7 +4833,7 @@
       </c>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J33" s="57"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="42">
         <v>13</v>
       </c>
@@ -4840,7 +4846,7 @@
       <c r="N33" s="43">
         <v>16</v>
       </c>
-      <c r="O33" s="57"/>
+      <c r="O33" s="54"/>
       <c r="P33" s="42">
         <v>13</v>
       </c>
@@ -4853,8 +4859,8 @@
       <c r="S33" s="43">
         <v>16</v>
       </c>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="2">
+      <c r="X33" s="54"/>
+      <c r="Y33" s="42">
         <v>13</v>
       </c>
       <c r="Z33" s="1">
@@ -4863,10 +4869,10 @@
       <c r="AA33" s="1">
         <v>15</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="43">
         <v>16</v>
       </c>
-      <c r="AC33" s="57"/>
+      <c r="AC33" s="54"/>
       <c r="AD33" s="2">
         <v>13</v>
       </c>
@@ -4879,7 +4885,7 @@
       <c r="AG33" s="3">
         <v>16</v>
       </c>
-      <c r="AH33" s="57"/>
+      <c r="AH33" s="54"/>
       <c r="AI33" s="2">
         <v>13</v>
       </c>
@@ -4892,7 +4898,7 @@
       <c r="AL33" s="3">
         <v>16</v>
       </c>
-      <c r="AM33" s="57"/>
+      <c r="AM33" s="54"/>
       <c r="AN33" s="2">
         <v>13</v>
       </c>
@@ -4905,7 +4911,7 @@
       <c r="AQ33" s="3">
         <v>16</v>
       </c>
-      <c r="AR33" s="57"/>
+      <c r="AR33" s="54"/>
       <c r="AS33" s="2">
         <v>13</v>
       </c>
@@ -4918,7 +4924,7 @@
       <c r="AV33" s="3">
         <v>16</v>
       </c>
-      <c r="AW33" s="57"/>
+      <c r="AW33" s="54"/>
       <c r="AX33" s="2">
         <v>13</v>
       </c>
@@ -4931,7 +4937,7 @@
       <c r="BA33" s="3">
         <v>16</v>
       </c>
-      <c r="BB33" s="57"/>
+      <c r="BB33" s="54"/>
       <c r="BC33" s="2">
         <v>13</v>
       </c>
@@ -4944,7 +4950,7 @@
       <c r="BF33" s="3">
         <v>16</v>
       </c>
-      <c r="BG33" s="57"/>
+      <c r="BG33" s="54"/>
       <c r="BH33" s="2">
         <v>13</v>
       </c>
@@ -4959,7 +4965,7 @@
       </c>
     </row>
     <row r="34" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J34" s="58"/>
+      <c r="J34" s="55"/>
       <c r="K34" s="47">
         <v>17</v>
       </c>
@@ -4972,7 +4978,7 @@
       <c r="N34" s="48">
         <v>20</v>
       </c>
-      <c r="O34" s="58"/>
+      <c r="O34" s="55"/>
       <c r="P34" s="47">
         <v>17</v>
       </c>
@@ -4985,8 +4991,8 @@
       <c r="S34" s="48">
         <v>20</v>
       </c>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="4">
+      <c r="X34" s="55"/>
+      <c r="Y34" s="47">
         <v>17</v>
       </c>
       <c r="Z34" s="5">
@@ -4995,10 +5001,10 @@
       <c r="AA34" s="5">
         <v>19</v>
       </c>
-      <c r="AB34" s="6">
+      <c r="AB34" s="48">
         <v>20</v>
       </c>
-      <c r="AC34" s="58"/>
+      <c r="AC34" s="55"/>
       <c r="AD34" s="4">
         <v>17</v>
       </c>
@@ -5011,7 +5017,7 @@
       <c r="AG34" s="6">
         <v>20</v>
       </c>
-      <c r="AH34" s="58"/>
+      <c r="AH34" s="55"/>
       <c r="AI34" s="4">
         <v>17</v>
       </c>
@@ -5024,7 +5030,7 @@
       <c r="AL34" s="6">
         <v>20</v>
       </c>
-      <c r="AM34" s="58"/>
+      <c r="AM34" s="55"/>
       <c r="AN34" s="4">
         <v>17</v>
       </c>
@@ -5037,7 +5043,7 @@
       <c r="AQ34" s="6">
         <v>20</v>
       </c>
-      <c r="AR34" s="58"/>
+      <c r="AR34" s="55"/>
       <c r="AS34" s="4">
         <v>17</v>
       </c>
@@ -5050,7 +5056,7 @@
       <c r="AV34" s="6">
         <v>20</v>
       </c>
-      <c r="AW34" s="58"/>
+      <c r="AW34" s="55"/>
       <c r="AX34" s="4">
         <v>17</v>
       </c>
@@ -5063,7 +5069,7 @@
       <c r="BA34" s="6">
         <v>20</v>
       </c>
-      <c r="BB34" s="58"/>
+      <c r="BB34" s="55"/>
       <c r="BC34" s="4">
         <v>17</v>
       </c>
@@ -5076,7 +5082,7 @@
       <c r="BF34" s="6">
         <v>20</v>
       </c>
-      <c r="BG34" s="58"/>
+      <c r="BG34" s="55"/>
       <c r="BH34" s="4">
         <v>17</v>
       </c>
@@ -5091,7 +5097,7 @@
       </c>
     </row>
     <row r="35" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J35" s="87">
+      <c r="J35" s="88">
         <v>5</v>
       </c>
       <c r="K35" s="44">
@@ -5106,7 +5112,7 @@
       <c r="N35" s="50">
         <v>4</v>
       </c>
-      <c r="O35" s="87">
+      <c r="O35" s="88">
         <v>5</v>
       </c>
       <c r="P35" s="44">
@@ -5121,10 +5127,10 @@
       <c r="S35" s="50">
         <v>4</v>
       </c>
-      <c r="X35" s="56">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="7">
+      <c r="X35" s="73">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="44">
         <v>1</v>
       </c>
       <c r="Z35" s="8">
@@ -5133,10 +5139,10 @@
       <c r="AA35" s="8">
         <v>3</v>
       </c>
-      <c r="AB35" s="9">
-        <v>4</v>
-      </c>
-      <c r="AC35" s="56">
+      <c r="AB35" s="50">
+        <v>4</v>
+      </c>
+      <c r="AC35" s="53">
         <v>5</v>
       </c>
       <c r="AD35" s="7">
@@ -5151,7 +5157,7 @@
       <c r="AG35" s="9">
         <v>4</v>
       </c>
-      <c r="AH35" s="56">
+      <c r="AH35" s="53">
         <v>5</v>
       </c>
       <c r="AI35" s="7">
@@ -5166,7 +5172,7 @@
       <c r="AL35" s="9">
         <v>4</v>
       </c>
-      <c r="AM35" s="56">
+      <c r="AM35" s="53">
         <v>5</v>
       </c>
       <c r="AN35" s="7">
@@ -5181,7 +5187,7 @@
       <c r="AQ35" s="9">
         <v>4</v>
       </c>
-      <c r="AR35" s="56">
+      <c r="AR35" s="53">
         <v>5</v>
       </c>
       <c r="AS35" s="7">
@@ -5196,7 +5202,7 @@
       <c r="AV35" s="9">
         <v>4</v>
       </c>
-      <c r="AW35" s="56">
+      <c r="AW35" s="53">
         <v>5</v>
       </c>
       <c r="AX35" s="7">
@@ -5211,7 +5217,7 @@
       <c r="BA35" s="9">
         <v>4</v>
       </c>
-      <c r="BB35" s="56">
+      <c r="BB35" s="53">
         <v>5</v>
       </c>
       <c r="BC35" s="7">
@@ -5226,7 +5232,7 @@
       <c r="BF35" s="9">
         <v>4</v>
       </c>
-      <c r="BG35" s="56">
+      <c r="BG35" s="53">
         <v>5</v>
       </c>
       <c r="BH35" s="7">
@@ -5243,7 +5249,7 @@
       </c>
     </row>
     <row r="36" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J36" s="57"/>
+      <c r="J36" s="54"/>
       <c r="K36" s="42">
         <v>5</v>
       </c>
@@ -5256,7 +5262,7 @@
       <c r="N36" s="43">
         <v>8</v>
       </c>
-      <c r="O36" s="57"/>
+      <c r="O36" s="54"/>
       <c r="P36" s="42">
         <v>5</v>
       </c>
@@ -5269,8 +5275,8 @@
       <c r="S36" s="43">
         <v>8</v>
       </c>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="2">
+      <c r="X36" s="54"/>
+      <c r="Y36" s="42">
         <v>5</v>
       </c>
       <c r="Z36" s="1">
@@ -5279,10 +5285,10 @@
       <c r="AA36" s="1">
         <v>7</v>
       </c>
-      <c r="AB36" s="3">
+      <c r="AB36" s="43">
         <v>8</v>
       </c>
-      <c r="AC36" s="57"/>
+      <c r="AC36" s="54"/>
       <c r="AD36" s="2">
         <v>5</v>
       </c>
@@ -5295,7 +5301,7 @@
       <c r="AG36" s="3">
         <v>8</v>
       </c>
-      <c r="AH36" s="57"/>
+      <c r="AH36" s="54"/>
       <c r="AI36" s="2">
         <v>5</v>
       </c>
@@ -5308,7 +5314,7 @@
       <c r="AL36" s="3">
         <v>8</v>
       </c>
-      <c r="AM36" s="57"/>
+      <c r="AM36" s="54"/>
       <c r="AN36" s="2">
         <v>5</v>
       </c>
@@ -5321,7 +5327,7 @@
       <c r="AQ36" s="3">
         <v>8</v>
       </c>
-      <c r="AR36" s="57"/>
+      <c r="AR36" s="54"/>
       <c r="AS36" s="2">
         <v>5</v>
       </c>
@@ -5334,7 +5340,7 @@
       <c r="AV36" s="3">
         <v>8</v>
       </c>
-      <c r="AW36" s="57"/>
+      <c r="AW36" s="54"/>
       <c r="AX36" s="2">
         <v>5</v>
       </c>
@@ -5347,7 +5353,7 @@
       <c r="BA36" s="3">
         <v>8</v>
       </c>
-      <c r="BB36" s="57"/>
+      <c r="BB36" s="54"/>
       <c r="BC36" s="2">
         <v>5</v>
       </c>
@@ -5360,7 +5366,7 @@
       <c r="BF36" s="3">
         <v>8</v>
       </c>
-      <c r="BG36" s="57"/>
+      <c r="BG36" s="54"/>
       <c r="BH36" s="2">
         <v>5</v>
       </c>
@@ -5375,7 +5381,7 @@
       </c>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J37" s="57"/>
+      <c r="J37" s="54"/>
       <c r="K37" s="42">
         <v>9</v>
       </c>
@@ -5388,7 +5394,7 @@
       <c r="N37" s="43">
         <v>12</v>
       </c>
-      <c r="O37" s="57"/>
+      <c r="O37" s="54"/>
       <c r="P37" s="42">
         <v>9</v>
       </c>
@@ -5401,8 +5407,8 @@
       <c r="S37" s="43">
         <v>12</v>
       </c>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="2">
+      <c r="X37" s="54"/>
+      <c r="Y37" s="42">
         <v>9</v>
       </c>
       <c r="Z37" s="1">
@@ -5411,10 +5417,10 @@
       <c r="AA37" s="1">
         <v>11</v>
       </c>
-      <c r="AB37" s="3">
+      <c r="AB37" s="43">
         <v>12</v>
       </c>
-      <c r="AC37" s="57"/>
+      <c r="AC37" s="54"/>
       <c r="AD37" s="2">
         <v>9</v>
       </c>
@@ -5427,7 +5433,7 @@
       <c r="AG37" s="3">
         <v>12</v>
       </c>
-      <c r="AH37" s="57"/>
+      <c r="AH37" s="54"/>
       <c r="AI37" s="2">
         <v>9</v>
       </c>
@@ -5440,7 +5446,7 @@
       <c r="AL37" s="3">
         <v>12</v>
       </c>
-      <c r="AM37" s="57"/>
+      <c r="AM37" s="54"/>
       <c r="AN37" s="2">
         <v>9</v>
       </c>
@@ -5453,7 +5459,7 @@
       <c r="AQ37" s="3">
         <v>12</v>
       </c>
-      <c r="AR37" s="57"/>
+      <c r="AR37" s="54"/>
       <c r="AS37" s="2">
         <v>9</v>
       </c>
@@ -5466,7 +5472,7 @@
       <c r="AV37" s="3">
         <v>12</v>
       </c>
-      <c r="AW37" s="57"/>
+      <c r="AW37" s="54"/>
       <c r="AX37" s="2">
         <v>9</v>
       </c>
@@ -5479,7 +5485,7 @@
       <c r="BA37" s="3">
         <v>12</v>
       </c>
-      <c r="BB37" s="57"/>
+      <c r="BB37" s="54"/>
       <c r="BC37" s="2">
         <v>9</v>
       </c>
@@ -5492,7 +5498,7 @@
       <c r="BF37" s="3">
         <v>12</v>
       </c>
-      <c r="BG37" s="57"/>
+      <c r="BG37" s="54"/>
       <c r="BH37" s="2">
         <v>9</v>
       </c>
@@ -5507,7 +5513,7 @@
       </c>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J38" s="57"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="42">
         <v>13</v>
       </c>
@@ -5520,7 +5526,7 @@
       <c r="N38" s="43">
         <v>16</v>
       </c>
-      <c r="O38" s="57"/>
+      <c r="O38" s="54"/>
       <c r="P38" s="42">
         <v>13</v>
       </c>
@@ -5533,8 +5539,8 @@
       <c r="S38" s="43">
         <v>16</v>
       </c>
-      <c r="X38" s="57"/>
-      <c r="Y38" s="2">
+      <c r="X38" s="54"/>
+      <c r="Y38" s="42">
         <v>13</v>
       </c>
       <c r="Z38" s="1">
@@ -5543,10 +5549,10 @@
       <c r="AA38" s="1">
         <v>15</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AB38" s="43">
         <v>16</v>
       </c>
-      <c r="AC38" s="57"/>
+      <c r="AC38" s="54"/>
       <c r="AD38" s="2">
         <v>13</v>
       </c>
@@ -5559,7 +5565,7 @@
       <c r="AG38" s="3">
         <v>16</v>
       </c>
-      <c r="AH38" s="57"/>
+      <c r="AH38" s="54"/>
       <c r="AI38" s="2">
         <v>13</v>
       </c>
@@ -5572,7 +5578,7 @@
       <c r="AL38" s="3">
         <v>16</v>
       </c>
-      <c r="AM38" s="57"/>
+      <c r="AM38" s="54"/>
       <c r="AN38" s="2">
         <v>13</v>
       </c>
@@ -5585,7 +5591,7 @@
       <c r="AQ38" s="3">
         <v>16</v>
       </c>
-      <c r="AR38" s="57"/>
+      <c r="AR38" s="54"/>
       <c r="AS38" s="2">
         <v>13</v>
       </c>
@@ -5598,7 +5604,7 @@
       <c r="AV38" s="3">
         <v>16</v>
       </c>
-      <c r="AW38" s="57"/>
+      <c r="AW38" s="54"/>
       <c r="AX38" s="2">
         <v>13</v>
       </c>
@@ -5611,7 +5617,7 @@
       <c r="BA38" s="3">
         <v>16</v>
       </c>
-      <c r="BB38" s="57"/>
+      <c r="BB38" s="54"/>
       <c r="BC38" s="2">
         <v>13</v>
       </c>
@@ -5624,7 +5630,7 @@
       <c r="BF38" s="3">
         <v>16</v>
       </c>
-      <c r="BG38" s="57"/>
+      <c r="BG38" s="54"/>
       <c r="BH38" s="2">
         <v>13</v>
       </c>
@@ -5639,7 +5645,7 @@
       </c>
     </row>
     <row r="39" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J39" s="58"/>
+      <c r="J39" s="55"/>
       <c r="K39" s="47">
         <v>17</v>
       </c>
@@ -5652,7 +5658,7 @@
       <c r="N39" s="48">
         <v>20</v>
       </c>
-      <c r="O39" s="58"/>
+      <c r="O39" s="55"/>
       <c r="P39" s="47">
         <v>17</v>
       </c>
@@ -5665,8 +5671,8 @@
       <c r="S39" s="48">
         <v>20</v>
       </c>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="4">
+      <c r="X39" s="55"/>
+      <c r="Y39" s="47">
         <v>17</v>
       </c>
       <c r="Z39" s="5">
@@ -5675,10 +5681,10 @@
       <c r="AA39" s="5">
         <v>19</v>
       </c>
-      <c r="AB39" s="6">
+      <c r="AB39" s="48">
         <v>20</v>
       </c>
-      <c r="AC39" s="58"/>
+      <c r="AC39" s="55"/>
       <c r="AD39" s="4">
         <v>17</v>
       </c>
@@ -5691,7 +5697,7 @@
       <c r="AG39" s="6">
         <v>20</v>
       </c>
-      <c r="AH39" s="58"/>
+      <c r="AH39" s="55"/>
       <c r="AI39" s="4">
         <v>17</v>
       </c>
@@ -5704,7 +5710,7 @@
       <c r="AL39" s="6">
         <v>20</v>
       </c>
-      <c r="AM39" s="58"/>
+      <c r="AM39" s="55"/>
       <c r="AN39" s="4">
         <v>17</v>
       </c>
@@ -5717,7 +5723,7 @@
       <c r="AQ39" s="6">
         <v>20</v>
       </c>
-      <c r="AR39" s="58"/>
+      <c r="AR39" s="55"/>
       <c r="AS39" s="4">
         <v>17</v>
       </c>
@@ -5730,7 +5736,7 @@
       <c r="AV39" s="6">
         <v>20</v>
       </c>
-      <c r="AW39" s="58"/>
+      <c r="AW39" s="55"/>
       <c r="AX39" s="4">
         <v>17</v>
       </c>
@@ -5743,7 +5749,7 @@
       <c r="BA39" s="6">
         <v>20</v>
       </c>
-      <c r="BB39" s="58"/>
+      <c r="BB39" s="55"/>
       <c r="BC39" s="4">
         <v>17</v>
       </c>
@@ -5756,7 +5762,7 @@
       <c r="BF39" s="6">
         <v>20</v>
       </c>
-      <c r="BG39" s="58"/>
+      <c r="BG39" s="55"/>
       <c r="BH39" s="4">
         <v>17</v>
       </c>
@@ -5771,7 +5777,7 @@
       </c>
     </row>
     <row r="40" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J40" s="110">
+      <c r="J40" s="111">
         <v>6</v>
       </c>
       <c r="K40" s="42">
@@ -5786,7 +5792,7 @@
       <c r="N40" s="43">
         <v>4</v>
       </c>
-      <c r="O40" s="110">
+      <c r="O40" s="111">
         <v>6</v>
       </c>
       <c r="P40" s="42">
@@ -5801,10 +5807,10 @@
       <c r="S40" s="43">
         <v>4</v>
       </c>
-      <c r="X40" s="79">
-        <v>6</v>
-      </c>
-      <c r="Y40" s="2">
+      <c r="X40" s="114">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="42">
         <v>1</v>
       </c>
       <c r="Z40" s="1">
@@ -5813,10 +5819,10 @@
       <c r="AA40" s="1">
         <v>3</v>
       </c>
-      <c r="AB40" s="3">
-        <v>4</v>
-      </c>
-      <c r="AC40" s="56">
+      <c r="AB40" s="43">
+        <v>4</v>
+      </c>
+      <c r="AC40" s="53">
         <v>6</v>
       </c>
       <c r="AD40" s="7">
@@ -5831,7 +5837,7 @@
       <c r="AG40" s="9">
         <v>4</v>
       </c>
-      <c r="AH40" s="56">
+      <c r="AH40" s="53">
         <v>6</v>
       </c>
       <c r="AI40" s="7">
@@ -5846,7 +5852,7 @@
       <c r="AL40" s="9">
         <v>4</v>
       </c>
-      <c r="AM40" s="79">
+      <c r="AM40" s="80">
         <v>6</v>
       </c>
       <c r="AN40" s="2">
@@ -5861,7 +5867,7 @@
       <c r="AQ40" s="3">
         <v>4</v>
       </c>
-      <c r="AR40" s="79">
+      <c r="AR40" s="80">
         <v>6</v>
       </c>
       <c r="AS40" s="2">
@@ -5876,7 +5882,7 @@
       <c r="AV40" s="3">
         <v>4</v>
       </c>
-      <c r="AW40" s="79">
+      <c r="AW40" s="80">
         <v>6</v>
       </c>
       <c r="AX40" s="2">
@@ -5891,7 +5897,7 @@
       <c r="BA40" s="3">
         <v>4</v>
       </c>
-      <c r="BB40" s="79">
+      <c r="BB40" s="80">
         <v>6</v>
       </c>
       <c r="BC40" s="2">
@@ -5906,7 +5912,7 @@
       <c r="BF40" s="3">
         <v>4</v>
       </c>
-      <c r="BG40" s="79">
+      <c r="BG40" s="80">
         <v>6</v>
       </c>
       <c r="BH40" s="2">
@@ -5923,7 +5929,7 @@
       </c>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J41" s="57"/>
+      <c r="J41" s="54"/>
       <c r="K41" s="42">
         <v>5</v>
       </c>
@@ -5936,7 +5942,7 @@
       <c r="N41" s="43">
         <v>8</v>
       </c>
-      <c r="O41" s="57"/>
+      <c r="O41" s="54"/>
       <c r="P41" s="42">
         <v>5</v>
       </c>
@@ -5949,8 +5955,8 @@
       <c r="S41" s="43">
         <v>8</v>
       </c>
-      <c r="X41" s="57"/>
-      <c r="Y41" s="2">
+      <c r="X41" s="54"/>
+      <c r="Y41" s="42">
         <v>5</v>
       </c>
       <c r="Z41" s="1">
@@ -5959,10 +5965,10 @@
       <c r="AA41" s="1">
         <v>7</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="43">
         <v>8</v>
       </c>
-      <c r="AC41" s="57"/>
+      <c r="AC41" s="54"/>
       <c r="AD41" s="2">
         <v>5</v>
       </c>
@@ -5975,7 +5981,7 @@
       <c r="AG41" s="3">
         <v>8</v>
       </c>
-      <c r="AH41" s="57"/>
+      <c r="AH41" s="54"/>
       <c r="AI41" s="2">
         <v>5</v>
       </c>
@@ -5988,7 +5994,7 @@
       <c r="AL41" s="3">
         <v>8</v>
       </c>
-      <c r="AM41" s="57"/>
+      <c r="AM41" s="54"/>
       <c r="AN41" s="2">
         <v>5</v>
       </c>
@@ -6001,7 +6007,7 @@
       <c r="AQ41" s="3">
         <v>8</v>
       </c>
-      <c r="AR41" s="57"/>
+      <c r="AR41" s="54"/>
       <c r="AS41" s="2">
         <v>5</v>
       </c>
@@ -6014,7 +6020,7 @@
       <c r="AV41" s="3">
         <v>8</v>
       </c>
-      <c r="AW41" s="57"/>
+      <c r="AW41" s="54"/>
       <c r="AX41" s="2">
         <v>5</v>
       </c>
@@ -6027,7 +6033,7 @@
       <c r="BA41" s="3">
         <v>8</v>
       </c>
-      <c r="BB41" s="57"/>
+      <c r="BB41" s="54"/>
       <c r="BC41" s="2">
         <v>5</v>
       </c>
@@ -6040,7 +6046,7 @@
       <c r="BF41" s="3">
         <v>8</v>
       </c>
-      <c r="BG41" s="57"/>
+      <c r="BG41" s="54"/>
       <c r="BH41" s="2">
         <v>5</v>
       </c>
@@ -6055,7 +6061,7 @@
       </c>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J42" s="57"/>
+      <c r="J42" s="54"/>
       <c r="K42" s="42">
         <v>9</v>
       </c>
@@ -6068,7 +6074,7 @@
       <c r="N42" s="43">
         <v>12</v>
       </c>
-      <c r="O42" s="57"/>
+      <c r="O42" s="54"/>
       <c r="P42" s="42">
         <v>9</v>
       </c>
@@ -6081,8 +6087,8 @@
       <c r="S42" s="43">
         <v>12</v>
       </c>
-      <c r="X42" s="57"/>
-      <c r="Y42" s="2">
+      <c r="X42" s="54"/>
+      <c r="Y42" s="42">
         <v>9</v>
       </c>
       <c r="Z42" s="1">
@@ -6091,10 +6097,10 @@
       <c r="AA42" s="1">
         <v>11</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="43">
         <v>12</v>
       </c>
-      <c r="AC42" s="57"/>
+      <c r="AC42" s="54"/>
       <c r="AD42" s="2">
         <v>9</v>
       </c>
@@ -6107,7 +6113,7 @@
       <c r="AG42" s="3">
         <v>12</v>
       </c>
-      <c r="AH42" s="57"/>
+      <c r="AH42" s="54"/>
       <c r="AI42" s="2">
         <v>9</v>
       </c>
@@ -6120,7 +6126,7 @@
       <c r="AL42" s="3">
         <v>12</v>
       </c>
-      <c r="AM42" s="57"/>
+      <c r="AM42" s="54"/>
       <c r="AN42" s="2">
         <v>9</v>
       </c>
@@ -6133,7 +6139,7 @@
       <c r="AQ42" s="3">
         <v>12</v>
       </c>
-      <c r="AR42" s="57"/>
+      <c r="AR42" s="54"/>
       <c r="AS42" s="2">
         <v>9</v>
       </c>
@@ -6146,7 +6152,7 @@
       <c r="AV42" s="3">
         <v>12</v>
       </c>
-      <c r="AW42" s="57"/>
+      <c r="AW42" s="54"/>
       <c r="AX42" s="2">
         <v>9</v>
       </c>
@@ -6159,7 +6165,7 @@
       <c r="BA42" s="3">
         <v>12</v>
       </c>
-      <c r="BB42" s="57"/>
+      <c r="BB42" s="54"/>
       <c r="BC42" s="2">
         <v>9</v>
       </c>
@@ -6172,7 +6178,7 @@
       <c r="BF42" s="3">
         <v>12</v>
       </c>
-      <c r="BG42" s="57"/>
+      <c r="BG42" s="54"/>
       <c r="BH42" s="2">
         <v>9</v>
       </c>
@@ -6187,7 +6193,7 @@
       </c>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="J43" s="57"/>
+      <c r="J43" s="54"/>
       <c r="K43" s="42">
         <v>13</v>
       </c>
@@ -6200,7 +6206,7 @@
       <c r="N43" s="43">
         <v>16</v>
       </c>
-      <c r="O43" s="57"/>
+      <c r="O43" s="54"/>
       <c r="P43" s="42">
         <v>13</v>
       </c>
@@ -6213,8 +6219,8 @@
       <c r="S43" s="43">
         <v>16</v>
       </c>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="2">
+      <c r="X43" s="54"/>
+      <c r="Y43" s="42">
         <v>13</v>
       </c>
       <c r="Z43" s="1">
@@ -6223,10 +6229,10 @@
       <c r="AA43" s="1">
         <v>15</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="43">
         <v>16</v>
       </c>
-      <c r="AC43" s="57"/>
+      <c r="AC43" s="54"/>
       <c r="AD43" s="2">
         <v>13</v>
       </c>
@@ -6239,7 +6245,7 @@
       <c r="AG43" s="3">
         <v>16</v>
       </c>
-      <c r="AH43" s="57"/>
+      <c r="AH43" s="54"/>
       <c r="AI43" s="2">
         <v>13</v>
       </c>
@@ -6252,7 +6258,7 @@
       <c r="AL43" s="3">
         <v>16</v>
       </c>
-      <c r="AM43" s="57"/>
+      <c r="AM43" s="54"/>
       <c r="AN43" s="2">
         <v>13</v>
       </c>
@@ -6265,7 +6271,7 @@
       <c r="AQ43" s="3">
         <v>16</v>
       </c>
-      <c r="AR43" s="57"/>
+      <c r="AR43" s="54"/>
       <c r="AS43" s="2">
         <v>13</v>
       </c>
@@ -6278,7 +6284,7 @@
       <c r="AV43" s="3">
         <v>16</v>
       </c>
-      <c r="AW43" s="57"/>
+      <c r="AW43" s="54"/>
       <c r="AX43" s="2">
         <v>13</v>
       </c>
@@ -6291,7 +6297,7 @@
       <c r="BA43" s="3">
         <v>16</v>
       </c>
-      <c r="BB43" s="57"/>
+      <c r="BB43" s="54"/>
       <c r="BC43" s="2">
         <v>13</v>
       </c>
@@ -6304,7 +6310,7 @@
       <c r="BF43" s="3">
         <v>16</v>
       </c>
-      <c r="BG43" s="57"/>
+      <c r="BG43" s="54"/>
       <c r="BH43" s="2">
         <v>13</v>
       </c>
@@ -6319,7 +6325,7 @@
       </c>
     </row>
     <row r="44" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J44" s="57"/>
+      <c r="J44" s="54"/>
       <c r="K44" s="42">
         <v>17</v>
       </c>
@@ -6332,7 +6338,7 @@
       <c r="N44" s="43">
         <v>20</v>
       </c>
-      <c r="O44" s="57"/>
+      <c r="O44" s="54"/>
       <c r="P44" s="42">
         <v>17</v>
       </c>
@@ -6345,8 +6351,8 @@
       <c r="S44" s="43">
         <v>20</v>
       </c>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="2">
+      <c r="X44" s="54"/>
+      <c r="Y44" s="42">
         <v>17</v>
       </c>
       <c r="Z44" s="1">
@@ -6355,10 +6361,10 @@
       <c r="AA44" s="1">
         <v>19</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="43">
         <v>20</v>
       </c>
-      <c r="AC44" s="58"/>
+      <c r="AC44" s="55"/>
       <c r="AD44" s="4">
         <v>17</v>
       </c>
@@ -6371,7 +6377,7 @@
       <c r="AG44" s="6">
         <v>20</v>
       </c>
-      <c r="AH44" s="58"/>
+      <c r="AH44" s="55"/>
       <c r="AI44" s="4">
         <v>17</v>
       </c>
@@ -6384,7 +6390,7 @@
       <c r="AL44" s="6">
         <v>20</v>
       </c>
-      <c r="AM44" s="57"/>
+      <c r="AM44" s="54"/>
       <c r="AN44" s="2">
         <v>17</v>
       </c>
@@ -6397,7 +6403,7 @@
       <c r="AQ44" s="3">
         <v>20</v>
       </c>
-      <c r="AR44" s="57"/>
+      <c r="AR44" s="54"/>
       <c r="AS44" s="2">
         <v>17</v>
       </c>
@@ -6410,7 +6416,7 @@
       <c r="AV44" s="3">
         <v>20</v>
       </c>
-      <c r="AW44" s="57"/>
+      <c r="AW44" s="54"/>
       <c r="AX44" s="2">
         <v>17</v>
       </c>
@@ -6423,7 +6429,7 @@
       <c r="BA44" s="3">
         <v>20</v>
       </c>
-      <c r="BB44" s="57"/>
+      <c r="BB44" s="54"/>
       <c r="BC44" s="2">
         <v>17</v>
       </c>
@@ -6436,7 +6442,7 @@
       <c r="BF44" s="3">
         <v>20</v>
       </c>
-      <c r="BG44" s="57"/>
+      <c r="BG44" s="54"/>
       <c r="BH44" s="2">
         <v>17</v>
       </c>
@@ -6451,12 +6457,12 @@
       </c>
     </row>
     <row r="45" spans="1:63" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="103"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="80" t="s">
+      <c r="D45" s="81" t="s">
         <v>51</v>
       </c>
       <c r="E45" s="65"/>
@@ -6466,14 +6472,14 @@
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
-      <c r="L45" s="86" t="s">
+      <c r="L45" s="87" t="s">
         <v>52</v>
       </c>
       <c r="M45" s="65"/>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
-      <c r="Q45" s="114" t="s">
+      <c r="Q45" s="116" t="s">
         <v>53</v>
       </c>
       <c r="R45" s="70"/>
@@ -6524,10 +6530,10 @@
       <c r="BK45" s="29"/>
     </row>
     <row r="46" spans="1:63" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="81"/>
-      <c r="E46" s="78"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="78"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="79"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="79"/>
     </row>
     <row r="47" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D47" s="66"/>
@@ -6565,6 +6571,10 @@
     </row>
   </sheetData>
   <mergeCells count="166">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="BH14:BK14"/>
+    <mergeCell ref="BG35:BG39"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J15:J19"/>
@@ -6586,8 +6596,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="T15:V15"/>
     <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="BG35:BG39"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H16:I16"/>
@@ -6636,10 +6644,6 @@
     <mergeCell ref="O13:S13"/>
     <mergeCell ref="O7:S7"/>
     <mergeCell ref="J30:J34"/>
-    <mergeCell ref="BG7:BK7"/>
-    <mergeCell ref="BB30:BB34"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AH20:AH24"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="BB20:BB24"/>
     <mergeCell ref="O35:O39"/>
@@ -6648,10 +6652,11 @@
     <mergeCell ref="O25:O29"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="BB13:BF13"/>
+    <mergeCell ref="AR40:AR44"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="BB7:BF7"/>
+    <mergeCell ref="X15:X19"/>
     <mergeCell ref="AM35:AM39"/>
-    <mergeCell ref="X15:X19"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F18:G18"/>
@@ -6660,6 +6665,9 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="O40:O44"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="AD14:AG14"/>
     <mergeCell ref="D7:E7"/>
@@ -6672,10 +6680,9 @@
     <mergeCell ref="T14:V14"/>
     <mergeCell ref="AM7:AQ7"/>
     <mergeCell ref="AM40:AM44"/>
-    <mergeCell ref="AR40:AR44"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="O40:O44"/>
+    <mergeCell ref="BB30:BB34"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AH20:AH24"/>
     <mergeCell ref="AH9:AL10"/>
     <mergeCell ref="AR15:AR19"/>
     <mergeCell ref="J20:J24"/>
@@ -6684,10 +6691,11 @@
     <mergeCell ref="AW7:BA7"/>
     <mergeCell ref="AH30:AH34"/>
     <mergeCell ref="AR30:AR34"/>
+    <mergeCell ref="X20:X24"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="AS14:AV14"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="AM9:BK10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="AW40:AW44"/>
     <mergeCell ref="AM15:AM19"/>
@@ -6695,36 +6703,34 @@
     <mergeCell ref="D45:E47"/>
     <mergeCell ref="AR20:AR24"/>
     <mergeCell ref="AH25:AH29"/>
+    <mergeCell ref="BG7:BK7"/>
     <mergeCell ref="A9:C10"/>
-    <mergeCell ref="X20:X24"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="AX14:BA14"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="AM25:AM29"/>
+    <mergeCell ref="BG25:BG29"/>
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="X40:X44"/>
     <mergeCell ref="T16:V16"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="BG13:BK13"/>
     <mergeCell ref="BG30:BG34"/>
     <mergeCell ref="AM20:AM24"/>
     <mergeCell ref="X11:BK12"/>
     <mergeCell ref="BB25:BB29"/>
     <mergeCell ref="D11:G12"/>
     <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="AH8:AL8"/>
     <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="X35:X39"/>
     <mergeCell ref="J11:S12"/>
-    <mergeCell ref="X35:X39"/>
-    <mergeCell ref="AH8:AL8"/>
-    <mergeCell ref="AM9:BK10"/>
-    <mergeCell ref="BG25:BG29"/>
-    <mergeCell ref="BG13:BK13"/>
+    <mergeCell ref="AW13:BA13"/>
     <mergeCell ref="BC14:BF14"/>
-    <mergeCell ref="BH14:BK14"/>
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="AH40:AH44"/>
     <mergeCell ref="K14:N14"/>
-    <mergeCell ref="AH40:AH44"/>
     <mergeCell ref="AR7:AV7"/>
     <mergeCell ref="AM30:AM34"/>
     <mergeCell ref="F16:G16"/>

--- a/Moonfish Batch Lifetime.xlsx
+++ b/Moonfish Batch Lifetime.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Batch 2 - R423" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Batch X - RXXX" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="FA" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -695,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -739,9 +739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,31 +790,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -832,15 +845,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,10 +868,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,44 +879,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,10 +937,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -946,113 +971,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1400,5606 +1326,5320 @@
   </sheetPr>
   <dimension ref="A1:BK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col width="9.1796875" customWidth="1" style="104" min="1" max="4"/>
-    <col width="13.81640625" customWidth="1" style="104" min="5" max="5"/>
-    <col width="9.1796875" customWidth="1" style="104" min="6" max="8"/>
-    <col width="14.36328125" customWidth="1" style="104" min="9" max="9"/>
-    <col width="9.1796875" customWidth="1" style="104" min="10" max="14"/>
-    <col width="11.81640625" customWidth="1" style="104" min="15" max="15"/>
-    <col width="9.1796875" customWidth="1" style="104" min="16" max="21"/>
-    <col width="3.7265625" customWidth="1" style="104" min="22" max="22"/>
-    <col width="25.1796875" customWidth="1" style="104" min="23" max="23"/>
-    <col width="9.1796875" customWidth="1" style="104" min="24" max="64"/>
-    <col width="9.1796875" customWidth="1" style="104" min="65" max="16384"/>
+    <col width="9.1796875" customWidth="1" style="82" min="1" max="4"/>
+    <col width="13.81640625" customWidth="1" style="82" min="5" max="5"/>
+    <col width="9.1796875" customWidth="1" style="82" min="6" max="8"/>
+    <col width="14.36328125" customWidth="1" style="82" min="9" max="9"/>
+    <col width="9.1796875" customWidth="1" style="82" min="10" max="14"/>
+    <col width="11.81640625" customWidth="1" style="82" min="15" max="15"/>
+    <col width="9.1796875" customWidth="1" style="82" min="16" max="21"/>
+    <col width="3.7265625" customWidth="1" style="82" min="22" max="22"/>
+    <col width="25.1796875" customWidth="1" style="82" min="23" max="23"/>
+    <col width="9.1796875" customWidth="1" style="82" min="24" max="70"/>
+    <col width="9.1796875" customWidth="1" style="82" min="71" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="91" t="inlineStr">
+      <c r="A1" s="102" t="inlineStr">
         <is>
           <t>Moonfish Batch Lifetime</t>
         </is>
       </c>
-      <c r="B1" s="49" t="n"/>
-      <c r="C1" s="49" t="n"/>
-      <c r="D1" s="50" t="n"/>
-      <c r="F1" s="95" t="inlineStr">
+      <c r="B1" s="54" t="n"/>
+      <c r="C1" s="54" t="n"/>
+      <c r="D1" s="55" t="n"/>
+      <c r="F1" s="106" t="inlineStr">
         <is>
           <t>Anything in:</t>
         </is>
       </c>
-      <c r="G1" s="49" t="n"/>
-      <c r="H1" s="20" t="n"/>
-      <c r="I1" s="22" t="inlineStr">
+      <c r="G1" s="54" t="n"/>
+      <c r="H1" s="19" t="n"/>
+      <c r="I1" s="21" t="inlineStr">
         <is>
           <t>means</t>
         </is>
       </c>
-      <c r="J1" s="78" t="inlineStr">
+      <c r="J1" s="84" t="inlineStr">
         <is>
           <t>Not reached test</t>
         </is>
       </c>
-      <c r="K1" s="50" t="n"/>
+      <c r="K1" s="55" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="74" t="inlineStr">
-        <is>
-          <t>Batch 2</t>
-        </is>
-      </c>
-      <c r="D2" s="117" t="n"/>
-      <c r="F2" s="88" t="inlineStr">
+      <c r="A2" s="81" t="inlineStr">
+        <is>
+          <t>Batch X</t>
+        </is>
+      </c>
+      <c r="D2" s="68" t="n"/>
+      <c r="F2" s="96" t="inlineStr">
         <is>
           <t>Anything in:</t>
         </is>
       </c>
-      <c r="H2" s="21" t="n"/>
-      <c r="I2" s="31" t="inlineStr">
+      <c r="H2" s="20" t="n"/>
+      <c r="I2" s="30" t="inlineStr">
         <is>
           <t>means</t>
         </is>
       </c>
-      <c r="J2" s="87" t="inlineStr">
+      <c r="J2" s="95" t="inlineStr">
         <is>
           <t>DONE</t>
         </is>
       </c>
-      <c r="K2" s="117" t="n"/>
+      <c r="K2" s="68" t="n"/>
     </row>
     <row r="3" ht="17.15" customHeight="1" thickBot="1">
-      <c r="A3" s="98" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B3" s="52" t="n"/>
-      <c r="C3" s="52" t="n"/>
-      <c r="D3" s="122" t="n"/>
-      <c r="F3" s="88" t="inlineStr">
+      <c r="A3" s="111" t="inlineStr">
+        <is>
+          <t>RXXX</t>
+        </is>
+      </c>
+      <c r="B3" s="57" t="n"/>
+      <c r="C3" s="57" t="n"/>
+      <c r="D3" s="58" t="n"/>
+      <c r="F3" s="96" t="inlineStr">
         <is>
           <t>Anything in:</t>
         </is>
       </c>
-      <c r="H3" s="30" t="n"/>
-      <c r="I3" s="31" t="inlineStr">
+      <c r="H3" s="29" t="n"/>
+      <c r="I3" s="30" t="inlineStr">
         <is>
           <t>means</t>
         </is>
       </c>
-      <c r="J3" s="87" t="inlineStr">
+      <c r="J3" s="95" t="inlineStr">
         <is>
           <t>WIP</t>
         </is>
       </c>
-      <c r="K3" s="117" t="n"/>
+      <c r="K3" s="68" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="F4" s="88" t="inlineStr">
+      <c r="F4" s="96" t="inlineStr">
         <is>
           <t>Anything in:</t>
         </is>
       </c>
-      <c r="H4" s="104" t="inlineStr">
+      <c r="H4" s="82" t="inlineStr">
         <is>
           <t>blank</t>
         </is>
       </c>
-      <c r="I4" s="31" t="inlineStr">
+      <c r="I4" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">means </t>
         </is>
       </c>
-      <c r="J4" s="65" t="inlineStr">
+      <c r="J4" s="70" t="inlineStr">
         <is>
           <t>Not done yet</t>
         </is>
       </c>
-      <c r="K4" s="117" t="n"/>
+      <c r="K4" s="68" t="n"/>
       <c r="L4" s="12" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="F5" s="82" t="inlineStr">
+      <c r="F5" s="88" t="inlineStr">
         <is>
           <t>Anything in:</t>
         </is>
       </c>
-      <c r="G5" s="52" t="n"/>
-      <c r="H5" s="120" t="inlineStr">
+      <c r="G5" s="57" t="n"/>
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" s="23" t="inlineStr">
+      <c r="I5" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">means </t>
         </is>
       </c>
-      <c r="J5" s="96" t="inlineStr">
+      <c r="J5" s="107" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="K5" s="122" t="n"/>
+      <c r="K5" s="58" t="n"/>
       <c r="L5" s="12" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="F6" s="29" t="n"/>
-      <c r="G6" s="29" t="n"/>
-      <c r="I6" s="31" t="n"/>
-      <c r="J6" s="31" t="n"/>
-      <c r="K6" s="31" t="n"/>
+      <c r="F6" s="28" t="n"/>
+      <c r="G6" s="28" t="n"/>
+      <c r="I6" s="30" t="n"/>
+      <c r="J6" s="30" t="n"/>
+      <c r="K6" s="30" t="n"/>
       <c r="L6" s="12" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="45" t="inlineStr">
+      <c r="A7" s="48" t="inlineStr">
         <is>
           <t>Automation</t>
         </is>
       </c>
-      <c r="B7" s="46" t="n"/>
-      <c r="D7" s="45" t="inlineStr">
+      <c r="B7" s="49" t="n"/>
+      <c r="D7" s="48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E7" s="46" t="n"/>
-      <c r="F7" s="45" t="inlineStr">
+      <c r="E7" s="49" t="n"/>
+      <c r="F7" s="48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G7" s="46" t="n"/>
-      <c r="H7" s="45" t="inlineStr">
+      <c r="G7" s="49" t="n"/>
+      <c r="H7" s="48" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I7" s="46" t="n"/>
-      <c r="J7" s="85" t="inlineStr">
+      <c r="I7" s="49" t="n"/>
+      <c r="J7" s="93" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="K7" s="46" t="n"/>
-      <c r="L7" s="46" t="n"/>
-      <c r="M7" s="46" t="n"/>
-      <c r="N7" s="46" t="n"/>
-      <c r="O7" s="45" t="inlineStr">
+      <c r="K7" s="49" t="n"/>
+      <c r="L7" s="49" t="n"/>
+      <c r="M7" s="49" t="n"/>
+      <c r="N7" s="49" t="n"/>
+      <c r="O7" s="48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="P7" s="46" t="n"/>
-      <c r="Q7" s="46" t="n"/>
-      <c r="R7" s="46" t="n"/>
-      <c r="S7" s="46" t="n"/>
-      <c r="T7" s="45" t="inlineStr">
+      <c r="P7" s="49" t="n"/>
+      <c r="Q7" s="49" t="n"/>
+      <c r="R7" s="49" t="n"/>
+      <c r="S7" s="49" t="n"/>
+      <c r="T7" s="48" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="U7" s="46" t="n"/>
-      <c r="V7" s="46" t="n"/>
-      <c r="W7" s="32" t="inlineStr">
+      <c r="U7" s="49" t="n"/>
+      <c r="V7" s="49" t="n"/>
+      <c r="W7" s="31" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="X7" s="45" t="inlineStr">
+      <c r="X7" s="48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Y7" s="46" t="n"/>
-      <c r="Z7" s="46" t="n"/>
-      <c r="AA7" s="46" t="n"/>
-      <c r="AB7" s="46" t="n"/>
-      <c r="AC7" s="89" t="inlineStr">
+      <c r="Y7" s="49" t="n"/>
+      <c r="Z7" s="49" t="n"/>
+      <c r="AA7" s="49" t="n"/>
+      <c r="AB7" s="49" t="n"/>
+      <c r="AC7" s="98" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="AD7" s="52" t="n"/>
-      <c r="AE7" s="52" t="n"/>
-      <c r="AF7" s="52" t="n"/>
-      <c r="AG7" s="52" t="n"/>
-      <c r="AH7" s="89" t="inlineStr">
+      <c r="AD7" s="57" t="n"/>
+      <c r="AE7" s="57" t="n"/>
+      <c r="AF7" s="57" t="n"/>
+      <c r="AG7" s="57" t="n"/>
+      <c r="AH7" s="98" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="AI7" s="52" t="n"/>
-      <c r="AJ7" s="52" t="n"/>
-      <c r="AK7" s="52" t="n"/>
-      <c r="AL7" s="52" t="n"/>
-      <c r="AM7" s="45" t="inlineStr">
+      <c r="AI7" s="57" t="n"/>
+      <c r="AJ7" s="57" t="n"/>
+      <c r="AK7" s="57" t="n"/>
+      <c r="AL7" s="57" t="n"/>
+      <c r="AM7" s="48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="AN7" s="46" t="n"/>
-      <c r="AO7" s="46" t="n"/>
-      <c r="AP7" s="46" t="n"/>
-      <c r="AQ7" s="46" t="n"/>
-      <c r="AR7" s="45" t="inlineStr">
+      <c r="AN7" s="49" t="n"/>
+      <c r="AO7" s="49" t="n"/>
+      <c r="AP7" s="49" t="n"/>
+      <c r="AQ7" s="49" t="n"/>
+      <c r="AR7" s="48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="AS7" s="46" t="n"/>
-      <c r="AT7" s="46" t="n"/>
-      <c r="AU7" s="46" t="n"/>
-      <c r="AV7" s="46" t="n"/>
-      <c r="AW7" s="45" t="inlineStr">
+      <c r="AS7" s="49" t="n"/>
+      <c r="AT7" s="49" t="n"/>
+      <c r="AU7" s="49" t="n"/>
+      <c r="AV7" s="49" t="n"/>
+      <c r="AW7" s="48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="AX7" s="46" t="n"/>
-      <c r="AY7" s="46" t="n"/>
-      <c r="AZ7" s="46" t="n"/>
-      <c r="BA7" s="46" t="n"/>
-      <c r="BB7" s="45" t="inlineStr">
+      <c r="AX7" s="49" t="n"/>
+      <c r="AY7" s="49" t="n"/>
+      <c r="AZ7" s="49" t="n"/>
+      <c r="BA7" s="49" t="n"/>
+      <c r="BB7" s="48" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="BC7" s="46" t="n"/>
-      <c r="BD7" s="46" t="n"/>
-      <c r="BE7" s="46" t="n"/>
-      <c r="BF7" s="46" t="n"/>
-      <c r="BG7" s="45" t="inlineStr">
+      <c r="BC7" s="49" t="n"/>
+      <c r="BD7" s="49" t="n"/>
+      <c r="BE7" s="49" t="n"/>
+      <c r="BF7" s="49" t="n"/>
+      <c r="BG7" s="48" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="BH7" s="46" t="n"/>
-      <c r="BI7" s="46" t="n"/>
-      <c r="BJ7" s="46" t="n"/>
-      <c r="BK7" s="46" t="n"/>
+      <c r="BH7" s="49" t="n"/>
+      <c r="BI7" s="49" t="n"/>
+      <c r="BJ7" s="49" t="n"/>
+      <c r="BK7" s="49" t="n"/>
     </row>
     <row r="8" ht="20" customHeight="1" thickBot="1">
-      <c r="A8" s="54" t="inlineStr">
+      <c r="A8" s="59" t="inlineStr">
         <is>
           <t>Timeline</t>
         </is>
       </c>
-      <c r="B8" s="55" t="n"/>
-      <c r="C8" s="55" t="n"/>
-      <c r="D8" s="83" t="inlineStr">
-        <is>
-          <t>16th Jan</t>
-        </is>
-      </c>
-      <c r="E8" s="77" t="n"/>
-      <c r="F8" s="83" t="inlineStr">
-        <is>
-          <t>12th Jan -</t>
-        </is>
-      </c>
-      <c r="G8" s="77" t="n"/>
-      <c r="H8" s="83" t="inlineStr">
-        <is>
-          <t>cant remember</t>
-        </is>
-      </c>
-      <c r="I8" s="77" t="n"/>
-      <c r="J8" s="83" t="inlineStr">
-        <is>
-          <t>12-16th Jan</t>
-        </is>
-      </c>
-      <c r="K8" s="55" t="n"/>
-      <c r="L8" s="55" t="n"/>
-      <c r="M8" s="55" t="n"/>
-      <c r="N8" s="77" t="n"/>
-      <c r="O8" s="83" t="inlineStr">
-        <is>
-          <t>12-17th Jan</t>
-        </is>
-      </c>
-      <c r="P8" s="55" t="n"/>
-      <c r="Q8" s="55" t="n"/>
-      <c r="R8" s="55" t="n"/>
-      <c r="S8" s="77" t="n"/>
-      <c r="T8" s="83" t="inlineStr">
-        <is>
-          <t>17th Jan</t>
-        </is>
-      </c>
-      <c r="U8" s="55" t="n"/>
-      <c r="V8" s="77" t="n"/>
-      <c r="W8" s="54" t="inlineStr">
-        <is>
-          <t>17th Jan-</t>
-        </is>
-      </c>
-      <c r="X8" s="54" t="inlineStr">
-        <is>
-          <t>16-23th Jan -</t>
-        </is>
-      </c>
-      <c r="Y8" s="55" t="n"/>
-      <c r="Z8" s="55" t="n"/>
-      <c r="AA8" s="55" t="n"/>
-      <c r="AB8" s="55" t="n"/>
-      <c r="AC8" s="56" t="n"/>
-      <c r="AD8" s="40" t="n"/>
-      <c r="AE8" s="40" t="n"/>
-      <c r="AF8" s="40" t="n"/>
-      <c r="AG8" s="41" t="n"/>
-      <c r="AH8" s="56" t="n"/>
-      <c r="AI8" s="40" t="n"/>
-      <c r="AJ8" s="40" t="n"/>
-      <c r="AK8" s="40" t="n"/>
-      <c r="AL8" s="41" t="n"/>
-      <c r="AM8" s="24" t="n"/>
-      <c r="AN8" s="24" t="n"/>
-      <c r="AO8" s="24" t="n"/>
-      <c r="AP8" s="24" t="n"/>
-      <c r="AQ8" s="24" t="n"/>
-      <c r="AR8" s="24" t="n"/>
-      <c r="AS8" s="24" t="n"/>
-      <c r="AT8" s="24" t="n"/>
-      <c r="AU8" s="24" t="n"/>
-      <c r="AV8" s="24" t="n"/>
-      <c r="AW8" s="24" t="n"/>
-      <c r="AX8" s="24" t="n"/>
-      <c r="AY8" s="24" t="n"/>
-      <c r="AZ8" s="24" t="n"/>
-      <c r="BA8" s="24" t="n"/>
-      <c r="BB8" s="24" t="n"/>
-      <c r="BC8" s="24" t="n"/>
-      <c r="BD8" s="24" t="n"/>
-      <c r="BE8" s="24" t="n"/>
-      <c r="BF8" s="24" t="n"/>
-      <c r="BG8" s="24" t="n"/>
-      <c r="BH8" s="24" t="n"/>
-      <c r="BI8" s="24" t="n"/>
-      <c r="BJ8" s="24" t="n"/>
-      <c r="BK8" s="25" t="n"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="86" t="inlineStr">
+      <c r="B8" s="60" t="n"/>
+      <c r="C8" s="60" t="n"/>
+      <c r="D8" s="89" t="inlineStr">
+        <is>
+          <t>19th March -</t>
+        </is>
+      </c>
+      <c r="E8" s="90" t="n"/>
+      <c r="F8" s="89" t="inlineStr">
+        <is>
+          <t>19th March -</t>
+        </is>
+      </c>
+      <c r="G8" s="90" t="n"/>
+      <c r="H8" s="89" t="n"/>
+      <c r="I8" s="90" t="n"/>
+      <c r="J8" s="89" t="n"/>
+      <c r="K8" s="60" t="n"/>
+      <c r="L8" s="60" t="n"/>
+      <c r="M8" s="60" t="n"/>
+      <c r="N8" s="90" t="n"/>
+      <c r="O8" s="89" t="n"/>
+      <c r="P8" s="60" t="n"/>
+      <c r="Q8" s="60" t="n"/>
+      <c r="R8" s="60" t="n"/>
+      <c r="S8" s="90" t="n"/>
+      <c r="T8" s="89" t="n"/>
+      <c r="U8" s="60" t="n"/>
+      <c r="V8" s="90" t="n"/>
+      <c r="W8" s="59" t="n"/>
+      <c r="X8" s="59" t="n"/>
+      <c r="Y8" s="60" t="n"/>
+      <c r="Z8" s="60" t="n"/>
+      <c r="AA8" s="60" t="n"/>
+      <c r="AB8" s="60" t="n"/>
+      <c r="AC8" s="62" t="n"/>
+      <c r="AD8" s="46" t="n"/>
+      <c r="AE8" s="46" t="n"/>
+      <c r="AF8" s="46" t="n"/>
+      <c r="AG8" s="47" t="n"/>
+      <c r="AH8" s="62" t="n"/>
+      <c r="AI8" s="46" t="n"/>
+      <c r="AJ8" s="46" t="n"/>
+      <c r="AK8" s="46" t="n"/>
+      <c r="AL8" s="47" t="n"/>
+      <c r="AM8" s="23" t="n"/>
+      <c r="AN8" s="23" t="n"/>
+      <c r="AO8" s="23" t="n"/>
+      <c r="AP8" s="23" t="n"/>
+      <c r="AQ8" s="23" t="n"/>
+      <c r="AR8" s="23" t="n"/>
+      <c r="AS8" s="23" t="n"/>
+      <c r="AT8" s="23" t="n"/>
+      <c r="AU8" s="23" t="n"/>
+      <c r="AV8" s="23" t="n"/>
+      <c r="AW8" s="23" t="n"/>
+      <c r="AX8" s="23" t="n"/>
+      <c r="AY8" s="23" t="n"/>
+      <c r="AZ8" s="23" t="n"/>
+      <c r="BA8" s="23" t="n"/>
+      <c r="BB8" s="23" t="n"/>
+      <c r="BC8" s="23" t="n"/>
+      <c r="BD8" s="23" t="n"/>
+      <c r="BE8" s="23" t="n"/>
+      <c r="BF8" s="23" t="n"/>
+      <c r="BG8" s="23" t="n"/>
+      <c r="BH8" s="23" t="n"/>
+      <c r="BI8" s="23" t="n"/>
+      <c r="BJ8" s="23" t="n"/>
+      <c r="BK8" s="24" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="94" t="inlineStr">
         <is>
           <t>Actions</t>
         </is>
       </c>
-      <c r="C9" s="117" t="n"/>
-      <c r="D9" s="67" t="n"/>
-      <c r="E9" s="68" t="n"/>
-      <c r="F9" s="68" t="n"/>
-      <c r="G9" s="69" t="n"/>
-      <c r="H9" s="86" t="inlineStr">
+      <c r="C9" s="68" t="n"/>
+      <c r="D9" s="72" t="n"/>
+      <c r="E9" s="73" t="n"/>
+      <c r="F9" s="73" t="n"/>
+      <c r="G9" s="74" t="n"/>
+      <c r="H9" s="94" t="inlineStr">
         <is>
           <t>14 inch Top plate cut</t>
         </is>
       </c>
-      <c r="I9" s="117" t="n"/>
-      <c r="J9" s="79" t="inlineStr">
+      <c r="I9" s="68" t="n"/>
+      <c r="J9" s="85" t="inlineStr">
         <is>
           <t>`</t>
         </is>
       </c>
-      <c r="K9" s="68" t="n"/>
-      <c r="L9" s="68" t="n"/>
-      <c r="M9" s="68" t="n"/>
-      <c r="N9" s="68" t="n"/>
-      <c r="O9" s="68" t="n"/>
-      <c r="P9" s="68" t="n"/>
-      <c r="Q9" s="68" t="n"/>
-      <c r="R9" s="68" t="n"/>
-      <c r="S9" s="69" t="n"/>
-      <c r="T9" s="86" t="inlineStr">
+      <c r="K9" s="73" t="n"/>
+      <c r="L9" s="73" t="n"/>
+      <c r="M9" s="73" t="n"/>
+      <c r="N9" s="73" t="n"/>
+      <c r="O9" s="73" t="n"/>
+      <c r="P9" s="73" t="n"/>
+      <c r="Q9" s="73" t="n"/>
+      <c r="R9" s="73" t="n"/>
+      <c r="S9" s="74" t="n"/>
+      <c r="T9" s="94" t="inlineStr">
         <is>
           <t>Singulation (Trotec)</t>
         </is>
       </c>
-      <c r="V9" s="117" t="n"/>
-      <c r="W9" s="86" t="inlineStr">
+      <c r="V9" s="68" t="n"/>
+      <c r="W9" s="94" t="inlineStr">
         <is>
           <t>Top plate cut 4 corners</t>
         </is>
       </c>
-      <c r="X9" s="79" t="n"/>
-      <c r="Y9" s="68" t="n"/>
-      <c r="Z9" s="68" t="n"/>
-      <c r="AA9" s="68" t="n"/>
-      <c r="AB9" s="69" t="n"/>
-      <c r="AC9" s="81" t="inlineStr">
+      <c r="X9" s="85" t="n"/>
+      <c r="Y9" s="73" t="n"/>
+      <c r="Z9" s="73" t="n"/>
+      <c r="AA9" s="73" t="n"/>
+      <c r="AB9" s="74" t="n"/>
+      <c r="AC9" s="87" t="inlineStr">
         <is>
           <t>Bonding (KW)</t>
         </is>
       </c>
-      <c r="AD9" s="49" t="n"/>
-      <c r="AE9" s="49" t="n"/>
-      <c r="AF9" s="49" t="n"/>
-      <c r="AG9" s="50" t="n"/>
-      <c r="AH9" s="81" t="inlineStr">
+      <c r="AD9" s="54" t="n"/>
+      <c r="AE9" s="54" t="n"/>
+      <c r="AF9" s="54" t="n"/>
+      <c r="AG9" s="55" t="n"/>
+      <c r="AH9" s="87" t="inlineStr">
         <is>
           <t>Driving (AC)</t>
         </is>
       </c>
-      <c r="AI9" s="49" t="n"/>
-      <c r="AJ9" s="49" t="n"/>
-      <c r="AK9" s="49" t="n"/>
-      <c r="AL9" s="50" t="n"/>
-      <c r="AM9" s="57" t="n"/>
-      <c r="AN9" s="49" t="n"/>
-      <c r="AO9" s="49" t="n"/>
-      <c r="AP9" s="49" t="n"/>
-      <c r="AQ9" s="49" t="n"/>
-      <c r="AR9" s="49" t="n"/>
-      <c r="AS9" s="49" t="n"/>
-      <c r="AT9" s="49" t="n"/>
-      <c r="AU9" s="49" t="n"/>
-      <c r="AV9" s="49" t="n"/>
-      <c r="AW9" s="49" t="n"/>
-      <c r="AX9" s="49" t="n"/>
-      <c r="AY9" s="49" t="n"/>
-      <c r="AZ9" s="49" t="n"/>
-      <c r="BA9" s="49" t="n"/>
-      <c r="BB9" s="49" t="n"/>
-      <c r="BC9" s="49" t="n"/>
-      <c r="BD9" s="49" t="n"/>
-      <c r="BE9" s="49" t="n"/>
-      <c r="BF9" s="49" t="n"/>
-      <c r="BG9" s="49" t="n"/>
-      <c r="BH9" s="49" t="n"/>
-      <c r="BI9" s="49" t="n"/>
-      <c r="BJ9" s="49" t="n"/>
-      <c r="BK9" s="50" t="n"/>
+      <c r="AI9" s="54" t="n"/>
+      <c r="AJ9" s="54" t="n"/>
+      <c r="AK9" s="54" t="n"/>
+      <c r="AL9" s="55" t="n"/>
+      <c r="AM9" s="63" t="n"/>
+      <c r="AN9" s="54" t="n"/>
+      <c r="AO9" s="54" t="n"/>
+      <c r="AP9" s="54" t="n"/>
+      <c r="AQ9" s="54" t="n"/>
+      <c r="AR9" s="54" t="n"/>
+      <c r="AS9" s="54" t="n"/>
+      <c r="AT9" s="54" t="n"/>
+      <c r="AU9" s="54" t="n"/>
+      <c r="AV9" s="54" t="n"/>
+      <c r="AW9" s="54" t="n"/>
+      <c r="AX9" s="54" t="n"/>
+      <c r="AY9" s="54" t="n"/>
+      <c r="AZ9" s="54" t="n"/>
+      <c r="BA9" s="54" t="n"/>
+      <c r="BB9" s="54" t="n"/>
+      <c r="BC9" s="54" t="n"/>
+      <c r="BD9" s="54" t="n"/>
+      <c r="BE9" s="54" t="n"/>
+      <c r="BF9" s="54" t="n"/>
+      <c r="BG9" s="54" t="n"/>
+      <c r="BH9" s="54" t="n"/>
+      <c r="BI9" s="54" t="n"/>
+      <c r="BJ9" s="54" t="n"/>
+      <c r="BK9" s="55" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="51" t="n"/>
-      <c r="B10" s="52" t="n"/>
-      <c r="C10" s="122" t="n"/>
-      <c r="D10" s="51" t="n"/>
-      <c r="E10" s="52" t="n"/>
-      <c r="F10" s="52" t="n"/>
-      <c r="G10" s="122" t="n"/>
-      <c r="H10" s="51" t="n"/>
-      <c r="I10" s="122" t="n"/>
-      <c r="J10" s="51" t="n"/>
-      <c r="K10" s="52" t="n"/>
-      <c r="L10" s="52" t="n"/>
-      <c r="M10" s="52" t="n"/>
-      <c r="N10" s="52" t="n"/>
-      <c r="O10" s="52" t="n"/>
-      <c r="P10" s="52" t="n"/>
-      <c r="Q10" s="52" t="n"/>
-      <c r="R10" s="52" t="n"/>
-      <c r="S10" s="122" t="n"/>
-      <c r="T10" s="51" t="n"/>
-      <c r="U10" s="52" t="n"/>
-      <c r="V10" s="122" t="n"/>
-      <c r="W10" s="118" t="n"/>
-      <c r="X10" s="51" t="n"/>
-      <c r="Y10" s="52" t="n"/>
-      <c r="Z10" s="52" t="n"/>
-      <c r="AA10" s="52" t="n"/>
-      <c r="AB10" s="122" t="n"/>
-      <c r="AC10" s="51" t="n"/>
-      <c r="AD10" s="52" t="n"/>
-      <c r="AE10" s="52" t="n"/>
-      <c r="AF10" s="52" t="n"/>
-      <c r="AG10" s="122" t="n"/>
-      <c r="AH10" s="51" t="n"/>
-      <c r="AI10" s="52" t="n"/>
-      <c r="AJ10" s="52" t="n"/>
-      <c r="AK10" s="52" t="n"/>
-      <c r="AL10" s="122" t="n"/>
-      <c r="AM10" s="51" t="n"/>
-      <c r="AN10" s="52" t="n"/>
-      <c r="AO10" s="52" t="n"/>
-      <c r="AP10" s="52" t="n"/>
-      <c r="AQ10" s="52" t="n"/>
-      <c r="AR10" s="52" t="n"/>
-      <c r="AS10" s="52" t="n"/>
-      <c r="AT10" s="52" t="n"/>
-      <c r="AU10" s="52" t="n"/>
-      <c r="AV10" s="52" t="n"/>
-      <c r="AW10" s="52" t="n"/>
-      <c r="AX10" s="52" t="n"/>
-      <c r="AY10" s="52" t="n"/>
-      <c r="AZ10" s="52" t="n"/>
-      <c r="BA10" s="52" t="n"/>
-      <c r="BB10" s="52" t="n"/>
-      <c r="BC10" s="52" t="n"/>
-      <c r="BD10" s="52" t="n"/>
-      <c r="BE10" s="52" t="n"/>
-      <c r="BF10" s="52" t="n"/>
-      <c r="BG10" s="52" t="n"/>
-      <c r="BH10" s="52" t="n"/>
-      <c r="BI10" s="52" t="n"/>
-      <c r="BJ10" s="52" t="n"/>
-      <c r="BK10" s="122" t="n"/>
+      <c r="A10" s="56" t="n"/>
+      <c r="B10" s="57" t="n"/>
+      <c r="C10" s="58" t="n"/>
+      <c r="D10" s="56" t="n"/>
+      <c r="E10" s="57" t="n"/>
+      <c r="F10" s="57" t="n"/>
+      <c r="G10" s="58" t="n"/>
+      <c r="H10" s="56" t="n"/>
+      <c r="I10" s="58" t="n"/>
+      <c r="J10" s="56" t="n"/>
+      <c r="K10" s="57" t="n"/>
+      <c r="L10" s="57" t="n"/>
+      <c r="M10" s="57" t="n"/>
+      <c r="N10" s="57" t="n"/>
+      <c r="O10" s="57" t="n"/>
+      <c r="P10" s="57" t="n"/>
+      <c r="Q10" s="57" t="n"/>
+      <c r="R10" s="57" t="n"/>
+      <c r="S10" s="58" t="n"/>
+      <c r="T10" s="56" t="n"/>
+      <c r="U10" s="57" t="n"/>
+      <c r="V10" s="58" t="n"/>
+      <c r="W10" s="44" t="n"/>
+      <c r="X10" s="56" t="n"/>
+      <c r="Y10" s="57" t="n"/>
+      <c r="Z10" s="57" t="n"/>
+      <c r="AA10" s="57" t="n"/>
+      <c r="AB10" s="58" t="n"/>
+      <c r="AC10" s="56" t="n"/>
+      <c r="AD10" s="57" t="n"/>
+      <c r="AE10" s="57" t="n"/>
+      <c r="AF10" s="57" t="n"/>
+      <c r="AG10" s="58" t="n"/>
+      <c r="AH10" s="56" t="n"/>
+      <c r="AI10" s="57" t="n"/>
+      <c r="AJ10" s="57" t="n"/>
+      <c r="AK10" s="57" t="n"/>
+      <c r="AL10" s="58" t="n"/>
+      <c r="AM10" s="56" t="n"/>
+      <c r="AN10" s="57" t="n"/>
+      <c r="AO10" s="57" t="n"/>
+      <c r="AP10" s="57" t="n"/>
+      <c r="AQ10" s="57" t="n"/>
+      <c r="AR10" s="57" t="n"/>
+      <c r="AS10" s="57" t="n"/>
+      <c r="AT10" s="57" t="n"/>
+      <c r="AU10" s="57" t="n"/>
+      <c r="AV10" s="57" t="n"/>
+      <c r="AW10" s="57" t="n"/>
+      <c r="AX10" s="57" t="n"/>
+      <c r="AY10" s="57" t="n"/>
+      <c r="AZ10" s="57" t="n"/>
+      <c r="BA10" s="57" t="n"/>
+      <c r="BB10" s="57" t="n"/>
+      <c r="BC10" s="57" t="n"/>
+      <c r="BD10" s="57" t="n"/>
+      <c r="BE10" s="57" t="n"/>
+      <c r="BF10" s="57" t="n"/>
+      <c r="BG10" s="57" t="n"/>
+      <c r="BH10" s="57" t="n"/>
+      <c r="BI10" s="57" t="n"/>
+      <c r="BJ10" s="57" t="n"/>
+      <c r="BK10" s="58" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="90" t="inlineStr">
+      <c r="A11" s="99" t="inlineStr">
         <is>
           <t>Status of batch</t>
         </is>
       </c>
-      <c r="B11" s="49" t="n"/>
-      <c r="C11" s="49" t="n"/>
-      <c r="D11" s="48" t="inlineStr">
+      <c r="B11" s="54" t="n"/>
+      <c r="C11" s="54" t="n"/>
+      <c r="D11" s="53" t="inlineStr">
         <is>
           <t>14 inch</t>
         </is>
       </c>
-      <c r="E11" s="49" t="n"/>
-      <c r="F11" s="49" t="n"/>
-      <c r="G11" s="50" t="n"/>
+      <c r="E11" s="54" t="n"/>
+      <c r="F11" s="54" t="n"/>
+      <c r="G11" s="55" t="n"/>
       <c r="I11" s="11" t="n"/>
-      <c r="J11" s="48" t="inlineStr">
+      <c r="J11" s="53" t="inlineStr">
         <is>
           <t>14 inch (S-G, S-C, G-C exposed)</t>
         </is>
       </c>
-      <c r="K11" s="49" t="n"/>
-      <c r="L11" s="49" t="n"/>
-      <c r="M11" s="49" t="n"/>
-      <c r="N11" s="49" t="n"/>
-      <c r="O11" s="49" t="n"/>
-      <c r="P11" s="49" t="n"/>
-      <c r="Q11" s="49" t="n"/>
-      <c r="R11" s="49" t="n"/>
-      <c r="S11" s="50" t="n"/>
-      <c r="X11" s="48" t="inlineStr">
+      <c r="K11" s="54" t="n"/>
+      <c r="L11" s="54" t="n"/>
+      <c r="M11" s="54" t="n"/>
+      <c r="N11" s="54" t="n"/>
+      <c r="O11" s="54" t="n"/>
+      <c r="P11" s="54" t="n"/>
+      <c r="Q11" s="54" t="n"/>
+      <c r="R11" s="54" t="n"/>
+      <c r="S11" s="55" t="n"/>
+      <c r="X11" s="53" t="inlineStr">
         <is>
           <t>Singulated</t>
         </is>
       </c>
-      <c r="Y11" s="49" t="n"/>
-      <c r="Z11" s="49" t="n"/>
-      <c r="AA11" s="49" t="n"/>
-      <c r="AB11" s="49" t="n"/>
-      <c r="AC11" s="49" t="n"/>
-      <c r="AD11" s="49" t="n"/>
-      <c r="AE11" s="49" t="n"/>
-      <c r="AF11" s="49" t="n"/>
-      <c r="AG11" s="49" t="n"/>
-      <c r="AH11" s="49" t="n"/>
-      <c r="AI11" s="49" t="n"/>
-      <c r="AJ11" s="49" t="n"/>
-      <c r="AK11" s="49" t="n"/>
-      <c r="AL11" s="49" t="n"/>
-      <c r="AM11" s="49" t="n"/>
-      <c r="AN11" s="49" t="n"/>
-      <c r="AO11" s="49" t="n"/>
-      <c r="AP11" s="49" t="n"/>
-      <c r="AQ11" s="49" t="n"/>
-      <c r="AR11" s="49" t="n"/>
-      <c r="AS11" s="49" t="n"/>
-      <c r="AT11" s="49" t="n"/>
-      <c r="AU11" s="49" t="n"/>
-      <c r="AV11" s="49" t="n"/>
-      <c r="AW11" s="49" t="n"/>
-      <c r="AX11" s="49" t="n"/>
-      <c r="AY11" s="49" t="n"/>
-      <c r="AZ11" s="49" t="n"/>
-      <c r="BA11" s="49" t="n"/>
-      <c r="BB11" s="49" t="n"/>
-      <c r="BC11" s="49" t="n"/>
-      <c r="BD11" s="49" t="n"/>
-      <c r="BE11" s="49" t="n"/>
-      <c r="BF11" s="49" t="n"/>
-      <c r="BG11" s="49" t="n"/>
-      <c r="BH11" s="49" t="n"/>
-      <c r="BI11" s="49" t="n"/>
-      <c r="BJ11" s="49" t="n"/>
-      <c r="BK11" s="50" t="n"/>
+      <c r="Y11" s="54" t="n"/>
+      <c r="Z11" s="54" t="n"/>
+      <c r="AA11" s="54" t="n"/>
+      <c r="AB11" s="54" t="n"/>
+      <c r="AC11" s="54" t="n"/>
+      <c r="AD11" s="54" t="n"/>
+      <c r="AE11" s="54" t="n"/>
+      <c r="AF11" s="54" t="n"/>
+      <c r="AG11" s="54" t="n"/>
+      <c r="AH11" s="54" t="n"/>
+      <c r="AI11" s="54" t="n"/>
+      <c r="AJ11" s="54" t="n"/>
+      <c r="AK11" s="54" t="n"/>
+      <c r="AL11" s="54" t="n"/>
+      <c r="AM11" s="54" t="n"/>
+      <c r="AN11" s="54" t="n"/>
+      <c r="AO11" s="54" t="n"/>
+      <c r="AP11" s="54" t="n"/>
+      <c r="AQ11" s="54" t="n"/>
+      <c r="AR11" s="54" t="n"/>
+      <c r="AS11" s="54" t="n"/>
+      <c r="AT11" s="54" t="n"/>
+      <c r="AU11" s="54" t="n"/>
+      <c r="AV11" s="54" t="n"/>
+      <c r="AW11" s="54" t="n"/>
+      <c r="AX11" s="54" t="n"/>
+      <c r="AY11" s="54" t="n"/>
+      <c r="AZ11" s="54" t="n"/>
+      <c r="BA11" s="54" t="n"/>
+      <c r="BB11" s="54" t="n"/>
+      <c r="BC11" s="54" t="n"/>
+      <c r="BD11" s="54" t="n"/>
+      <c r="BE11" s="54" t="n"/>
+      <c r="BF11" s="54" t="n"/>
+      <c r="BG11" s="54" t="n"/>
+      <c r="BH11" s="54" t="n"/>
+      <c r="BI11" s="54" t="n"/>
+      <c r="BJ11" s="54" t="n"/>
+      <c r="BK11" s="55" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="64" t="n"/>
-      <c r="D12" s="51" t="n"/>
-      <c r="E12" s="52" t="n"/>
-      <c r="F12" s="52" t="n"/>
-      <c r="G12" s="122" t="n"/>
+      <c r="A12" s="100" t="n"/>
+      <c r="D12" s="56" t="n"/>
+      <c r="E12" s="57" t="n"/>
+      <c r="F12" s="57" t="n"/>
+      <c r="G12" s="58" t="n"/>
       <c r="I12" s="11" t="n"/>
-      <c r="J12" s="51" t="n"/>
-      <c r="K12" s="52" t="n"/>
-      <c r="L12" s="52" t="n"/>
-      <c r="M12" s="52" t="n"/>
-      <c r="N12" s="52" t="n"/>
-      <c r="O12" s="52" t="n"/>
-      <c r="P12" s="52" t="n"/>
-      <c r="Q12" s="52" t="n"/>
-      <c r="R12" s="52" t="n"/>
-      <c r="S12" s="122" t="n"/>
-      <c r="X12" s="51" t="n"/>
-      <c r="Y12" s="52" t="n"/>
-      <c r="Z12" s="52" t="n"/>
-      <c r="AA12" s="52" t="n"/>
-      <c r="AB12" s="52" t="n"/>
-      <c r="AC12" s="52" t="n"/>
-      <c r="AD12" s="52" t="n"/>
-      <c r="AE12" s="52" t="n"/>
-      <c r="AF12" s="52" t="n"/>
-      <c r="AG12" s="52" t="n"/>
-      <c r="AH12" s="52" t="n"/>
-      <c r="AI12" s="52" t="n"/>
-      <c r="AJ12" s="52" t="n"/>
-      <c r="AK12" s="52" t="n"/>
-      <c r="AL12" s="52" t="n"/>
-      <c r="AM12" s="52" t="n"/>
-      <c r="AN12" s="52" t="n"/>
-      <c r="AO12" s="52" t="n"/>
-      <c r="AP12" s="52" t="n"/>
-      <c r="AQ12" s="52" t="n"/>
-      <c r="AR12" s="52" t="n"/>
-      <c r="AS12" s="52" t="n"/>
-      <c r="AT12" s="52" t="n"/>
-      <c r="AU12" s="52" t="n"/>
-      <c r="AV12" s="52" t="n"/>
-      <c r="AW12" s="52" t="n"/>
-      <c r="AX12" s="52" t="n"/>
-      <c r="AY12" s="52" t="n"/>
-      <c r="AZ12" s="52" t="n"/>
-      <c r="BA12" s="52" t="n"/>
-      <c r="BB12" s="52" t="n"/>
-      <c r="BC12" s="52" t="n"/>
-      <c r="BD12" s="52" t="n"/>
-      <c r="BE12" s="52" t="n"/>
-      <c r="BF12" s="52" t="n"/>
-      <c r="BG12" s="52" t="n"/>
-      <c r="BH12" s="52" t="n"/>
-      <c r="BI12" s="52" t="n"/>
-      <c r="BJ12" s="52" t="n"/>
-      <c r="BK12" s="122" t="n"/>
+      <c r="J12" s="56" t="n"/>
+      <c r="K12" s="57" t="n"/>
+      <c r="L12" s="57" t="n"/>
+      <c r="M12" s="57" t="n"/>
+      <c r="N12" s="57" t="n"/>
+      <c r="O12" s="57" t="n"/>
+      <c r="P12" s="57" t="n"/>
+      <c r="Q12" s="57" t="n"/>
+      <c r="R12" s="57" t="n"/>
+      <c r="S12" s="58" t="n"/>
+      <c r="X12" s="56" t="n"/>
+      <c r="Y12" s="57" t="n"/>
+      <c r="Z12" s="57" t="n"/>
+      <c r="AA12" s="57" t="n"/>
+      <c r="AB12" s="57" t="n"/>
+      <c r="AC12" s="57" t="n"/>
+      <c r="AD12" s="57" t="n"/>
+      <c r="AE12" s="57" t="n"/>
+      <c r="AF12" s="57" t="n"/>
+      <c r="AG12" s="57" t="n"/>
+      <c r="AH12" s="57" t="n"/>
+      <c r="AI12" s="57" t="n"/>
+      <c r="AJ12" s="57" t="n"/>
+      <c r="AK12" s="57" t="n"/>
+      <c r="AL12" s="57" t="n"/>
+      <c r="AM12" s="57" t="n"/>
+      <c r="AN12" s="57" t="n"/>
+      <c r="AO12" s="57" t="n"/>
+      <c r="AP12" s="57" t="n"/>
+      <c r="AQ12" s="57" t="n"/>
+      <c r="AR12" s="57" t="n"/>
+      <c r="AS12" s="57" t="n"/>
+      <c r="AT12" s="57" t="n"/>
+      <c r="AU12" s="57" t="n"/>
+      <c r="AV12" s="57" t="n"/>
+      <c r="AW12" s="57" t="n"/>
+      <c r="AX12" s="57" t="n"/>
+      <c r="AY12" s="57" t="n"/>
+      <c r="AZ12" s="57" t="n"/>
+      <c r="BA12" s="57" t="n"/>
+      <c r="BB12" s="57" t="n"/>
+      <c r="BC12" s="57" t="n"/>
+      <c r="BD12" s="57" t="n"/>
+      <c r="BE12" s="57" t="n"/>
+      <c r="BF12" s="57" t="n"/>
+      <c r="BG12" s="57" t="n"/>
+      <c r="BH12" s="57" t="n"/>
+      <c r="BI12" s="57" t="n"/>
+      <c r="BJ12" s="57" t="n"/>
+      <c r="BK12" s="58" t="n"/>
     </row>
     <row r="13" ht="25" customHeight="1" thickBot="1">
-      <c r="A13" s="84" t="inlineStr">
+      <c r="A13" s="92" t="inlineStr">
         <is>
           <t>Type of Test</t>
         </is>
       </c>
-      <c r="B13" s="55" t="n"/>
-      <c r="C13" s="77" t="n"/>
-      <c r="D13" s="60" t="inlineStr">
+      <c r="B13" s="60" t="n"/>
+      <c r="C13" s="90" t="n"/>
+      <c r="D13" s="67" t="inlineStr">
         <is>
           <t>Init. Assesment</t>
         </is>
       </c>
-      <c r="E13" s="117" t="n"/>
-      <c r="F13" s="71" t="inlineStr">
+      <c r="E13" s="68" t="n"/>
+      <c r="F13" s="76" t="inlineStr">
         <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="G13" s="41" t="n"/>
+      <c r="G13" s="47" t="n"/>
       <c r="H13" s="10" t="n"/>
-      <c r="I13" s="18" t="n"/>
-      <c r="J13" s="80" t="inlineStr">
+      <c r="I13" s="17" t="n"/>
+      <c r="J13" s="86" t="inlineStr">
         <is>
           <t>Shorts check</t>
         </is>
       </c>
-      <c r="N13" s="117" t="n"/>
-      <c r="O13" s="80" t="inlineStr">
+      <c r="N13" s="68" t="n"/>
+      <c r="O13" s="86" t="inlineStr">
         <is>
           <t>Direct Drive Images</t>
         </is>
       </c>
-      <c r="S13" s="117" t="n"/>
+      <c r="S13" s="68" t="n"/>
       <c r="T13" s="10" t="n"/>
       <c r="U13" s="10" t="n"/>
       <c r="V13" s="10" t="n"/>
       <c r="W13" s="10" t="n"/>
-      <c r="X13" s="80" t="inlineStr">
+      <c r="X13" s="86" t="inlineStr">
         <is>
           <t>TP Continuity</t>
         </is>
       </c>
-      <c r="AB13" s="117" t="n"/>
-      <c r="AC13" s="18" t="n"/>
-      <c r="AD13" s="18" t="n"/>
-      <c r="AE13" s="18" t="n"/>
-      <c r="AF13" s="18" t="n"/>
-      <c r="AG13" s="18" t="n"/>
-      <c r="AH13" s="99" t="inlineStr">
+      <c r="AB13" s="68" t="n"/>
+      <c r="AC13" s="17" t="n"/>
+      <c r="AD13" s="17" t="n"/>
+      <c r="AE13" s="17" t="n"/>
+      <c r="AF13" s="17" t="n"/>
+      <c r="AG13" s="17" t="n"/>
+      <c r="AH13" s="112" t="inlineStr">
         <is>
           <t>See FA tab</t>
         </is>
       </c>
-      <c r="AI13" s="40" t="n"/>
-      <c r="AJ13" s="40" t="n"/>
-      <c r="AK13" s="40" t="n"/>
-      <c r="AL13" s="41" t="n"/>
-      <c r="AM13" s="59" t="inlineStr">
+      <c r="AI13" s="46" t="n"/>
+      <c r="AJ13" s="46" t="n"/>
+      <c r="AK13" s="46" t="n"/>
+      <c r="AL13" s="47" t="n"/>
+      <c r="AM13" s="66" t="inlineStr">
         <is>
           <t>Content Images</t>
         </is>
       </c>
-      <c r="AN13" s="52" t="n"/>
-      <c r="AO13" s="52" t="n"/>
-      <c r="AP13" s="52" t="n"/>
-      <c r="AQ13" s="122" t="n"/>
-      <c r="AR13" s="59" t="inlineStr">
+      <c r="AN13" s="57" t="n"/>
+      <c r="AO13" s="57" t="n"/>
+      <c r="AP13" s="57" t="n"/>
+      <c r="AQ13" s="58" t="n"/>
+      <c r="AR13" s="66" t="inlineStr">
         <is>
           <t>T-V</t>
         </is>
       </c>
-      <c r="AS13" s="52" t="n"/>
-      <c r="AT13" s="52" t="n"/>
-      <c r="AU13" s="52" t="n"/>
-      <c r="AV13" s="122" t="n"/>
-      <c r="AW13" s="59" t="inlineStr">
+      <c r="AS13" s="57" t="n"/>
+      <c r="AT13" s="57" t="n"/>
+      <c r="AU13" s="57" t="n"/>
+      <c r="AV13" s="58" t="n"/>
+      <c r="AW13" s="66" t="inlineStr">
         <is>
           <t>H-V</t>
         </is>
       </c>
-      <c r="AX13" s="52" t="n"/>
-      <c r="AY13" s="52" t="n"/>
-      <c r="AZ13" s="52" t="n"/>
-      <c r="BA13" s="122" t="n"/>
-      <c r="BB13" s="59" t="inlineStr">
+      <c r="AX13" s="57" t="n"/>
+      <c r="AY13" s="57" t="n"/>
+      <c r="AZ13" s="57" t="n"/>
+      <c r="BA13" s="58" t="n"/>
+      <c r="BB13" s="66" t="inlineStr">
         <is>
           <t>UV VIS</t>
         </is>
       </c>
-      <c r="BC13" s="52" t="n"/>
-      <c r="BD13" s="52" t="n"/>
-      <c r="BE13" s="52" t="n"/>
-      <c r="BF13" s="122" t="n"/>
-      <c r="BG13" s="59" t="inlineStr">
+      <c r="BC13" s="57" t="n"/>
+      <c r="BD13" s="57" t="n"/>
+      <c r="BE13" s="57" t="n"/>
+      <c r="BF13" s="58" t="n"/>
+      <c r="BG13" s="66" t="inlineStr">
         <is>
           <t>ELDIM</t>
         </is>
       </c>
-      <c r="BH13" s="52" t="n"/>
-      <c r="BI13" s="52" t="n"/>
-      <c r="BJ13" s="52" t="n"/>
-      <c r="BK13" s="122" t="n"/>
+      <c r="BH13" s="57" t="n"/>
+      <c r="BI13" s="57" t="n"/>
+      <c r="BJ13" s="57" t="n"/>
+      <c r="BK13" s="58" t="n"/>
     </row>
     <row r="14" ht="16" customHeight="1" thickBot="1">
-      <c r="D14" s="93" t="inlineStr">
+      <c r="D14" s="104" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="E14" s="50" t="n"/>
-      <c r="F14" s="94" t="inlineStr">
+      <c r="E14" s="55" t="n"/>
+      <c r="F14" s="105" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="G14" s="50" t="n"/>
-      <c r="H14" s="39" t="inlineStr">
+      <c r="G14" s="55" t="n"/>
+      <c r="H14" s="45" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="I14" s="41" t="n"/>
-      <c r="J14" s="39" t="inlineStr">
+      <c r="I14" s="47" t="n"/>
+      <c r="J14" s="45" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="K14" s="39" t="inlineStr">
+      <c r="K14" s="45" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="L14" s="40" t="n"/>
-      <c r="M14" s="40" t="n"/>
-      <c r="N14" s="41" t="n"/>
-      <c r="O14" s="39" t="inlineStr">
+      <c r="L14" s="46" t="n"/>
+      <c r="M14" s="46" t="n"/>
+      <c r="N14" s="47" t="n"/>
+      <c r="O14" s="45" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="P14" s="97" t="inlineStr">
+      <c r="P14" s="108" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="Q14" s="40" t="n"/>
-      <c r="R14" s="40" t="n"/>
-      <c r="S14" s="40" t="n"/>
-      <c r="T14" s="72" t="inlineStr">
+      <c r="Q14" s="46" t="n"/>
+      <c r="R14" s="46" t="n"/>
+      <c r="S14" s="46" t="n"/>
+      <c r="T14" s="78" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="U14" s="40" t="n"/>
-      <c r="V14" s="73" t="n"/>
-      <c r="W14" s="39" t="inlineStr">
+      <c r="U14" s="46" t="n"/>
+      <c r="V14" s="79" t="n"/>
+      <c r="W14" s="45" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="X14" s="37" t="inlineStr">
+      <c r="X14" s="36" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="Y14" s="66" t="inlineStr">
+      <c r="Y14" s="71" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="Z14" s="40" t="n"/>
-      <c r="AA14" s="40" t="n"/>
-      <c r="AB14" s="41" t="n"/>
-      <c r="AC14" s="37" t="inlineStr">
+      <c r="Z14" s="46" t="n"/>
+      <c r="AA14" s="46" t="n"/>
+      <c r="AB14" s="47" t="n"/>
+      <c r="AC14" s="36" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="AD14" s="66" t="inlineStr">
+      <c r="AD14" s="71" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="AE14" s="40" t="n"/>
-      <c r="AF14" s="40" t="n"/>
-      <c r="AG14" s="41" t="n"/>
+      <c r="AE14" s="46" t="n"/>
+      <c r="AF14" s="46" t="n"/>
+      <c r="AG14" s="47" t="n"/>
       <c r="AH14" s="13" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="AI14" s="58" t="inlineStr">
+      <c r="AI14" s="61" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="AJ14" s="40" t="n"/>
-      <c r="AK14" s="40" t="n"/>
-      <c r="AL14" s="41" t="n"/>
+      <c r="AJ14" s="46" t="n"/>
+      <c r="AK14" s="46" t="n"/>
+      <c r="AL14" s="47" t="n"/>
       <c r="AM14" s="13" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="AN14" s="58" t="inlineStr">
+      <c r="AN14" s="61" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="AO14" s="40" t="n"/>
-      <c r="AP14" s="40" t="n"/>
-      <c r="AQ14" s="41" t="n"/>
+      <c r="AO14" s="46" t="n"/>
+      <c r="AP14" s="46" t="n"/>
+      <c r="AQ14" s="47" t="n"/>
       <c r="AR14" s="13" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="AS14" s="58" t="inlineStr">
+      <c r="AS14" s="61" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="AT14" s="40" t="n"/>
-      <c r="AU14" s="40" t="n"/>
-      <c r="AV14" s="41" t="n"/>
+      <c r="AT14" s="46" t="n"/>
+      <c r="AU14" s="46" t="n"/>
+      <c r="AV14" s="47" t="n"/>
       <c r="AW14" s="13" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="AX14" s="58" t="inlineStr">
+      <c r="AX14" s="61" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="AY14" s="40" t="n"/>
-      <c r="AZ14" s="40" t="n"/>
-      <c r="BA14" s="41" t="n"/>
+      <c r="AY14" s="46" t="n"/>
+      <c r="AZ14" s="46" t="n"/>
+      <c r="BA14" s="47" t="n"/>
       <c r="BB14" s="13" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="BC14" s="58" t="inlineStr">
+      <c r="BC14" s="61" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="BD14" s="40" t="n"/>
-      <c r="BE14" s="40" t="n"/>
-      <c r="BF14" s="41" t="n"/>
+      <c r="BD14" s="46" t="n"/>
+      <c r="BE14" s="46" t="n"/>
+      <c r="BF14" s="47" t="n"/>
       <c r="BG14" s="13" t="inlineStr">
         <is>
           <t>Panel</t>
         </is>
       </c>
-      <c r="BH14" s="58" t="inlineStr">
+      <c r="BH14" s="61" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="BI14" s="40" t="n"/>
-      <c r="BJ14" s="40" t="n"/>
-      <c r="BK14" s="41" t="n"/>
+      <c r="BI14" s="46" t="n"/>
+      <c r="BJ14" s="46" t="n"/>
+      <c r="BK14" s="47" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1" thickBot="1">
-      <c r="D15" s="130" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="101" t="n"/>
-      <c r="F15" s="130" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="101" t="n"/>
-      <c r="H15" s="100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="101" t="n"/>
-      <c r="J15" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="131" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="104" t="n">
+      <c r="D15" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="65" t="n"/>
+      <c r="F15" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="65" t="n"/>
+      <c r="H15" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="65" t="n"/>
+      <c r="J15" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" s="132" t="n">
-        <v>4</v>
-      </c>
-      <c r="O15" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="133" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="106" t="inlineStr">
+      <c r="M15" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R15" s="107" t="inlineStr">
+      <c r="R15" s="9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S15" s="134" t="n">
-        <v>4</v>
-      </c>
-      <c r="T15" s="100" t="n">
+      <c r="S15" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" s="80" t="n">
         <v>1</v>
       </c>
       <c r="U15" s="109" t="n"/>
-      <c r="V15" s="101" t="n"/>
-      <c r="W15" s="110" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" s="111" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="131" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="104" t="n">
+      <c r="V15" s="65" t="n"/>
+      <c r="W15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="AA15" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="132" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="127" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="108" t="n">
+      <c r="AA15" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AF15" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG15" s="107" t="n">
+      <c r="AF15" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AH15" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="AI15" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="108" t="n">
+      <c r="AI15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK15" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL15" s="107" t="n">
+      <c r="AK15" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AM15" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="AN15" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="104" t="n">
+      <c r="AN15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="AP15" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ15" s="105" t="n">
+      <c r="AP15" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="3" t="n">
         <v>4</v>
       </c>
       <c r="AR15" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="AS15" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="104" t="n">
+      <c r="AS15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="AU15" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV15" s="105" t="n">
+      <c r="AU15" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV15" s="3" t="n">
         <v>4</v>
       </c>
       <c r="AW15" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="AX15" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY15" s="104" t="n">
+      <c r="AX15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="AZ15" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA15" s="105" t="n">
+      <c r="AZ15" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA15" s="3" t="n">
         <v>4</v>
       </c>
       <c r="BB15" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="BC15" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="104" t="n">
+      <c r="BC15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="BE15" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF15" s="105" t="n">
+      <c r="BE15" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF15" s="3" t="n">
         <v>4</v>
       </c>
       <c r="BG15" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="BH15" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI15" s="104" t="n">
+      <c r="BH15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="BJ15" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK15" s="105" t="n">
+      <c r="BJ15" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK15" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="112" t="n">
+      <c r="D16" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="113" t="n"/>
-      <c r="F16" s="112" t="n">
+      <c r="E16" s="51" t="n"/>
+      <c r="F16" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="113" t="n"/>
-      <c r="H16" s="112" t="n">
+      <c r="G16" s="51" t="n"/>
+      <c r="H16" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="113" t="n"/>
-      <c r="J16" s="114" t="n"/>
-      <c r="K16" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="L16" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="M16" s="104" t="n">
+      <c r="I16" s="51" t="n"/>
+      <c r="J16" s="43" t="n"/>
+      <c r="K16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="N16" s="132" t="n">
+      <c r="N16" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="O16" s="114" t="n"/>
-      <c r="P16" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="103" t="inlineStr">
+      <c r="O16" s="43" t="n"/>
+      <c r="P16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R16" s="105" t="inlineStr">
+      <c r="R16" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S16" s="135" t="n">
+      <c r="S16" s="82" t="n">
         <v>8</v>
       </c>
-      <c r="T16" s="112" t="n">
+      <c r="T16" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="U16" s="115" t="n"/>
-      <c r="V16" s="113" t="n"/>
-      <c r="W16" s="116" t="n">
+      <c r="U16" s="91" t="n"/>
+      <c r="V16" s="51" t="n"/>
+      <c r="W16" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="X16" s="117" t="n"/>
-      <c r="Y16" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA16" s="104" t="n">
+      <c r="X16" s="68" t="n"/>
+      <c r="Y16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AB16" s="132" t="n">
+      <c r="AB16" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AC16" s="114" t="n"/>
-      <c r="AD16" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF16" s="104" t="n">
+      <c r="AC16" s="43" t="n"/>
+      <c r="AD16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AG16" s="105" t="n">
+      <c r="AG16" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AH16" s="114" t="n"/>
-      <c r="AI16" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ16" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK16" s="104" t="n">
+      <c r="AH16" s="43" t="n"/>
+      <c r="AI16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ16" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK16" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AL16" s="105" t="n">
+      <c r="AL16" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AM16" s="114" t="n"/>
-      <c r="AN16" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP16" s="104" t="n">
+      <c r="AM16" s="43" t="n"/>
+      <c r="AN16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP16" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AQ16" s="105" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AR16" s="114" t="n"/>
-      <c r="AS16" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT16" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU16" s="104" t="n">
+      <c r="AR16" s="43" t="n"/>
+      <c r="AS16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT16" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU16" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AV16" s="105" t="n">
+      <c r="AV16" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AW16" s="114" t="n"/>
-      <c r="AX16" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY16" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ16" s="104" t="n">
+      <c r="AW16" s="43" t="n"/>
+      <c r="AX16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY16" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ16" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BA16" s="105" t="n">
+      <c r="BA16" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BB16" s="114" t="n"/>
-      <c r="BC16" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD16" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE16" s="104" t="n">
+      <c r="BB16" s="43" t="n"/>
+      <c r="BC16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD16" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE16" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BF16" s="105" t="n">
+      <c r="BF16" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BG16" s="114" t="n"/>
-      <c r="BH16" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI16" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ16" s="104" t="n">
+      <c r="BG16" s="43" t="n"/>
+      <c r="BH16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI16" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ16" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BK16" s="105" t="n">
+      <c r="BK16" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="136" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="113" t="n"/>
-      <c r="F17" s="136" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" s="113" t="n"/>
-      <c r="H17" s="112" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" s="113" t="n"/>
-      <c r="J17" s="114" t="n"/>
-      <c r="K17" s="131" t="n">
+      <c r="D17" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="51" t="n"/>
+      <c r="F17" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="51" t="n"/>
+      <c r="H17" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="51" t="n"/>
+      <c r="J17" s="43" t="n"/>
+      <c r="K17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="L17" s="104" t="n">
+      <c r="L17" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="M17" s="104" t="n">
+      <c r="M17" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="N17" s="132" t="n">
+      <c r="N17" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O17" s="114" t="n"/>
-      <c r="P17" s="131" t="n">
+      <c r="O17" s="43" t="n"/>
+      <c r="P17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Q17" s="103" t="inlineStr">
+      <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R17" s="105" t="inlineStr">
+      <c r="R17" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S17" s="135" t="n">
+      <c r="S17" s="82" t="n">
         <v>12</v>
       </c>
-      <c r="T17" s="112" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" s="115" t="n"/>
-      <c r="V17" s="113" t="n"/>
-      <c r="W17" s="116" t="n">
-        <v>3</v>
-      </c>
-      <c r="X17" s="117" t="n"/>
-      <c r="Y17" s="131" t="n">
+      <c r="T17" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" s="91" t="n"/>
+      <c r="V17" s="51" t="n"/>
+      <c r="W17" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" s="68" t="n"/>
+      <c r="Y17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Z17" s="104" t="n">
+      <c r="Z17" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AA17" s="104" t="n">
+      <c r="AA17" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AB17" s="132" t="n">
+      <c r="AB17" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AC17" s="114" t="n"/>
-      <c r="AD17" s="103" t="n">
+      <c r="AC17" s="43" t="n"/>
+      <c r="AD17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AE17" s="104" t="n">
+      <c r="AE17" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AF17" s="104" t="n">
+      <c r="AF17" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AG17" s="105" t="n">
+      <c r="AG17" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AH17" s="114" t="n"/>
-      <c r="AI17" s="103" t="n">
+      <c r="AH17" s="43" t="n"/>
+      <c r="AI17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AJ17" s="104" t="n">
+      <c r="AJ17" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AK17" s="104" t="n">
+      <c r="AK17" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AL17" s="105" t="n">
+      <c r="AL17" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AM17" s="114" t="n"/>
-      <c r="AN17" s="103" t="n">
+      <c r="AM17" s="43" t="n"/>
+      <c r="AN17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AO17" s="104" t="n">
+      <c r="AO17" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AP17" s="104" t="n">
+      <c r="AP17" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AQ17" s="105" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AR17" s="114" t="n"/>
-      <c r="AS17" s="103" t="n">
+      <c r="AR17" s="43" t="n"/>
+      <c r="AS17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AT17" s="104" t="n">
+      <c r="AT17" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AU17" s="104" t="n">
+      <c r="AU17" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AV17" s="105" t="n">
+      <c r="AV17" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AW17" s="114" t="n"/>
-      <c r="AX17" s="103" t="n">
+      <c r="AW17" s="43" t="n"/>
+      <c r="AX17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AY17" s="104" t="n">
+      <c r="AY17" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AZ17" s="104" t="n">
+      <c r="AZ17" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BA17" s="105" t="n">
+      <c r="BA17" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BB17" s="114" t="n"/>
-      <c r="BC17" s="103" t="n">
+      <c r="BB17" s="43" t="n"/>
+      <c r="BC17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BD17" s="104" t="n">
+      <c r="BD17" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BE17" s="104" t="n">
+      <c r="BE17" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BF17" s="105" t="n">
+      <c r="BF17" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BG17" s="114" t="n"/>
-      <c r="BH17" s="103" t="n">
+      <c r="BG17" s="43" t="n"/>
+      <c r="BH17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BI17" s="104" t="n">
+      <c r="BI17" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BJ17" s="104" t="n">
+      <c r="BJ17" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BK17" s="105" t="n">
+      <c r="BK17" s="3" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="D18" s="136" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="113" t="n"/>
-      <c r="F18" s="136" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" s="113" t="n"/>
-      <c r="H18" s="112" t="n">
-        <v>4</v>
-      </c>
-      <c r="I18" s="113" t="n"/>
-      <c r="J18" s="114" t="n"/>
-      <c r="K18" s="131" t="n">
+      <c r="D18" s="50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="51" t="n"/>
+      <c r="F18" s="50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="51" t="n"/>
+      <c r="H18" s="50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" s="51" t="n"/>
+      <c r="J18" s="43" t="n"/>
+      <c r="K18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="L18" s="104" t="n">
+      <c r="L18" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="M18" s="104" t="n">
+      <c r="M18" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="N18" s="132" t="n">
+      <c r="N18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="O18" s="114" t="n"/>
-      <c r="P18" s="131" t="n">
+      <c r="O18" s="43" t="n"/>
+      <c r="P18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Q18" s="103" t="inlineStr">
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R18" s="105" t="inlineStr">
+      <c r="R18" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S18" s="135" t="n">
+      <c r="S18" s="82" t="n">
         <v>16</v>
       </c>
-      <c r="T18" s="112" t="n">
-        <v>4</v>
-      </c>
-      <c r="U18" s="115" t="n"/>
-      <c r="V18" s="113" t="n"/>
-      <c r="W18" s="116" t="n">
-        <v>4</v>
-      </c>
-      <c r="X18" s="117" t="n"/>
-      <c r="Y18" s="131" t="n">
+      <c r="T18" s="50" t="n">
+        <v>4</v>
+      </c>
+      <c r="U18" s="91" t="n"/>
+      <c r="V18" s="51" t="n"/>
+      <c r="W18" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="X18" s="68" t="n"/>
+      <c r="Y18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Z18" s="104" t="n">
+      <c r="Z18" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AA18" s="104" t="n">
+      <c r="AA18" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AB18" s="132" t="n">
+      <c r="AB18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AC18" s="114" t="n"/>
-      <c r="AD18" s="103" t="n">
+      <c r="AC18" s="43" t="n"/>
+      <c r="AD18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AE18" s="104" t="n">
+      <c r="AE18" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AF18" s="104" t="n">
+      <c r="AF18" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AG18" s="105" t="n">
+      <c r="AG18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AH18" s="114" t="n"/>
-      <c r="AI18" s="103" t="n">
+      <c r="AH18" s="43" t="n"/>
+      <c r="AI18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AJ18" s="104" t="n">
+      <c r="AJ18" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AK18" s="104" t="n">
+      <c r="AK18" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AL18" s="105" t="n">
+      <c r="AL18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AM18" s="114" t="n"/>
-      <c r="AN18" s="103" t="n">
+      <c r="AM18" s="43" t="n"/>
+      <c r="AN18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AO18" s="104" t="n">
+      <c r="AO18" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AP18" s="104" t="n">
+      <c r="AP18" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AQ18" s="105" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AR18" s="114" t="n"/>
-      <c r="AS18" s="103" t="n">
+      <c r="AR18" s="43" t="n"/>
+      <c r="AS18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AT18" s="104" t="n">
+      <c r="AT18" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AU18" s="104" t="n">
+      <c r="AU18" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AV18" s="105" t="n">
+      <c r="AV18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AW18" s="114" t="n"/>
-      <c r="AX18" s="103" t="n">
+      <c r="AW18" s="43" t="n"/>
+      <c r="AX18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AY18" s="104" t="n">
+      <c r="AY18" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AZ18" s="104" t="n">
+      <c r="AZ18" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BA18" s="105" t="n">
+      <c r="BA18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BB18" s="114" t="n"/>
-      <c r="BC18" s="103" t="n">
+      <c r="BB18" s="43" t="n"/>
+      <c r="BC18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BD18" s="104" t="n">
+      <c r="BD18" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BE18" s="104" t="n">
+      <c r="BE18" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BF18" s="105" t="n">
+      <c r="BF18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BG18" s="114" t="n"/>
-      <c r="BH18" s="103" t="n">
+      <c r="BG18" s="43" t="n"/>
+      <c r="BH18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BI18" s="104" t="n">
+      <c r="BI18" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BJ18" s="104" t="n">
+      <c r="BJ18" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BK18" s="105" t="n">
+      <c r="BK18" s="3" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" thickBot="1">
-      <c r="D19" s="136" t="n">
-        <v>5</v>
-      </c>
-      <c r="E19" s="113" t="n"/>
-      <c r="F19" s="112" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="113" t="n"/>
-      <c r="H19" s="112" t="n">
-        <v>5</v>
-      </c>
-      <c r="I19" s="113" t="n"/>
-      <c r="J19" s="118" t="n"/>
-      <c r="K19" s="137" t="n">
+      <c r="D19" s="50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="50" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="44" t="n"/>
+      <c r="K19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="L19" s="120" t="n">
+      <c r="L19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="M19" s="120" t="n">
+      <c r="M19" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="N19" s="138" t="n">
+      <c r="N19" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="O19" s="118" t="n"/>
-      <c r="P19" s="137" t="n">
+      <c r="O19" s="44" t="n"/>
+      <c r="P19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="Q19" s="119" t="inlineStr">
+      <c r="Q19" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R19" s="121" t="inlineStr">
+      <c r="R19" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S19" s="139" t="n">
+      <c r="S19" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="T19" s="112" t="n">
-        <v>5</v>
-      </c>
-      <c r="U19" s="115" t="n"/>
-      <c r="V19" s="113" t="n"/>
-      <c r="W19" s="116" t="n">
-        <v>5</v>
-      </c>
-      <c r="X19" s="122" t="n"/>
-      <c r="Y19" s="137" t="n">
+      <c r="T19" s="50" t="n">
+        <v>5</v>
+      </c>
+      <c r="U19" s="91" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="X19" s="58" t="n"/>
+      <c r="Y19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="Z19" s="120" t="n">
+      <c r="Z19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AA19" s="120" t="n">
+      <c r="AA19" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AB19" s="138" t="n">
+      <c r="AB19" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AC19" s="118" t="n"/>
-      <c r="AD19" s="119" t="n">
+      <c r="AC19" s="44" t="n"/>
+      <c r="AD19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AE19" s="120" t="n">
+      <c r="AE19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AF19" s="120" t="n">
+      <c r="AF19" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AG19" s="121" t="n">
+      <c r="AG19" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AH19" s="118" t="n"/>
-      <c r="AI19" s="119" t="n">
+      <c r="AH19" s="44" t="n"/>
+      <c r="AI19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AJ19" s="120" t="n">
+      <c r="AJ19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AK19" s="120" t="n">
+      <c r="AK19" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AL19" s="121" t="n">
+      <c r="AL19" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AM19" s="118" t="n"/>
-      <c r="AN19" s="119" t="n">
+      <c r="AM19" s="44" t="n"/>
+      <c r="AN19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AO19" s="120" t="n">
+      <c r="AO19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AP19" s="120" t="n">
+      <c r="AP19" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AQ19" s="121" t="n">
+      <c r="AQ19" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AR19" s="118" t="n"/>
-      <c r="AS19" s="119" t="n">
+      <c r="AR19" s="44" t="n"/>
+      <c r="AS19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AT19" s="120" t="n">
+      <c r="AT19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AU19" s="120" t="n">
+      <c r="AU19" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AV19" s="121" t="n">
+      <c r="AV19" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AW19" s="118" t="n"/>
-      <c r="AX19" s="119" t="n">
+      <c r="AW19" s="44" t="n"/>
+      <c r="AX19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AY19" s="120" t="n">
+      <c r="AY19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AZ19" s="120" t="n">
+      <c r="AZ19" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BA19" s="121" t="n">
+      <c r="BA19" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="BB19" s="118" t="n"/>
-      <c r="BC19" s="119" t="n">
+      <c r="BB19" s="44" t="n"/>
+      <c r="BC19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="BD19" s="120" t="n">
+      <c r="BD19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="BE19" s="120" t="n">
+      <c r="BE19" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BF19" s="121" t="n">
+      <c r="BF19" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="BG19" s="118" t="n"/>
-      <c r="BH19" s="119" t="n">
+      <c r="BG19" s="44" t="n"/>
+      <c r="BH19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="BI19" s="120" t="n">
+      <c r="BI19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="BJ19" s="120" t="n">
+      <c r="BJ19" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BK19" s="121" t="n">
+      <c r="BK19" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" thickBot="1">
-      <c r="D20" s="123" t="n">
-        <v>6</v>
-      </c>
-      <c r="E20" s="124" t="n"/>
-      <c r="F20" s="123" t="n">
-        <v>6</v>
-      </c>
-      <c r="G20" s="124" t="n"/>
-      <c r="H20" s="123" t="n">
-        <v>6</v>
-      </c>
-      <c r="I20" s="124" t="n"/>
-      <c r="J20" s="102" t="n">
+      <c r="D20" s="40" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" s="41" t="n"/>
+      <c r="F20" s="40" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" s="41" t="n"/>
+      <c r="H20" s="40" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" s="41" t="n"/>
+      <c r="J20" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="K20" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="108" t="n">
+      <c r="K20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M20" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" s="107" t="n">
-        <v>4</v>
-      </c>
-      <c r="O20" s="102" t="n">
+      <c r="M20" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="P20" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="106" t="inlineStr">
+      <c r="P20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R20" s="107" t="inlineStr">
+      <c r="R20" s="9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S20" s="108" t="n">
-        <v>4</v>
-      </c>
-      <c r="T20" s="123" t="n">
-        <v>6</v>
-      </c>
-      <c r="U20" s="125" t="n"/>
-      <c r="V20" s="124" t="n"/>
-      <c r="W20" s="126" t="n">
-        <v>6</v>
-      </c>
-      <c r="X20" s="127" t="n">
+      <c r="S20" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" s="40" t="n">
+        <v>6</v>
+      </c>
+      <c r="U20" s="77" t="n"/>
+      <c r="V20" s="41" t="n"/>
+      <c r="W20" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="X20" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="Y20" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="108" t="n">
+      <c r="Y20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AA20" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="107" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="127" t="n">
+      <c r="AA20" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="AD20" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="108" t="n">
+      <c r="AD20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AF20" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG20" s="107" t="n">
+      <c r="AF20" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AH20" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="AI20" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="108" t="n">
+      <c r="AI20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK20" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL20" s="107" t="n">
+      <c r="AK20" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL20" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AM20" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="AN20" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="108" t="n">
+      <c r="AN20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AP20" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ20" s="107" t="n">
+      <c r="AP20" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ20" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AR20" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="AS20" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="108" t="n">
+      <c r="AS20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AU20" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV20" s="107" t="n">
+      <c r="AU20" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV20" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AW20" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="AX20" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" s="108" t="n">
+      <c r="AX20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AZ20" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA20" s="107" t="n">
+      <c r="AZ20" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA20" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BB20" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="BC20" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD20" s="108" t="n">
+      <c r="BC20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="BE20" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF20" s="107" t="n">
+      <c r="BE20" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF20" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BG20" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="BH20" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI20" s="108" t="n">
+      <c r="BH20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="BJ20" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK20" s="107" t="n">
+      <c r="BJ20" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK20" s="9" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="104" t="n"/>
-      <c r="E21" s="104" t="n"/>
-      <c r="F21" s="104" t="n"/>
-      <c r="G21" s="104" t="n"/>
-      <c r="H21" s="104" t="n"/>
-      <c r="I21" s="104" t="n"/>
-      <c r="J21" s="114" t="n"/>
-      <c r="K21" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="L21" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="M21" s="104" t="n">
+      <c r="J21" s="43" t="n"/>
+      <c r="K21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="N21" s="105" t="n">
+      <c r="N21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="O21" s="114" t="n"/>
-      <c r="P21" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="103" t="inlineStr">
+      <c r="O21" s="43" t="n"/>
+      <c r="P21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R21" s="105" t="inlineStr">
+      <c r="R21" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S21" s="105" t="n">
+      <c r="S21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="T21" s="104" t="n"/>
-      <c r="U21" s="104" t="n"/>
-      <c r="V21" s="104" t="n"/>
-      <c r="W21" s="104" t="n"/>
-      <c r="X21" s="114" t="n"/>
-      <c r="Y21" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA21" s="104" t="n">
+      <c r="X21" s="43" t="n"/>
+      <c r="Y21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AB21" s="105" t="n">
+      <c r="AB21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AC21" s="114" t="n"/>
-      <c r="AD21" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE21" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF21" s="104" t="n">
+      <c r="AC21" s="43" t="n"/>
+      <c r="AD21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF21" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AG21" s="105" t="n">
+      <c r="AG21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AH21" s="114" t="n"/>
-      <c r="AI21" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ21" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK21" s="104" t="n">
+      <c r="AH21" s="43" t="n"/>
+      <c r="AI21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK21" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AL21" s="105" t="n">
+      <c r="AL21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AM21" s="114" t="n"/>
-      <c r="AN21" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO21" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP21" s="104" t="n">
+      <c r="AM21" s="43" t="n"/>
+      <c r="AN21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO21" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP21" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AQ21" s="105" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AR21" s="114" t="n"/>
-      <c r="AS21" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT21" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU21" s="104" t="n">
+      <c r="AR21" s="43" t="n"/>
+      <c r="AS21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT21" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU21" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AV21" s="105" t="n">
+      <c r="AV21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AW21" s="114" t="n"/>
-      <c r="AX21" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY21" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ21" s="104" t="n">
+      <c r="AW21" s="43" t="n"/>
+      <c r="AX21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY21" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ21" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BA21" s="105" t="n">
+      <c r="BA21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BB21" s="114" t="n"/>
-      <c r="BC21" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD21" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE21" s="104" t="n">
+      <c r="BB21" s="43" t="n"/>
+      <c r="BC21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD21" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE21" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BF21" s="105" t="n">
+      <c r="BF21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BG21" s="114" t="n"/>
-      <c r="BH21" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI21" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ21" s="104" t="n">
+      <c r="BG21" s="43" t="n"/>
+      <c r="BH21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI21" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ21" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BK21" s="105" t="n">
+      <c r="BK21" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="104" t="n"/>
-      <c r="E22" s="104" t="n"/>
-      <c r="F22" s="104" t="n"/>
-      <c r="G22" s="104" t="n"/>
-      <c r="H22" s="104" t="n"/>
-      <c r="I22" s="104" t="n"/>
-      <c r="J22" s="114" t="n"/>
-      <c r="K22" s="103" t="n">
+      <c r="J22" s="43" t="n"/>
+      <c r="K22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="L22" s="104" t="n">
+      <c r="L22" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="M22" s="104" t="n">
+      <c r="M22" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="N22" s="105" t="n">
+      <c r="N22" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O22" s="114" t="n"/>
-      <c r="P22" s="103" t="n">
+      <c r="O22" s="43" t="n"/>
+      <c r="P22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Q22" s="103" t="inlineStr">
+      <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R22" s="105" t="inlineStr">
+      <c r="R22" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S22" s="105" t="n">
+      <c r="S22" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="T22" s="104" t="n"/>
-      <c r="U22" s="104" t="n"/>
-      <c r="V22" s="104" t="n"/>
-      <c r="W22" s="104" t="n"/>
-      <c r="X22" s="114" t="n"/>
-      <c r="Y22" s="103" t="n">
+      <c r="X22" s="43" t="n"/>
+      <c r="Y22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Z22" s="104" t="n">
+      <c r="Z22" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AA22" s="104" t="n">
+      <c r="AA22" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AB22" s="105" t="n">
+      <c r="AB22" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AC22" s="114" t="n"/>
-      <c r="AD22" s="103" t="n">
+      <c r="AC22" s="43" t="n"/>
+      <c r="AD22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AE22" s="104" t="n">
+      <c r="AE22" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AF22" s="104" t="n">
+      <c r="AF22" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AG22" s="105" t="n">
+      <c r="AG22" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AH22" s="114" t="n"/>
-      <c r="AI22" s="103" t="n">
+      <c r="AH22" s="43" t="n"/>
+      <c r="AI22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AJ22" s="104" t="n">
+      <c r="AJ22" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AK22" s="104" t="n">
+      <c r="AK22" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AL22" s="105" t="n">
+      <c r="AL22" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AM22" s="114" t="n"/>
-      <c r="AN22" s="103" t="n">
+      <c r="AM22" s="43" t="n"/>
+      <c r="AN22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AO22" s="104" t="n">
+      <c r="AO22" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AP22" s="104" t="n">
+      <c r="AP22" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AQ22" s="105" t="n">
+      <c r="AQ22" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AR22" s="114" t="n"/>
-      <c r="AS22" s="103" t="n">
+      <c r="AR22" s="43" t="n"/>
+      <c r="AS22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AT22" s="104" t="n">
+      <c r="AT22" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AU22" s="104" t="n">
+      <c r="AU22" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AV22" s="105" t="n">
+      <c r="AV22" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AW22" s="114" t="n"/>
-      <c r="AX22" s="103" t="n">
+      <c r="AW22" s="43" t="n"/>
+      <c r="AX22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AY22" s="104" t="n">
+      <c r="AY22" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AZ22" s="104" t="n">
+      <c r="AZ22" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BA22" s="105" t="n">
+      <c r="BA22" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BB22" s="114" t="n"/>
-      <c r="BC22" s="103" t="n">
+      <c r="BB22" s="43" t="n"/>
+      <c r="BC22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BD22" s="104" t="n">
+      <c r="BD22" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BE22" s="104" t="n">
+      <c r="BE22" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BF22" s="105" t="n">
+      <c r="BF22" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BG22" s="114" t="n"/>
-      <c r="BH22" s="103" t="n">
+      <c r="BG22" s="43" t="n"/>
+      <c r="BH22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BI22" s="104" t="n">
+      <c r="BI22" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BJ22" s="104" t="n">
+      <c r="BJ22" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BK22" s="105" t="n">
+      <c r="BK22" s="3" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="104" t="n"/>
-      <c r="E23" s="104" t="n"/>
-      <c r="F23" s="104" t="n"/>
-      <c r="G23" s="104" t="n"/>
-      <c r="H23" s="104" t="n"/>
-      <c r="I23" s="104" t="n"/>
-      <c r="J23" s="114" t="n"/>
-      <c r="K23" s="103" t="n">
+      <c r="J23" s="43" t="n"/>
+      <c r="K23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="L23" s="104" t="n">
+      <c r="L23" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="M23" s="104" t="n">
+      <c r="M23" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="N23" s="105" t="n">
+      <c r="N23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="O23" s="114" t="n"/>
-      <c r="P23" s="103" t="n">
+      <c r="O23" s="43" t="n"/>
+      <c r="P23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Q23" s="103" t="inlineStr">
+      <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R23" s="105" t="inlineStr">
+      <c r="R23" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S23" s="105" t="n">
+      <c r="S23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="T23" s="104" t="n"/>
-      <c r="U23" s="104" t="n"/>
-      <c r="V23" s="104" t="n"/>
-      <c r="W23" s="104" t="n"/>
-      <c r="X23" s="114" t="n"/>
-      <c r="Y23" s="103" t="n">
+      <c r="X23" s="43" t="n"/>
+      <c r="Y23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Z23" s="104" t="n">
+      <c r="Z23" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AA23" s="104" t="n">
+      <c r="AA23" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AB23" s="105" t="n">
+      <c r="AB23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AC23" s="114" t="n"/>
-      <c r="AD23" s="103" t="n">
+      <c r="AC23" s="43" t="n"/>
+      <c r="AD23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AE23" s="104" t="n">
+      <c r="AE23" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AF23" s="104" t="n">
+      <c r="AF23" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AG23" s="105" t="n">
+      <c r="AG23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AH23" s="114" t="n"/>
-      <c r="AI23" s="103" t="n">
+      <c r="AH23" s="43" t="n"/>
+      <c r="AI23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AJ23" s="104" t="n">
+      <c r="AJ23" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AK23" s="104" t="n">
+      <c r="AK23" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AL23" s="105" t="n">
+      <c r="AL23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AM23" s="114" t="n"/>
-      <c r="AN23" s="103" t="n">
+      <c r="AM23" s="43" t="n"/>
+      <c r="AN23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AO23" s="104" t="n">
+      <c r="AO23" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AP23" s="104" t="n">
+      <c r="AP23" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AQ23" s="105" t="n">
+      <c r="AQ23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AR23" s="114" t="n"/>
-      <c r="AS23" s="103" t="n">
+      <c r="AR23" s="43" t="n"/>
+      <c r="AS23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AT23" s="104" t="n">
+      <c r="AT23" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AU23" s="104" t="n">
+      <c r="AU23" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AV23" s="105" t="n">
+      <c r="AV23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AW23" s="114" t="n"/>
-      <c r="AX23" s="103" t="n">
+      <c r="AW23" s="43" t="n"/>
+      <c r="AX23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AY23" s="104" t="n">
+      <c r="AY23" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AZ23" s="104" t="n">
+      <c r="AZ23" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BA23" s="105" t="n">
+      <c r="BA23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BB23" s="114" t="n"/>
-      <c r="BC23" s="103" t="n">
+      <c r="BB23" s="43" t="n"/>
+      <c r="BC23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BD23" s="104" t="n">
+      <c r="BD23" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BE23" s="104" t="n">
+      <c r="BE23" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BF23" s="105" t="n">
+      <c r="BF23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BG23" s="114" t="n"/>
-      <c r="BH23" s="103" t="n">
+      <c r="BG23" s="43" t="n"/>
+      <c r="BH23" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BI23" s="104" t="n">
+      <c r="BI23" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BJ23" s="104" t="n">
+      <c r="BJ23" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BK23" s="105" t="n">
+      <c r="BK23" s="3" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" thickBot="1">
-      <c r="D24" s="104" t="n"/>
-      <c r="E24" s="104" t="n"/>
-      <c r="F24" s="104" t="n"/>
-      <c r="G24" s="104" t="n"/>
-      <c r="H24" s="104" t="n"/>
-      <c r="I24" s="104" t="n"/>
-      <c r="J24" s="118" t="n"/>
-      <c r="K24" s="119" t="n">
+      <c r="J24" s="44" t="n"/>
+      <c r="K24" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="L24" s="120" t="n">
+      <c r="L24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="M24" s="120" t="n">
+      <c r="M24" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="N24" s="121" t="n">
+      <c r="N24" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="O24" s="118" t="n"/>
-      <c r="P24" s="119" t="n">
+      <c r="O24" s="44" t="n"/>
+      <c r="P24" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="Q24" s="119" t="inlineStr">
+      <c r="Q24" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R24" s="121" t="inlineStr">
+      <c r="R24" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S24" s="121" t="n">
+      <c r="S24" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="T24" s="104" t="n"/>
-      <c r="U24" s="104" t="n"/>
-      <c r="V24" s="104" t="n"/>
-      <c r="W24" s="104" t="n"/>
-      <c r="X24" s="118" t="n"/>
-      <c r="Y24" s="119" t="n">
+      <c r="X24" s="44" t="n"/>
+      <c r="Y24" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="Z24" s="120" t="n">
+      <c r="Z24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AA24" s="120" t="n">
+      <c r="AA24" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AB24" s="121" t="n">
+      <c r="AB24" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AC24" s="118" t="n"/>
-      <c r="AD24" s="119" t="n">
+      <c r="AC24" s="44" t="n"/>
+      <c r="AD24" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AE24" s="120" t="n">
+      <c r="AE24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AF24" s="120" t="n">
+      <c r="AF24" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AG24" s="121" t="n">
+      <c r="AG24" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AH24" s="118" t="n"/>
-      <c r="AI24" s="119" t="n">
+      <c r="AH24" s="44" t="n"/>
+      <c r="AI24" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AJ24" s="120" t="n">
+      <c r="AJ24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AK24" s="120" t="n">
+      <c r="AK24" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AL24" s="121" t="n">
+      <c r="AL24" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AM24" s="118" t="n"/>
-      <c r="AN24" s="119" t="n">
+      <c r="AM24" s="44" t="n"/>
+      <c r="AN24" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AO24" s="120" t="n">
+      <c r="AO24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AP24" s="120" t="n">
+      <c r="AP24" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AQ24" s="121" t="n">
+      <c r="AQ24" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AR24" s="118" t="n"/>
-      <c r="AS24" s="119" t="n">
+      <c r="AR24" s="44" t="n"/>
+      <c r="AS24" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AT24" s="120" t="n">
+      <c r="AT24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AU24" s="120" t="n">
+      <c r="AU24" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AV24" s="121" t="n">
+      <c r="AV24" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AW24" s="118" t="n"/>
-      <c r="AX24" s="119" t="n">
+      <c r="AW24" s="44" t="n"/>
+      <c r="AX24" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AY24" s="120" t="n">
+      <c r="AY24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AZ24" s="120" t="n">
+      <c r="AZ24" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BA24" s="121" t="n">
+      <c r="BA24" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="BB24" s="118" t="n"/>
-      <c r="BC24" s="119" t="n">
+      <c r="BB24" s="44" t="n"/>
+      <c r="BC24" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="BD24" s="120" t="n">
+      <c r="BD24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="BE24" s="120" t="n">
+      <c r="BE24" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BF24" s="121" t="n">
+      <c r="BF24" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="BG24" s="118" t="n"/>
-      <c r="BH24" s="119" t="n">
+      <c r="BG24" s="44" t="n"/>
+      <c r="BH24" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="BI24" s="120" t="n">
+      <c r="BI24" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="BJ24" s="120" t="n">
+      <c r="BJ24" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BK24" s="121" t="n">
+      <c r="BK24" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" thickBot="1">
-      <c r="D25" s="104" t="n"/>
-      <c r="E25" s="104" t="n"/>
-      <c r="F25" s="104" t="n"/>
-      <c r="G25" s="104" t="n"/>
-      <c r="H25" s="104" t="n"/>
-      <c r="I25" s="104" t="n"/>
-      <c r="J25" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" s="133" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="108" t="n">
+      <c r="J25" s="75" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M25" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" s="140" t="n">
-        <v>4</v>
-      </c>
-      <c r="O25" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="P25" s="133" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="106" t="inlineStr">
+      <c r="M25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" s="75" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R25" s="107" t="inlineStr">
+      <c r="R25" s="9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S25" s="140" t="n">
-        <v>4</v>
-      </c>
-      <c r="T25" s="104" t="n"/>
-      <c r="U25" s="104" t="n"/>
-      <c r="V25" s="104" t="n"/>
-      <c r="W25" s="104" t="n"/>
-      <c r="X25" s="127" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="133" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="108" t="n">
+      <c r="S25" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="X25" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AA25" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB25" s="140" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC25" s="127" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD25" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="108" t="n">
+      <c r="AA25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AF25" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG25" s="107" t="n">
+      <c r="AF25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG25" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AH25" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="AI25" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="108" t="n">
+      <c r="AI25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK25" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL25" s="107" t="n">
+      <c r="AK25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL25" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AM25" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="AN25" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="108" t="n">
+      <c r="AN25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AP25" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ25" s="107" t="n">
+      <c r="AP25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ25" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AR25" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="AS25" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT25" s="108" t="n">
+      <c r="AS25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AU25" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV25" s="107" t="n">
+      <c r="AU25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV25" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AW25" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="AX25" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY25" s="108" t="n">
+      <c r="AX25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AZ25" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA25" s="107" t="n">
+      <c r="AZ25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA25" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BB25" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="BC25" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD25" s="108" t="n">
+      <c r="BC25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="BE25" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF25" s="107" t="n">
+      <c r="BE25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF25" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BG25" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="BH25" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI25" s="108" t="n">
+      <c r="BH25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="BJ25" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK25" s="107" t="n">
+      <c r="BJ25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK25" s="9" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="104" t="n"/>
-      <c r="E26" s="104" t="n"/>
-      <c r="F26" s="104" t="n"/>
-      <c r="G26" s="104" t="n"/>
-      <c r="H26" s="104" t="n"/>
-      <c r="I26" s="104" t="n"/>
-      <c r="J26" s="114" t="n"/>
-      <c r="K26" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="L26" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="M26" s="104" t="n">
+      <c r="J26" s="43" t="n"/>
+      <c r="K26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="M26" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="N26" s="132" t="n">
+      <c r="N26" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="O26" s="114" t="n"/>
-      <c r="P26" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="103" t="inlineStr">
+      <c r="O26" s="43" t="n"/>
+      <c r="P26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R26" s="105" t="inlineStr">
+      <c r="R26" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S26" s="132" t="n">
+      <c r="S26" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="T26" s="104" t="n"/>
-      <c r="U26" s="104" t="n"/>
-      <c r="V26" s="104" t="n"/>
-      <c r="W26" s="104" t="n"/>
-      <c r="X26" s="114" t="n"/>
-      <c r="Y26" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA26" s="104" t="n">
+      <c r="X26" s="43" t="n"/>
+      <c r="Y26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA26" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AB26" s="132" t="n">
+      <c r="AB26" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AC26" s="114" t="n"/>
-      <c r="AD26" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE26" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF26" s="104" t="n">
+      <c r="AC26" s="43" t="n"/>
+      <c r="AD26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AG26" s="105" t="n">
+      <c r="AG26" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AH26" s="114" t="n"/>
-      <c r="AI26" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ26" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK26" s="104" t="n">
+      <c r="AH26" s="43" t="n"/>
+      <c r="AI26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ26" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK26" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AL26" s="105" t="n">
+      <c r="AL26" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AM26" s="114" t="n"/>
-      <c r="AN26" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO26" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP26" s="104" t="n">
+      <c r="AM26" s="43" t="n"/>
+      <c r="AN26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO26" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP26" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AQ26" s="105" t="n">
+      <c r="AQ26" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AR26" s="114" t="n"/>
-      <c r="AS26" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT26" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU26" s="104" t="n">
+      <c r="AR26" s="43" t="n"/>
+      <c r="AS26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT26" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU26" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AV26" s="105" t="n">
+      <c r="AV26" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AW26" s="114" t="n"/>
-      <c r="AX26" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY26" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ26" s="104" t="n">
+      <c r="AW26" s="43" t="n"/>
+      <c r="AX26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY26" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ26" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BA26" s="105" t="n">
+      <c r="BA26" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BB26" s="114" t="n"/>
-      <c r="BC26" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD26" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE26" s="104" t="n">
+      <c r="BB26" s="43" t="n"/>
+      <c r="BC26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD26" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE26" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BF26" s="105" t="n">
+      <c r="BF26" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BG26" s="114" t="n"/>
-      <c r="BH26" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI26" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ26" s="104" t="n">
+      <c r="BG26" s="43" t="n"/>
+      <c r="BH26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI26" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ26" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BK26" s="105" t="n">
+      <c r="BK26" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="104" t="n"/>
-      <c r="E27" s="104" t="n"/>
-      <c r="F27" s="104" t="n"/>
-      <c r="G27" s="104" t="n"/>
-      <c r="H27" s="104" t="n"/>
-      <c r="I27" s="104" t="n"/>
-      <c r="J27" s="114" t="n"/>
-      <c r="K27" s="131" t="n">
+      <c r="J27" s="43" t="n"/>
+      <c r="K27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="L27" s="104" t="n">
+      <c r="L27" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="M27" s="104" t="n">
+      <c r="M27" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="N27" s="132" t="n">
+      <c r="N27" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O27" s="114" t="n"/>
-      <c r="P27" s="131" t="n">
+      <c r="O27" s="43" t="n"/>
+      <c r="P27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Q27" s="103" t="inlineStr">
+      <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R27" s="105" t="inlineStr">
+      <c r="R27" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S27" s="132" t="n">
+      <c r="S27" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="T27" s="104" t="n"/>
-      <c r="U27" s="104" t="n"/>
-      <c r="V27" s="104" t="n"/>
-      <c r="W27" s="104" t="n"/>
-      <c r="X27" s="114" t="n"/>
-      <c r="Y27" s="131" t="n">
+      <c r="X27" s="43" t="n"/>
+      <c r="Y27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Z27" s="104" t="n">
+      <c r="Z27" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AA27" s="104" t="n">
+      <c r="AA27" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AB27" s="132" t="n">
+      <c r="AB27" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AC27" s="114" t="n"/>
-      <c r="AD27" s="103" t="n">
+      <c r="AC27" s="43" t="n"/>
+      <c r="AD27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AE27" s="104" t="n">
+      <c r="AE27" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AF27" s="104" t="n">
+      <c r="AF27" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AG27" s="105" t="n">
+      <c r="AG27" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AH27" s="114" t="n"/>
-      <c r="AI27" s="103" t="n">
+      <c r="AH27" s="43" t="n"/>
+      <c r="AI27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AJ27" s="104" t="n">
+      <c r="AJ27" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AK27" s="104" t="n">
+      <c r="AK27" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AL27" s="105" t="n">
+      <c r="AL27" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AM27" s="114" t="n"/>
-      <c r="AN27" s="103" t="n">
+      <c r="AM27" s="43" t="n"/>
+      <c r="AN27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AO27" s="104" t="n">
+      <c r="AO27" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AP27" s="104" t="n">
+      <c r="AP27" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AQ27" s="105" t="n">
+      <c r="AQ27" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AR27" s="114" t="n"/>
-      <c r="AS27" s="103" t="n">
+      <c r="AR27" s="43" t="n"/>
+      <c r="AS27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AT27" s="104" t="n">
+      <c r="AT27" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AU27" s="104" t="n">
+      <c r="AU27" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AV27" s="105" t="n">
+      <c r="AV27" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AW27" s="114" t="n"/>
-      <c r="AX27" s="103" t="n">
+      <c r="AW27" s="43" t="n"/>
+      <c r="AX27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AY27" s="104" t="n">
+      <c r="AY27" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AZ27" s="104" t="n">
+      <c r="AZ27" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BA27" s="105" t="n">
+      <c r="BA27" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BB27" s="114" t="n"/>
-      <c r="BC27" s="103" t="n">
+      <c r="BB27" s="43" t="n"/>
+      <c r="BC27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BD27" s="104" t="n">
+      <c r="BD27" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BE27" s="104" t="n">
+      <c r="BE27" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BF27" s="105" t="n">
+      <c r="BF27" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BG27" s="114" t="n"/>
-      <c r="BH27" s="103" t="n">
+      <c r="BG27" s="43" t="n"/>
+      <c r="BH27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BI27" s="104" t="n">
+      <c r="BI27" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BJ27" s="104" t="n">
+      <c r="BJ27" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BK27" s="105" t="n">
+      <c r="BK27" s="3" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" s="104" t="n"/>
-      <c r="E28" s="104" t="n"/>
-      <c r="F28" s="104" t="n"/>
-      <c r="G28" s="104" t="n"/>
-      <c r="H28" s="104" t="n"/>
-      <c r="I28" s="104" t="n"/>
-      <c r="J28" s="114" t="n"/>
-      <c r="K28" s="131" t="n">
+      <c r="J28" s="43" t="n"/>
+      <c r="K28" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="L28" s="104" t="n">
+      <c r="L28" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="M28" s="104" t="n">
+      <c r="M28" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="N28" s="132" t="n">
+      <c r="N28" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="O28" s="114" t="n"/>
-      <c r="P28" s="131" t="n">
+      <c r="O28" s="43" t="n"/>
+      <c r="P28" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Q28" s="103" t="inlineStr">
+      <c r="Q28" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R28" s="105" t="inlineStr">
+      <c r="R28" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S28" s="132" t="n">
+      <c r="S28" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="T28" s="104" t="n"/>
-      <c r="U28" s="104" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="V28" s="104" t="n"/>
-      <c r="W28" s="104" t="n"/>
-      <c r="X28" s="114" t="n"/>
-      <c r="Y28" s="131" t="n">
+      <c r="X28" s="43" t="n"/>
+      <c r="Y28" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Z28" s="104" t="n">
+      <c r="Z28" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AA28" s="104" t="n">
+      <c r="AA28" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AB28" s="132" t="n">
+      <c r="AB28" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AC28" s="114" t="n"/>
-      <c r="AD28" s="103" t="n">
+      <c r="AC28" s="43" t="n"/>
+      <c r="AD28" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AE28" s="104" t="n">
+      <c r="AE28" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AF28" s="104" t="n">
+      <c r="AF28" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AG28" s="105" t="n">
+      <c r="AG28" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AH28" s="114" t="n"/>
-      <c r="AI28" s="103" t="n">
+      <c r="AH28" s="43" t="n"/>
+      <c r="AI28" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AJ28" s="104" t="n">
+      <c r="AJ28" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AK28" s="104" t="n">
+      <c r="AK28" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AL28" s="105" t="n">
+      <c r="AL28" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AM28" s="114" t="n"/>
-      <c r="AN28" s="103" t="n">
+      <c r="AM28" s="43" t="n"/>
+      <c r="AN28" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AO28" s="104" t="n">
+      <c r="AO28" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AP28" s="104" t="n">
+      <c r="AP28" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AQ28" s="105" t="n">
+      <c r="AQ28" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AR28" s="114" t="n"/>
-      <c r="AS28" s="103" t="n">
+      <c r="AR28" s="43" t="n"/>
+      <c r="AS28" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AT28" s="104" t="n">
+      <c r="AT28" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AU28" s="104" t="n">
+      <c r="AU28" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AV28" s="105" t="n">
+      <c r="AV28" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AW28" s="114" t="n"/>
-      <c r="AX28" s="103" t="n">
+      <c r="AW28" s="43" t="n"/>
+      <c r="AX28" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AY28" s="104" t="n">
+      <c r="AY28" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AZ28" s="104" t="n">
+      <c r="AZ28" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BA28" s="105" t="n">
+      <c r="BA28" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BB28" s="114" t="n"/>
-      <c r="BC28" s="103" t="n">
+      <c r="BB28" s="43" t="n"/>
+      <c r="BC28" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BD28" s="104" t="n">
+      <c r="BD28" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BE28" s="104" t="n">
+      <c r="BE28" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BF28" s="105" t="n">
+      <c r="BF28" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BG28" s="114" t="n"/>
-      <c r="BH28" s="103" t="n">
+      <c r="BG28" s="43" t="n"/>
+      <c r="BH28" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BI28" s="104" t="n">
+      <c r="BI28" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BJ28" s="104" t="n">
+      <c r="BJ28" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BK28" s="105" t="n">
+      <c r="BK28" s="3" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" thickBot="1">
-      <c r="D29" s="104" t="n"/>
-      <c r="E29" s="104" t="n"/>
-      <c r="F29" s="104" t="n"/>
-      <c r="G29" s="104" t="n"/>
-      <c r="H29" s="104" t="n"/>
-      <c r="I29" s="104" t="n"/>
-      <c r="J29" s="118" t="n"/>
-      <c r="K29" s="137" t="n">
+      <c r="J29" s="44" t="n"/>
+      <c r="K29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="L29" s="120" t="n">
+      <c r="L29" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="M29" s="120" t="n">
+      <c r="M29" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="N29" s="138" t="n">
+      <c r="N29" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="O29" s="118" t="n"/>
-      <c r="P29" s="137" t="n">
+      <c r="O29" s="44" t="n"/>
+      <c r="P29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="Q29" s="119" t="inlineStr">
+      <c r="Q29" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R29" s="121" t="inlineStr">
+      <c r="R29" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S29" s="138" t="n">
+      <c r="S29" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="T29" s="104" t="n"/>
-      <c r="U29" s="104" t="n"/>
-      <c r="V29" s="104" t="n"/>
-      <c r="W29" s="104" t="n"/>
-      <c r="X29" s="118" t="n"/>
-      <c r="Y29" s="137" t="n">
+      <c r="X29" s="44" t="n"/>
+      <c r="Y29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="Z29" s="120" t="n">
+      <c r="Z29" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AA29" s="120" t="n">
+      <c r="AA29" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AB29" s="138" t="n">
+      <c r="AB29" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AC29" s="118" t="n"/>
-      <c r="AD29" s="119" t="n">
+      <c r="AC29" s="44" t="n"/>
+      <c r="AD29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AE29" s="120" t="n">
+      <c r="AE29" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AF29" s="120" t="n">
+      <c r="AF29" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AG29" s="121" t="n">
+      <c r="AG29" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AH29" s="118" t="n"/>
-      <c r="AI29" s="119" t="n">
+      <c r="AH29" s="44" t="n"/>
+      <c r="AI29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AJ29" s="120" t="n">
+      <c r="AJ29" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AK29" s="120" t="n">
+      <c r="AK29" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AL29" s="121" t="n">
+      <c r="AL29" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AM29" s="118" t="n"/>
-      <c r="AN29" s="119" t="n">
+      <c r="AM29" s="44" t="n"/>
+      <c r="AN29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AO29" s="120" t="n">
+      <c r="AO29" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AP29" s="120" t="n">
+      <c r="AP29" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AQ29" s="121" t="n">
+      <c r="AQ29" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AR29" s="118" t="n"/>
-      <c r="AS29" s="119" t="n">
+      <c r="AR29" s="44" t="n"/>
+      <c r="AS29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AT29" s="120" t="n">
+      <c r="AT29" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AU29" s="120" t="n">
+      <c r="AU29" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AV29" s="121" t="n">
+      <c r="AV29" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AW29" s="118" t="n"/>
-      <c r="AX29" s="119" t="n">
+      <c r="AW29" s="44" t="n"/>
+      <c r="AX29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AY29" s="120" t="n">
+      <c r="AY29" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AZ29" s="120" t="n">
+      <c r="AZ29" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BA29" s="121" t="n">
+      <c r="BA29" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="BB29" s="118" t="n"/>
-      <c r="BC29" s="119" t="n">
+      <c r="BB29" s="44" t="n"/>
+      <c r="BC29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="BD29" s="120" t="n">
+      <c r="BD29" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="BE29" s="120" t="n">
+      <c r="BE29" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BF29" s="121" t="n">
+      <c r="BF29" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="BG29" s="118" t="n"/>
-      <c r="BH29" s="119" t="n">
+      <c r="BG29" s="44" t="n"/>
+      <c r="BH29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="BI29" s="120" t="n">
+      <c r="BI29" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="BJ29" s="120" t="n">
+      <c r="BJ29" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BK29" s="121" t="n">
+      <c r="BK29" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" thickBot="1">
-      <c r="D30" s="104" t="n"/>
-      <c r="E30" s="104" t="n"/>
-      <c r="F30" s="104" t="n"/>
-      <c r="G30" s="104" t="n"/>
-      <c r="H30" s="104" t="n"/>
-      <c r="I30" s="104" t="n"/>
-      <c r="J30" s="102" t="n">
-        <v>4</v>
-      </c>
-      <c r="K30" s="133" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="108" t="n">
+      <c r="J30" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M30" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" s="140" t="n">
-        <v>4</v>
-      </c>
-      <c r="O30" s="102" t="n">
-        <v>4</v>
-      </c>
-      <c r="P30" s="133" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="106" t="inlineStr">
+      <c r="M30" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" s="75" t="n">
+        <v>4</v>
+      </c>
+      <c r="P30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R30" s="107" t="inlineStr">
+      <c r="R30" s="9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S30" s="140" t="n">
-        <v>4</v>
-      </c>
-      <c r="T30" s="104" t="n"/>
-      <c r="U30" s="104" t="n"/>
-      <c r="V30" s="104" t="n"/>
-      <c r="W30" s="104" t="n"/>
-      <c r="X30" s="127" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="108" t="n">
+      <c r="S30" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="X30" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AA30" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB30" s="107" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC30" s="127" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD30" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="108" t="n">
+      <c r="AA30" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AF30" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG30" s="107" t="n">
+      <c r="AF30" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AH30" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="AI30" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="108" t="n">
+      <c r="AI30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK30" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL30" s="107" t="n">
+      <c r="AK30" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL30" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AM30" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="AN30" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="108" t="n">
+      <c r="AN30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AP30" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ30" s="107" t="n">
+      <c r="AP30" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ30" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AR30" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="AS30" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="108" t="n">
+      <c r="AS30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AU30" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV30" s="107" t="n">
+      <c r="AU30" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV30" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AW30" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="AX30" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY30" s="108" t="n">
+      <c r="AX30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AZ30" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA30" s="107" t="n">
+      <c r="AZ30" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA30" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BB30" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="BC30" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD30" s="108" t="n">
+      <c r="BC30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="BE30" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF30" s="107" t="n">
+      <c r="BE30" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF30" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BG30" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="BH30" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI30" s="108" t="n">
+      <c r="BH30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="BJ30" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK30" s="107" t="n">
+      <c r="BJ30" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK30" s="9" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" s="104" t="n"/>
-      <c r="E31" s="104" t="n"/>
-      <c r="F31" s="104" t="n"/>
-      <c r="G31" s="104" t="n"/>
-      <c r="H31" s="104" t="n"/>
-      <c r="I31" s="104" t="n"/>
-      <c r="J31" s="114" t="n"/>
-      <c r="K31" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="M31" s="104" t="n">
+      <c r="J31" s="43" t="n"/>
+      <c r="K31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="M31" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="N31" s="132" t="n">
+      <c r="N31" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="O31" s="114" t="n"/>
-      <c r="P31" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="103" t="inlineStr">
+      <c r="O31" s="43" t="n"/>
+      <c r="P31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R31" s="105" t="inlineStr">
+      <c r="R31" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S31" s="132" t="n">
+      <c r="S31" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="T31" s="104" t="n"/>
-      <c r="U31" s="104" t="n"/>
-      <c r="V31" s="104" t="n"/>
-      <c r="W31" s="104" t="n"/>
-      <c r="X31" s="114" t="n"/>
-      <c r="Y31" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA31" s="104" t="n">
+      <c r="X31" s="43" t="n"/>
+      <c r="Y31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AB31" s="105" t="n">
+      <c r="AB31" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AC31" s="114" t="n"/>
-      <c r="AD31" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE31" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF31" s="104" t="n">
+      <c r="AC31" s="43" t="n"/>
+      <c r="AD31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE31" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF31" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AG31" s="105" t="n">
+      <c r="AG31" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AH31" s="114" t="n"/>
-      <c r="AI31" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ31" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK31" s="104" t="n">
+      <c r="AH31" s="43" t="n"/>
+      <c r="AI31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ31" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK31" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AL31" s="105" t="n">
+      <c r="AL31" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AM31" s="114" t="n"/>
-      <c r="AN31" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO31" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP31" s="104" t="n">
+      <c r="AM31" s="43" t="n"/>
+      <c r="AN31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO31" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP31" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AQ31" s="105" t="n">
+      <c r="AQ31" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AR31" s="114" t="n"/>
-      <c r="AS31" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT31" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU31" s="104" t="n">
+      <c r="AR31" s="43" t="n"/>
+      <c r="AS31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT31" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU31" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AV31" s="105" t="n">
+      <c r="AV31" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AW31" s="114" t="n"/>
-      <c r="AX31" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY31" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ31" s="104" t="n">
+      <c r="AW31" s="43" t="n"/>
+      <c r="AX31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY31" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ31" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BA31" s="105" t="n">
+      <c r="BA31" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BB31" s="114" t="n"/>
-      <c r="BC31" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD31" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE31" s="104" t="n">
+      <c r="BB31" s="43" t="n"/>
+      <c r="BC31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD31" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE31" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BF31" s="105" t="n">
+      <c r="BF31" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BG31" s="114" t="n"/>
-      <c r="BH31" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI31" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ31" s="104" t="n">
+      <c r="BG31" s="43" t="n"/>
+      <c r="BH31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI31" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ31" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BK31" s="105" t="n">
+      <c r="BK31" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" s="104" t="n"/>
-      <c r="E32" s="104" t="n"/>
-      <c r="F32" s="104" t="n"/>
-      <c r="G32" s="104" t="n"/>
-      <c r="H32" s="104" t="n"/>
-      <c r="I32" s="104" t="n"/>
-      <c r="J32" s="114" t="n"/>
-      <c r="K32" s="131" t="n">
+      <c r="J32" s="43" t="n"/>
+      <c r="K32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="L32" s="104" t="n">
+      <c r="L32" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="M32" s="104" t="n">
+      <c r="M32" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="N32" s="132" t="n">
+      <c r="N32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O32" s="114" t="n"/>
-      <c r="P32" s="131" t="n">
+      <c r="O32" s="43" t="n"/>
+      <c r="P32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Q32" s="103" t="inlineStr">
+      <c r="Q32" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R32" s="105" t="inlineStr">
+      <c r="R32" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S32" s="132" t="n">
+      <c r="S32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="T32" s="104" t="n"/>
-      <c r="U32" s="104" t="n"/>
-      <c r="V32" s="104" t="n"/>
-      <c r="W32" s="104" t="n"/>
-      <c r="X32" s="114" t="n"/>
-      <c r="Y32" s="103" t="n">
+      <c r="X32" s="43" t="n"/>
+      <c r="Y32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Z32" s="104" t="n">
+      <c r="Z32" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AA32" s="104" t="n">
+      <c r="AA32" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AB32" s="105" t="n">
+      <c r="AB32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AC32" s="114" t="n"/>
-      <c r="AD32" s="103" t="n">
+      <c r="AC32" s="43" t="n"/>
+      <c r="AD32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AE32" s="104" t="inlineStr">
+      <c r="AE32" s="82" t="inlineStr">
         <is>
           <t>s</t>
         </is>
       </c>
-      <c r="AF32" s="104" t="n">
+      <c r="AF32" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AG32" s="105" t="n">
+      <c r="AG32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AH32" s="114" t="n"/>
-      <c r="AI32" s="103" t="n">
+      <c r="AH32" s="43" t="n"/>
+      <c r="AI32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AJ32" s="104" t="n">
+      <c r="AJ32" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AK32" s="104" t="n">
+      <c r="AK32" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AL32" s="105" t="n">
+      <c r="AL32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AM32" s="114" t="n"/>
-      <c r="AN32" s="103" t="n">
+      <c r="AM32" s="43" t="n"/>
+      <c r="AN32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AO32" s="104" t="n">
+      <c r="AO32" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AP32" s="104" t="n">
+      <c r="AP32" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AQ32" s="105" t="n">
+      <c r="AQ32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AR32" s="114" t="n"/>
-      <c r="AS32" s="103" t="n">
+      <c r="AR32" s="43" t="n"/>
+      <c r="AS32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AT32" s="104" t="n">
+      <c r="AT32" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AU32" s="104" t="n">
+      <c r="AU32" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AV32" s="105" t="n">
+      <c r="AV32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AW32" s="114" t="n"/>
-      <c r="AX32" s="103" t="n">
+      <c r="AW32" s="43" t="n"/>
+      <c r="AX32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AY32" s="104" t="n">
+      <c r="AY32" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AZ32" s="104" t="n">
+      <c r="AZ32" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BA32" s="105" t="n">
+      <c r="BA32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BB32" s="114" t="n"/>
-      <c r="BC32" s="103" t="n">
+      <c r="BB32" s="43" t="n"/>
+      <c r="BC32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BD32" s="104" t="n">
+      <c r="BD32" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BE32" s="104" t="n">
+      <c r="BE32" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BF32" s="105" t="n">
+      <c r="BF32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BG32" s="114" t="n"/>
-      <c r="BH32" s="103" t="n">
+      <c r="BG32" s="43" t="n"/>
+      <c r="BH32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BI32" s="104" t="n">
+      <c r="BI32" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BJ32" s="104" t="n">
+      <c r="BJ32" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BK32" s="105" t="n">
+      <c r="BK32" s="3" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" s="104" t="n"/>
-      <c r="E33" s="104" t="n"/>
-      <c r="F33" s="104" t="n"/>
-      <c r="G33" s="104" t="n"/>
-      <c r="H33" s="104" t="n"/>
-      <c r="I33" s="104" t="n"/>
-      <c r="J33" s="114" t="n"/>
-      <c r="K33" s="131" t="n">
+      <c r="J33" s="43" t="n"/>
+      <c r="K33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="L33" s="104" t="n">
+      <c r="L33" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="M33" s="104" t="n">
+      <c r="M33" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="N33" s="132" t="n">
+      <c r="N33" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="O33" s="114" t="n"/>
-      <c r="P33" s="131" t="n">
+      <c r="O33" s="43" t="n"/>
+      <c r="P33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Q33" s="103" t="inlineStr">
+      <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R33" s="105" t="inlineStr">
+      <c r="R33" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S33" s="132" t="n">
+      <c r="S33" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="T33" s="104" t="n"/>
-      <c r="U33" s="104" t="n"/>
-      <c r="V33" s="104" t="n"/>
-      <c r="W33" s="104" t="n"/>
-      <c r="X33" s="114" t="n"/>
-      <c r="Y33" s="103" t="n">
+      <c r="X33" s="43" t="n"/>
+      <c r="Y33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Z33" s="104" t="n">
+      <c r="Z33" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AA33" s="104" t="n">
+      <c r="AA33" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AB33" s="105" t="n">
+      <c r="AB33" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AC33" s="114" t="n"/>
-      <c r="AD33" s="103" t="n">
+      <c r="AC33" s="43" t="n"/>
+      <c r="AD33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AE33" s="104" t="n">
+      <c r="AE33" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AF33" s="104" t="n">
+      <c r="AF33" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AG33" s="105" t="n">
+      <c r="AG33" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AH33" s="114" t="n"/>
-      <c r="AI33" s="103" t="n">
+      <c r="AH33" s="43" t="n"/>
+      <c r="AI33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AJ33" s="104" t="n">
+      <c r="AJ33" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AK33" s="104" t="n">
+      <c r="AK33" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AL33" s="105" t="n">
+      <c r="AL33" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AM33" s="114" t="n"/>
-      <c r="AN33" s="103" t="n">
+      <c r="AM33" s="43" t="n"/>
+      <c r="AN33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AO33" s="104" t="n">
+      <c r="AO33" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AP33" s="104" t="n">
+      <c r="AP33" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AQ33" s="105" t="n">
+      <c r="AQ33" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AR33" s="114" t="n"/>
-      <c r="AS33" s="103" t="n">
+      <c r="AR33" s="43" t="n"/>
+      <c r="AS33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AT33" s="104" t="n">
+      <c r="AT33" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AU33" s="104" t="n">
+      <c r="AU33" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AV33" s="105" t="n">
+      <c r="AV33" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AW33" s="114" t="n"/>
-      <c r="AX33" s="103" t="n">
+      <c r="AW33" s="43" t="n"/>
+      <c r="AX33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AY33" s="104" t="n">
+      <c r="AY33" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AZ33" s="104" t="n">
+      <c r="AZ33" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BA33" s="105" t="n">
+      <c r="BA33" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BB33" s="114" t="n"/>
-      <c r="BC33" s="103" t="n">
+      <c r="BB33" s="43" t="n"/>
+      <c r="BC33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BD33" s="104" t="n">
+      <c r="BD33" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BE33" s="104" t="n">
+      <c r="BE33" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BF33" s="105" t="n">
+      <c r="BF33" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BG33" s="114" t="n"/>
-      <c r="BH33" s="103" t="n">
+      <c r="BG33" s="43" t="n"/>
+      <c r="BH33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BI33" s="104" t="n">
+      <c r="BI33" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BJ33" s="104" t="n">
+      <c r="BJ33" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BK33" s="105" t="n">
+      <c r="BK33" s="3" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" thickBot="1">
-      <c r="D34" s="104" t="n"/>
-      <c r="E34" s="104" t="n"/>
-      <c r="F34" s="104" t="n"/>
-      <c r="G34" s="104" t="n"/>
-      <c r="H34" s="104" t="n"/>
-      <c r="I34" s="104" t="n"/>
-      <c r="J34" s="118" t="n"/>
-      <c r="K34" s="137" t="n">
+      <c r="J34" s="44" t="n"/>
+      <c r="K34" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="L34" s="120" t="n">
+      <c r="L34" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="M34" s="120" t="n">
+      <c r="M34" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="N34" s="138" t="n">
+      <c r="N34" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="O34" s="118" t="n"/>
-      <c r="P34" s="137" t="n">
+      <c r="O34" s="44" t="n"/>
+      <c r="P34" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="Q34" s="119" t="inlineStr">
+      <c r="Q34" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R34" s="121" t="inlineStr">
+      <c r="R34" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S34" s="138" t="n">
+      <c r="S34" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="T34" s="104" t="n"/>
-      <c r="U34" s="104" t="n"/>
-      <c r="V34" s="104" t="n"/>
-      <c r="W34" s="104" t="n"/>
-      <c r="X34" s="118" t="n"/>
-      <c r="Y34" s="137" t="n">
+      <c r="X34" s="44" t="n"/>
+      <c r="Y34" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="Z34" s="120" t="n">
+      <c r="Z34" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AA34" s="120" t="n">
+      <c r="AA34" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AB34" s="121" t="n">
+      <c r="AB34" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AC34" s="118" t="n"/>
-      <c r="AD34" s="119" t="n">
+      <c r="AC34" s="44" t="n"/>
+      <c r="AD34" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AE34" s="120" t="n">
+      <c r="AE34" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AF34" s="120" t="n">
+      <c r="AF34" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AG34" s="121" t="n">
+      <c r="AG34" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AH34" s="118" t="n"/>
-      <c r="AI34" s="119" t="n">
+      <c r="AH34" s="44" t="n"/>
+      <c r="AI34" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AJ34" s="120" t="n">
+      <c r="AJ34" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AK34" s="120" t="n">
+      <c r="AK34" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AL34" s="121" t="n">
+      <c r="AL34" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AM34" s="118" t="n"/>
-      <c r="AN34" s="119" t="n">
+      <c r="AM34" s="44" t="n"/>
+      <c r="AN34" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AO34" s="120" t="n">
+      <c r="AO34" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AP34" s="120" t="n">
+      <c r="AP34" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AQ34" s="121" t="n">
+      <c r="AQ34" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AR34" s="118" t="n"/>
-      <c r="AS34" s="119" t="n">
+      <c r="AR34" s="44" t="n"/>
+      <c r="AS34" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AT34" s="120" t="n">
+      <c r="AT34" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AU34" s="120" t="n">
+      <c r="AU34" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AV34" s="121" t="n">
+      <c r="AV34" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AW34" s="118" t="n"/>
-      <c r="AX34" s="119" t="n">
+      <c r="AW34" s="44" t="n"/>
+      <c r="AX34" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AY34" s="120" t="n">
+      <c r="AY34" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AZ34" s="120" t="n">
+      <c r="AZ34" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BA34" s="121" t="n">
+      <c r="BA34" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="BB34" s="118" t="n"/>
-      <c r="BC34" s="119" t="n">
+      <c r="BB34" s="44" t="n"/>
+      <c r="BC34" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="BD34" s="120" t="n">
+      <c r="BD34" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="BE34" s="120" t="n">
+      <c r="BE34" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BF34" s="121" t="n">
+      <c r="BF34" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="BG34" s="118" t="n"/>
-      <c r="BH34" s="119" t="n">
+      <c r="BG34" s="44" t="n"/>
+      <c r="BH34" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="BI34" s="120" t="n">
+      <c r="BI34" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="BJ34" s="120" t="n">
+      <c r="BJ34" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BK34" s="121" t="n">
+      <c r="BK34" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="D35" s="104" t="n"/>
-      <c r="E35" s="104" t="n"/>
-      <c r="F35" s="104" t="n"/>
-      <c r="G35" s="104" t="n"/>
-      <c r="H35" s="104" t="n"/>
-      <c r="I35" s="104" t="n"/>
-      <c r="J35" s="102" t="n">
-        <v>5</v>
-      </c>
-      <c r="K35" s="133" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" s="108" t="n">
+      <c r="J35" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M35" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="N35" s="140" t="n">
-        <v>4</v>
-      </c>
-      <c r="O35" s="102" t="n">
-        <v>5</v>
-      </c>
-      <c r="P35" s="133" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="106" t="inlineStr">
+      <c r="M35" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O35" s="75" t="n">
+        <v>5</v>
+      </c>
+      <c r="P35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R35" s="107" t="inlineStr">
+      <c r="R35" s="9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S35" s="140" t="n">
-        <v>4</v>
-      </c>
-      <c r="T35" s="104" t="n"/>
-      <c r="U35" s="104" t="n"/>
-      <c r="V35" s="104" t="n"/>
-      <c r="W35" s="104" t="n"/>
-      <c r="X35" s="127" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="108" t="n">
+      <c r="S35" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="X35" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AA35" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB35" s="107" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC35" s="127" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD35" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="108" t="n">
+      <c r="AA35" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC35" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AF35" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG35" s="107" t="n">
+      <c r="AF35" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG35" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AH35" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="AI35" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="108" t="n">
+      <c r="AI35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK35" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL35" s="107" t="n">
+      <c r="AK35" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL35" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AM35" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="AN35" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO35" s="108" t="n">
+      <c r="AN35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AP35" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ35" s="107" t="n">
+      <c r="AP35" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ35" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AR35" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="AS35" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT35" s="108" t="n">
+      <c r="AS35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AU35" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV35" s="107" t="n">
+      <c r="AU35" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV35" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AW35" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="AX35" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY35" s="108" t="n">
+      <c r="AX35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY35" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AZ35" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA35" s="107" t="n">
+      <c r="AZ35" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA35" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BB35" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="BC35" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD35" s="108" t="n">
+      <c r="BC35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD35" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="BE35" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF35" s="107" t="n">
+      <c r="BE35" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF35" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BG35" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="BH35" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI35" s="108" t="n">
+      <c r="BH35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI35" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="BJ35" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK35" s="107" t="n">
+      <c r="BJ35" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK35" s="9" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" s="104" t="n"/>
-      <c r="E36" s="104" t="n"/>
-      <c r="F36" s="104" t="n"/>
-      <c r="G36" s="104" t="n"/>
-      <c r="H36" s="104" t="n"/>
-      <c r="I36" s="104" t="n"/>
-      <c r="J36" s="114" t="n"/>
-      <c r="K36" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="L36" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="M36" s="104" t="n">
+      <c r="J36" s="43" t="n"/>
+      <c r="K36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="M36" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="N36" s="132" t="n">
+      <c r="N36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="O36" s="114" t="n"/>
-      <c r="P36" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="103" t="inlineStr">
+      <c r="O36" s="43" t="n"/>
+      <c r="P36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R36" s="105" t="inlineStr">
+      <c r="R36" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S36" s="132" t="n">
+      <c r="S36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="T36" s="104" t="n"/>
-      <c r="U36" s="104" t="n"/>
-      <c r="V36" s="104" t="n"/>
-      <c r="W36" s="104" t="n"/>
-      <c r="X36" s="114" t="n"/>
-      <c r="Y36" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA36" s="104" t="n">
+      <c r="X36" s="43" t="n"/>
+      <c r="Y36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA36" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AB36" s="105" t="n">
+      <c r="AB36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AC36" s="114" t="n"/>
-      <c r="AD36" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE36" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF36" s="104" t="n">
+      <c r="AC36" s="43" t="n"/>
+      <c r="AD36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE36" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF36" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AG36" s="105" t="n">
+      <c r="AG36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AH36" s="114" t="n"/>
-      <c r="AI36" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ36" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK36" s="104" t="n">
+      <c r="AH36" s="43" t="n"/>
+      <c r="AI36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ36" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK36" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AL36" s="105" t="n">
+      <c r="AL36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AM36" s="114" t="n"/>
-      <c r="AN36" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO36" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP36" s="104" t="n">
+      <c r="AM36" s="43" t="n"/>
+      <c r="AN36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO36" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP36" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AQ36" s="105" t="n">
+      <c r="AQ36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AR36" s="114" t="n"/>
-      <c r="AS36" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT36" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU36" s="104" t="n">
+      <c r="AR36" s="43" t="n"/>
+      <c r="AS36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT36" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU36" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AV36" s="105" t="n">
+      <c r="AV36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AW36" s="114" t="n"/>
-      <c r="AX36" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY36" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ36" s="104" t="n">
+      <c r="AW36" s="43" t="n"/>
+      <c r="AX36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY36" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ36" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BA36" s="105" t="n">
+      <c r="BA36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BB36" s="114" t="n"/>
-      <c r="BC36" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD36" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE36" s="104" t="n">
+      <c r="BB36" s="43" t="n"/>
+      <c r="BC36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD36" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE36" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BF36" s="105" t="n">
+      <c r="BF36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BG36" s="114" t="n"/>
-      <c r="BH36" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI36" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ36" s="104" t="n">
+      <c r="BG36" s="43" t="n"/>
+      <c r="BH36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI36" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ36" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BK36" s="105" t="n">
+      <c r="BK36" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" s="104" t="n"/>
-      <c r="E37" s="104" t="n"/>
-      <c r="F37" s="104" t="n"/>
-      <c r="G37" s="104" t="n"/>
-      <c r="H37" s="104" t="n"/>
-      <c r="I37" s="104" t="n"/>
-      <c r="J37" s="114" t="n"/>
-      <c r="K37" s="131" t="n">
+      <c r="J37" s="43" t="n"/>
+      <c r="K37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="L37" s="104" t="n">
+      <c r="L37" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="M37" s="104" t="n">
+      <c r="M37" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="N37" s="132" t="n">
+      <c r="N37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O37" s="114" t="n"/>
-      <c r="P37" s="131" t="n">
+      <c r="O37" s="43" t="n"/>
+      <c r="P37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Q37" s="103" t="inlineStr">
+      <c r="Q37" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R37" s="105" t="inlineStr">
+      <c r="R37" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S37" s="132" t="n">
+      <c r="S37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="T37" s="104" t="n"/>
-      <c r="U37" s="104" t="n"/>
-      <c r="V37" s="104" t="n"/>
-      <c r="W37" s="104" t="n"/>
-      <c r="X37" s="114" t="n"/>
-      <c r="Y37" s="103" t="n">
+      <c r="X37" s="43" t="n"/>
+      <c r="Y37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Z37" s="104" t="n">
+      <c r="Z37" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AA37" s="104" t="n">
+      <c r="AA37" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AB37" s="105" t="n">
+      <c r="AB37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AC37" s="114" t="n"/>
-      <c r="AD37" s="103" t="n">
+      <c r="AC37" s="43" t="n"/>
+      <c r="AD37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AE37" s="104" t="n">
+      <c r="AE37" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AF37" s="104" t="n">
+      <c r="AF37" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AG37" s="105" t="n">
+      <c r="AG37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AH37" s="114" t="n"/>
-      <c r="AI37" s="103" t="n">
+      <c r="AH37" s="43" t="n"/>
+      <c r="AI37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AJ37" s="104" t="n">
+      <c r="AJ37" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AK37" s="104" t="n">
+      <c r="AK37" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AL37" s="105" t="n">
+      <c r="AL37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AM37" s="114" t="n"/>
-      <c r="AN37" s="103" t="n">
+      <c r="AM37" s="43" t="n"/>
+      <c r="AN37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AO37" s="104" t="n">
+      <c r="AO37" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AP37" s="104" t="n">
+      <c r="AP37" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AQ37" s="105" t="n">
+      <c r="AQ37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AR37" s="114" t="n"/>
-      <c r="AS37" s="103" t="n">
+      <c r="AR37" s="43" t="n"/>
+      <c r="AS37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AT37" s="104" t="n">
+      <c r="AT37" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AU37" s="104" t="n">
+      <c r="AU37" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AV37" s="105" t="n">
+      <c r="AV37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AW37" s="114" t="n"/>
-      <c r="AX37" s="103" t="n">
+      <c r="AW37" s="43" t="n"/>
+      <c r="AX37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AY37" s="104" t="n">
+      <c r="AY37" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AZ37" s="104" t="n">
+      <c r="AZ37" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BA37" s="105" t="n">
+      <c r="BA37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BB37" s="114" t="n"/>
-      <c r="BC37" s="103" t="n">
+      <c r="BB37" s="43" t="n"/>
+      <c r="BC37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BD37" s="104" t="n">
+      <c r="BD37" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BE37" s="104" t="n">
+      <c r="BE37" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BF37" s="105" t="n">
+      <c r="BF37" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BG37" s="114" t="n"/>
-      <c r="BH37" s="103" t="n">
+      <c r="BG37" s="43" t="n"/>
+      <c r="BH37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BI37" s="104" t="n">
+      <c r="BI37" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BJ37" s="104" t="n">
+      <c r="BJ37" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BK37" s="105" t="n">
+      <c r="BK37" s="3" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" s="104" t="n"/>
-      <c r="E38" s="104" t="n"/>
-      <c r="F38" s="104" t="n"/>
-      <c r="G38" s="104" t="n"/>
-      <c r="H38" s="104" t="n"/>
-      <c r="I38" s="104" t="n"/>
-      <c r="J38" s="114" t="n"/>
-      <c r="K38" s="131" t="n">
+      <c r="J38" s="43" t="n"/>
+      <c r="K38" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="L38" s="104" t="n">
+      <c r="L38" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="M38" s="104" t="n">
+      <c r="M38" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="N38" s="132" t="n">
+      <c r="N38" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="O38" s="114" t="n"/>
-      <c r="P38" s="131" t="n">
+      <c r="O38" s="43" t="n"/>
+      <c r="P38" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Q38" s="103" t="inlineStr">
+      <c r="Q38" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R38" s="105" t="inlineStr">
+      <c r="R38" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S38" s="132" t="n">
+      <c r="S38" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="T38" s="104" t="n"/>
-      <c r="U38" s="104" t="n"/>
-      <c r="V38" s="104" t="n"/>
-      <c r="W38" s="104" t="n"/>
-      <c r="X38" s="114" t="n"/>
-      <c r="Y38" s="103" t="n">
+      <c r="X38" s="43" t="n"/>
+      <c r="Y38" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Z38" s="104" t="n">
+      <c r="Z38" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AA38" s="104" t="n">
+      <c r="AA38" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AB38" s="105" t="n">
+      <c r="AB38" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AC38" s="114" t="n"/>
-      <c r="AD38" s="103" t="n">
+      <c r="AC38" s="43" t="n"/>
+      <c r="AD38" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AE38" s="104" t="n">
+      <c r="AE38" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AF38" s="104" t="n">
+      <c r="AF38" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AG38" s="105" t="n">
+      <c r="AG38" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AH38" s="114" t="n"/>
-      <c r="AI38" s="103" t="n">
+      <c r="AH38" s="43" t="n"/>
+      <c r="AI38" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AJ38" s="104" t="n">
+      <c r="AJ38" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AK38" s="104" t="n">
+      <c r="AK38" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AL38" s="105" t="n">
+      <c r="AL38" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AM38" s="114" t="n"/>
-      <c r="AN38" s="103" t="n">
+      <c r="AM38" s="43" t="n"/>
+      <c r="AN38" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AO38" s="104" t="n">
+      <c r="AO38" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AP38" s="104" t="n">
+      <c r="AP38" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AQ38" s="105" t="n">
+      <c r="AQ38" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AR38" s="114" t="n"/>
-      <c r="AS38" s="103" t="n">
+      <c r="AR38" s="43" t="n"/>
+      <c r="AS38" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AT38" s="104" t="n">
+      <c r="AT38" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AU38" s="104" t="n">
+      <c r="AU38" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AV38" s="105" t="n">
+      <c r="AV38" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AW38" s="114" t="n"/>
-      <c r="AX38" s="103" t="n">
+      <c r="AW38" s="43" t="n"/>
+      <c r="AX38" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AY38" s="104" t="n">
+      <c r="AY38" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AZ38" s="104" t="n">
+      <c r="AZ38" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BA38" s="105" t="n">
+      <c r="BA38" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BB38" s="114" t="n"/>
-      <c r="BC38" s="103" t="n">
+      <c r="BB38" s="43" t="n"/>
+      <c r="BC38" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BD38" s="104" t="n">
+      <c r="BD38" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BE38" s="104" t="n">
+      <c r="BE38" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BF38" s="105" t="n">
+      <c r="BF38" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BG38" s="114" t="n"/>
-      <c r="BH38" s="103" t="n">
+      <c r="BG38" s="43" t="n"/>
+      <c r="BH38" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BI38" s="104" t="n">
+      <c r="BI38" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BJ38" s="104" t="n">
+      <c r="BJ38" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BK38" s="105" t="n">
+      <c r="BK38" s="3" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="D39" s="104" t="n"/>
-      <c r="E39" s="104" t="n"/>
-      <c r="F39" s="104" t="n"/>
-      <c r="G39" s="104" t="n"/>
-      <c r="H39" s="104" t="n"/>
-      <c r="I39" s="104" t="n"/>
-      <c r="J39" s="118" t="n"/>
-      <c r="K39" s="137" t="n">
+      <c r="J39" s="44" t="n"/>
+      <c r="K39" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="L39" s="120" t="n">
+      <c r="L39" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="M39" s="120" t="n">
+      <c r="M39" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="N39" s="138" t="n">
+      <c r="N39" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="O39" s="118" t="n"/>
-      <c r="P39" s="137" t="n">
+      <c r="O39" s="44" t="n"/>
+      <c r="P39" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="Q39" s="119" t="inlineStr">
+      <c r="Q39" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R39" s="121" t="inlineStr">
+      <c r="R39" s="6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S39" s="138" t="n">
+      <c r="S39" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="T39" s="104" t="n"/>
-      <c r="U39" s="104" t="n"/>
-      <c r="V39" s="104" t="n"/>
-      <c r="W39" s="104" t="n"/>
-      <c r="X39" s="118" t="n"/>
-      <c r="Y39" s="119" t="n">
+      <c r="X39" s="44" t="n"/>
+      <c r="Y39" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="Z39" s="120" t="n">
+      <c r="Z39" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AA39" s="120" t="n">
+      <c r="AA39" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AB39" s="121" t="n">
+      <c r="AB39" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AC39" s="118" t="n"/>
-      <c r="AD39" s="119" t="n">
+      <c r="AC39" s="44" t="n"/>
+      <c r="AD39" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AE39" s="120" t="n">
+      <c r="AE39" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AF39" s="120" t="n">
+      <c r="AF39" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AG39" s="121" t="n">
+      <c r="AG39" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AH39" s="118" t="n"/>
-      <c r="AI39" s="119" t="n">
+      <c r="AH39" s="44" t="n"/>
+      <c r="AI39" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AJ39" s="120" t="n">
+      <c r="AJ39" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AK39" s="120" t="n">
+      <c r="AK39" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AL39" s="121" t="n">
+      <c r="AL39" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AM39" s="118" t="n"/>
-      <c r="AN39" s="119" t="n">
+      <c r="AM39" s="44" t="n"/>
+      <c r="AN39" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AO39" s="120" t="n">
+      <c r="AO39" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AP39" s="120" t="n">
+      <c r="AP39" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AQ39" s="121" t="n">
+      <c r="AQ39" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AR39" s="118" t="n"/>
-      <c r="AS39" s="119" t="n">
+      <c r="AR39" s="44" t="n"/>
+      <c r="AS39" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AT39" s="120" t="n">
+      <c r="AT39" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AU39" s="120" t="n">
+      <c r="AU39" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AV39" s="121" t="n">
+      <c r="AV39" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AW39" s="118" t="n"/>
-      <c r="AX39" s="119" t="n">
+      <c r="AW39" s="44" t="n"/>
+      <c r="AX39" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AY39" s="120" t="n">
+      <c r="AY39" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AZ39" s="120" t="n">
+      <c r="AZ39" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BA39" s="121" t="n">
+      <c r="BA39" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="BB39" s="118" t="n"/>
-      <c r="BC39" s="119" t="n">
+      <c r="BB39" s="44" t="n"/>
+      <c r="BC39" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="BD39" s="120" t="n">
+      <c r="BD39" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="BE39" s="120" t="n">
+      <c r="BE39" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BF39" s="121" t="n">
+      <c r="BF39" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="BG39" s="118" t="n"/>
-      <c r="BH39" s="119" t="n">
+      <c r="BG39" s="44" t="n"/>
+      <c r="BH39" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="BI39" s="120" t="n">
+      <c r="BI39" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="BJ39" s="120" t="n">
+      <c r="BJ39" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="BK39" s="121" t="n">
+      <c r="BK39" s="6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="D40" s="104" t="n"/>
-      <c r="E40" s="104" t="n"/>
-      <c r="F40" s="104" t="n"/>
-      <c r="G40" s="104" t="n"/>
-      <c r="H40" s="104" t="n"/>
-      <c r="I40" s="104" t="n"/>
-      <c r="J40" s="128" t="n">
-        <v>6</v>
-      </c>
-      <c r="K40" s="131" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="104" t="n">
+      <c r="J40" s="97" t="n">
+        <v>6</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="M40" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" s="132" t="n">
-        <v>4</v>
-      </c>
-      <c r="O40" s="128" t="n">
-        <v>6</v>
-      </c>
-      <c r="P40" s="131" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="106" t="inlineStr">
+      <c r="M40" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" s="97" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R40" s="107" t="inlineStr">
+      <c r="R40" s="9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S40" s="132" t="n">
-        <v>4</v>
-      </c>
-      <c r="T40" s="104" t="n"/>
-      <c r="U40" s="104" t="n"/>
-      <c r="V40" s="104" t="n"/>
-      <c r="W40" s="104" t="n"/>
-      <c r="X40" s="129" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y40" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="104" t="n">
+      <c r="S40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="X40" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="AA40" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB40" s="132" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC40" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD40" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="108" t="n">
+      <c r="AA40" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC40" s="52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD40" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AF40" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG40" s="107" t="n">
+      <c r="AF40" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG40" s="9" t="n">
         <v>4</v>
       </c>
       <c r="AH40" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="AI40" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ40" s="108" t="n">
+      <c r="AI40" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AK40" s="108" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL40" s="107" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM40" s="62" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN40" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO40" s="104" t="n">
+      <c r="AK40" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL40" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM40" s="69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="AP40" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ40" s="105" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR40" s="62" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS40" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT40" s="104" t="n">
+      <c r="AP40" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR40" s="69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="AU40" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV40" s="105" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW40" s="62" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX40" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY40" s="104" t="n">
+      <c r="AU40" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW40" s="69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="AZ40" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA40" s="105" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB40" s="62" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC40" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD40" s="104" t="n">
+      <c r="AZ40" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB40" s="69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD40" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="BE40" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF40" s="105" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG40" s="62" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH40" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI40" s="104" t="n">
+      <c r="BE40" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG40" s="69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI40" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="BJ40" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK40" s="105" t="n">
+      <c r="BJ40" s="82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK40" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="41">
-      <c r="D41" s="104" t="n"/>
-      <c r="E41" s="104" t="n"/>
-      <c r="F41" s="104" t="n"/>
-      <c r="G41" s="104" t="n"/>
-      <c r="H41" s="104" t="n"/>
-      <c r="I41" s="104" t="n"/>
-      <c r="J41" s="114" t="n"/>
-      <c r="K41" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="L41" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="M41" s="104" t="n">
+      <c r="J41" s="43" t="n"/>
+      <c r="K41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L41" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="M41" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="N41" s="132" t="n">
+      <c r="N41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="O41" s="114" t="n"/>
-      <c r="P41" s="131" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="103" t="inlineStr">
+      <c r="O41" s="43" t="n"/>
+      <c r="P41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R41" s="105" t="inlineStr">
+      <c r="R41" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S41" s="132" t="n">
+      <c r="S41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="T41" s="104" t="n"/>
-      <c r="U41" s="104" t="n"/>
-      <c r="V41" s="104" t="n"/>
-      <c r="W41" s="104" t="n"/>
-      <c r="X41" s="114" t="n"/>
-      <c r="Y41" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA41" s="104" t="n">
+      <c r="X41" s="43" t="n"/>
+      <c r="Y41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA41" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AB41" s="105" t="n">
+      <c r="AB41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AC41" s="114" t="n"/>
-      <c r="AD41" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE41" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF41" s="104" t="n">
+      <c r="AC41" s="43" t="n"/>
+      <c r="AD41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF41" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AG41" s="105" t="n">
+      <c r="AG41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AH41" s="114" t="n"/>
-      <c r="AI41" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ41" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK41" s="104" t="n">
+      <c r="AH41" s="43" t="n"/>
+      <c r="AI41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK41" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AL41" s="105" t="n">
+      <c r="AL41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AM41" s="114" t="n"/>
-      <c r="AN41" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO41" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP41" s="104" t="n">
+      <c r="AM41" s="43" t="n"/>
+      <c r="AN41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO41" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP41" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AQ41" s="105" t="n">
+      <c r="AQ41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AR41" s="114" t="n"/>
-      <c r="AS41" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT41" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU41" s="104" t="n">
+      <c r="AR41" s="43" t="n"/>
+      <c r="AS41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT41" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU41" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="AV41" s="105" t="n">
+      <c r="AV41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="AW41" s="114" t="n"/>
-      <c r="AX41" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY41" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ41" s="104" t="n">
+      <c r="AW41" s="43" t="n"/>
+      <c r="AX41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY41" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ41" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BA41" s="105" t="n">
+      <c r="BA41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BB41" s="114" t="n"/>
-      <c r="BC41" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD41" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE41" s="104" t="n">
+      <c r="BB41" s="43" t="n"/>
+      <c r="BC41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD41" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE41" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BF41" s="105" t="n">
+      <c r="BF41" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="BG41" s="114" t="n"/>
-      <c r="BH41" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI41" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ41" s="104" t="n">
+      <c r="BG41" s="43" t="n"/>
+      <c r="BH41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI41" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ41" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="BK41" s="105" t="n">
+      <c r="BK41" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="42">
-      <c r="D42" s="104" t="n"/>
-      <c r="E42" s="104" t="n"/>
-      <c r="F42" s="104" t="n"/>
-      <c r="G42" s="104" t="n"/>
-      <c r="H42" s="104" t="n"/>
-      <c r="I42" s="104" t="n"/>
-      <c r="J42" s="114" t="n"/>
-      <c r="K42" s="131" t="n">
+      <c r="J42" s="43" t="n"/>
+      <c r="K42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="L42" s="104" t="n">
+      <c r="L42" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="M42" s="104" t="n">
+      <c r="M42" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="N42" s="132" t="n">
+      <c r="N42" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="O42" s="114" t="n"/>
-      <c r="P42" s="131" t="n">
+      <c r="O42" s="43" t="n"/>
+      <c r="P42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Q42" s="103" t="inlineStr">
+      <c r="Q42" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R42" s="105" t="inlineStr">
+      <c r="R42" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S42" s="132" t="n">
+      <c r="S42" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="T42" s="104" t="n"/>
-      <c r="U42" s="104" t="n"/>
-      <c r="V42" s="104" t="n"/>
-      <c r="W42" s="104" t="n"/>
-      <c r="X42" s="114" t="n"/>
-      <c r="Y42" s="103" t="n">
+      <c r="X42" s="43" t="n"/>
+      <c r="Y42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Z42" s="104" t="n">
+      <c r="Z42" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AA42" s="104" t="n">
+      <c r="AA42" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AB42" s="105" t="n">
+      <c r="AB42" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AC42" s="114" t="n"/>
-      <c r="AD42" s="103" t="n">
+      <c r="AC42" s="43" t="n"/>
+      <c r="AD42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AE42" s="104" t="n">
+      <c r="AE42" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AF42" s="104" t="n">
+      <c r="AF42" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AG42" s="105" t="n">
+      <c r="AG42" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AH42" s="114" t="n"/>
-      <c r="AI42" s="103" t="n">
+      <c r="AH42" s="43" t="n"/>
+      <c r="AI42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AJ42" s="104" t="n">
+      <c r="AJ42" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AK42" s="104" t="n">
+      <c r="AK42" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AL42" s="105" t="n">
+      <c r="AL42" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AM42" s="114" t="n"/>
-      <c r="AN42" s="103" t="n">
+      <c r="AM42" s="43" t="n"/>
+      <c r="AN42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AO42" s="104" t="n">
+      <c r="AO42" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AP42" s="104" t="n">
+      <c r="AP42" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AQ42" s="105" t="n">
+      <c r="AQ42" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AR42" s="114" t="n"/>
-      <c r="AS42" s="103" t="n">
+      <c r="AR42" s="43" t="n"/>
+      <c r="AS42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AT42" s="104" t="n">
+      <c r="AT42" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AU42" s="104" t="n">
+      <c r="AU42" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="AV42" s="105" t="n">
+      <c r="AV42" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AW42" s="114" t="n"/>
-      <c r="AX42" s="103" t="n">
+      <c r="AW42" s="43" t="n"/>
+      <c r="AX42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AY42" s="104" t="n">
+      <c r="AY42" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="AZ42" s="104" t="n">
+      <c r="AZ42" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BA42" s="105" t="n">
+      <c r="BA42" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BB42" s="114" t="n"/>
-      <c r="BC42" s="103" t="n">
+      <c r="BB42" s="43" t="n"/>
+      <c r="BC42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BD42" s="104" t="n">
+      <c r="BD42" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BE42" s="104" t="n">
+      <c r="BE42" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BF42" s="105" t="n">
+      <c r="BF42" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="BG42" s="114" t="n"/>
-      <c r="BH42" s="103" t="n">
+      <c r="BG42" s="43" t="n"/>
+      <c r="BH42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="BI42" s="104" t="n">
+      <c r="BI42" s="82" t="n">
         <v>10</v>
       </c>
-      <c r="BJ42" s="104" t="n">
+      <c r="BJ42" s="82" t="n">
         <v>11</v>
       </c>
-      <c r="BK42" s="105" t="n">
+      <c r="BK42" s="3" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="43">
-      <c r="D43" s="104" t="n"/>
-      <c r="E43" s="104" t="n"/>
-      <c r="F43" s="104" t="n"/>
-      <c r="G43" s="104" t="n"/>
-      <c r="H43" s="104" t="n"/>
-      <c r="I43" s="104" t="n"/>
-      <c r="J43" s="114" t="n"/>
-      <c r="K43" s="131" t="n">
+      <c r="J43" s="43" t="n"/>
+      <c r="K43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="L43" s="104" t="n">
+      <c r="L43" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="M43" s="104" t="n">
+      <c r="M43" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="N43" s="132" t="n">
+      <c r="N43" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="O43" s="114" t="n"/>
-      <c r="P43" s="131" t="n">
+      <c r="O43" s="43" t="n"/>
+      <c r="P43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Q43" s="103" t="inlineStr">
+      <c r="Q43" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R43" s="105" t="inlineStr">
+      <c r="R43" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S43" s="132" t="n">
+      <c r="S43" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="T43" s="104" t="n"/>
-      <c r="U43" s="104" t="n"/>
-      <c r="V43" s="104" t="n"/>
-      <c r="W43" s="104" t="n"/>
-      <c r="X43" s="114" t="n"/>
-      <c r="Y43" s="103" t="n">
+      <c r="X43" s="43" t="n"/>
+      <c r="Y43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Z43" s="104" t="n">
+      <c r="Z43" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AA43" s="104" t="n">
+      <c r="AA43" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AB43" s="105" t="n">
+      <c r="AB43" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AC43" s="114" t="n"/>
-      <c r="AD43" s="103" t="n">
+      <c r="AC43" s="43" t="n"/>
+      <c r="AD43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AE43" s="104" t="n">
+      <c r="AE43" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AF43" s="104" t="n">
+      <c r="AF43" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AG43" s="105" t="n">
+      <c r="AG43" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AH43" s="114" t="n"/>
-      <c r="AI43" s="103" t="n">
+      <c r="AH43" s="43" t="n"/>
+      <c r="AI43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AJ43" s="104" t="n">
+      <c r="AJ43" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AK43" s="104" t="n">
+      <c r="AK43" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AL43" s="105" t="n">
+      <c r="AL43" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AM43" s="114" t="n"/>
-      <c r="AN43" s="103" t="n">
+      <c r="AM43" s="43" t="n"/>
+      <c r="AN43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AO43" s="104" t="n">
+      <c r="AO43" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AP43" s="104" t="n">
+      <c r="AP43" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AQ43" s="105" t="n">
+      <c r="AQ43" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AR43" s="114" t="n"/>
-      <c r="AS43" s="103" t="n">
+      <c r="AR43" s="43" t="n"/>
+      <c r="AS43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AT43" s="104" t="n">
+      <c r="AT43" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AU43" s="104" t="n">
+      <c r="AU43" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="AV43" s="105" t="n">
+      <c r="AV43" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AW43" s="114" t="n"/>
-      <c r="AX43" s="103" t="n">
+      <c r="AW43" s="43" t="n"/>
+      <c r="AX43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AY43" s="104" t="n">
+      <c r="AY43" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="AZ43" s="104" t="n">
+      <c r="AZ43" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BA43" s="105" t="n">
+      <c r="BA43" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BB43" s="114" t="n"/>
-      <c r="BC43" s="103" t="n">
+      <c r="BB43" s="43" t="n"/>
+      <c r="BC43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BD43" s="104" t="n">
+      <c r="BD43" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BE43" s="104" t="n">
+      <c r="BE43" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BF43" s="105" t="n">
+      <c r="BF43" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="BG43" s="114" t="n"/>
-      <c r="BH43" s="103" t="n">
+      <c r="BG43" s="43" t="n"/>
+      <c r="BH43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="BI43" s="104" t="n">
+      <c r="BI43" s="82" t="n">
         <v>14</v>
       </c>
-      <c r="BJ43" s="104" t="n">
+      <c r="BJ43" s="82" t="n">
         <v>15</v>
       </c>
-      <c r="BK43" s="105" t="n">
+      <c r="BK43" s="3" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" thickBot="1">
-      <c r="D44" s="104" t="n"/>
-      <c r="E44" s="104" t="n"/>
-      <c r="F44" s="104" t="n"/>
-      <c r="G44" s="104" t="n"/>
-      <c r="H44" s="104" t="n"/>
-      <c r="I44" s="104" t="n"/>
-      <c r="J44" s="114" t="n"/>
-      <c r="K44" s="131" t="n">
+      <c r="J44" s="43" t="n"/>
+      <c r="K44" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="L44" s="104" t="n">
+      <c r="L44" s="82" t="n">
         <v>18</v>
       </c>
-      <c r="M44" s="104" t="n">
+      <c r="M44" s="82" t="n">
         <v>19</v>
       </c>
-      <c r="N44" s="132" t="n">
+      <c r="N44" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="O44" s="114" t="n"/>
-      <c r="P44" s="131" t="n">
+      <c r="O44" s="43" t="n"/>
+      <c r="P44" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="Q44" s="103" t="inlineStr">
+      <c r="Q44" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="R44" s="105" t="inlineStr">
+      <c r="R44" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="S44" s="132" t="n">
+      <c r="S44" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="T44" s="104" t="n"/>
-      <c r="U44" s="104" t="n"/>
-      <c r="V44" s="104" t="n"/>
-      <c r="W44" s="104" t="n"/>
-      <c r="X44" s="114" t="n"/>
-      <c r="Y44" s="131" t="n">
+      <c r="X44" s="43" t="n"/>
+      <c r="Y44" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="Z44" s="104" t="n">
+      <c r="Z44" s="82" t="n">
         <v>18</v>
       </c>
-      <c r="AA44" s="104" t="n">
+      <c r="AA44" s="82" t="n">
         <v>19</v>
       </c>
-      <c r="AB44" s="105" t="n">
+      <c r="AB44" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AC44" s="118" t="n"/>
-      <c r="AD44" s="119" t="n">
+      <c r="AC44" s="44" t="n"/>
+      <c r="AD44" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AE44" s="120" t="n">
+      <c r="AE44" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AF44" s="120" t="n">
+      <c r="AF44" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AG44" s="121" t="n">
+      <c r="AG44" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AH44" s="118" t="n"/>
-      <c r="AI44" s="119" t="n">
+      <c r="AH44" s="44" t="n"/>
+      <c r="AI44" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="AJ44" s="120" t="n">
+      <c r="AJ44" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="AK44" s="120" t="n">
+      <c r="AK44" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="AL44" s="121" t="n">
+      <c r="AL44" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="AM44" s="114" t="n"/>
-      <c r="AN44" s="103" t="n">
+      <c r="AM44" s="43" t="n"/>
+      <c r="AN44" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="AO44" s="104" t="n">
+      <c r="AO44" s="82" t="n">
         <v>18</v>
       </c>
-      <c r="AP44" s="104" t="n">
+      <c r="AP44" s="82" t="n">
         <v>19</v>
       </c>
-      <c r="AQ44" s="105" t="n">
+      <c r="AQ44" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AR44" s="114" t="n"/>
-      <c r="AS44" s="103" t="n">
+      <c r="AR44" s="43" t="n"/>
+      <c r="AS44" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="AT44" s="104" t="n">
+      <c r="AT44" s="82" t="n">
         <v>18</v>
       </c>
-      <c r="AU44" s="104" t="n">
+      <c r="AU44" s="82" t="n">
         <v>19</v>
       </c>
-      <c r="AV44" s="105" t="n">
+      <c r="AV44" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="AW44" s="114" t="n"/>
-      <c r="AX44" s="103" t="n">
+      <c r="AW44" s="43" t="n"/>
+      <c r="AX44" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="AY44" s="104" t="n">
+      <c r="AY44" s="82" t="n">
         <v>18</v>
       </c>
-      <c r="AZ44" s="104" t="n">
+      <c r="AZ44" s="82" t="n">
         <v>19</v>
       </c>
-      <c r="BA44" s="105" t="n">
+      <c r="BA44" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="BB44" s="114" t="n"/>
-      <c r="BC44" s="103" t="n">
+      <c r="BB44" s="43" t="n"/>
+      <c r="BC44" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="BD44" s="104" t="n">
+      <c r="BD44" s="82" t="n">
         <v>18</v>
       </c>
-      <c r="BE44" s="104" t="n">
+      <c r="BE44" s="82" t="n">
         <v>19</v>
       </c>
-      <c r="BF44" s="105" t="n">
+      <c r="BF44" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="BG44" s="114" t="n"/>
-      <c r="BH44" s="103" t="n">
+      <c r="BG44" s="43" t="n"/>
+      <c r="BH44" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="BI44" s="104" t="n">
+      <c r="BI44" s="82" t="n">
         <v>18</v>
       </c>
-      <c r="BJ44" s="104" t="n">
+      <c r="BJ44" s="82" t="n">
         <v>19</v>
       </c>
-      <c r="BK44" s="105" t="n">
+      <c r="BK44" s="3" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="45" ht="45" customHeight="1" thickBot="1">
-      <c r="A45" s="76" t="inlineStr">
+      <c r="A45" s="110" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
       </c>
-      <c r="B45" s="77" t="n"/>
+      <c r="B45" s="90" t="n"/>
       <c r="C45" s="15" t="n"/>
-      <c r="D45" s="63" t="inlineStr">
-        <is>
-          <t>Panel 02 was scrapped due to overbaking</t>
-        </is>
-      </c>
-      <c r="E45" s="50" t="n"/>
-      <c r="F45" s="16" t="n"/>
-      <c r="G45" s="16" t="n"/>
-      <c r="H45" s="16" t="n"/>
-      <c r="I45" s="17" t="n"/>
-      <c r="J45" s="17" t="n"/>
-      <c r="K45" s="17" t="n"/>
-      <c r="L45" s="70" t="inlineStr">
-        <is>
-          <t>All COPs kept in storage until we can drive them</t>
-        </is>
-      </c>
-      <c r="M45" s="50" t="n"/>
+      <c r="D45" s="15" t="n"/>
+      <c r="E45" s="15" t="n"/>
+      <c r="F45" s="15" t="n"/>
+      <c r="G45" s="15" t="n"/>
+      <c r="H45" s="15" t="n"/>
+      <c r="I45" s="16" t="n"/>
+      <c r="J45" s="16" t="n"/>
+      <c r="K45" s="16" t="n"/>
+      <c r="L45" s="16" t="n"/>
+      <c r="M45" s="16" t="n"/>
       <c r="N45" s="16" t="n"/>
       <c r="O45" s="16" t="n"/>
       <c r="P45" s="16" t="n"/>
-      <c r="Q45" s="92" t="inlineStr">
+      <c r="Q45" s="103" t="inlineStr">
         <is>
           <t xml:space="preserve">COP's cant be direct driven </t>
         </is>
       </c>
-      <c r="R45" s="55" t="n"/>
-      <c r="S45" s="26" t="n"/>
-      <c r="T45" s="27" t="n"/>
-      <c r="U45" s="27" t="n"/>
-      <c r="V45" s="27" t="n"/>
-      <c r="W45" s="27" t="n"/>
-      <c r="X45" s="27" t="n"/>
-      <c r="Y45" s="27" t="n"/>
-      <c r="Z45" s="27" t="n"/>
-      <c r="AA45" s="27" t="n"/>
-      <c r="AB45" s="27" t="n"/>
-      <c r="AC45" s="27" t="n"/>
-      <c r="AD45" s="27" t="n"/>
-      <c r="AE45" s="27" t="n"/>
-      <c r="AF45" s="27" t="n"/>
-      <c r="AG45" s="27" t="n"/>
-      <c r="AH45" s="27" t="n"/>
-      <c r="AI45" s="27" t="n"/>
-      <c r="AJ45" s="27" t="n"/>
-      <c r="AK45" s="27" t="n"/>
-      <c r="AL45" s="27" t="n"/>
-      <c r="AM45" s="27" t="n"/>
-      <c r="AN45" s="27" t="n"/>
-      <c r="AO45" s="27" t="n"/>
-      <c r="AP45" s="27" t="n"/>
-      <c r="AQ45" s="27" t="n"/>
-      <c r="AR45" s="27" t="n"/>
-      <c r="AS45" s="27" t="n"/>
-      <c r="AT45" s="27" t="n"/>
-      <c r="AU45" s="27" t="n"/>
-      <c r="AV45" s="27" t="n"/>
-      <c r="AW45" s="27" t="n"/>
-      <c r="AX45" s="27" t="n"/>
-      <c r="AY45" s="27" t="n"/>
-      <c r="AZ45" s="27" t="n"/>
-      <c r="BA45" s="27" t="n"/>
-      <c r="BB45" s="27" t="n"/>
-      <c r="BC45" s="27" t="n"/>
-      <c r="BD45" s="27" t="n"/>
-      <c r="BE45" s="27" t="n"/>
-      <c r="BF45" s="27" t="n"/>
-      <c r="BG45" s="27" t="n"/>
-      <c r="BH45" s="27" t="n"/>
-      <c r="BI45" s="27" t="n"/>
-      <c r="BJ45" s="27" t="n"/>
-      <c r="BK45" s="28" t="n"/>
-    </row>
-    <row r="46" ht="14.5" customHeight="1">
-      <c r="D46" s="64" t="n"/>
-      <c r="E46" s="117" t="n"/>
-      <c r="L46" s="64" t="n"/>
-      <c r="M46" s="117" t="n"/>
-    </row>
-    <row r="47" ht="15" customHeight="1" thickBot="1">
-      <c r="D47" s="51" t="n"/>
-      <c r="E47" s="122" t="n"/>
-      <c r="L47" s="51" t="n"/>
-      <c r="M47" s="122" t="n"/>
-    </row>
+      <c r="R45" s="60" t="n"/>
+      <c r="S45" s="25" t="n"/>
+      <c r="T45" s="26" t="n"/>
+      <c r="U45" s="26" t="n"/>
+      <c r="V45" s="26" t="n"/>
+      <c r="W45" s="26" t="n"/>
+      <c r="X45" s="26" t="n"/>
+      <c r="Y45" s="26" t="n"/>
+      <c r="Z45" s="26" t="n"/>
+      <c r="AA45" s="26" t="n"/>
+      <c r="AB45" s="26" t="n"/>
+      <c r="AC45" s="26" t="n"/>
+      <c r="AD45" s="26" t="n"/>
+      <c r="AE45" s="26" t="n"/>
+      <c r="AF45" s="26" t="n"/>
+      <c r="AG45" s="26" t="n"/>
+      <c r="AH45" s="26" t="n"/>
+      <c r="AI45" s="26" t="n"/>
+      <c r="AJ45" s="26" t="n"/>
+      <c r="AK45" s="26" t="n"/>
+      <c r="AL45" s="26" t="n"/>
+      <c r="AM45" s="26" t="n"/>
+      <c r="AN45" s="26" t="n"/>
+      <c r="AO45" s="26" t="n"/>
+      <c r="AP45" s="26" t="n"/>
+      <c r="AQ45" s="26" t="n"/>
+      <c r="AR45" s="26" t="n"/>
+      <c r="AS45" s="26" t="n"/>
+      <c r="AT45" s="26" t="n"/>
+      <c r="AU45" s="26" t="n"/>
+      <c r="AV45" s="26" t="n"/>
+      <c r="AW45" s="26" t="n"/>
+      <c r="AX45" s="26" t="n"/>
+      <c r="AY45" s="26" t="n"/>
+      <c r="AZ45" s="26" t="n"/>
+      <c r="BA45" s="26" t="n"/>
+      <c r="BB45" s="26" t="n"/>
+      <c r="BC45" s="26" t="n"/>
+      <c r="BD45" s="26" t="n"/>
+      <c r="BE45" s="26" t="n"/>
+      <c r="BF45" s="26" t="n"/>
+      <c r="BG45" s="26" t="n"/>
+      <c r="BH45" s="26" t="n"/>
+      <c r="BI45" s="26" t="n"/>
+      <c r="BJ45" s="26" t="n"/>
+      <c r="BK45" s="27" t="n"/>
+    </row>
+    <row r="46" ht="14.5" customHeight="1"/>
+    <row r="47" ht="15" customHeight="1"/>
     <row r="48" ht="14.5" customHeight="1">
       <c r="J48" s="14" t="n"/>
       <c r="K48" s="14" t="n"/>
@@ -7027,17 +6667,12 @@
     <row r="53">
       <c r="L53" s="14" t="n"/>
       <c r="M53" s="14" t="n"/>
-      <c r="U53" s="104" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="166">
+  <mergeCells count="164">
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="AH40:AH44"/>
-    <mergeCell ref="K14:N14"/>
     <mergeCell ref="AR7:AV7"/>
     <mergeCell ref="AM30:AM34"/>
     <mergeCell ref="F16:G16"/>
@@ -7050,27 +6685,25 @@
     <mergeCell ref="BB25:BB29"/>
     <mergeCell ref="D11:G12"/>
     <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="AI14:AL14"/>
     <mergeCell ref="J11:S12"/>
     <mergeCell ref="X35:X39"/>
     <mergeCell ref="AH8:AL8"/>
-    <mergeCell ref="AM9:BK10"/>
-    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="AW13:BA13"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="AS14:AV14"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="AM9:BK10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="AW40:AW44"/>
     <mergeCell ref="AM15:AM19"/>
     <mergeCell ref="X25:X29"/>
-    <mergeCell ref="D45:E47"/>
     <mergeCell ref="AR20:AR24"/>
     <mergeCell ref="AH25:AH29"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="AD14:AG14"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:G10"/>
-    <mergeCell ref="L45:M47"/>
     <mergeCell ref="O15:O19"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="BB15:BB19"/>
@@ -7093,11 +6726,11 @@
     <mergeCell ref="AR40:AR44"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="AW35:AW39"/>
-    <mergeCell ref="X15:X19"/>
-    <mergeCell ref="BB7:BF7"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="AM35:AM39"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="BB40:BB44"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="BB7:BF7"/>
     <mergeCell ref="AH15:AH19"/>
     <mergeCell ref="J9:S10"/>
     <mergeCell ref="J13:N13"/>
@@ -7143,7 +6776,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="AX14:BA14"/>
     <mergeCell ref="A11:C12"/>
-    <mergeCell ref="AM35:AM39"/>
     <mergeCell ref="AM25:AM29"/>
     <mergeCell ref="BG25:BG29"/>
     <mergeCell ref="T7:V7"/>
@@ -7182,6 +6814,7 @@
     <mergeCell ref="AC40:AC44"/>
     <mergeCell ref="P14:S14"/>
     <mergeCell ref="X9:AB10"/>
+    <mergeCell ref="X15:X19"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="AC8:AG8"/>
     <mergeCell ref="AR13:AV13"/>
@@ -7216,7 +6849,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -7226,39 +6859,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="36" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t xml:space="preserve">Batch </t>
         </is>
       </c>
-      <c r="B1" s="36" t="inlineStr">
+      <c r="B1" s="34" t="inlineStr">
         <is>
           <t xml:space="preserve">Panel </t>
         </is>
       </c>
-      <c r="C1" s="36" t="inlineStr">
+      <c r="C1" s="34" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="D1" s="36" t="inlineStr">
+      <c r="D1" s="34" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="E1" s="36" t="inlineStr">
+      <c r="E1" s="34" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B2" s="34" t="n">
+      <c r="B2" s="32" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
@@ -7266,104 +6894,39 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B3" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Working initially</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Use to develop test set up</t>
-        </is>
+      <c r="B3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B4" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="33" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Contacts delaminated during bonding</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Investigate M1 adhesion</t>
-        </is>
+      <c r="B4" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B5" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="n">
+      <c r="B5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Not switching</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Do FA</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="33" t="n">
+      <c r="B6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Switching. Ok with checkerboard but not with other pattern. Likely to be due to IGD leakages.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Create new holder to keep IGD in the dark. </t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B7" s="34" t="n">
+      <c r="B7" s="32" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
@@ -7371,12 +6934,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B8" s="34" t="n">
+      <c r="B8" s="32" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
@@ -7384,12 +6942,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B9" s="34" t="n">
+      <c r="B9" s="32" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
@@ -7397,30 +6950,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B10" s="34" t="n">
+      <c r="B10" s="32" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Not bonded, poor quality at DD</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B11" s="34" t="n">
+      <c r="B11" s="32" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
@@ -7428,12 +6966,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B12" s="35" t="n">
+      <c r="B12" s="33" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
@@ -7441,12 +6974,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B13" s="35" t="n">
+      <c r="B13" s="33" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
@@ -7454,12 +6982,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B14" s="35" t="n">
+      <c r="B14" s="33" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
@@ -7467,12 +6990,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B15" s="35" t="n">
+      <c r="B15" s="33" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
@@ -7480,12 +6998,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B16" s="35" t="n">
+      <c r="B16" s="33" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
@@ -7493,35 +7006,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B17" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" s="33" t="n">
+      <c r="B17" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
         <v>12</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Switching. Ok with checkerboard but not with other pattern. Likely to be due to IGD leakages.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Create new holder to keep IGD in the dark. </t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B18" s="35" t="n">
+      <c r="B18" s="33" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
@@ -7529,76 +7022,31 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B19" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" s="33" t="n">
+      <c r="B19" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
         <v>16</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Switching. Ok with checkerboard but not with other pattern. Likely to be due to IGD leakages.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Create new holder to keep IGD in the dark. </t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B20" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" s="33" t="n">
+      <c r="B20" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
         <v>17</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B21" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" s="33" t="n">
+      <c r="B21" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
         <v>20</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Switching. Ok with checkerboard but not with other pattern. Likely to be due to IGD leakages.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Create new holder to keep IGD in the dark. </t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B22" s="34" t="n">
+      <c r="B22" s="32" t="n">
         <v>4</v>
       </c>
       <c r="C22" t="n">
@@ -7606,12 +7054,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B23" s="34" t="n">
+      <c r="B23" s="32" t="n">
         <v>4</v>
       </c>
       <c r="C23" t="n">
@@ -7619,12 +7062,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B24" s="34" t="n">
+      <c r="B24" s="32" t="n">
         <v>4</v>
       </c>
       <c r="C24" t="n">
@@ -7632,12 +7070,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B25" s="34" t="n">
+      <c r="B25" s="32" t="n">
         <v>4</v>
       </c>
       <c r="C25" t="n">
@@ -7645,12 +7078,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B26" s="34" t="n">
+      <c r="B26" s="32" t="n">
         <v>4</v>
       </c>
       <c r="C26" t="n">
@@ -7658,12 +7086,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B27" s="34" t="n">
+      <c r="B27" s="32" t="n">
         <v>4</v>
       </c>
       <c r="C27" t="n">
@@ -7671,12 +7094,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B28" s="34" t="n">
+      <c r="B28" s="32" t="n">
         <v>4</v>
       </c>
       <c r="C28" t="n">
@@ -7684,12 +7102,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B29" s="34" t="n">
+      <c r="B29" s="32" t="n">
         <v>4</v>
       </c>
       <c r="C29" t="n">
@@ -7697,12 +7110,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B30" s="34" t="n">
+      <c r="B30" s="32" t="n">
         <v>4</v>
       </c>
       <c r="C30" t="n">
@@ -7710,12 +7118,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B31" s="34" t="n">
+      <c r="B31" s="32" t="n">
         <v>4</v>
       </c>
       <c r="C31" t="n">
@@ -7723,12 +7126,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B32" s="35" t="n">
+      <c r="B32" s="33" t="n">
         <v>5</v>
       </c>
       <c r="C32" t="n">
@@ -7736,12 +7134,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B33" s="35" t="n">
+      <c r="B33" s="33" t="n">
         <v>5</v>
       </c>
       <c r="C33" t="n">
@@ -7749,12 +7142,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B34" s="35" t="n">
+      <c r="B34" s="33" t="n">
         <v>5</v>
       </c>
       <c r="C34" t="n">
@@ -7762,12 +7150,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B35" s="35" t="n">
+      <c r="B35" s="33" t="n">
         <v>5</v>
       </c>
       <c r="C35" t="n">
@@ -7775,12 +7158,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B36" s="35" t="n">
+      <c r="B36" s="33" t="n">
         <v>5</v>
       </c>
       <c r="C36" t="n">
@@ -7788,12 +7166,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B37" s="35" t="n">
+      <c r="B37" s="33" t="n">
         <v>5</v>
       </c>
       <c r="C37" t="n">
@@ -7801,12 +7174,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B38" s="35" t="n">
+      <c r="B38" s="33" t="n">
         <v>5</v>
       </c>
       <c r="C38" t="n">
@@ -7814,12 +7182,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B39" s="35" t="n">
+      <c r="B39" s="33" t="n">
         <v>5</v>
       </c>
       <c r="C39" t="n">
@@ -7827,12 +7190,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B40" s="35" t="n">
+      <c r="B40" s="33" t="n">
         <v>5</v>
       </c>
       <c r="C40" t="n">
@@ -7840,12 +7198,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B41" s="35" t="n">
+      <c r="B41" s="33" t="n">
         <v>5</v>
       </c>
       <c r="C41" t="n">
@@ -7853,12 +7206,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B42" s="34" t="n">
+      <c r="B42" s="32" t="n">
         <v>6</v>
       </c>
       <c r="C42" t="n">
@@ -7866,12 +7214,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B43" s="34" t="n">
+      <c r="B43" s="32" t="n">
         <v>6</v>
       </c>
       <c r="C43" t="n">
@@ -7879,12 +7222,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B44" s="34" t="n">
+      <c r="B44" s="32" t="n">
         <v>6</v>
       </c>
       <c r="C44" t="n">
@@ -7892,12 +7230,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B45" s="34" t="n">
+      <c r="B45" s="32" t="n">
         <v>6</v>
       </c>
       <c r="C45" t="n">
@@ -7905,12 +7238,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B46" s="34" t="n">
+      <c r="B46" s="32" t="n">
         <v>6</v>
       </c>
       <c r="C46" t="n">
@@ -7918,12 +7246,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B47" s="34" t="n">
+      <c r="B47" s="32" t="n">
         <v>6</v>
       </c>
       <c r="C47" t="n">
@@ -7931,12 +7254,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B48" s="34" t="n">
+      <c r="B48" s="32" t="n">
         <v>6</v>
       </c>
       <c r="C48" t="n">
@@ -7944,12 +7262,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B49" s="34" t="n">
+      <c r="B49" s="32" t="n">
         <v>6</v>
       </c>
       <c r="C49" t="n">
@@ -7957,12 +7270,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B50" s="34" t="n">
+      <c r="B50" s="32" t="n">
         <v>6</v>
       </c>
       <c r="C50" t="n">
@@ -7970,12 +7278,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>R423</t>
-        </is>
-      </c>
-      <c r="B51" s="34" t="n">
+      <c r="B51" s="32" t="n">
         <v>6</v>
       </c>
       <c r="C51" t="n">
